--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0118b31cc2e490dc/UCEMA/Quant - Finanzas Cuantitativas/TP Final/GitHub/tp_quant_Git Desktop/tp_quant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1411" documentId="14_{36CB20EE-E6F5-4308-AA86-D680FEB8C88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0B4A0E64-EE63-4856-A59E-A76A526BA73D}"/>
+  <xr:revisionPtr revIDLastSave="1414" documentId="14_{36CB20EE-E6F5-4308-AA86-D680FEB8C88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CBF91DD-F4BE-4102-A1A7-B808330BA6BB}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{9C799078-5C8C-4CA2-A599-9589FA691B16}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="9" activeTab="17" xr2:uid="{9C799078-5C8C-4CA2-A599-9589FA691B16}"/>
   </bookViews>
   <sheets>
     <sheet name="PRICES Local Law" sheetId="5" r:id="rId1"/>
@@ -1721,7 +1721,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19E45488-C20A-4352-AC25-60FE42761139}">
   <dimension ref="A1:F762"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A745" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F762" sqref="F762"/>
     </sheetView>
@@ -23378,8 +23378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B261BC-4B0B-4A6E-B2C8-2F7B9BF72E1C}">
   <dimension ref="A1:AP30"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD11" sqref="AD11"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0118b31cc2e490dc/UCEMA/Quant - Finanzas Cuantitativas/TP Final/GitHub/tp_quant_Git Desktop/tp_quant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1414" documentId="14_{36CB20EE-E6F5-4308-AA86-D680FEB8C88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CBF91DD-F4BE-4102-A1A7-B808330BA6BB}"/>
+  <xr:revisionPtr revIDLastSave="1498" documentId="14_{36CB20EE-E6F5-4308-AA86-D680FEB8C88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C91923A-3E22-4A58-BF59-FE258251BE4D}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="9" activeTab="17" xr2:uid="{9C799078-5C8C-4CA2-A599-9589FA691B16}"/>
   </bookViews>
@@ -39,7 +39,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PRICES Local Law'!$A$1:$C$742</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Volume Foreign Law'!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Volume Local Law'!$A$1:$C$742</definedName>
-    <definedName name="solver_adj" localSheetId="17" hidden="1">FFant!$Y$13</definedName>
+    <definedName name="solver_adj" localSheetId="17" hidden="1">FFant!$AA$12</definedName>
     <definedName name="solver_cvg" localSheetId="17" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="17" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="17" hidden="1">1</definedName>
@@ -53,7 +53,7 @@
     <definedName name="solver_nod" localSheetId="17" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="17" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="17" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="17" hidden="1">FFant!$AC$30</definedName>
+    <definedName name="solver_opt" localSheetId="17" hidden="1">FFant!$AA$16</definedName>
     <definedName name="solver_pre" localSheetId="17" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="17" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="17" hidden="1">2</definedName>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="67">
   <si>
     <t>Fecha Pago</t>
   </si>
@@ -266,9 +266,6 @@
     <t>PD2</t>
   </si>
   <si>
-    <t>Prob</t>
-  </si>
-  <si>
     <t>Dif Precio</t>
   </si>
   <si>
@@ -321,6 +318,15 @@
   </si>
   <si>
     <t>Maturity</t>
+  </si>
+  <si>
+    <t>VA Cupon x RR</t>
+  </si>
+  <si>
+    <t>Prob superv</t>
+  </si>
+  <si>
+    <t>Prob default</t>
   </si>
 </sst>
 </file>
@@ -1736,7 +1742,7 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
         <v>38</v>
@@ -1745,7 +1751,7 @@
         <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
         <v>41</v>
@@ -23376,19 +23382,20 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B261BC-4B0B-4A6E-B2C8-2F7B9BF72E1C}">
-  <dimension ref="A1:AP30"/>
+  <dimension ref="A1:AR30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
-    <col min="12" max="12" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.58984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -23414,34 +23421,40 @@
         <v>17</v>
       </c>
       <c r="J1" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="K1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L1" t="s">
         <v>18</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" t="s">
         <v>33</v>
       </c>
-      <c r="M1" t="s">
+      <c r="O1" t="s">
         <v>32</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
         <v>6</v>
       </c>
-      <c r="Y1" s="11">
+      <c r="AA1" s="11">
         <v>45188</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AD1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="20">
+      <c r="AE1" s="20">
         <v>0.3</v>
       </c>
-      <c r="AD1" s="20">
+      <c r="AF1" s="20">
         <v>0.38807522271149991</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.75">
       <c r="A2" s="3">
         <v>44386</v>
       </c>
@@ -23469,60 +23482,62 @@
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
-      <c r="X2" t="s">
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="Z2" t="s">
         <v>7</v>
       </c>
-      <c r="Y2" s="12">
+      <c r="AA2" s="12">
         <v>30.68</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>6</v>
       </c>
-      <c r="AC2" s="11">
-        <f t="array" ref="AC2:AP2">+TRANSPOSE(AA10:AA23)</f>
+      <c r="AE2" s="11">
+        <f t="array" ref="AE2:AR2">+TRANSPOSE(AC10:AC23)</f>
         <v>45300</v>
       </c>
-      <c r="AD2" s="11">
+      <c r="AF2" s="11">
         <v>45482</v>
       </c>
-      <c r="AE2" s="11">
+      <c r="AG2" s="11">
         <v>45666</v>
       </c>
-      <c r="AF2" s="11">
+      <c r="AH2" s="11">
         <v>45847</v>
       </c>
-      <c r="AG2" s="11">
+      <c r="AI2" s="11">
         <v>46031</v>
       </c>
-      <c r="AH2" s="11">
+      <c r="AJ2" s="11">
         <v>46212</v>
       </c>
-      <c r="AI2" s="11">
+      <c r="AK2" s="11">
         <v>46396</v>
       </c>
-      <c r="AJ2" s="11">
+      <c r="AL2" s="11">
         <v>46577</v>
       </c>
-      <c r="AK2" s="11">
+      <c r="AM2" s="11">
         <v>46761</v>
       </c>
-      <c r="AL2" s="11">
+      <c r="AN2" s="11">
         <v>46943</v>
       </c>
-      <c r="AM2" s="11">
+      <c r="AO2" s="11">
         <v>47127</v>
       </c>
-      <c r="AN2" s="11">
+      <c r="AP2" s="11">
         <v>47308</v>
       </c>
-      <c r="AO2" s="11">
+      <c r="AQ2" s="11">
         <v>47492</v>
       </c>
-      <c r="AP2" s="11">
+      <c r="AR2" s="11">
         <v>47673</v>
       </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.75">
       <c r="A3" s="1">
         <v>44570</v>
       </c>
@@ -23550,81 +23565,83 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
-      <c r="X3" t="s">
+      <c r="M3" s="9"/>
+      <c r="N3" s="9"/>
+      <c r="Z3" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" s="13">
+      <c r="AA3" s="13">
         <f>44.69%*0+4%</f>
         <v>0.04</v>
       </c>
-      <c r="Z3" s="26">
-        <f>+AA3-AC3</f>
+      <c r="AB3" s="26">
+        <f>+AC3-AE3</f>
         <v>1.9945161313136452</v>
       </c>
-      <c r="AA3">
+      <c r="AC3">
         <v>90.851096387317099</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AD3" t="s">
         <v>7</v>
       </c>
-      <c r="AC3" s="24">
-        <f>+SUMPRODUCT($AB$10:$AB$23,AC$10:AC$23)/10000</f>
+      <c r="AE3" s="24">
+        <f>+SUMPRODUCT($AD$10:$AD$23,AE$10:AE$23)/10000</f>
         <v>88.856580256003454</v>
       </c>
-      <c r="AD3" s="24">
-        <f t="shared" ref="AD3:AP3" si="2">+SUMPRODUCT($AB$10:$AB$23,AD$10:AD$23)/10000</f>
+      <c r="AF3" s="24">
+        <f t="shared" ref="AF3:AR3" si="2">+SUMPRODUCT($AD$10:$AD$23,AF$10:AF$23)/10000</f>
         <v>90.851096386455538</v>
       </c>
-      <c r="AE3" s="24">
+      <c r="AG3" s="24">
         <f t="shared" si="2"/>
         <v>88.705341827276925</v>
       </c>
-      <c r="AF3" s="9">
+      <c r="AH3" s="9">
         <f t="shared" si="2"/>
         <v>82.167696756590487</v>
       </c>
-      <c r="AG3" s="9">
+      <c r="AI3" s="9">
         <f t="shared" si="2"/>
         <v>75.419679917879463</v>
       </c>
-      <c r="AH3" s="9">
+      <c r="AJ3" s="9">
         <f t="shared" si="2"/>
         <v>68.503913026011645</v>
       </c>
-      <c r="AI3" s="9">
+      <c r="AK3" s="9">
         <f t="shared" si="2"/>
         <v>61.473792108162414</v>
       </c>
-      <c r="AJ3" s="9">
+      <c r="AL3" s="9">
         <f t="shared" si="2"/>
         <v>54.295549939296301</v>
       </c>
-      <c r="AK3" s="9">
+      <c r="AM3" s="9">
         <f t="shared" si="2"/>
         <v>47.019005748327928</v>
       </c>
-      <c r="AL3" s="9">
+      <c r="AN3" s="9">
         <f t="shared" si="2"/>
         <v>39.382131305578348</v>
       </c>
-      <c r="AM3" s="9">
+      <c r="AO3" s="9">
         <f t="shared" si="2"/>
         <v>31.685079457674856</v>
       </c>
-      <c r="AN3" s="9">
+      <c r="AP3" s="9">
         <f t="shared" si="2"/>
         <v>23.902807293328763</v>
       </c>
-      <c r="AO3" s="9">
+      <c r="AQ3" s="9">
         <f t="shared" si="2"/>
         <v>16.038339555722729</v>
       </c>
-      <c r="AP3" s="9">
+      <c r="AR3" s="9">
         <f t="shared" si="2"/>
         <v>8.07</v>
       </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.75">
       <c r="A4" s="3">
         <v>44751</v>
       </c>
@@ -23652,54 +23669,56 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
-      <c r="AB4" t="s">
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="AD4" t="s">
         <v>1</v>
       </c>
-      <c r="AC4">
-        <f t="array" ref="AC4:AP4">+TRANSPOSE(B7:B20)</f>
+      <c r="AE4">
+        <f t="array" ref="AE4:AR4">+TRANSPOSE(B7:B20)</f>
         <v>100</v>
       </c>
-      <c r="AD4">
+      <c r="AF4">
         <v>100</v>
       </c>
-      <c r="AE4">
+      <c r="AG4">
         <v>96</v>
       </c>
-      <c r="AF4">
+      <c r="AH4">
         <v>88</v>
       </c>
-      <c r="AG4">
+      <c r="AI4">
         <v>80</v>
       </c>
-      <c r="AH4">
+      <c r="AJ4">
         <v>72</v>
       </c>
-      <c r="AI4">
+      <c r="AK4">
         <v>64</v>
       </c>
-      <c r="AJ4">
+      <c r="AL4">
         <v>56</v>
       </c>
-      <c r="AK4">
+      <c r="AM4">
         <v>48</v>
       </c>
-      <c r="AL4">
+      <c r="AN4">
         <v>40</v>
       </c>
-      <c r="AM4">
+      <c r="AO4">
         <v>32</v>
       </c>
-      <c r="AN4">
+      <c r="AP4">
         <v>24</v>
       </c>
-      <c r="AO4">
+      <c r="AQ4">
         <v>16</v>
       </c>
-      <c r="AP4">
+      <c r="AR4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.75">
       <c r="A5" s="1">
         <v>44935</v>
       </c>
@@ -23727,74 +23746,76 @@
       <c r="J5" s="9"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
-      <c r="X5" t="s">
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="Z5" t="s">
         <v>19</v>
       </c>
-      <c r="Y5" s="15">
-        <f>+SUM(K7:K20)</f>
+      <c r="AA5" s="15">
+        <f>+SUM(L7:L20)</f>
         <v>874113.63501179824</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AD5" t="s">
         <v>27</v>
       </c>
-      <c r="AC5">
-        <f>+AC4*$AC$1</f>
+      <c r="AE5">
+        <f>+AE4*$AE$1</f>
         <v>30</v>
       </c>
-      <c r="AD5">
-        <f t="shared" ref="AD5:AP5" si="3">+AD4*$AC$1</f>
+      <c r="AF5">
+        <f t="shared" ref="AF5:AR5" si="3">+AF4*$AE$1</f>
         <v>30</v>
       </c>
-      <c r="AE5">
+      <c r="AG5">
         <f t="shared" si="3"/>
         <v>28.799999999999997</v>
       </c>
-      <c r="AF5">
+      <c r="AH5">
         <f t="shared" si="3"/>
         <v>26.4</v>
       </c>
-      <c r="AG5">
+      <c r="AI5">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="AH5">
+      <c r="AJ5">
         <f t="shared" si="3"/>
         <v>21.599999999999998</v>
       </c>
-      <c r="AI5">
+      <c r="AK5">
         <f t="shared" si="3"/>
         <v>19.2</v>
       </c>
-      <c r="AJ5">
+      <c r="AL5">
         <f t="shared" si="3"/>
         <v>16.8</v>
       </c>
-      <c r="AK5">
+      <c r="AM5">
         <f t="shared" si="3"/>
         <v>14.399999999999999</v>
       </c>
-      <c r="AL5">
+      <c r="AN5">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="AM5">
+      <c r="AO5">
         <f t="shared" si="3"/>
         <v>9.6</v>
       </c>
-      <c r="AN5">
+      <c r="AP5">
         <f t="shared" si="3"/>
         <v>7.1999999999999993</v>
       </c>
-      <c r="AO5">
+      <c r="AQ5">
         <f t="shared" si="3"/>
         <v>4.8</v>
       </c>
-      <c r="AP5">
+      <c r="AR5">
         <f t="shared" si="3"/>
         <v>2.4</v>
       </c>
     </row>
-    <row r="6" spans="1:42" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.75">
       <c r="A6" s="3">
         <v>45116</v>
       </c>
@@ -23822,78 +23843,80 @@
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
-      <c r="X6" t="s">
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="Z6" t="s">
         <v>20</v>
       </c>
-      <c r="Y6" s="12">
-        <f>+Y5/10000</f>
+      <c r="AA6" s="12">
+        <f>+AA5/10000</f>
         <v>87.411363501179821</v>
       </c>
-      <c r="AA6" s="22">
-        <f>+SUM(AC6:AP6)</f>
+      <c r="AC6" s="22">
+        <f>+SUM(AE6:AR6)</f>
         <v>529.17101357830882</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AD6" t="s">
         <v>28</v>
       </c>
-      <c r="AC6" s="19">
-        <f t="shared" ref="AC6:AP6" si="4">+AC3-AC5</f>
+      <c r="AE6" s="19">
+        <f t="shared" ref="AE6:AR6" si="4">+AE3-AE5</f>
         <v>58.856580256003454</v>
       </c>
-      <c r="AD6" s="19">
+      <c r="AF6" s="19">
         <f t="shared" si="4"/>
         <v>60.851096386455538</v>
       </c>
-      <c r="AE6" s="19">
+      <c r="AG6" s="19">
         <f t="shared" si="4"/>
         <v>59.905341827276928</v>
       </c>
-      <c r="AF6" s="19">
+      <c r="AH6" s="19">
         <f t="shared" si="4"/>
         <v>55.767696756590489</v>
       </c>
-      <c r="AG6" s="19">
+      <c r="AI6" s="19">
         <f t="shared" si="4"/>
         <v>51.419679917879463</v>
       </c>
-      <c r="AH6" s="19">
+      <c r="AJ6" s="19">
         <f t="shared" si="4"/>
         <v>46.903913026011651</v>
       </c>
-      <c r="AI6" s="19">
+      <c r="AK6" s="19">
         <f t="shared" si="4"/>
         <v>42.273792108162411</v>
       </c>
-      <c r="AJ6" s="19">
+      <c r="AL6" s="19">
         <f t="shared" si="4"/>
         <v>37.495549939296296</v>
       </c>
-      <c r="AK6" s="19">
+      <c r="AM6" s="19">
         <f t="shared" si="4"/>
         <v>32.619005748327929</v>
       </c>
-      <c r="AL6" s="19">
+      <c r="AN6" s="19">
         <f t="shared" si="4"/>
         <v>27.382131305578348</v>
       </c>
-      <c r="AM6" s="19">
+      <c r="AO6" s="19">
         <f t="shared" si="4"/>
         <v>22.085079457674858</v>
       </c>
-      <c r="AN6" s="19">
+      <c r="AP6" s="19">
         <f t="shared" si="4"/>
         <v>16.702807293328764</v>
       </c>
-      <c r="AO6" s="19">
+      <c r="AQ6" s="19">
         <f t="shared" si="4"/>
         <v>11.238339555722728</v>
       </c>
-      <c r="AP6" s="19">
+      <c r="AR6" s="19">
         <f t="shared" si="4"/>
         <v>5.67</v>
       </c>
     </row>
-    <row r="7" spans="1:42" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.75">
       <c r="A7" s="1">
         <v>45300</v>
       </c>
@@ -23918,96 +23941,108 @@
         <v>0.75</v>
       </c>
       <c r="H7" s="15">
-        <f>+A7-$Y$1</f>
+        <f>+A7-$AA$1</f>
         <v>112</v>
       </c>
       <c r="I7" s="9">
-        <f>+YEARFRAC($Y$1,A7,0)</f>
+        <f>+YEARFRAC($AA$1,A7,0)</f>
         <v>0.30555555555555558</v>
       </c>
       <c r="J7" s="21">
-        <f>+(1-$Y$12/2)</f>
-        <v>0.8600880144442713</v>
-      </c>
-      <c r="K7" s="9">
-        <f>+F7/(1+L7/100)^I7</f>
+        <f>+(1-$AA$12/2)</f>
+        <v>0.85289715874843397</v>
+      </c>
+      <c r="K7" s="21">
+        <f>1-J7</f>
+        <v>0.14710284125156603</v>
+      </c>
+      <c r="L7" s="9">
+        <f>+F7/(1+N7/100)^I7</f>
         <v>3688.7745908029106</v>
       </c>
-      <c r="L7" s="9">
+      <c r="M7" s="9">
+        <f>+L7*$AE$1</f>
+        <v>1106.6323772408732</v>
+      </c>
+      <c r="N7" s="9">
         <v>5.5351710299999999</v>
       </c>
-      <c r="M7" t="e">
-        <f>+(((1+L7/100)^(H7/365)/(1+$L$7/100)^($H$7/365))^(365/(H7-$H$7))-1)*100</f>
+      <c r="O7" t="e">
+        <f>+(((1+N7/100)^(H7/365)/(1+$N$7/100)^($H$7/365))^(365/(H7-$H$7))-1)*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X7" t="s">
+      <c r="R7">
+        <f>+(F7*J7+F7*$AE$1*K7)/10000</f>
+        <v>0.33638550417146396</v>
+      </c>
+      <c r="Z7" t="s">
         <v>21</v>
       </c>
-      <c r="Y7" s="12">
-        <f>+Y2-Y6</f>
+      <c r="AA7" s="12">
+        <f>+AA2-AA6</f>
         <v>-56.731363501179821</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AD7" t="s">
         <v>29</v>
       </c>
-      <c r="AC7" s="23">
-        <f>+(1+$L$7/100)^-YEARFRAC(AC$2,$Y$1)</f>
+      <c r="AE7" s="23">
+        <f>+(1+$N$7/100)^-YEARFRAC(AE$2,$AA$1)</f>
         <v>0.98367322421410941</v>
       </c>
-      <c r="AD7" s="23">
-        <f>+(1+$L$8/100)^-YEARFRAC(AD$2,$Y$1)</f>
+      <c r="AF7" s="23">
+        <f>+(1+$N$8/100)^-YEARFRAC(AF$2,$AA$1)</f>
         <v>0.95794707249450151</v>
       </c>
-      <c r="AE7" s="23">
-        <f>+(1+$L$9/100)^-YEARFRAC(AE$2,$Y$1)</f>
+      <c r="AG7" s="23">
+        <f>+(1+$N$9/100)^-YEARFRAC(AG$2,$AA$1)</f>
         <v>0.93407357792337098</v>
       </c>
-      <c r="AF7" s="23">
-        <f>+(1+$L$10/100)^-YEARFRAC(AF$2,$Y$1)</f>
+      <c r="AH7" s="23">
+        <f>+(1+$N$10/100)^-YEARFRAC(AH$2,$AA$1)</f>
         <v>0.91316131924595789</v>
       </c>
-      <c r="AG7" s="23">
-        <f>+(1+$L$11/100)^-YEARFRAC(AG$2,$Y$1)</f>
+      <c r="AI7" s="23">
+        <f>+(1+$N$11/100)^-YEARFRAC(AI$2,$AA$1)</f>
         <v>0.89418545573138519</v>
       </c>
-      <c r="AH7" s="23">
-        <f>+(1+$L$12/100)^-YEARFRAC(AH$2,$Y$1)</f>
+      <c r="AJ7" s="23">
+        <f>+(1+$N$12/100)^-YEARFRAC(AJ$2,$AA$1)</f>
         <v>0.87594242787053134</v>
       </c>
-      <c r="AI7" s="23">
-        <f>+(1+$L$13/100)^-YEARFRAC(AI$2,$Y$1)</f>
+      <c r="AK7" s="23">
+        <f>+(1+$N$13/100)^-YEARFRAC(AK$2,$AA$1)</f>
         <v>0.85843829963845064</v>
       </c>
-      <c r="AJ7" s="23">
-        <f>+(1+$L$14/100)^-YEARFRAC(AJ$2,$Y$1)</f>
+      <c r="AL7" s="23">
+        <f>+(1+$N$14/100)^-YEARFRAC(AL$2,$AA$1)</f>
         <v>0.84149175605565185</v>
       </c>
-      <c r="AK7" s="23">
-        <f>+(1+$L$15/100)^-YEARFRAC(AK$2,$Y$1)</f>
+      <c r="AM7" s="23">
+        <f>+(1+$N$15/100)^-YEARFRAC(AM$2,$AA$1)</f>
         <v>0.82493740269366544</v>
       </c>
-      <c r="AL7" s="23">
-        <f>+(1+$L$16/100)^-YEARFRAC(AL$2,$Y$1)</f>
+      <c r="AN7" s="23">
+        <f>+(1+$N$16/100)^-YEARFRAC(AN$2,$AA$1)</f>
         <v>0.80848278291590814</v>
       </c>
-      <c r="AM7" s="23">
-        <f>+(1+$L$17/100)^-YEARFRAC(AM$2,$Y$1)</f>
+      <c r="AO7" s="23">
+        <f>+(1+$N$17/100)^-YEARFRAC(AO$2,$AA$1)</f>
         <v>0.79196450639116922</v>
       </c>
-      <c r="AN7" s="23">
-        <f>+(1+$L$18/100)^-YEARFRAC(AN$2,$Y$1)</f>
+      <c r="AP7" s="23">
+        <f>+(1+$N$18/100)^-YEARFRAC(AP$2,$AA$1)</f>
         <v>0.77533308453965977</v>
       </c>
-      <c r="AO7" s="23">
-        <f>+(1+$L$19/100)^-YEARFRAC(AO$2,$Y$1)</f>
+      <c r="AQ7" s="23">
+        <f>+(1+$N$19/100)^-YEARFRAC(AQ$2,$AA$1)</f>
         <v>0.75876560315341157</v>
       </c>
-      <c r="AP7" s="23">
-        <f>+(1+$L$20/100)^-YEARFRAC(AP$2,$Y$1)</f>
+      <c r="AR7" s="23">
+        <f>+(1+$N$20/100)^-YEARFRAC(AR$2,$AA$1)</f>
         <v>0.7424919104329113</v>
       </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.75">
       <c r="A8" s="3">
         <v>45482</v>
       </c>
@@ -24032,34 +24067,40 @@
         <v>0.75</v>
       </c>
       <c r="H8" s="15">
-        <f t="shared" ref="H8:H20" si="6">+A8-$Y$1</f>
+        <f t="shared" ref="H8:H20" si="6">+A8-$AA$1</f>
         <v>294</v>
       </c>
       <c r="I8" s="9">
-        <f>+YEARFRAC($Y$1,A8,0)</f>
+        <f>+YEARFRAC($AA$1,A8,0)</f>
         <v>0.80555555555555558</v>
       </c>
       <c r="J8" s="21">
         <f>+$J$7*J7</f>
-        <v>0.73975139259068901</v>
-      </c>
-      <c r="K8" s="9">
-        <f t="shared" ref="K8:K20" si="7">+F8/(1+L8/100)^I8</f>
+        <v>0.7274335634011514</v>
+      </c>
+      <c r="K8" s="21">
+        <f>+J7*$K$7</f>
+        <v>0.1254635953472826</v>
+      </c>
+      <c r="L8" s="9">
+        <f t="shared" ref="L8:L20" si="7">+F8/(1+N8/100)^I8</f>
         <v>41910.18442163444</v>
       </c>
-      <c r="L8" s="9">
+      <c r="M8" s="9">
+        <f t="shared" ref="M8:M20" si="8">+L8*$AE$1</f>
+        <v>12573.055326490332</v>
+      </c>
+      <c r="N8" s="9">
         <v>5.4780901999999996</v>
       </c>
-      <c r="M8" s="24">
-        <f t="shared" ref="M8:M20" si="8">+(((1+L8/100)^(H8/365)/(1+$L$7/100)^($H$7/365))^(365/(H8-$H$7))-1)*100</f>
+      <c r="O8" s="24">
+        <f t="shared" ref="O8:O20" si="9">+(((1+N8/100)^(H8/365)/(1+$N$7/100)^($H$7/365))^(365/(H8-$H$7))-1)*100</f>
         <v>5.4429788817679459</v>
       </c>
-      <c r="N8" s="24" t="e">
-        <f>+(((1+L8/100)^(H8/365)/(1+$L$8/100)^($H$8/365))^(365/(H8-$H$8))-1)*100</f>
+      <c r="P8" s="24" t="e">
+        <f>+(((1+N8/100)^(H8/365)/(1+$N$8/100)^($H$8/365))^(365/(H8-$H$8))-1)*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="24"/>
-      <c r="P8" s="24"/>
       <c r="Q8" s="24"/>
       <c r="R8" s="24"/>
       <c r="S8" s="24"/>
@@ -24067,78 +24108,80 @@
       <c r="U8" s="24"/>
       <c r="V8" s="24"/>
       <c r="W8" s="24"/>
-      <c r="X8" t="s">
+      <c r="X8" s="24"/>
+      <c r="Y8" s="24"/>
+      <c r="Z8" t="s">
         <v>22</v>
       </c>
-      <c r="Y8" s="16">
-        <f>+Y7/Y2</f>
+      <c r="AA8" s="16">
+        <f>+AA7/AA2</f>
         <v>-1.8491317959967348</v>
       </c>
-      <c r="AA8" s="22">
-        <f>+SUM(AC8:AP8)</f>
+      <c r="AC8" s="22">
+        <f>+SUM(AE8:AR8)</f>
         <v>470.19882035455305</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AD8" t="s">
         <v>30</v>
       </c>
-      <c r="AC8" s="22">
-        <f>+AC7*AC6</f>
+      <c r="AE8" s="22">
+        <f>+AE7*AE6</f>
         <v>57.895642066639411</v>
       </c>
-      <c r="AD8" s="22">
-        <f t="shared" ref="AD8:AP8" si="9">+AD7*AD6</f>
+      <c r="AF8" s="22">
+        <f t="shared" ref="AF8:AR8" si="10">+AF7*AF6</f>
         <v>58.292129641485822</v>
       </c>
-      <c r="AE8" s="22">
-        <f t="shared" si="9"/>
+      <c r="AG8" s="22">
+        <f t="shared" si="10"/>
         <v>55.955996977327132</v>
       </c>
-      <c r="AF8" s="22">
-        <f t="shared" si="9"/>
+      <c r="AH8" s="22">
+        <f t="shared" si="10"/>
         <v>50.924903541556695</v>
       </c>
-      <c r="AG8" s="22">
-        <f t="shared" si="9"/>
+      <c r="AI8" s="22">
+        <f t="shared" si="10"/>
         <v>45.978729920931002</v>
       </c>
-      <c r="AH8" s="22">
-        <f t="shared" si="9"/>
+      <c r="AJ8" s="22">
+        <f t="shared" si="10"/>
         <v>41.085127452632882</v>
       </c>
-      <c r="AI8" s="22">
-        <f t="shared" si="9"/>
+      <c r="AK8" s="22">
+        <f t="shared" si="10"/>
         <v>36.289442216600293</v>
       </c>
-      <c r="AJ8" s="22">
-        <f t="shared" si="9"/>
+      <c r="AL8" s="22">
+        <f t="shared" si="10"/>
         <v>31.55219616269083</v>
       </c>
-      <c r="AK8" s="22">
-        <f t="shared" si="9"/>
+      <c r="AM8" s="22">
+        <f t="shared" si="10"/>
         <v>26.908637880475386</v>
       </c>
-      <c r="AL8" s="22">
-        <f t="shared" si="9"/>
+      <c r="AN8" s="22">
+        <f t="shared" si="10"/>
         <v>22.137981720102793</v>
       </c>
-      <c r="AM8" s="22">
-        <f t="shared" si="9"/>
+      <c r="AO8" s="22">
+        <f t="shared" si="10"/>
         <v>17.490599051307221</v>
       </c>
-      <c r="AN8" s="22">
-        <f t="shared" si="9"/>
+      <c r="AP8" s="22">
+        <f t="shared" si="10"/>
         <v>12.950239099208117</v>
       </c>
-      <c r="AO8" s="22">
-        <f t="shared" si="9"/>
+      <c r="AQ8" s="22">
+        <f t="shared" si="10"/>
         <v>8.527265491440799</v>
       </c>
-      <c r="AP8" s="22">
-        <f t="shared" si="9"/>
+      <c r="AR8" s="22">
+        <f t="shared" si="10"/>
         <v>4.2099291321546071</v>
       </c>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.75">
       <c r="A9" s="1">
         <v>45666</v>
       </c>
@@ -24155,7 +24198,7 @@
         <v>80000</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" ref="F9:F20" si="10">+E9+D9*10000</f>
+        <f t="shared" ref="F9:F20" si="11">+E9+D9*10000</f>
         <v>83600</v>
       </c>
       <c r="G9">
@@ -24167,51 +24210,59 @@
         <v>478</v>
       </c>
       <c r="I9" s="9">
-        <f t="shared" ref="I9:I20" si="11">+YEARFRAC($Y$1,A9,0)</f>
+        <f t="shared" ref="I9:I20" si="12">+YEARFRAC($AA$1,A9,0)</f>
         <v>1.3055555555555556</v>
       </c>
       <c r="J9" s="21">
-        <f t="shared" ref="J9:J20" si="12">+$J$7*J8</f>
-        <v>0.63625130643571037</v>
-      </c>
-      <c r="K9" s="9">
+        <f t="shared" ref="J9:J20" si="13">+$J$7*J8</f>
+        <v>0.62042601940309083</v>
+      </c>
+      <c r="K9" s="21">
+        <f t="shared" ref="K9:K20" si="14">+J8*$K$7</f>
+        <v>0.10700754399806056</v>
+      </c>
+      <c r="L9" s="9">
         <f t="shared" si="7"/>
         <v>78088.55111439382</v>
       </c>
-      <c r="L9" s="9">
+      <c r="M9" s="9">
+        <f t="shared" si="8"/>
+        <v>23426.565334318144</v>
+      </c>
+      <c r="N9" s="9">
         <v>5.3626843400000004</v>
       </c>
-      <c r="M9" s="24">
-        <f t="shared" si="8"/>
+      <c r="O9" s="24">
+        <f t="shared" si="9"/>
         <v>5.3099578826998561</v>
       </c>
-      <c r="N9" s="24">
-        <f t="shared" ref="N9:N20" si="13">+(((1+L9/100)^(H9/365)/(1+$L$8/100)^($H$8/365))^(365/(H9-$H$8))-1)*100</f>
+      <c r="P9" s="24">
+        <f t="shared" ref="P9:P20" si="15">+(((1+N9/100)^(H9/365)/(1+$N$8/100)^($H$8/365))^(365/(H9-$H$8))-1)*100</f>
         <v>5.1785478505568916</v>
       </c>
-      <c r="O9" s="24" t="e">
-        <f>+(((1+L9/100)^(H9/365)/(1+$L$9/100)^($H$9/365))^(365/(H9-$H$9))-1)*100</f>
+      <c r="Q9" s="24" t="e">
+        <f>+(((1+N9/100)^(H9/365)/(1+$N$9/100)^($H$9/365))^(365/(H9-$H$9))-1)*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="24"/>
       <c r="R9" s="24"/>
       <c r="S9" s="24"/>
       <c r="T9" s="24"/>
       <c r="U9" s="24"/>
       <c r="V9" s="24"/>
       <c r="W9" s="24"/>
-      <c r="AA9" t="s">
+      <c r="X9" s="24"/>
+      <c r="Y9" s="24"/>
+      <c r="AC9" t="s">
         <v>25</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AD9" t="s">
         <v>3</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AE9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:42" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.75">
       <c r="A10" s="3">
         <v>45847</v>
       </c>
@@ -24228,7 +24279,7 @@
         <v>80000</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>83300</v>
       </c>
       <c r="G10">
@@ -24240,65 +24291,73 @@
         <v>659</v>
       </c>
       <c r="I10" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1.8055555555555556</v>
       </c>
       <c r="J10" s="21">
-        <f t="shared" si="12"/>
-        <v>0.54723212283986378</v>
-      </c>
-      <c r="K10" s="9">
+        <f t="shared" si="13"/>
+        <v>0.52915958916249695</v>
+      </c>
+      <c r="K10" s="21">
+        <f t="shared" si="14"/>
+        <v>9.1266430240593902E-2</v>
+      </c>
+      <c r="L10" s="9">
         <f t="shared" si="7"/>
         <v>76066.337893188291</v>
       </c>
-      <c r="L10" s="9">
+      <c r="M10" s="9">
+        <f t="shared" si="8"/>
+        <v>22819.901367956485</v>
+      </c>
+      <c r="N10" s="9">
         <v>5.1600082699999996</v>
       </c>
-      <c r="M10" s="24">
-        <f t="shared" si="8"/>
+      <c r="O10" s="24">
+        <f t="shared" si="9"/>
         <v>5.0833571404693689</v>
       </c>
-      <c r="N10" s="24">
-        <f t="shared" si="13"/>
+      <c r="P10" s="24">
+        <f t="shared" si="15"/>
         <v>4.9044974294241594</v>
       </c>
-      <c r="O10" s="24">
-        <f t="shared" ref="O10:O20" si="14">+(((1+L10/100)^(H10/365)/(1+$L$9/100)^($H$9/365))^(365/(H10-$H$9))-1)*100</f>
+      <c r="Q10" s="24">
+        <f t="shared" ref="Q10:Q20" si="16">+(((1+N10/100)^(H10/365)/(1+$N$9/100)^($H$9/365))^(365/(H10-$H$9))-1)*100</f>
         <v>4.6266366349654975</v>
       </c>
-      <c r="P10" s="24" t="e">
-        <f>+(((1+L10/100)^(H10/365)/(1+$L$10/100)^($H$10/365))^(365/(H10-$H$10))-1)*100</f>
+      <c r="R10" s="24" t="e">
+        <f>+(((1+N10/100)^(H10/365)/(1+$N$10/100)^($H$10/365))^(365/(H10-$H$10))-1)*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="24"/>
       <c r="S10" s="24"/>
       <c r="T10" s="24"/>
       <c r="U10" s="24"/>
       <c r="V10" s="24"/>
       <c r="W10" s="24"/>
-      <c r="X10" t="s">
+      <c r="X10" s="24"/>
+      <c r="Y10" s="24"/>
+      <c r="Z10" t="s">
         <v>24</v>
       </c>
-      <c r="Y10" s="12">
-        <f>+Y6-Y2</f>
+      <c r="AA10" s="12">
+        <f>+AA6-AA2</f>
         <v>56.731363501179821</v>
       </c>
-      <c r="AA10" s="11">
-        <f t="shared" ref="AA10:AA23" si="15">+A7</f>
+      <c r="AC10" s="11">
+        <f t="shared" ref="AC10:AC23" si="17">+A7</f>
         <v>45300</v>
       </c>
-      <c r="AB10" s="15">
-        <f t="shared" ref="AB10:AB23" si="16">+F7</f>
+      <c r="AD10" s="15">
+        <f t="shared" ref="AD10:AD23" si="18">+F7</f>
         <v>3750</v>
       </c>
-      <c r="AC10" s="13">
-        <f>+(1+$Y$3)^-YEARFRAC($AA10,$AA$10)</f>
+      <c r="AE10" s="13">
+        <f>+(1+$AA$3)^-YEARFRAC($AC10,$AC$10)</f>
         <v>1</v>
       </c>
-      <c r="AD10" s="13"/>
-    </row>
-    <row r="11" spans="1:42" x14ac:dyDescent="0.75">
+      <c r="AF10" s="13"/>
+    </row>
+    <row r="11" spans="1:44" x14ac:dyDescent="0.75">
       <c r="A11" s="1">
         <v>46031</v>
       </c>
@@ -24315,7 +24374,7 @@
         <v>80000</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>83000</v>
       </c>
       <c r="G11">
@@ -24327,71 +24386,79 @@
         <v>843</v>
       </c>
       <c r="I11" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.3055555555555554</v>
       </c>
       <c r="J11" s="21">
-        <f t="shared" si="12"/>
-        <v>0.47066778997346198</v>
-      </c>
-      <c r="K11" s="9">
+        <f t="shared" si="13"/>
+        <v>0.45131871012118224</v>
+      </c>
+      <c r="K11" s="21">
+        <f t="shared" si="14"/>
+        <v>7.7840879041314689E-2</v>
+      </c>
+      <c r="L11" s="9">
         <f t="shared" si="7"/>
         <v>74217.39282570497</v>
       </c>
-      <c r="L11" s="9">
+      <c r="M11" s="9">
+        <f t="shared" si="8"/>
+        <v>22265.21784771149</v>
+      </c>
+      <c r="N11" s="9">
         <v>4.9705677799999997</v>
       </c>
-      <c r="M11" s="24">
-        <f t="shared" si="8"/>
+      <c r="O11" s="24">
+        <f t="shared" si="9"/>
         <v>4.8843294764046252</v>
       </c>
-      <c r="N11" s="24">
-        <f t="shared" si="13"/>
+      <c r="P11" s="24">
+        <f t="shared" si="15"/>
         <v>4.699784600691026</v>
       </c>
-      <c r="O11" s="24">
-        <f t="shared" si="14"/>
+      <c r="Q11" s="24">
+        <f t="shared" si="16"/>
         <v>4.4592622852936969</v>
       </c>
-      <c r="P11" s="24">
-        <f t="shared" ref="P11:P20" si="17">+(((1+L11/100)^(H11/365)/(1+$L$10/100)^($H$10/365))^(365/(H11-$H$10))-1)*100</f>
+      <c r="R11" s="24">
+        <f t="shared" ref="R11:R20" si="19">+(((1+N11/100)^(H11/365)/(1+$N$10/100)^($H$10/365))^(365/(H11-$H$10))-1)*100</f>
         <v>4.2948781085087262</v>
       </c>
-      <c r="Q11" s="24" t="e">
-        <f>+(((1+L11/100)^(H11/365)/(1+$L$11/100)^($H$11/365))^(365/(H11-$H$11))-1)*100</f>
+      <c r="S11" s="24" t="e">
+        <f>+(((1+N11/100)^(H11/365)/(1+$N$11/100)^($H$11/365))^(365/(H11-$H$11))-1)*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R11" s="24"/>
-      <c r="S11" s="24"/>
       <c r="T11" s="24"/>
       <c r="U11" s="24"/>
       <c r="V11" s="24"/>
       <c r="W11" s="24"/>
-      <c r="X11" t="s">
+      <c r="X11" s="24"/>
+      <c r="Y11" s="24"/>
+      <c r="Z11" t="s">
         <v>31</v>
       </c>
-      <c r="Y11" s="27">
-        <f>+Y10/SUM(AC8:AP8)*2</f>
+      <c r="AA11" s="27">
+        <f>+AA10/SUM(AE8:AR8)*2</f>
         <v>0.24130797886052366</v>
       </c>
-      <c r="AA11" s="11">
-        <f t="shared" si="15"/>
+      <c r="AC11" s="11">
+        <f t="shared" si="17"/>
         <v>45482</v>
       </c>
-      <c r="AB11" s="15">
-        <f t="shared" si="16"/>
+      <c r="AD11" s="15">
+        <f t="shared" si="18"/>
         <v>43750</v>
       </c>
-      <c r="AC11" s="25">
-        <f t="shared" ref="AC11:AC23" si="18">+(1+M8/100)^-((H8-$H$7)/365)</f>
+      <c r="AE11" s="25">
+        <f t="shared" ref="AE11:AE23" si="20">+(1+O8/100)^-((H8-$H$7)/365)</f>
         <v>0.97391868425700878</v>
       </c>
-      <c r="AD11" s="13">
-        <f>+(1+$Y$3)^-YEARFRAC($AA11,$AA$11)</f>
+      <c r="AF11" s="13">
+        <f>+(1+$AA$3)^-YEARFRAC($AC11,$AC$11)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:42" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.75">
       <c r="A12" s="3">
         <v>46212</v>
       </c>
@@ -24408,7 +24475,7 @@
         <v>80000</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>82700</v>
       </c>
       <c r="G12">
@@ -24420,77 +24487,87 @@
         <v>1024</v>
       </c>
       <c r="I12" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.8055555555555554</v>
       </c>
       <c r="J12" s="21">
-        <f t="shared" si="12"/>
-        <v>0.4048157249411482</v>
-      </c>
-      <c r="K12" s="9">
+        <f t="shared" si="13"/>
+        <v>0.38492844555236444</v>
+      </c>
+      <c r="K12" s="21">
+        <f t="shared" si="14"/>
+        <v>6.6390264568817817E-2</v>
+      </c>
+      <c r="L12" s="9">
         <f t="shared" si="7"/>
         <v>72440.438784892947</v>
       </c>
-      <c r="L12" s="9">
+      <c r="M12" s="9">
+        <f t="shared" si="8"/>
+        <v>21732.131635467882</v>
+      </c>
+      <c r="N12" s="9">
         <v>4.8343869399999999</v>
       </c>
-      <c r="M12" s="24">
-        <f t="shared" si="8"/>
+      <c r="O12" s="24">
+        <f t="shared" si="9"/>
         <v>4.7486471868301461</v>
       </c>
-      <c r="N12" s="24">
-        <f t="shared" si="13"/>
+      <c r="P12" s="24">
+        <f t="shared" si="15"/>
         <v>4.5762530533879575</v>
       </c>
-      <c r="O12" s="24">
-        <f t="shared" si="14"/>
+      <c r="Q12" s="24">
+        <f t="shared" si="16"/>
         <v>4.3740598904487893</v>
       </c>
-      <c r="P12" s="24">
-        <f t="shared" si="17"/>
+      <c r="R12" s="24">
+        <f t="shared" si="19"/>
         <v>4.2490357483834007</v>
       </c>
-      <c r="Q12" s="24">
-        <f t="shared" ref="Q12:Q20" si="19">+(((1+L12/100)^(H12/365)/(1+$L$11/100)^($H$11/365))^(365/(H12-$H$11))-1)*100</f>
+      <c r="S12" s="24">
+        <f t="shared" ref="S12:S20" si="21">+(((1+N12/100)^(H12/365)/(1+$N$11/100)^($H$11/365))^(365/(H12-$H$11))-1)*100</f>
         <v>4.2024542236241746</v>
       </c>
-      <c r="R12" s="24" t="e">
-        <f>+(((1+L12/100)^(H12/365)/(1+$L$12/100)^($H$12/365))^(365/(H12-$H$12))-1)*100</f>
+      <c r="T12" s="24" t="e">
+        <f>+(((1+N12/100)^(H12/365)/(1+$N$12/100)^($H$12/365))^(365/(H12-$H$12))-1)*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
       <c r="U12" s="24"/>
       <c r="V12" s="24"/>
       <c r="W12" s="24"/>
-      <c r="X12" t="s">
+      <c r="X12" s="24"/>
+      <c r="Y12" s="9">
+        <v>0.29420568250313217</v>
+      </c>
+      <c r="Z12" t="s">
         <v>45</v>
       </c>
-      <c r="Y12" s="13">
-        <v>0.27982397111145751</v>
-      </c>
-      <c r="AA12" s="11">
-        <f t="shared" si="15"/>
+      <c r="AA12" s="13">
+        <v>0.29420568250313217</v>
+      </c>
+      <c r="AC12" s="11">
+        <f t="shared" si="17"/>
         <v>45666</v>
       </c>
-      <c r="AB12" s="15">
-        <f t="shared" si="16"/>
+      <c r="AD12" s="15">
+        <f t="shared" si="18"/>
         <v>83600</v>
       </c>
-      <c r="AC12" s="25">
-        <f t="shared" si="18"/>
+      <c r="AE12" s="25">
+        <f t="shared" si="20"/>
         <v>0.94944322717756691</v>
       </c>
-      <c r="AD12" s="25">
-        <f t="shared" ref="AD12:AD23" si="20">+(1+N9/100)^-((H9-$H$8)/365)</f>
+      <c r="AF12" s="25">
+        <f t="shared" ref="AF12:AF23" si="22">+(1+P9/100)^-((H9-$H$8)/365)</f>
         <v>0.97486909587517168</v>
       </c>
-      <c r="AE12" s="13">
-        <f>+(1+$Y$3)^-YEARFRAC($AA12,$AA$12)</f>
+      <c r="AG12" s="13">
+        <f>+(1+$AA$3)^-YEARFRAC($AC12,$AC$12)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:42" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.75">
       <c r="A13" s="1">
         <v>46396</v>
       </c>
@@ -24507,7 +24584,7 @@
         <v>80000</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>82400</v>
       </c>
       <c r="G13">
@@ -24519,84 +24596,92 @@
         <v>1208</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.3055555555555554</v>
       </c>
       <c r="J13" s="21">
-        <f t="shared" si="12"/>
-        <v>0.34817715308045044</v>
-      </c>
-      <c r="K13" s="9">
+        <f t="shared" si="13"/>
+        <v>0.32830437753306291</v>
+      </c>
+      <c r="K13" s="21">
+        <f t="shared" si="14"/>
+        <v>5.6624068019301546E-2</v>
+      </c>
+      <c r="L13" s="9">
         <f t="shared" si="7"/>
         <v>70735.315890208323</v>
       </c>
-      <c r="L13" s="9">
+      <c r="M13" s="9">
+        <f t="shared" si="8"/>
+        <v>21220.594767062496</v>
+      </c>
+      <c r="N13" s="9">
         <v>4.7259706399999999</v>
       </c>
-      <c r="M13" s="24">
-        <f t="shared" si="8"/>
+      <c r="O13" s="24">
+        <f t="shared" si="9"/>
         <v>4.643628854920534</v>
       </c>
-      <c r="N13" s="24">
-        <f t="shared" si="13"/>
+      <c r="P13" s="24">
+        <f t="shared" si="15"/>
         <v>4.4851834308631044</v>
       </c>
-      <c r="O13" s="24">
-        <f t="shared" si="14"/>
+      <c r="Q13" s="24">
+        <f t="shared" si="16"/>
         <v>4.3111400407220835</v>
       </c>
-      <c r="P13" s="24">
-        <f t="shared" si="17"/>
+      <c r="R13" s="24">
+        <f t="shared" si="19"/>
         <v>4.207332532597996</v>
       </c>
-      <c r="Q13" s="24">
-        <f t="shared" si="19"/>
+      <c r="S13" s="24">
+        <f t="shared" si="21"/>
         <v>4.1632278320903771</v>
       </c>
-      <c r="R13" s="24">
-        <f t="shared" ref="R13:R20" si="21">+(((1+L13/100)^(H13/365)/(1+$L$12/100)^($H$12/365))^(365/(H13-$H$12))-1)*100</f>
+      <c r="T13" s="24">
+        <f t="shared" ref="T13:T20" si="23">+(((1+N13/100)^(H13/365)/(1+$N$12/100)^($H$12/365))^(365/(H13-$H$12))-1)*100</f>
         <v>4.1246554086828757</v>
       </c>
-      <c r="S13" s="24" t="e">
-        <f>+(((1+L13/100)^(H13/365)/(1+$L$13/100)^($H$13/365))^(365/(H13-$H$13))-1)*100</f>
+      <c r="U13" s="24" t="e">
+        <f>+(((1+N13/100)^(H13/365)/(1+$N$13/100)^($H$13/365))^(365/(H13-$H$13))-1)*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T13" s="24"/>
-      <c r="U13" s="24"/>
       <c r="V13" s="24"/>
       <c r="W13" s="24"/>
-      <c r="X13" t="s">
-        <v>49</v>
-      </c>
-      <c r="Y13" s="20">
+      <c r="X13" s="24"/>
+      <c r="Y13" s="24"/>
+      <c r="Z13" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA13" s="20">
         <v>1.7664116049495957</v>
       </c>
-      <c r="AA13" s="11">
-        <f t="shared" si="15"/>
+      <c r="AC13" s="11">
+        <f t="shared" si="17"/>
         <v>45847</v>
       </c>
-      <c r="AB13" s="15">
-        <f t="shared" si="16"/>
+      <c r="AD13" s="15">
+        <f t="shared" si="18"/>
         <v>83300</v>
       </c>
-      <c r="AC13" s="25">
-        <f t="shared" si="18"/>
+      <c r="AE13" s="25">
+        <f t="shared" si="20"/>
         <v>0.92838601596869119</v>
       </c>
-      <c r="AD13" s="25">
-        <f t="shared" si="20"/>
+      <c r="AF13" s="25">
+        <f t="shared" si="22"/>
         <v>0.95324797744993039</v>
       </c>
-      <c r="AE13" s="25">
-        <f>+(1+O10/100)^-((H10-$H$9)/365)</f>
+      <c r="AG13" s="25">
+        <f>+(1+Q10/100)^-((H10-$H$9)/365)</f>
         <v>0.97782151622538471</v>
       </c>
-      <c r="AF13" s="13">
-        <f t="shared" ref="AF13" si="22">+(1+$Y$3)^-YEARFRAC($AA13,$AA$13)</f>
+      <c r="AH13" s="13">
+        <f t="shared" ref="AH13" si="24">+(1+$AA$3)^-YEARFRAC($AC13,$AC$13)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:42" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.75">
       <c r="A14" s="3">
         <v>46577</v>
       </c>
@@ -24613,7 +24698,7 @@
         <v>80000</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>82100</v>
       </c>
       <c r="G14">
@@ -24625,92 +24710,100 @@
         <v>1389</v>
       </c>
       <c r="I14" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3.8055555555555554</v>
       </c>
       <c r="J14" s="21">
-        <f t="shared" si="12"/>
-        <v>0.29946299626782374</v>
-      </c>
-      <c r="K14" s="9">
+        <f t="shared" si="13"/>
+        <v>0.28000987080262257</v>
+      </c>
+      <c r="K14" s="21">
+        <f t="shared" si="14"/>
+        <v>4.8294506730440355E-2</v>
+      </c>
+      <c r="L14" s="9">
         <f t="shared" si="7"/>
         <v>69086.473172169019</v>
       </c>
-      <c r="L14" s="9">
+      <c r="M14" s="9">
+        <f t="shared" si="8"/>
+        <v>20725.941951650704</v>
+      </c>
+      <c r="N14" s="9">
         <v>4.6393241200000004</v>
       </c>
-      <c r="M14" s="24">
-        <f t="shared" si="8"/>
+      <c r="O14" s="24">
+        <f t="shared" si="9"/>
         <v>4.561117031462425</v>
       </c>
-      <c r="N14" s="24">
-        <f t="shared" si="13"/>
+      <c r="P14" s="24">
+        <f t="shared" si="15"/>
         <v>4.4152592058345652</v>
       </c>
-      <c r="O14" s="24">
-        <f t="shared" si="14"/>
+      <c r="Q14" s="24">
+        <f t="shared" si="16"/>
         <v>4.261767016018303</v>
       </c>
-      <c r="P14" s="24">
+      <c r="R14" s="24">
+        <f t="shared" si="19"/>
+        <v>4.1714963743308742</v>
+      </c>
+      <c r="S14" s="24">
+        <f t="shared" si="21"/>
+        <v>4.1299500729113925</v>
+      </c>
+      <c r="T14" s="24">
+        <f t="shared" si="23"/>
+        <v>4.094014673277302</v>
+      </c>
+      <c r="U14" s="24">
+        <f t="shared" ref="U14:U20" si="25">+(((1+N14/100)^(H14/365)/(1+$N$13/100)^($H$13/365))^(365/(H14-$H$13))-1)*100</f>
+        <v>4.0628753224142278</v>
+      </c>
+      <c r="V14" s="24" t="e">
+        <f>+(((1+N14/100)^(H14/365)/(1+$N$14/100)^($H$14/365))^(365/(H14-$H$14))-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W14" s="24"/>
+      <c r="X14" s="24"/>
+      <c r="Y14" s="24"/>
+      <c r="Z14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AA14" s="20">
+        <f>+AA11-AA12</f>
+        <v>-5.2897703642608512E-2</v>
+      </c>
+      <c r="AC14" s="11">
         <f t="shared" si="17"/>
-        <v>4.1714963743308742</v>
-      </c>
-      <c r="Q14" s="24">
-        <f t="shared" si="19"/>
-        <v>4.1299500729113925</v>
-      </c>
-      <c r="R14" s="24">
-        <f t="shared" si="21"/>
-        <v>4.094014673277302</v>
-      </c>
-      <c r="S14" s="24">
-        <f t="shared" ref="S14:S20" si="23">+(((1+L14/100)^(H14/365)/(1+$L$13/100)^($H$13/365))^(365/(H14-$H$13))-1)*100</f>
-        <v>4.0628753224142278</v>
-      </c>
-      <c r="T14" s="24" t="e">
-        <f>+(((1+L14/100)^(H14/365)/(1+$L$14/100)^($H$14/365))^(365/(H14-$H$14))-1)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U14" s="24"/>
-      <c r="V14" s="24"/>
-      <c r="W14" s="24"/>
-      <c r="X14" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y14" s="20">
-        <f>+Y11-Y12</f>
-        <v>-3.8515992250933856E-2</v>
-      </c>
-      <c r="AA14" s="11">
-        <f t="shared" si="15"/>
         <v>46031</v>
       </c>
-      <c r="AB14" s="15">
-        <f t="shared" si="16"/>
+      <c r="AD14" s="15">
+        <f t="shared" si="18"/>
         <v>83000</v>
       </c>
-      <c r="AC14" s="25">
-        <f t="shared" si="18"/>
+      <c r="AE14" s="25">
+        <f t="shared" si="20"/>
         <v>0.90891243763956242</v>
       </c>
-      <c r="AD14" s="25">
-        <f t="shared" si="20"/>
+      <c r="AF14" s="25">
+        <f t="shared" si="22"/>
         <v>0.93325290122446036</v>
       </c>
-      <c r="AE14" s="25">
-        <f>+(1+O11/100)^-(($H11-$H$9)/365)</f>
+      <c r="AG14" s="25">
+        <f>+(1+Q11/100)^-(($H11-$H$9)/365)</f>
         <v>0.95731099198159386</v>
       </c>
-      <c r="AF14" s="25">
-        <f>+(1+P11/100)^-(($H11-$H$10)/365)</f>
+      <c r="AH14" s="25">
+        <f>+(1+R11/100)^-(($H11-$H$10)/365)</f>
         <v>0.97902426577504031</v>
       </c>
-      <c r="AG14" s="13">
-        <f t="shared" ref="AG14" si="24">+(1+$Y$3)^-YEARFRAC($AA14,$AA$14)</f>
+      <c r="AI14" s="13">
+        <f t="shared" ref="AI14" si="26">+(1+$AA$3)^-YEARFRAC($AC14,$AC$14)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:42" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.75">
       <c r="A15" s="1">
         <v>46761</v>
       </c>
@@ -24727,7 +24820,7 @@
         <v>80000</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>84200</v>
       </c>
       <c r="G15">
@@ -24739,99 +24832,107 @@
         <v>1573</v>
       </c>
       <c r="I15" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.3055555555555554</v>
       </c>
       <c r="J15" s="21">
-        <f t="shared" si="12"/>
-        <v>0.25756453385952477</v>
-      </c>
-      <c r="K15" s="9">
+        <f t="shared" si="13"/>
+        <v>0.23881962322907288</v>
+      </c>
+      <c r="K15" s="21">
+        <f t="shared" si="14"/>
+        <v>4.11902475735497E-2</v>
+      </c>
+      <c r="L15" s="9">
         <f t="shared" si="7"/>
         <v>69459.729306806636</v>
       </c>
-      <c r="L15" s="9">
+      <c r="M15" s="9">
+        <f t="shared" si="8"/>
+        <v>20837.91879204199</v>
+      </c>
+      <c r="N15" s="9">
         <v>4.5711533299999996</v>
       </c>
-      <c r="M15" s="24">
-        <f t="shared" si="8"/>
+      <c r="O15" s="24">
+        <f t="shared" si="9"/>
         <v>4.4976163343802833</v>
       </c>
-      <c r="N15" s="24">
-        <f t="shared" si="13"/>
+      <c r="P15" s="24">
+        <f t="shared" si="15"/>
         <v>4.3637831314438325</v>
       </c>
-      <c r="O15" s="24">
-        <f t="shared" si="14"/>
+      <c r="Q15" s="24">
+        <f t="shared" si="16"/>
         <v>4.2274936254728335</v>
       </c>
-      <c r="P15" s="24">
+      <c r="R15" s="24">
+        <f t="shared" si="19"/>
+        <v>4.148631894552568</v>
+      </c>
+      <c r="S15" s="24">
+        <f t="shared" si="21"/>
+        <v>4.111802205426307</v>
+      </c>
+      <c r="T15" s="24">
+        <f t="shared" si="23"/>
+        <v>4.0819323999029322</v>
+      </c>
+      <c r="U15" s="24">
+        <f t="shared" si="25"/>
+        <v>4.0604019677131342</v>
+      </c>
+      <c r="V15" s="24">
+        <f t="shared" ref="V15:V20" si="27">+(((1+N15/100)^(H15/365)/(1+$N$14/100)^($H$14/365))^(365/(H15-$H$14))-1)*100</f>
+        <v>4.0579689968039068</v>
+      </c>
+      <c r="W15" s="24" t="e">
+        <f>+(((1+N15/100)^(H15/365)/(1+$N$15/100)^($H$15/365))^(365/(H15-$H$15))-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="X15" s="24"/>
+      <c r="Y15" s="24"/>
+      <c r="Z15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AA15" s="9">
+        <f>+SUMPRODUCT(J7:J20,L7:L20)/10000+SUMPRODUCT(K7:K20,M7:M20)/10000</f>
+        <v>30.679999837177466</v>
+      </c>
+      <c r="AC15" s="11">
         <f t="shared" si="17"/>
-        <v>4.148631894552568</v>
-      </c>
-      <c r="Q15" s="24">
-        <f t="shared" si="19"/>
-        <v>4.111802205426307</v>
-      </c>
-      <c r="R15" s="24">
-        <f t="shared" si="21"/>
-        <v>4.0819323999029322</v>
-      </c>
-      <c r="S15" s="24">
-        <f t="shared" si="23"/>
-        <v>4.0604019677131342</v>
-      </c>
-      <c r="T15" s="24">
-        <f t="shared" ref="T15:T20" si="25">+(((1+L15/100)^(H15/365)/(1+$L$14/100)^($H$14/365))^(365/(H15-$H$14))-1)*100</f>
-        <v>4.0579689968039068</v>
-      </c>
-      <c r="U15" s="24" t="e">
-        <f>+(((1+L15/100)^(H15/365)/(1+$L$15/100)^($H$15/365))^(365/(H15-$H$15))-1)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="V15" s="24"/>
-      <c r="W15" s="24"/>
-      <c r="X15" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y15" s="9">
-        <f>+SUMPRODUCT(J7:J20,K7:K20)/10000</f>
-        <v>30.679998066791157</v>
-      </c>
-      <c r="AA15" s="11">
-        <f t="shared" si="15"/>
         <v>46212</v>
       </c>
-      <c r="AB15" s="15">
-        <f t="shared" si="16"/>
+      <c r="AD15" s="15">
+        <f t="shared" si="18"/>
         <v>82700</v>
       </c>
-      <c r="AC15" s="25">
-        <f t="shared" si="18"/>
+      <c r="AE15" s="25">
+        <f t="shared" si="20"/>
         <v>0.89054638184803325</v>
       </c>
-      <c r="AD15" s="25">
-        <f t="shared" si="20"/>
+      <c r="AF15" s="25">
+        <f t="shared" si="22"/>
         <v>0.91439500673243634</v>
       </c>
-      <c r="AE15" s="25">
-        <f t="shared" ref="AE15:AE23" si="26">+(1+O12/100)^-((H12-$H$9)/365)</f>
+      <c r="AG15" s="25">
+        <f t="shared" ref="AG15:AG23" si="28">+(1+Q12/100)^-((H12-$H$9)/365)</f>
         <v>0.93796696459185058</v>
       </c>
-      <c r="AF15" s="25">
-        <f t="shared" ref="AF15:AF23" si="27">+(1+P12/100)^-(($H12-$H$10)/365)</f>
+      <c r="AH15" s="25">
+        <f t="shared" ref="AH15:AH23" si="29">+(1+R12/100)^-(($H12-$H$10)/365)</f>
         <v>0.95924148633241157</v>
       </c>
-      <c r="AG15" s="25">
-        <f>+(1+Q12/100)^-(($H12-$H$11)/365)</f>
+      <c r="AI15" s="25">
+        <f>+(1+S12/100)^-(($H12-$H$11)/365)</f>
         <v>0.97979337169240877</v>
       </c>
-      <c r="AH15" s="13">
-        <f t="shared" ref="AH15" si="28">+(1+$Y$3)^-YEARFRAC($AA15,$AA$15)</f>
+      <c r="AJ15" s="13">
+        <f t="shared" ref="AJ15" si="30">+(1+$AA$3)^-YEARFRAC($AC15,$AC$15)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:42" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.75">
       <c r="A16" s="3">
         <v>46943</v>
       </c>
@@ -24848,7 +24949,7 @@
         <v>80000</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>83500</v>
       </c>
       <c r="G16">
@@ -24860,106 +24961,114 @@
         <v>1755</v>
       </c>
       <c r="I16" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4.8055555555555554</v>
       </c>
       <c r="J16" s="21">
-        <f t="shared" si="12"/>
-        <v>0.22152816851850293</v>
-      </c>
-      <c r="K16" s="9">
+        <f t="shared" si="13"/>
+        <v>0.20368857810544777</v>
+      </c>
+      <c r="K16" s="21">
+        <f t="shared" si="14"/>
+        <v>3.5131045123625117E-2</v>
+      </c>
+      <c r="L16" s="9">
         <f t="shared" si="7"/>
         <v>67508.312373478329</v>
       </c>
-      <c r="L16" s="9">
+      <c r="M16" s="9">
+        <f t="shared" si="8"/>
+        <v>20252.493712043499</v>
+      </c>
+      <c r="N16" s="9">
         <v>4.5232771300000003</v>
       </c>
-      <c r="M16" s="24">
-        <f t="shared" si="8"/>
+      <c r="O16" s="24">
+        <f t="shared" si="9"/>
         <v>4.4546526525185648</v>
       </c>
-      <c r="N16" s="24">
-        <f t="shared" si="13"/>
+      <c r="P16" s="24">
+        <f t="shared" si="15"/>
         <v>4.3321853274355338</v>
       </c>
-      <c r="O16" s="24">
-        <f t="shared" si="14"/>
+      <c r="Q16" s="24">
+        <f t="shared" si="16"/>
         <v>4.2107975476220361</v>
       </c>
-      <c r="P16" s="24">
+      <c r="R16" s="24">
+        <f t="shared" si="19"/>
+        <v>4.1422825788048456</v>
+      </c>
+      <c r="S16" s="24">
+        <f t="shared" si="21"/>
+        <v>4.1115228382808899</v>
+      </c>
+      <c r="T16" s="24">
+        <f t="shared" si="23"/>
+        <v>4.0890199388937898</v>
+      </c>
+      <c r="U16" s="24">
+        <f t="shared" si="25"/>
+        <v>4.0770356118608575</v>
+      </c>
+      <c r="V16" s="24">
+        <f t="shared" si="27"/>
+        <v>4.0840390900061418</v>
+      </c>
+      <c r="W16" s="24">
+        <f t="shared" ref="W16:W20" si="31">+(((1+N16/100)^(H16/365)/(1+$N$15/100)^($H$15/365))^(365/(H16-$H$15))-1)*100</f>
+        <v>4.1104023072640494</v>
+      </c>
+      <c r="X16" s="24" t="e">
+        <f>+(((1+N16/100)^(H16/365)/(1+$N$16/100)^($H$16/365))^(365/(H16-$H$16))-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y16" s="24"/>
+      <c r="Z16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA16" s="12">
+        <f>+AA15-AA2</f>
+        <v>-1.6282253412214232E-7</v>
+      </c>
+      <c r="AC16" s="11">
         <f t="shared" si="17"/>
-        <v>4.1422825788048456</v>
-      </c>
-      <c r="Q16" s="24">
-        <f t="shared" si="19"/>
-        <v>4.1115228382808899</v>
-      </c>
-      <c r="R16" s="24">
-        <f t="shared" si="21"/>
-        <v>4.0890199388937898</v>
-      </c>
-      <c r="S16" s="24">
-        <f t="shared" si="23"/>
-        <v>4.0770356118608575</v>
-      </c>
-      <c r="T16" s="24">
-        <f t="shared" si="25"/>
-        <v>4.0840390900061418</v>
-      </c>
-      <c r="U16" s="24">
-        <f t="shared" ref="U16:U20" si="29">+(((1+L16/100)^(H16/365)/(1+$L$15/100)^($H$15/365))^(365/(H16-$H$15))-1)*100</f>
-        <v>4.1104023072640494</v>
-      </c>
-      <c r="V16" s="24" t="e">
-        <f>+(((1+L16/100)^(H16/365)/(1+$L$16/100)^($H$16/365))^(365/(H16-$H$16))-1)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W16" s="24"/>
-      <c r="X16" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y16" s="12">
-        <f>+Y15-Y2</f>
-        <v>-1.9332088427859162E-6</v>
-      </c>
-      <c r="AA16" s="11">
-        <f t="shared" si="15"/>
         <v>46396</v>
       </c>
-      <c r="AB16" s="15">
-        <f t="shared" si="16"/>
+      <c r="AD16" s="15">
+        <f t="shared" si="18"/>
         <v>82400</v>
       </c>
-      <c r="AC16" s="25">
-        <f t="shared" si="18"/>
+      <c r="AE16" s="25">
+        <f t="shared" si="20"/>
         <v>0.87258474661011476</v>
       </c>
-      <c r="AD16" s="25">
-        <f t="shared" si="20"/>
+      <c r="AF16" s="25">
+        <f t="shared" si="22"/>
         <v>0.89595236308234438</v>
       </c>
-      <c r="AE16" s="25">
-        <f t="shared" si="26"/>
+      <c r="AG16" s="25">
+        <f t="shared" si="28"/>
         <v>0.9190488926905811</v>
       </c>
-      <c r="AF16" s="25">
-        <f t="shared" si="27"/>
+      <c r="AH16" s="25">
+        <f t="shared" si="29"/>
         <v>0.93989432369858295</v>
       </c>
-      <c r="AG16" s="25">
-        <f t="shared" ref="AG16:AG23" si="30">+(1+Q13/100)^-(($H13-$H$11)/365)</f>
+      <c r="AI16" s="25">
+        <f t="shared" ref="AI16:AI23" si="32">+(1+S13/100)^-(($H13-$H$11)/365)</f>
         <v>0.96003169334574157</v>
       </c>
-      <c r="AH16" s="25">
-        <f>+(1+R13/100)^-(($H13-$H$12)/365)</f>
+      <c r="AJ16" s="25">
+        <f>+(1+T13/100)^-(($H13-$H$12)/365)</f>
         <v>0.97983076950956227</v>
       </c>
-      <c r="AI16" s="13">
-        <f t="shared" ref="AI16" si="31">+(1+$Y$3)^-YEARFRAC($AA16,$AA$16)</f>
+      <c r="AK16" s="13">
+        <f t="shared" ref="AK16" si="33">+(1+$AA$3)^-YEARFRAC($AC16,$AC$16)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:42" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.75">
       <c r="A17" s="1">
         <v>47127</v>
       </c>
@@ -24976,7 +25085,7 @@
         <v>80000</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>82800</v>
       </c>
       <c r="G17">
@@ -24988,106 +25097,114 @@
         <v>1939</v>
       </c>
       <c r="I17" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.3055555555555554</v>
       </c>
       <c r="J17" s="21">
-        <f t="shared" si="12"/>
-        <v>0.19053372260455512</v>
-      </c>
-      <c r="K17" s="9">
+        <f t="shared" si="13"/>
+        <v>0.17372540953564489</v>
+      </c>
+      <c r="K17" s="21">
+        <f t="shared" si="14"/>
+        <v>2.9963168569802891E-2</v>
+      </c>
+      <c r="L17" s="9">
         <f t="shared" si="7"/>
         <v>65574.661129188811</v>
       </c>
-      <c r="L17" s="9">
+      <c r="M17" s="9">
+        <f t="shared" si="8"/>
+        <v>19672.398338756644</v>
+      </c>
+      <c r="N17" s="9">
         <v>4.4941832899999996</v>
       </c>
-      <c r="M17" s="24">
-        <f t="shared" si="8"/>
+      <c r="O17" s="24">
+        <f t="shared" si="9"/>
         <v>4.4307030134264735</v>
       </c>
-      <c r="N17" s="24">
-        <f t="shared" si="13"/>
+      <c r="P17" s="24">
+        <f t="shared" si="15"/>
         <v>4.3193053155156313</v>
       </c>
-      <c r="O17" s="24">
-        <f t="shared" si="14"/>
+      <c r="Q17" s="24">
+        <f t="shared" si="16"/>
         <v>4.2115902120785975</v>
       </c>
-      <c r="P17" s="24">
+      <c r="R17" s="24">
+        <f t="shared" si="19"/>
+        <v>4.1530330758927203</v>
+      </c>
+      <c r="S17" s="24">
+        <f t="shared" si="21"/>
+        <v>4.1292385955917554</v>
+      </c>
+      <c r="T17" s="24">
+        <f t="shared" si="23"/>
+        <v>4.1147615999095999</v>
+      </c>
+      <c r="U17" s="24">
+        <f t="shared" si="25"/>
+        <v>4.1122713775396003</v>
+      </c>
+      <c r="V17" s="24">
+        <f t="shared" si="27"/>
+        <v>4.1285322974609517</v>
+      </c>
+      <c r="W17" s="24">
+        <f t="shared" si="31"/>
+        <v>4.1640248163483884</v>
+      </c>
+      <c r="X17" s="24">
+        <f t="shared" ref="X17:X20" si="34">+(((1+N17/100)^(H17/365)/(1+$N$16/100)^($H$16/365))^(365/(H17-$H$16))-1)*100</f>
+        <v>4.2170916418554194</v>
+      </c>
+      <c r="Y17" s="24" t="e">
+        <f>+(((1+N17/100)^(H17/365)/(1+$N$17/100)^($H$17/365))^(365/(H17-$H$17))-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC17" s="11">
         <f t="shared" si="17"/>
-        <v>4.1530330758927203</v>
-      </c>
-      <c r="Q17" s="24">
-        <f t="shared" si="19"/>
-        <v>4.1292385955917554</v>
-      </c>
-      <c r="R17" s="24">
-        <f t="shared" si="21"/>
-        <v>4.1147615999095999</v>
-      </c>
-      <c r="S17" s="24">
-        <f t="shared" si="23"/>
-        <v>4.1122713775396003</v>
-      </c>
-      <c r="T17" s="24">
-        <f t="shared" si="25"/>
-        <v>4.1285322974609517</v>
-      </c>
-      <c r="U17" s="24">
+        <v>46577</v>
+      </c>
+      <c r="AD17" s="15">
+        <f t="shared" si="18"/>
+        <v>82100</v>
+      </c>
+      <c r="AE17" s="25">
+        <f t="shared" si="20"/>
+        <v>0.85552121766387323</v>
+      </c>
+      <c r="AF17" s="25">
+        <f t="shared" si="22"/>
+        <v>0.87843187680143997</v>
+      </c>
+      <c r="AG17" s="25">
+        <f t="shared" si="28"/>
+        <v>0.90107675022033928</v>
+      </c>
+      <c r="AH17" s="25">
         <f t="shared" si="29"/>
-        <v>4.1640248163483884</v>
-      </c>
-      <c r="V17" s="24">
-        <f t="shared" ref="V17:V20" si="32">+(((1+L17/100)^(H17/365)/(1+$L$16/100)^($H$16/365))^(365/(H17-$H$16))-1)*100</f>
-        <v>4.2170916418554194</v>
-      </c>
-      <c r="W17" s="24" t="e">
-        <f>+(((1+L17/100)^(H17/365)/(1+$L$17/100)^($H$17/365))^(365/(H17-$H$17))-1)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA17" s="11">
-        <f t="shared" si="15"/>
-        <v>46577</v>
-      </c>
-      <c r="AB17" s="15">
-        <f t="shared" si="16"/>
-        <v>82100</v>
-      </c>
-      <c r="AC17" s="25">
-        <f t="shared" si="18"/>
-        <v>0.85552121766387323</v>
-      </c>
-      <c r="AD17" s="25">
-        <f t="shared" si="20"/>
-        <v>0.87843187680143997</v>
-      </c>
-      <c r="AE17" s="25">
-        <f t="shared" si="26"/>
-        <v>0.90107675022033928</v>
-      </c>
-      <c r="AF17" s="25">
-        <f t="shared" si="27"/>
         <v>0.92151454561840929</v>
       </c>
-      <c r="AG17" s="25">
-        <f t="shared" si="30"/>
+      <c r="AI17" s="25">
+        <f t="shared" si="32"/>
         <v>0.941258125904465</v>
       </c>
-      <c r="AH17" s="25">
-        <f t="shared" ref="AH17:AH23" si="33">+(1+R14/100)^-(($H14-$H$12)/365)</f>
+      <c r="AJ17" s="25">
+        <f t="shared" ref="AJ17:AJ23" si="35">+(1+T14/100)^-(($H14-$H$12)/365)</f>
         <v>0.96067002808828827</v>
       </c>
-      <c r="AI17" s="25">
-        <f>+(1+S14/100)^-(($H14-$H$13)/365)</f>
+      <c r="AK17" s="25">
+        <f>+(1+U14/100)^-(($H14-$H$13)/365)</f>
         <v>0.98044484617393202</v>
       </c>
-      <c r="AJ17" s="13">
-        <f t="shared" ref="AJ17" si="34">+(1+$Y$3)^-YEARFRAC($AA17,$AA$17)</f>
+      <c r="AL17" s="13">
+        <f t="shared" ref="AL17" si="36">+(1+$AA$3)^-YEARFRAC($AC17,$AC$17)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:42" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.75">
       <c r="A18" s="3">
         <v>47308</v>
       </c>
@@ -25104,7 +25221,7 @@
         <v>80000</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>82100</v>
       </c>
       <c r="G18">
@@ -25116,114 +25233,122 @@
         <v>2120</v>
       </c>
       <c r="I18" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5.8055555555555554</v>
       </c>
       <c r="J18" s="21">
-        <f t="shared" si="12"/>
-        <v>0.16387577115962737</v>
-      </c>
-      <c r="K18" s="9">
+        <f t="shared" si="13"/>
+        <v>0.14816990819535963</v>
+      </c>
+      <c r="K18" s="21">
+        <f t="shared" si="14"/>
+        <v>2.5555501340285267E-2</v>
+      </c>
+      <c r="L18" s="9">
         <f t="shared" si="7"/>
         <v>63654.846240706065</v>
       </c>
-      <c r="L18" s="9">
+      <c r="M18" s="9">
+        <f t="shared" si="8"/>
+        <v>19096.45387221182</v>
+      </c>
+      <c r="N18" s="9">
         <v>4.4805632800000001</v>
       </c>
-      <c r="M18" s="24">
-        <f t="shared" si="8"/>
+      <c r="O18" s="24">
+        <f t="shared" si="9"/>
         <v>4.4220518172592094</v>
       </c>
-      <c r="N18" s="24">
-        <f t="shared" si="13"/>
+      <c r="P18" s="24">
+        <f t="shared" si="15"/>
         <v>4.3208378761914856</v>
       </c>
-      <c r="O18" s="24">
-        <f t="shared" si="14"/>
+      <c r="Q18" s="24">
+        <f t="shared" si="16"/>
         <v>4.2251610776168125</v>
       </c>
-      <c r="P18" s="24">
+      <c r="R18" s="24">
+        <f t="shared" si="19"/>
+        <v>4.1755305452836566</v>
+      </c>
+      <c r="S18" s="24">
+        <f t="shared" si="21"/>
+        <v>4.1583452893522832</v>
+      </c>
+      <c r="T18" s="24">
+        <f t="shared" si="23"/>
+        <v>4.1510626725093092</v>
+      </c>
+      <c r="U18" s="24">
+        <f t="shared" si="25"/>
+        <v>4.1563912656517266</v>
+      </c>
+      <c r="V18" s="24">
+        <f t="shared" si="27"/>
+        <v>4.1795593534426079</v>
+      </c>
+      <c r="W18" s="24">
+        <f t="shared" si="31"/>
+        <v>4.2204918744895847</v>
+      </c>
+      <c r="X18" s="24">
+        <f t="shared" si="34"/>
+        <v>4.2754293379786867</v>
+      </c>
+      <c r="Y18" s="24">
+        <f t="shared" ref="Y18:Y20" si="37">+(((1+N18/100)^(H18/365)/(1+$N$17/100)^($H$17/365))^(365/(H18-$H$17))-1)*100</f>
+        <v>4.3347674294595295</v>
+      </c>
+      <c r="Z18" s="24" t="e">
+        <f>+(((1+N18/100)^(H18/365)/(1+$N$18/100)^($H$18/365))^(365/(H18-$H$18))-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC18" s="11">
         <f t="shared" si="17"/>
-        <v>4.1755305452836566</v>
-      </c>
-      <c r="Q18" s="24">
-        <f t="shared" si="19"/>
-        <v>4.1583452893522832</v>
-      </c>
-      <c r="R18" s="24">
-        <f t="shared" si="21"/>
-        <v>4.1510626725093092</v>
-      </c>
-      <c r="S18" s="24">
-        <f t="shared" si="23"/>
-        <v>4.1563912656517266</v>
-      </c>
-      <c r="T18" s="24">
-        <f t="shared" si="25"/>
-        <v>4.1795593534426079</v>
-      </c>
-      <c r="U18" s="24">
+        <v>46761</v>
+      </c>
+      <c r="AD18" s="15">
+        <f t="shared" si="18"/>
+        <v>84200</v>
+      </c>
+      <c r="AE18" s="25">
+        <f t="shared" si="20"/>
+        <v>0.83853678258983899</v>
+      </c>
+      <c r="AF18" s="25">
+        <f t="shared" si="22"/>
+        <v>0.86099260250823562</v>
+      </c>
+      <c r="AG18" s="25">
+        <f t="shared" si="28"/>
+        <v>0.88318791328111057</v>
+      </c>
+      <c r="AH18" s="25">
         <f t="shared" si="29"/>
-        <v>4.2204918744895847</v>
-      </c>
-      <c r="V18" s="24">
+        <v>0.90321996256578418</v>
+      </c>
+      <c r="AI18" s="25">
         <f t="shared" si="32"/>
-        <v>4.2754293379786867</v>
-      </c>
-      <c r="W18" s="24">
-        <f t="shared" ref="W18:W20" si="35">+(((1+L18/100)^(H18/365)/(1+$L$17/100)^($H$17/365))^(365/(H18-$H$17))-1)*100</f>
-        <v>4.3347674294595295</v>
-      </c>
-      <c r="X18" s="24" t="e">
-        <f>+(((1+L18/100)^(H18/365)/(1+$L$18/100)^($H$18/365))^(365/(H18-$H$18))-1)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA18" s="11">
-        <f t="shared" si="15"/>
-        <v>46761</v>
-      </c>
-      <c r="AB18" s="15">
-        <f t="shared" si="16"/>
-        <v>84200</v>
-      </c>
-      <c r="AC18" s="25">
-        <f t="shared" si="18"/>
-        <v>0.83853678258983899</v>
-      </c>
-      <c r="AD18" s="25">
-        <f t="shared" si="20"/>
-        <v>0.86099260250823562</v>
-      </c>
-      <c r="AE18" s="25">
-        <f t="shared" si="26"/>
-        <v>0.88318791328111057</v>
-      </c>
-      <c r="AF18" s="25">
-        <f t="shared" si="27"/>
-        <v>0.90321996256578418</v>
-      </c>
-      <c r="AG18" s="25">
-        <f t="shared" si="30"/>
         <v>0.92257157880632723</v>
       </c>
-      <c r="AH18" s="25">
-        <f t="shared" si="33"/>
+      <c r="AJ18" s="25">
+        <f t="shared" si="35"/>
         <v>0.94159810166173952</v>
       </c>
-      <c r="AI18" s="25">
-        <f t="shared" ref="AI18:AI23" si="36">+(1+S15/100)^-(($H15-$H$13)/365)</f>
+      <c r="AK18" s="25">
+        <f t="shared" ref="AK18:AK23" si="38">+(1+U15/100)^-(($H15-$H$13)/365)</f>
         <v>0.96098033554614792</v>
       </c>
-      <c r="AJ18" s="25">
-        <f>+(1+T15/100)^-(($H15-$H$14)/365)</f>
+      <c r="AL18" s="25">
+        <f>+(1+V15/100)^-(($H15-$H$14)/365)</f>
         <v>0.9801472661070717</v>
       </c>
-      <c r="AK18" s="13">
-        <f t="shared" ref="AK18" si="37">+(1+$Y$3)^-YEARFRAC($AA18,$AA$18)</f>
+      <c r="AM18" s="13">
+        <f t="shared" ref="AM18" si="39">+(1+$AA$3)^-YEARFRAC($AC18,$AC$18)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:42" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.75">
       <c r="A19" s="1">
         <v>47492</v>
       </c>
@@ -25240,7 +25365,7 @@
         <v>80000</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>81400</v>
       </c>
       <c r="G19">
@@ -25252,122 +25377,130 @@
         <v>2304</v>
       </c>
       <c r="I19" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.3055555555555554</v>
       </c>
       <c r="J19" s="21">
-        <f t="shared" si="12"/>
-        <v>0.14094758663220769</v>
-      </c>
-      <c r="K19" s="9">
+        <f t="shared" si="13"/>
+        <v>0.12637369371183854</v>
+      </c>
+      <c r="K19" s="21">
+        <f t="shared" si="14"/>
+        <v>2.1796214483521099E-2</v>
+      </c>
+      <c r="L19" s="9">
         <f t="shared" si="7"/>
         <v>61763.520096687695</v>
       </c>
-      <c r="L19" s="9">
+      <c r="M19" s="9">
+        <f t="shared" si="8"/>
+        <v>18529.056029006308</v>
+      </c>
+      <c r="N19" s="9">
         <v>4.4753337399999999</v>
       </c>
-      <c r="M19" s="24">
-        <f t="shared" si="8"/>
+      <c r="O19" s="24">
+        <f t="shared" si="9"/>
         <v>4.421468187522426</v>
       </c>
-      <c r="N19" s="24">
-        <f t="shared" si="13"/>
+      <c r="P19" s="24">
+        <f t="shared" si="15"/>
         <v>4.3294632360785901</v>
       </c>
-      <c r="O19" s="24">
-        <f t="shared" si="14"/>
+      <c r="Q19" s="24">
+        <f t="shared" si="16"/>
         <v>4.244284854036473</v>
       </c>
-      <c r="P19" s="24">
+      <c r="R19" s="24">
+        <f t="shared" si="19"/>
+        <v>4.2022999591223131</v>
+      </c>
+      <c r="S19" s="24">
+        <f t="shared" si="21"/>
+        <v>4.1906463898020885</v>
+      </c>
+      <c r="T19" s="24">
+        <f t="shared" si="23"/>
+        <v>4.1889767962836943</v>
+      </c>
+      <c r="U19" s="24">
+        <f t="shared" si="25"/>
+        <v>4.1997791719838418</v>
+      </c>
+      <c r="V19" s="24">
+        <f t="shared" si="27"/>
+        <v>4.2268820289466325</v>
+      </c>
+      <c r="W19" s="24">
+        <f t="shared" si="31"/>
+        <v>4.2694423026506056</v>
+      </c>
+      <c r="X19" s="24">
+        <f t="shared" si="34"/>
+        <v>4.3222195465906443</v>
+      </c>
+      <c r="Y19" s="24">
+        <f t="shared" si="37"/>
+        <v>4.3752557289503002</v>
+      </c>
+      <c r="Z19" s="24">
+        <f t="shared" ref="Z19:Z20" si="40">+(((1+N19/100)^(H19/365)/(1+$N$18/100)^($H$18/365))^(365/(H19-$H$18))-1)*100</f>
+        <v>4.4150992228672914</v>
+      </c>
+      <c r="AA19" s="24" t="e">
+        <f>+(((1+N19/100)^(H19/365)/(1+$N$19/100)^($H$19/365))^(365/(H19-$H$19))-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AC19" s="11">
         <f t="shared" si="17"/>
-        <v>4.2022999591223131</v>
-      </c>
-      <c r="Q19" s="24">
-        <f t="shared" si="19"/>
-        <v>4.1906463898020885</v>
-      </c>
-      <c r="R19" s="24">
-        <f t="shared" si="21"/>
-        <v>4.1889767962836943</v>
-      </c>
-      <c r="S19" s="24">
-        <f t="shared" si="23"/>
-        <v>4.1997791719838418</v>
-      </c>
-      <c r="T19" s="24">
-        <f t="shared" si="25"/>
-        <v>4.2268820289466325</v>
-      </c>
-      <c r="U19" s="24">
+        <v>46943</v>
+      </c>
+      <c r="AD19" s="15">
+        <f t="shared" si="18"/>
+        <v>83500</v>
+      </c>
+      <c r="AE19" s="25">
+        <f t="shared" si="20"/>
+        <v>0.82186222579540658</v>
+      </c>
+      <c r="AF19" s="25">
+        <f t="shared" si="22"/>
+        <v>0.84387150496285634</v>
+      </c>
+      <c r="AG19" s="25">
+        <f t="shared" si="28"/>
+        <v>0.86562545528770207</v>
+      </c>
+      <c r="AH19" s="25">
         <f t="shared" si="29"/>
-        <v>4.2694423026506056</v>
-      </c>
-      <c r="V19" s="24">
+        <v>0.88525916123140225</v>
+      </c>
+      <c r="AI19" s="25">
         <f t="shared" si="32"/>
-        <v>4.3222195465906443</v>
-      </c>
-      <c r="W19" s="24">
+        <v>0.90422596474724837</v>
+      </c>
+      <c r="AJ19" s="25">
         <f t="shared" si="35"/>
-        <v>4.3752557289503002</v>
-      </c>
-      <c r="X19" s="24">
-        <f t="shared" ref="X19:X20" si="38">+(((1+L19/100)^(H19/365)/(1+$L$18/100)^($H$18/365))^(365/(H19-$H$18))-1)*100</f>
-        <v>4.4150992228672914</v>
-      </c>
-      <c r="Y19" s="24" t="e">
-        <f>+(((1+L19/100)^(H19/365)/(1+$L$19/100)^($H$19/365))^(365/(H19-$H$19))-1)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AA19" s="11">
-        <f t="shared" si="15"/>
-        <v>46943</v>
-      </c>
-      <c r="AB19" s="15">
-        <f t="shared" si="16"/>
-        <v>83500</v>
-      </c>
-      <c r="AC19" s="25">
-        <f t="shared" si="18"/>
-        <v>0.82186222579540658</v>
-      </c>
-      <c r="AD19" s="25">
-        <f t="shared" si="20"/>
-        <v>0.84387150496285634</v>
-      </c>
-      <c r="AE19" s="25">
-        <f t="shared" si="26"/>
-        <v>0.86562545528770207</v>
-      </c>
-      <c r="AF19" s="25">
-        <f t="shared" si="27"/>
-        <v>0.88525916123140225</v>
-      </c>
-      <c r="AG19" s="25">
-        <f t="shared" si="30"/>
-        <v>0.90422596474724837</v>
-      </c>
-      <c r="AH19" s="25">
-        <f t="shared" si="33"/>
         <v>0.92287413945796359</v>
       </c>
-      <c r="AI19" s="25">
-        <f t="shared" si="36"/>
+      <c r="AK19" s="25">
+        <f t="shared" si="38"/>
         <v>0.94187095177659363</v>
       </c>
-      <c r="AJ19" s="25">
-        <f t="shared" ref="AJ19:AJ23" si="39">+(1+T16/100)^-(($H16-$H$14)/365)</f>
+      <c r="AL19" s="25">
+        <f t="shared" ref="AL19:AL23" si="41">+(1+V16/100)^-(($H16-$H$14)/365)</f>
         <v>0.96065674214325425</v>
       </c>
-      <c r="AK19" s="25">
-        <f>+(1+U16/100)^-(($H16-$H$15)/365)</f>
+      <c r="AM19" s="25">
+        <f>+(1+W16/100)^-(($H16-$H$15)/365)</f>
         <v>0.98011469843584886</v>
       </c>
-      <c r="AL19" s="13">
-        <f>+(1+$Y$3)^-YEARFRAC($AA19,$AA$19)</f>
+      <c r="AN19" s="13">
+        <f>+(1+$AA$3)^-YEARFRAC($AC19,$AC$19)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:42" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.75">
       <c r="A20" s="3">
         <v>47673</v>
       </c>
@@ -25384,7 +25517,7 @@
         <v>80000</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>80700</v>
       </c>
       <c r="G20">
@@ -25396,566 +25529,574 @@
         <v>2485</v>
       </c>
       <c r="I20" s="9">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.8055555555555554</v>
       </c>
       <c r="J20" s="21">
-        <f t="shared" si="12"/>
-        <v>0.12122732992720743</v>
-      </c>
-      <c r="K20" s="9">
+        <f t="shared" si="13"/>
+        <v>0.10778376430737192</v>
+      </c>
+      <c r="K20" s="21">
+        <f t="shared" si="14"/>
+        <v>1.8589929404466615E-2</v>
+      </c>
+      <c r="L20" s="9">
         <f t="shared" si="7"/>
         <v>59919.097171935944</v>
       </c>
-      <c r="L20" s="9">
+      <c r="M20" s="9">
+        <f t="shared" si="8"/>
+        <v>17975.729151580781</v>
+      </c>
+      <c r="N20" s="9">
         <v>4.472118</v>
       </c>
-      <c r="M20" s="24">
-        <f t="shared" si="8"/>
+      <c r="O20" s="24">
+        <f t="shared" si="9"/>
         <v>4.4222098818722744</v>
       </c>
-      <c r="N20" s="24">
-        <f t="shared" si="13"/>
+      <c r="P20" s="24">
+        <f t="shared" si="15"/>
         <v>4.3378634105531111</v>
       </c>
-      <c r="O20" s="24">
-        <f t="shared" si="14"/>
+      <c r="Q20" s="24">
+        <f t="shared" si="16"/>
         <v>4.2611272744993434</v>
       </c>
-      <c r="P20" s="24">
+      <c r="R20" s="24">
+        <f t="shared" si="19"/>
+        <v>4.2249662409467037</v>
+      </c>
+      <c r="S20" s="24">
+        <f t="shared" si="21"/>
+        <v>4.2171349449303008</v>
+      </c>
+      <c r="T20" s="24">
+        <f t="shared" si="23"/>
+        <v>4.21895385041966</v>
+      </c>
+      <c r="U20" s="24">
+        <f t="shared" si="25"/>
+        <v>4.2325481337213811</v>
+      </c>
+      <c r="V20" s="24">
+        <f t="shared" si="27"/>
+        <v>4.2605955215344382</v>
+      </c>
+      <c r="W20" s="24">
+        <f t="shared" si="31"/>
+        <v>4.3015241196660892</v>
+      </c>
+      <c r="X20" s="24">
+        <f t="shared" si="34"/>
+        <v>4.3492282831167461</v>
+      </c>
+      <c r="Y20" s="24">
+        <f t="shared" si="37"/>
+        <v>4.3937955793358796</v>
+      </c>
+      <c r="Z20" s="24">
+        <f t="shared" si="40"/>
+        <v>4.4230794580498722</v>
+      </c>
+      <c r="AA20" s="24">
+        <f>+(((1+N20/100)^(H20/365)/(1+$N$19/100)^($H$19/365))^(365/(H20-$H$19))-1)*100</f>
+        <v>4.4311925874847446</v>
+      </c>
+      <c r="AC20" s="11">
         <f t="shared" si="17"/>
-        <v>4.2249662409467037</v>
-      </c>
-      <c r="Q20" s="24">
-        <f t="shared" si="19"/>
-        <v>4.2171349449303008</v>
-      </c>
-      <c r="R20" s="24">
-        <f t="shared" si="21"/>
-        <v>4.21895385041966</v>
-      </c>
-      <c r="S20" s="24">
-        <f t="shared" si="23"/>
-        <v>4.2325481337213811</v>
-      </c>
-      <c r="T20" s="24">
-        <f t="shared" si="25"/>
-        <v>4.2605955215344382</v>
-      </c>
-      <c r="U20" s="24">
+        <v>47127</v>
+      </c>
+      <c r="AD20" s="15">
+        <f t="shared" si="18"/>
+        <v>82800</v>
+      </c>
+      <c r="AE20" s="25">
+        <f t="shared" si="20"/>
+        <v>0.80492575504020869</v>
+      </c>
+      <c r="AF20" s="25">
+        <f t="shared" si="22"/>
+        <v>0.82648147946178596</v>
+      </c>
+      <c r="AG20" s="25">
+        <f t="shared" si="28"/>
+        <v>0.84778713671277706</v>
+      </c>
+      <c r="AH20" s="25">
         <f t="shared" si="29"/>
-        <v>4.3015241196660892</v>
-      </c>
-      <c r="V20" s="24">
+        <v>0.86701624237665587</v>
+      </c>
+      <c r="AI20" s="25">
         <f t="shared" si="32"/>
-        <v>4.3492282831167461</v>
-      </c>
-      <c r="W20" s="24">
+        <v>0.88559218875978141</v>
+      </c>
+      <c r="AJ20" s="25">
         <f t="shared" si="35"/>
-        <v>4.3937955793358796</v>
-      </c>
-      <c r="X20" s="24">
+        <v>0.90385607245953037</v>
+      </c>
+      <c r="AK20" s="25">
         <f t="shared" si="38"/>
-        <v>4.4230794580498722</v>
-      </c>
-      <c r="Y20" s="24">
-        <f>+(((1+L20/100)^(H20/365)/(1+$L$19/100)^($H$19/365))^(365/(H20-$H$19))-1)*100</f>
-        <v>4.4311925874847446</v>
-      </c>
-      <c r="AA20" s="11">
-        <f t="shared" si="15"/>
-        <v>47127</v>
-      </c>
-      <c r="AB20" s="15">
-        <f t="shared" si="16"/>
-        <v>82800</v>
-      </c>
-      <c r="AC20" s="25">
+        <v>0.92246140924104703</v>
+      </c>
+      <c r="AL20" s="25">
+        <f t="shared" si="41"/>
+        <v>0.94086007269133154</v>
+      </c>
+      <c r="AM20" s="25">
+        <f t="shared" ref="AM20:AM23" si="42">+(1+W17/100)^-(($H17-$H$15)/365)</f>
+        <v>0.95991705045326481</v>
+      </c>
+      <c r="AN20" s="25">
+        <f>+(1+X17/100)^-(($H17-$H$16)/365)</f>
+        <v>0.97939256699770227</v>
+      </c>
+      <c r="AO20" s="13">
+        <f>+(1+$AA$3)^-YEARFRAC($AC20,$AC$20)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" x14ac:dyDescent="0.75">
+      <c r="AC21" s="11">
+        <f t="shared" si="17"/>
+        <v>47308</v>
+      </c>
+      <c r="AD21" s="15">
         <f t="shared" si="18"/>
-        <v>0.80492575504020869</v>
-      </c>
-      <c r="AD20" s="25">
+        <v>82100</v>
+      </c>
+      <c r="AE21" s="25">
         <f t="shared" si="20"/>
-        <v>0.82648147946178596</v>
-      </c>
-      <c r="AE20" s="25">
-        <f t="shared" si="26"/>
-        <v>0.84778713671277706</v>
-      </c>
-      <c r="AF20" s="25">
-        <f t="shared" si="27"/>
-        <v>0.86701624237665587</v>
-      </c>
-      <c r="AG20" s="25">
-        <f t="shared" si="30"/>
-        <v>0.88559218875978141</v>
-      </c>
-      <c r="AH20" s="25">
-        <f t="shared" si="33"/>
-        <v>0.90385607245953037</v>
-      </c>
-      <c r="AI20" s="25">
-        <f t="shared" si="36"/>
-        <v>0.92246140924104703</v>
-      </c>
-      <c r="AJ20" s="25">
-        <f t="shared" si="39"/>
-        <v>0.94086007269133154</v>
-      </c>
-      <c r="AK20" s="25">
-        <f t="shared" ref="AK20:AK23" si="40">+(1+U17/100)^-(($H17-$H$15)/365)</f>
-        <v>0.95991705045326481</v>
-      </c>
-      <c r="AL20" s="25">
-        <f>+(1+V17/100)^-(($H17-$H$16)/365)</f>
-        <v>0.97939256699770227</v>
-      </c>
-      <c r="AM20" s="13">
-        <f>+(1+$Y$3)^-YEARFRAC($AA20,$AA$20)</f>
+        <v>0.78816479683970209</v>
+      </c>
+      <c r="AF21" s="25">
+        <f t="shared" si="22"/>
+        <v>0.80927166670078199</v>
+      </c>
+      <c r="AG21" s="25">
+        <f t="shared" si="28"/>
+        <v>0.83013367653661463</v>
+      </c>
+      <c r="AH21" s="25">
+        <f t="shared" si="29"/>
+        <v>0.84896237479117997</v>
+      </c>
+      <c r="AI21" s="25">
+        <f t="shared" si="32"/>
+        <v>0.86715151449193395</v>
+      </c>
+      <c r="AJ21" s="25">
+        <f t="shared" si="35"/>
+        <v>0.88503508958638166</v>
+      </c>
+      <c r="AK21" s="25">
+        <f t="shared" si="38"/>
+        <v>0.90325300768965511</v>
+      </c>
+      <c r="AL21" s="25">
+        <f t="shared" si="41"/>
+        <v>0.92126855601770063</v>
+      </c>
+      <c r="AM21" s="25">
+        <f t="shared" si="42"/>
+        <v>0.93992871058731409</v>
+      </c>
+      <c r="AN21" s="25">
+        <f t="shared" ref="AN21:AN23" si="43">+(1+X18/100)^-(($H18-$H$16)/365)</f>
+        <v>0.95899868871197724</v>
+      </c>
+      <c r="AO21" s="25">
+        <f>+(1+Y18/100)^-(($H18-$H$17)/365)</f>
+        <v>0.97917701341328134</v>
+      </c>
+      <c r="AP21" s="13">
+        <f>+(1+$AA$3)^-YEARFRAC($AC21,$AC$21)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:42" x14ac:dyDescent="0.75">
-      <c r="AA21" s="11">
-        <f t="shared" si="15"/>
-        <v>47308</v>
-      </c>
-      <c r="AB21" s="15">
-        <f t="shared" si="16"/>
-        <v>82100</v>
-      </c>
-      <c r="AC21" s="25">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.75">
+      <c r="AC22" s="11">
+        <f t="shared" si="17"/>
+        <v>47492</v>
+      </c>
+      <c r="AD22" s="15">
         <f t="shared" si="18"/>
-        <v>0.78816479683970209</v>
-      </c>
-      <c r="AD21" s="25">
+        <v>81400</v>
+      </c>
+      <c r="AE22" s="25">
         <f t="shared" si="20"/>
-        <v>0.80927166670078199</v>
-      </c>
-      <c r="AE21" s="25">
-        <f t="shared" si="26"/>
-        <v>0.83013367653661463</v>
-      </c>
-      <c r="AF21" s="25">
-        <f t="shared" si="27"/>
-        <v>0.84896237479117997</v>
-      </c>
-      <c r="AG21" s="25">
-        <f t="shared" si="30"/>
-        <v>0.86715151449193395</v>
-      </c>
-      <c r="AH21" s="25">
-        <f t="shared" si="33"/>
-        <v>0.88503508958638166</v>
-      </c>
-      <c r="AI21" s="25">
-        <f t="shared" si="36"/>
-        <v>0.90325300768965511</v>
-      </c>
-      <c r="AJ21" s="25">
-        <f t="shared" si="39"/>
-        <v>0.92126855601770063</v>
-      </c>
-      <c r="AK21" s="25">
-        <f t="shared" si="40"/>
-        <v>0.93992871058731409</v>
-      </c>
-      <c r="AL21" s="25">
-        <f t="shared" ref="AL21:AL23" si="41">+(1+V18/100)^-(($H18-$H$16)/365)</f>
-        <v>0.95899868871197724</v>
-      </c>
-      <c r="AM21" s="25">
-        <f>+(1+W18/100)^-(($H18-$H$17)/365)</f>
-        <v>0.97917701341328134</v>
-      </c>
-      <c r="AN21" s="13">
-        <f>+(1+$Y$3)^-YEARFRAC($AA21,$AA$21)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:42" x14ac:dyDescent="0.75">
-      <c r="AA22" s="11">
-        <f t="shared" si="15"/>
-        <v>47492</v>
-      </c>
-      <c r="AB22" s="15">
-        <f t="shared" si="16"/>
-        <v>81400</v>
-      </c>
-      <c r="AC22" s="25">
-        <f t="shared" si="18"/>
         <v>0.77118446265703189</v>
       </c>
-      <c r="AD22" s="25">
-        <f t="shared" si="20"/>
+      <c r="AF22" s="25">
+        <f t="shared" si="22"/>
         <v>0.79183660311985882</v>
       </c>
-      <c r="AE22" s="25">
-        <f t="shared" si="26"/>
+      <c r="AG22" s="25">
+        <f t="shared" si="28"/>
         <v>0.81224915885655535</v>
       </c>
-      <c r="AF22" s="25">
-        <f t="shared" si="27"/>
+      <c r="AH22" s="25">
+        <f t="shared" si="29"/>
         <v>0.83067220896511229</v>
       </c>
-      <c r="AG22" s="25">
-        <f t="shared" si="30"/>
+      <c r="AI22" s="25">
+        <f t="shared" si="32"/>
         <v>0.848469479260061</v>
       </c>
-      <c r="AH22" s="25">
-        <f t="shared" si="33"/>
+      <c r="AJ22" s="25">
+        <f t="shared" si="35"/>
         <v>0.86596776807592579</v>
       </c>
-      <c r="AI22" s="25">
-        <f t="shared" si="36"/>
+      <c r="AK22" s="25">
+        <f t="shared" si="38"/>
         <v>0.8837931967674082</v>
-      </c>
-      <c r="AJ22" s="25">
-        <f t="shared" si="39"/>
-        <v>0.90142061556680597</v>
-      </c>
-      <c r="AK22" s="25">
-        <f t="shared" si="40"/>
-        <v>0.91967875311946679</v>
       </c>
       <c r="AL22" s="25">
         <f t="shared" si="41"/>
+        <v>0.90142061556680597</v>
+      </c>
+      <c r="AM22" s="25">
+        <f t="shared" si="42"/>
+        <v>0.91967875311946679</v>
+      </c>
+      <c r="AN22" s="25">
+        <f t="shared" si="43"/>
         <v>0.93833788493037518</v>
       </c>
-      <c r="AM22" s="25">
-        <f t="shared" ref="AM22:AM23" si="42">+(1+W19/100)^-(($H19-$H$17)/365)</f>
+      <c r="AO22" s="25">
+        <f t="shared" ref="AO22:AO23" si="44">+(1+Y19/100)^-(($H19-$H$17)/365)</f>
         <v>0.95808148494206036</v>
       </c>
-      <c r="AN22" s="25">
-        <f>+(1+X19/100)^-(($H19-$H$18)/365)</f>
+      <c r="AP22" s="25">
+        <f>+(1+Z19/100)^-(($H19-$H$18)/365)</f>
         <v>0.97845585815205716</v>
       </c>
-      <c r="AO22" s="13">
-        <f>+(1+$Y$3)^-YEARFRAC($AA22,$AA$22)</f>
+      <c r="AQ22" s="13">
+        <f>+(1+$AA$3)^-YEARFRAC($AC22,$AC$22)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:42" x14ac:dyDescent="0.75">
-      <c r="AA23" s="11">
-        <f t="shared" si="15"/>
+    <row r="23" spans="1:44" x14ac:dyDescent="0.75">
+      <c r="AC23" s="11">
+        <f t="shared" si="17"/>
         <v>47673</v>
       </c>
-      <c r="AB23" s="15">
-        <f t="shared" si="16"/>
+      <c r="AD23" s="15">
+        <f t="shared" si="18"/>
         <v>80700</v>
       </c>
-      <c r="AC23" s="25">
-        <f t="shared" si="18"/>
+      <c r="AE23" s="25">
+        <f t="shared" si="20"/>
         <v>0.75478026594334802</v>
       </c>
-      <c r="AD23" s="25">
-        <f t="shared" si="20"/>
+      <c r="AF23" s="25">
+        <f t="shared" si="22"/>
         <v>0.77499310583527892</v>
       </c>
-      <c r="AE23" s="25">
-        <f t="shared" si="26"/>
+      <c r="AG23" s="25">
+        <f t="shared" si="28"/>
         <v>0.79497145731093499</v>
       </c>
-      <c r="AF23" s="25">
-        <f t="shared" si="27"/>
+      <c r="AH23" s="25">
+        <f t="shared" si="29"/>
         <v>0.81300262278918456</v>
       </c>
-      <c r="AG23" s="25">
-        <f t="shared" si="30"/>
+      <c r="AI23" s="25">
+        <f t="shared" si="32"/>
         <v>0.83042131968565103</v>
       </c>
-      <c r="AH23" s="25">
-        <f t="shared" si="33"/>
+      <c r="AJ23" s="25">
+        <f t="shared" si="35"/>
         <v>0.84754739486679154</v>
       </c>
-      <c r="AI23" s="25">
-        <f t="shared" si="36"/>
+      <c r="AK23" s="25">
+        <f t="shared" si="38"/>
         <v>0.86499365119041638</v>
-      </c>
-      <c r="AJ23" s="25">
-        <f t="shared" si="39"/>
-        <v>0.88224610957561767</v>
-      </c>
-      <c r="AK23" s="25">
-        <f t="shared" si="40"/>
-        <v>0.90011587042394581</v>
       </c>
       <c r="AL23" s="25">
         <f t="shared" si="41"/>
-        <v>0.91837809580901908</v>
+        <v>0.88224610957561767</v>
       </c>
       <c r="AM23" s="25">
         <f t="shared" si="42"/>
+        <v>0.90011587042394581</v>
+      </c>
+      <c r="AN23" s="25">
+        <f t="shared" si="43"/>
+        <v>0.91837809580901908</v>
+      </c>
+      <c r="AO23" s="25">
+        <f t="shared" si="44"/>
         <v>0.93770172120488793</v>
       </c>
-      <c r="AN23" s="25">
-        <f>+(1+X20/100)^-(($H20-$H$18)/365)</f>
+      <c r="AP23" s="25">
+        <f>+(1+Z20/100)^-(($H20-$H$18)/365)</f>
         <v>0.95764270235080773</v>
       </c>
-      <c r="AO23" s="25">
-        <f>+(1+Y20/100)^-(($H20-$H$19)/365)</f>
+      <c r="AQ23" s="25">
+        <f>+(1+AA20/100)^-(($H20-$H$19)/365)</f>
         <v>0.9787285694823703</v>
       </c>
-      <c r="AP23" s="13">
-        <f>+(1+$Y$3)^-YEARFRAC($AA23,$AA$23)</f>
+      <c r="AR23" s="13">
+        <f>+(1+$AA$3)^-YEARFRAC($AC23,$AC$23)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:42" x14ac:dyDescent="0.75">
-      <c r="AC25">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.75">
+      <c r="AE25">
         <v>1</v>
       </c>
-      <c r="AD25">
-        <f>+AC25+1</f>
+      <c r="AF25">
+        <f>+AE25+1</f>
         <v>2</v>
       </c>
-      <c r="AE25">
-        <f t="shared" ref="AE25:AP25" si="43">+AD25+1</f>
+      <c r="AG25">
+        <f t="shared" ref="AG25:AR25" si="45">+AF25+1</f>
         <v>3</v>
       </c>
-      <c r="AF25">
-        <f t="shared" si="43"/>
+      <c r="AH25">
+        <f t="shared" si="45"/>
         <v>4</v>
       </c>
-      <c r="AG25">
-        <f t="shared" si="43"/>
+      <c r="AI25">
+        <f t="shared" si="45"/>
         <v>5</v>
       </c>
-      <c r="AH25">
-        <f t="shared" si="43"/>
+      <c r="AJ25">
+        <f t="shared" si="45"/>
         <v>6</v>
       </c>
-      <c r="AI25">
-        <f t="shared" si="43"/>
+      <c r="AK25">
+        <f t="shared" si="45"/>
         <v>7</v>
       </c>
-      <c r="AJ25">
-        <f t="shared" si="43"/>
+      <c r="AL25">
+        <f t="shared" si="45"/>
         <v>8</v>
       </c>
-      <c r="AK25">
-        <f t="shared" si="43"/>
+      <c r="AM25">
+        <f t="shared" si="45"/>
         <v>9</v>
       </c>
-      <c r="AL25">
-        <f t="shared" si="43"/>
+      <c r="AN25">
+        <f t="shared" si="45"/>
         <v>10</v>
       </c>
-      <c r="AM25">
-        <f t="shared" si="43"/>
+      <c r="AO25">
+        <f t="shared" si="45"/>
         <v>11</v>
       </c>
-      <c r="AN25">
-        <f t="shared" si="43"/>
+      <c r="AP25">
+        <f t="shared" si="45"/>
         <v>12</v>
       </c>
-      <c r="AO25">
-        <f t="shared" si="43"/>
+      <c r="AQ25">
+        <f t="shared" si="45"/>
         <v>13</v>
       </c>
-      <c r="AP25">
-        <f t="shared" si="43"/>
+      <c r="AR25">
+        <f t="shared" si="45"/>
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:42" x14ac:dyDescent="0.75">
-      <c r="AA26" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC26" s="25">
-        <f>+Y13/2</f>
+    <row r="26" spans="1:44" x14ac:dyDescent="0.75">
+      <c r="AC26" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE26" s="25">
+        <f>+AA13/2</f>
         <v>0.88320580247479785</v>
       </c>
-      <c r="AD26" s="25">
-        <f>+(1-$AC$26)^(AD$25-$AC$25)*$AC$26</f>
+      <c r="AF26" s="25">
+        <f>+(1-$AE$26)^(AF$25-$AE$25)*$AE$26</f>
         <v>0.10315331294964621</v>
       </c>
-      <c r="AE26" s="25">
-        <f>+(1-$AC$26)^(AE$25-$AC$25)*$AC$26</f>
+      <c r="AG26" s="25">
+        <f>+(1-$AE$26)^(AG$25-$AE$25)*$AE$26</f>
         <v>1.2047708408019973E-2</v>
       </c>
-      <c r="AF26" s="25">
-        <f t="shared" ref="AF26:AP26" si="44">+(1-$AC$26)^(AF$25-$AC$25)*$AC$26</f>
+      <c r="AH26" s="25">
+        <f t="shared" ref="AH26:AR26" si="46">+(1-$AE$26)^(AH$25-$AE$25)*$AE$26</f>
         <v>1.4071024355323232E-3</v>
       </c>
-      <c r="AG26" s="25">
-        <f t="shared" si="44"/>
+      <c r="AI26" s="25">
+        <f t="shared" si="46"/>
         <v>1.6434139979375521E-4</v>
       </c>
-      <c r="AH26" s="25">
-        <f t="shared" si="44"/>
+      <c r="AJ26" s="25">
+        <f t="shared" si="46"/>
         <v>1.9194121909080059E-5</v>
       </c>
-      <c r="AI26" s="25">
-        <f t="shared" si="44"/>
+      <c r="AK26" s="25">
+        <f t="shared" si="46"/>
         <v>2.2417620655719067E-6</v>
       </c>
-      <c r="AJ26" s="25">
-        <f t="shared" si="44"/>
+      <c r="AL26" s="25">
+        <f t="shared" si="46"/>
         <v>2.6182480149091043E-7</v>
       </c>
-      <c r="AK26" s="25">
-        <f t="shared" si="44"/>
+      <c r="AM26" s="25">
+        <f t="shared" si="46"/>
         <v>3.0579617582326238E-8</v>
       </c>
-      <c r="AL26" s="25">
-        <f t="shared" si="44"/>
+      <c r="AN26" s="25">
+        <f t="shared" si="46"/>
         <v>3.571521896155355E-9</v>
       </c>
-      <c r="AM26" s="25">
-        <f t="shared" si="44"/>
+      <c r="AO26" s="25">
+        <f t="shared" si="46"/>
         <v>4.1713303380515302E-10</v>
       </c>
-      <c r="AN26" s="25">
-        <f t="shared" si="44"/>
+      <c r="AP26" s="25">
+        <f t="shared" si="46"/>
         <v>4.8718717944525873E-11</v>
       </c>
-      <c r="AO26" s="25">
-        <f t="shared" si="44"/>
+      <c r="AQ26" s="25">
+        <f t="shared" si="46"/>
         <v>5.6900635667875648E-12</v>
       </c>
-      <c r="AP26" s="25">
-        <f t="shared" si="44"/>
+      <c r="AR26" s="25">
+        <f t="shared" si="46"/>
         <v>6.6456640815034316E-13</v>
       </c>
     </row>
-    <row r="27" spans="1:42" x14ac:dyDescent="0.75">
-      <c r="AA27" t="s">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.75">
+      <c r="AC27" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE27" s="28">
+        <f>+AE6*AE7</f>
+        <v>57.895642066639411</v>
+      </c>
+      <c r="AF27" s="28">
+        <f t="shared" ref="AF27:AR27" si="47">+AF6*AF7</f>
+        <v>58.292129641485822</v>
+      </c>
+      <c r="AG27" s="28">
+        <f t="shared" si="47"/>
+        <v>55.955996977327132</v>
+      </c>
+      <c r="AH27" s="28">
+        <f t="shared" si="47"/>
+        <v>50.924903541556695</v>
+      </c>
+      <c r="AI27" s="28">
+        <f t="shared" si="47"/>
+        <v>45.978729920931002</v>
+      </c>
+      <c r="AJ27" s="28">
+        <f t="shared" si="47"/>
+        <v>41.085127452632882</v>
+      </c>
+      <c r="AK27" s="28">
+        <f t="shared" si="47"/>
+        <v>36.289442216600293</v>
+      </c>
+      <c r="AL27" s="28">
+        <f t="shared" si="47"/>
+        <v>31.55219616269083</v>
+      </c>
+      <c r="AM27" s="28">
+        <f t="shared" si="47"/>
+        <v>26.908637880475386</v>
+      </c>
+      <c r="AN27" s="28">
+        <f t="shared" si="47"/>
+        <v>22.137981720102793</v>
+      </c>
+      <c r="AO27" s="28">
+        <f t="shared" si="47"/>
+        <v>17.490599051307221</v>
+      </c>
+      <c r="AP27" s="28">
+        <f t="shared" si="47"/>
+        <v>12.950239099208117</v>
+      </c>
+      <c r="AQ27" s="28">
+        <f t="shared" si="47"/>
+        <v>8.527265491440799</v>
+      </c>
+      <c r="AR27" s="28">
+        <f t="shared" si="47"/>
+        <v>4.2099291321546071</v>
+      </c>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.75">
+      <c r="AC28" t="s">
         <v>50</v>
       </c>
-      <c r="AC27" s="28">
-        <f>+AC6*AC7</f>
-        <v>57.895642066639411</v>
-      </c>
-      <c r="AD27" s="28">
-        <f t="shared" ref="AD27:AP27" si="45">+AD6*AD7</f>
-        <v>58.292129641485822</v>
-      </c>
-      <c r="AE27" s="28">
-        <f t="shared" si="45"/>
-        <v>55.955996977327132</v>
-      </c>
-      <c r="AF27" s="28">
-        <f t="shared" si="45"/>
-        <v>50.924903541556695</v>
-      </c>
-      <c r="AG27" s="28">
-        <f t="shared" si="45"/>
-        <v>45.978729920931002</v>
-      </c>
-      <c r="AH27" s="28">
-        <f t="shared" si="45"/>
-        <v>41.085127452632882</v>
-      </c>
-      <c r="AI27" s="28">
-        <f t="shared" si="45"/>
-        <v>36.289442216600293</v>
-      </c>
-      <c r="AJ27" s="28">
-        <f t="shared" si="45"/>
-        <v>31.55219616269083</v>
-      </c>
-      <c r="AK27" s="28">
-        <f t="shared" si="45"/>
-        <v>26.908637880475386</v>
-      </c>
-      <c r="AL27" s="28">
-        <f t="shared" si="45"/>
-        <v>22.137981720102793</v>
-      </c>
-      <c r="AM27" s="28">
-        <f t="shared" si="45"/>
-        <v>17.490599051307221</v>
-      </c>
-      <c r="AN27" s="28">
-        <f t="shared" si="45"/>
-        <v>12.950239099208117</v>
-      </c>
-      <c r="AO27" s="28">
-        <f t="shared" si="45"/>
-        <v>8.527265491440799</v>
-      </c>
-      <c r="AP27" s="28">
-        <f t="shared" si="45"/>
-        <v>4.2099291321546071</v>
-      </c>
-    </row>
-    <row r="28" spans="1:42" x14ac:dyDescent="0.75">
-      <c r="AA28" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC28" s="29">
-        <f>+AC27*AC26</f>
+      <c r="AE28" s="29">
+        <f>+AE27*AE26</f>
         <v>51.133767011259927</v>
       </c>
-      <c r="AD28" s="29">
-        <f t="shared" ref="AD28:AP28" si="46">+AD27*AD26</f>
+      <c r="AF28" s="29">
+        <f t="shared" ref="AF28:AR28" si="48">+AF27*AF26</f>
         <v>6.0130262914095347</v>
       </c>
-      <c r="AE28" s="29">
-        <f t="shared" si="46"/>
+      <c r="AG28" s="29">
+        <f t="shared" si="48"/>
         <v>0.67414153526288423</v>
       </c>
-      <c r="AF28" s="29">
-        <f t="shared" si="46"/>
+      <c r="AH28" s="29">
+        <f t="shared" si="48"/>
         <v>7.165655580257306E-2</v>
       </c>
-      <c r="AG28" s="29">
-        <f t="shared" si="46"/>
+      <c r="AI28" s="29">
+        <f t="shared" si="48"/>
         <v>7.5562088359448169E-3</v>
       </c>
-      <c r="AH28" s="29">
-        <f t="shared" si="46"/>
+      <c r="AJ28" s="29">
+        <f t="shared" si="48"/>
         <v>7.8859294497592744E-4</v>
       </c>
-      <c r="AI28" s="29">
-        <f t="shared" si="46"/>
+      <c r="AK28" s="29">
+        <f t="shared" si="48"/>
         <v>8.1352294941938226E-5</v>
       </c>
-      <c r="AJ28" s="29">
-        <f t="shared" si="46"/>
+      <c r="AL28" s="29">
+        <f t="shared" si="48"/>
         <v>8.2611474968987933E-6</v>
       </c>
-      <c r="AK28" s="29">
-        <f t="shared" si="46"/>
+      <c r="AM28" s="29">
+        <f t="shared" si="48"/>
         <v>8.2285585604623492E-7</v>
       </c>
-      <c r="AL28" s="29">
-        <f t="shared" si="46"/>
+      <c r="AN28" s="29">
+        <f t="shared" si="48"/>
         <v>7.9066286450034117E-8</v>
       </c>
-      <c r="AM28" s="29">
-        <f t="shared" si="46"/>
+      <c r="AO28" s="29">
+        <f t="shared" si="48"/>
         <v>7.2959066453413126E-9</v>
       </c>
-      <c r="AN28" s="29">
-        <f t="shared" si="46"/>
+      <c r="AP28" s="29">
+        <f t="shared" si="48"/>
         <v>6.3091904598849108E-10</v>
       </c>
-      <c r="AO28" s="29">
-        <f t="shared" si="46"/>
+      <c r="AQ28" s="29">
+        <f t="shared" si="48"/>
         <v>4.8520682697172148E-11</v>
       </c>
-      <c r="AP28" s="29">
-        <f t="shared" si="46"/>
+      <c r="AR28" s="29">
+        <f t="shared" si="48"/>
         <v>2.7977774819234787E-12</v>
       </c>
     </row>
-    <row r="29" spans="1:42" x14ac:dyDescent="0.75">
-      <c r="AA29" t="s">
+    <row r="29" spans="1:44" x14ac:dyDescent="0.75">
+      <c r="AC29" t="s">
         <v>24</v>
       </c>
-      <c r="AC29" s="29">
-        <f>+SUM(AC28:AP28)</f>
+      <c r="AE29" s="29">
+        <f>+SUM(AE28:AR28)</f>
         <v>57.901026718858581</v>
       </c>
     </row>
-    <row r="30" spans="1:42" x14ac:dyDescent="0.75">
-      <c r="AA30" t="s">
+    <row r="30" spans="1:44" x14ac:dyDescent="0.75">
+      <c r="AC30" t="s">
         <v>21</v>
       </c>
-      <c r="AC30" s="12">
-        <f>+AC29-Y10</f>
+      <c r="AE30" s="12">
+        <f>+AE29-AA10</f>
         <v>1.1696632176787602</v>
       </c>
     </row>
@@ -26027,7 +26168,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="20">
-        <f>+FFant!Y11</f>
+        <f>+FFant!AA11</f>
         <v>0.24130797886052366</v>
       </c>
       <c r="C2" s="21">
@@ -27574,22 +27715,22 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>58</v>
-      </c>
-      <c r="G1" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.75">
@@ -45203,7 +45344,7 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
         <v>38</v>
@@ -45212,13 +45353,13 @@
         <v>39</v>
       </c>
       <c r="E1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F1" t="s">
         <v>41</v>
       </c>
       <c r="G1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.75">
@@ -63512,25 +63653,25 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" t="s">
-        <v>59</v>
-      </c>
       <c r="H1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.75">
@@ -84102,7 +84243,7 @@
         <v>23</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.75">
@@ -90319,12 +90460,12 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
         <v>34</v>
@@ -90333,7 +90474,7 @@
         <v>35</v>
       </c>
       <c r="D12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.75">
@@ -90417,7 +90558,7 @@
         <v>46</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C18" s="30">
         <v>2091997124</v>
@@ -90429,7 +90570,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.75">
       <c r="A19" s="31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B19" s="30">
         <f>+SUM(B13:B17)</f>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0118b31cc2e490dc/UCEMA/Quant - Finanzas Cuantitativas/TP Final/GitHub/tp_quant_Git Desktop/tp_quant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1498" documentId="14_{36CB20EE-E6F5-4308-AA86-D680FEB8C88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C91923A-3E22-4A58-BF59-FE258251BE4D}"/>
+  <xr:revisionPtr revIDLastSave="1638" documentId="14_{36CB20EE-E6F5-4308-AA86-D680FEB8C88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8BB7432-2019-4AD4-BD1E-5FCD95C7544E}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="9" activeTab="17" xr2:uid="{9C799078-5C8C-4CA2-A599-9589FA691B16}"/>
   </bookViews>
@@ -39,7 +39,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'PRICES Local Law'!$A$1:$C$742</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Volume Foreign Law'!$A$1:$C$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Volume Local Law'!$A$1:$C$742</definedName>
-    <definedName name="solver_adj" localSheetId="17" hidden="1">FFant!$AA$12</definedName>
+    <definedName name="solver_adj" localSheetId="17" hidden="1">FFant!$AB$12</definedName>
     <definedName name="solver_cvg" localSheetId="17" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="17" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="17" hidden="1">1</definedName>
@@ -53,7 +53,7 @@
     <definedName name="solver_nod" localSheetId="17" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="17" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="17" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="17" hidden="1">FFant!$AA$16</definedName>
+    <definedName name="solver_opt" localSheetId="17" hidden="1">FFant!$AB$16</definedName>
     <definedName name="solver_pre" localSheetId="17" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="17" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="17" hidden="1">2</definedName>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="68">
   <si>
     <t>Fecha Pago</t>
   </si>
@@ -327,6 +327,9 @@
   </si>
   <si>
     <t>Prob default</t>
+  </si>
+  <si>
+    <t>Metodologia II</t>
   </si>
 </sst>
 </file>
@@ -23382,20 +23385,21 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B261BC-4B0B-4A6E-B2C8-2F7B9BF72E1C}">
-  <dimension ref="A1:AR30"/>
+  <dimension ref="A1:AS30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" topLeftCell="S2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z12" sqref="Z12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="13" max="13" width="12.58984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.58984375" customWidth="1"/>
+    <col min="15" max="15" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -23433,28 +23437,31 @@
         <v>64</v>
       </c>
       <c r="N1" t="s">
+        <v>67</v>
+      </c>
+      <c r="O1" t="s">
         <v>33</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>6</v>
       </c>
-      <c r="AA1" s="11">
+      <c r="AB1" s="11">
         <v>45188</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>27</v>
       </c>
-      <c r="AE1" s="20">
+      <c r="AF1" s="20">
         <v>0.3</v>
       </c>
-      <c r="AF1" s="20">
+      <c r="AG1" s="20">
         <v>0.38807522271149991</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.75">
       <c r="A2" s="3">
         <v>44386</v>
       </c>
@@ -23484,60 +23491,61 @@
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
-      <c r="Z2" t="s">
+      <c r="O2" s="9"/>
+      <c r="AA2" t="s">
         <v>7</v>
       </c>
-      <c r="AA2" s="12">
+      <c r="AB2" s="12">
         <v>30.68</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>6</v>
       </c>
-      <c r="AE2" s="11">
-        <f t="array" ref="AE2:AR2">+TRANSPOSE(AC10:AC23)</f>
+      <c r="AF2" s="11">
+        <f t="array" ref="AF2:AS2">+TRANSPOSE(AD10:AD23)</f>
         <v>45300</v>
       </c>
-      <c r="AF2" s="11">
+      <c r="AG2" s="11">
         <v>45482</v>
       </c>
-      <c r="AG2" s="11">
+      <c r="AH2" s="11">
         <v>45666</v>
       </c>
-      <c r="AH2" s="11">
+      <c r="AI2" s="11">
         <v>45847</v>
       </c>
-      <c r="AI2" s="11">
+      <c r="AJ2" s="11">
         <v>46031</v>
       </c>
-      <c r="AJ2" s="11">
+      <c r="AK2" s="11">
         <v>46212</v>
       </c>
-      <c r="AK2" s="11">
+      <c r="AL2" s="11">
         <v>46396</v>
       </c>
-      <c r="AL2" s="11">
+      <c r="AM2" s="11">
         <v>46577</v>
       </c>
-      <c r="AM2" s="11">
+      <c r="AN2" s="11">
         <v>46761</v>
       </c>
-      <c r="AN2" s="11">
+      <c r="AO2" s="11">
         <v>46943</v>
       </c>
-      <c r="AO2" s="11">
+      <c r="AP2" s="11">
         <v>47127</v>
       </c>
-      <c r="AP2" s="11">
+      <c r="AQ2" s="11">
         <v>47308</v>
       </c>
-      <c r="AQ2" s="11">
+      <c r="AR2" s="11">
         <v>47492</v>
       </c>
-      <c r="AR2" s="11">
+      <c r="AS2" s="11">
         <v>47673</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.75">
       <c r="A3" s="1">
         <v>44570</v>
       </c>
@@ -23567,81 +23575,82 @@
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
       <c r="N3" s="9"/>
-      <c r="Z3" t="s">
+      <c r="O3" s="9"/>
+      <c r="AA3" t="s">
         <v>14</v>
       </c>
-      <c r="AA3" s="13">
+      <c r="AB3" s="13">
         <f>44.69%*0+4%</f>
         <v>0.04</v>
       </c>
-      <c r="AB3" s="26">
-        <f>+AC3-AE3</f>
+      <c r="AC3" s="26">
+        <f>+AD3-AF3</f>
         <v>1.9945161313136452</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>90.851096387317099</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>7</v>
       </c>
-      <c r="AE3" s="24">
-        <f>+SUMPRODUCT($AD$10:$AD$23,AE$10:AE$23)/10000</f>
+      <c r="AF3" s="24">
+        <f>+SUMPRODUCT($AE$10:$AE$23,AF$10:AF$23)/10000</f>
         <v>88.856580256003454</v>
       </c>
-      <c r="AF3" s="24">
-        <f t="shared" ref="AF3:AR3" si="2">+SUMPRODUCT($AD$10:$AD$23,AF$10:AF$23)/10000</f>
+      <c r="AG3" s="24">
+        <f t="shared" ref="AG3:AS3" si="2">+SUMPRODUCT($AE$10:$AE$23,AG$10:AG$23)/10000</f>
         <v>90.851096386455538</v>
       </c>
-      <c r="AG3" s="24">
+      <c r="AH3" s="24">
         <f t="shared" si="2"/>
         <v>88.705341827276925</v>
       </c>
-      <c r="AH3" s="9">
+      <c r="AI3" s="9">
         <f t="shared" si="2"/>
         <v>82.167696756590487</v>
       </c>
-      <c r="AI3" s="9">
+      <c r="AJ3" s="9">
         <f t="shared" si="2"/>
         <v>75.419679917879463</v>
       </c>
-      <c r="AJ3" s="9">
+      <c r="AK3" s="9">
         <f t="shared" si="2"/>
         <v>68.503913026011645</v>
       </c>
-      <c r="AK3" s="9">
+      <c r="AL3" s="9">
         <f t="shared" si="2"/>
         <v>61.473792108162414</v>
       </c>
-      <c r="AL3" s="9">
+      <c r="AM3" s="9">
         <f t="shared" si="2"/>
         <v>54.295549939296301</v>
       </c>
-      <c r="AM3" s="9">
+      <c r="AN3" s="9">
         <f t="shared" si="2"/>
         <v>47.019005748327928</v>
       </c>
-      <c r="AN3" s="9">
+      <c r="AO3" s="9">
         <f t="shared" si="2"/>
         <v>39.382131305578348</v>
       </c>
-      <c r="AO3" s="9">
+      <c r="AP3" s="9">
         <f t="shared" si="2"/>
         <v>31.685079457674856</v>
       </c>
-      <c r="AP3" s="9">
+      <c r="AQ3" s="9">
         <f t="shared" si="2"/>
         <v>23.902807293328763</v>
       </c>
-      <c r="AQ3" s="9">
+      <c r="AR3" s="9">
         <f t="shared" si="2"/>
         <v>16.038339555722729</v>
       </c>
-      <c r="AR3" s="9">
+      <c r="AS3" s="9">
         <f t="shared" si="2"/>
         <v>8.07</v>
       </c>
     </row>
-    <row r="4" spans="1:44" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.75">
       <c r="A4" s="3">
         <v>44751</v>
       </c>
@@ -23671,54 +23680,55 @@
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
-      <c r="AD4" t="s">
+      <c r="O4" s="9"/>
+      <c r="AE4" t="s">
         <v>1</v>
       </c>
-      <c r="AE4">
-        <f t="array" ref="AE4:AR4">+TRANSPOSE(B7:B20)</f>
+      <c r="AF4">
+        <f t="array" ref="AF4:AS4">+TRANSPOSE(B7:B20)</f>
         <v>100</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>100</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>96</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>88</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>80</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>72</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>64</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>56</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>48</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>40</v>
       </c>
-      <c r="AO4">
+      <c r="AP4">
         <v>32</v>
       </c>
-      <c r="AP4">
+      <c r="AQ4">
         <v>24</v>
       </c>
-      <c r="AQ4">
+      <c r="AR4">
         <v>16</v>
       </c>
-      <c r="AR4">
+      <c r="AS4">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.75">
       <c r="A5" s="1">
         <v>44935</v>
       </c>
@@ -23748,74 +23758,75 @@
       <c r="L5" s="9"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
-      <c r="Z5" t="s">
+      <c r="O5" s="9"/>
+      <c r="AA5" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="15">
+      <c r="AB5" s="15">
         <f>+SUM(L7:L20)</f>
         <v>874113.63501179824</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>27</v>
       </c>
-      <c r="AE5">
-        <f>+AE4*$AE$1</f>
+      <c r="AF5">
+        <f>+AF4*$AF$1</f>
         <v>30</v>
       </c>
-      <c r="AF5">
-        <f t="shared" ref="AF5:AR5" si="3">+AF4*$AE$1</f>
+      <c r="AG5">
+        <f t="shared" ref="AG5:AS5" si="3">+AG4*$AF$1</f>
         <v>30</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <f t="shared" si="3"/>
         <v>28.799999999999997</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <f t="shared" si="3"/>
         <v>26.4</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <f t="shared" si="3"/>
         <v>24</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <f t="shared" si="3"/>
         <v>21.599999999999998</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <f t="shared" si="3"/>
         <v>19.2</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <f t="shared" si="3"/>
         <v>16.8</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <f t="shared" si="3"/>
         <v>14.399999999999999</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
-      <c r="AO5">
+      <c r="AP5">
         <f t="shared" si="3"/>
         <v>9.6</v>
       </c>
-      <c r="AP5">
+      <c r="AQ5">
         <f t="shared" si="3"/>
         <v>7.1999999999999993</v>
       </c>
-      <c r="AQ5">
+      <c r="AR5">
         <f t="shared" si="3"/>
         <v>4.8</v>
       </c>
-      <c r="AR5">
+      <c r="AS5">
         <f t="shared" si="3"/>
         <v>2.4</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.75">
       <c r="A6" s="3">
         <v>45116</v>
       </c>
@@ -23845,78 +23856,79 @@
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
-      <c r="Z6" t="s">
+      <c r="O6" s="9"/>
+      <c r="AA6" t="s">
         <v>20</v>
       </c>
-      <c r="AA6" s="12">
-        <f>+AA5/10000</f>
+      <c r="AB6" s="12">
+        <f>+AB5/10000</f>
         <v>87.411363501179821</v>
       </c>
-      <c r="AC6" s="22">
-        <f>+SUM(AE6:AR6)</f>
+      <c r="AD6" s="22">
+        <f>+SUM(AF6:AS6)</f>
         <v>529.17101357830882</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>28</v>
       </c>
-      <c r="AE6" s="19">
-        <f t="shared" ref="AE6:AR6" si="4">+AE3-AE5</f>
+      <c r="AF6" s="19">
+        <f t="shared" ref="AF6:AS6" si="4">+AF3-AF5</f>
         <v>58.856580256003454</v>
       </c>
-      <c r="AF6" s="19">
+      <c r="AG6" s="19">
         <f t="shared" si="4"/>
         <v>60.851096386455538</v>
       </c>
-      <c r="AG6" s="19">
+      <c r="AH6" s="19">
         <f t="shared" si="4"/>
         <v>59.905341827276928</v>
       </c>
-      <c r="AH6" s="19">
+      <c r="AI6" s="19">
         <f t="shared" si="4"/>
         <v>55.767696756590489</v>
       </c>
-      <c r="AI6" s="19">
+      <c r="AJ6" s="19">
         <f t="shared" si="4"/>
         <v>51.419679917879463</v>
       </c>
-      <c r="AJ6" s="19">
+      <c r="AK6" s="19">
         <f t="shared" si="4"/>
         <v>46.903913026011651</v>
       </c>
-      <c r="AK6" s="19">
+      <c r="AL6" s="19">
         <f t="shared" si="4"/>
         <v>42.273792108162411</v>
       </c>
-      <c r="AL6" s="19">
+      <c r="AM6" s="19">
         <f t="shared" si="4"/>
         <v>37.495549939296296</v>
       </c>
-      <c r="AM6" s="19">
+      <c r="AN6" s="19">
         <f t="shared" si="4"/>
         <v>32.619005748327929</v>
       </c>
-      <c r="AN6" s="19">
+      <c r="AO6" s="19">
         <f t="shared" si="4"/>
         <v>27.382131305578348</v>
       </c>
-      <c r="AO6" s="19">
+      <c r="AP6" s="19">
         <f t="shared" si="4"/>
         <v>22.085079457674858</v>
       </c>
-      <c r="AP6" s="19">
+      <c r="AQ6" s="19">
         <f t="shared" si="4"/>
         <v>16.702807293328764</v>
       </c>
-      <c r="AQ6" s="19">
+      <c r="AR6" s="19">
         <f t="shared" si="4"/>
         <v>11.238339555722728</v>
       </c>
-      <c r="AR6" s="19">
+      <c r="AS6" s="19">
         <f t="shared" si="4"/>
         <v>5.67</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.75">
       <c r="A7" s="1">
         <v>45300</v>
       </c>
@@ -23941,108 +23953,108 @@
         <v>0.75</v>
       </c>
       <c r="H7" s="15">
-        <f>+A7-$AA$1</f>
+        <f>+A7-$AB$1</f>
         <v>112</v>
       </c>
       <c r="I7" s="9">
-        <f>+YEARFRAC($AA$1,A7,0)</f>
+        <f>+YEARFRAC($AB$1,A7,0)</f>
         <v>0.30555555555555558</v>
       </c>
       <c r="J7" s="21">
-        <f>+(1-$AA$12/2)</f>
-        <v>0.85289715874843397</v>
+        <f>+(1-$AB$12/2)</f>
+        <v>0.85289717484890903</v>
       </c>
       <c r="K7" s="21">
         <f>1-J7</f>
-        <v>0.14710284125156603</v>
+        <v>0.14710282515109097</v>
       </c>
       <c r="L7" s="9">
-        <f>+F7/(1+N7/100)^I7</f>
+        <f>+F7/(1+O7/100)^I7</f>
         <v>3688.7745908029106</v>
       </c>
       <c r="M7" s="9">
-        <f>+L7*$AE$1</f>
+        <f>+L7*$AF$1</f>
         <v>1106.6323772408732</v>
       </c>
       <c r="N7" s="9">
+        <f>+(L7*J7+L7*$AF$1*K7)/10000</f>
+        <v>0.33089341762460434</v>
+      </c>
+      <c r="O7" s="9">
         <v>5.5351710299999999</v>
       </c>
-      <c r="O7" t="e">
-        <f>+(((1+N7/100)^(H7/365)/(1+$N$7/100)^($H$7/365))^(365/(H7-$H$7))-1)*100</f>
+      <c r="P7" t="e">
+        <f>+(((1+O7/100)^(H7/365)/(1+$O$7/100)^($H$7/365))^(365/(H7-$H$7))-1)*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R7">
-        <f>+(F7*J7+F7*$AE$1*K7)/10000</f>
-        <v>0.33638550417146396</v>
-      </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>21</v>
       </c>
-      <c r="AA7" s="12">
-        <f>+AA2-AA6</f>
+      <c r="AB7" s="12">
+        <f>+AB2-AB6</f>
         <v>-56.731363501179821</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>29</v>
       </c>
-      <c r="AE7" s="23">
-        <f>+(1+$N$7/100)^-YEARFRAC(AE$2,$AA$1)</f>
+      <c r="AF7" s="23">
+        <f>+(1+$O$7/100)^-YEARFRAC(AF$2,$AB$1)</f>
         <v>0.98367322421410941</v>
       </c>
-      <c r="AF7" s="23">
-        <f>+(1+$N$8/100)^-YEARFRAC(AF$2,$AA$1)</f>
+      <c r="AG7" s="23">
+        <f>+(1+$O$8/100)^-YEARFRAC(AG$2,$AB$1)</f>
         <v>0.95794707249450151</v>
       </c>
-      <c r="AG7" s="23">
-        <f>+(1+$N$9/100)^-YEARFRAC(AG$2,$AA$1)</f>
+      <c r="AH7" s="23">
+        <f>+(1+$O$9/100)^-YEARFRAC(AH$2,$AB$1)</f>
         <v>0.93407357792337098</v>
       </c>
-      <c r="AH7" s="23">
-        <f>+(1+$N$10/100)^-YEARFRAC(AH$2,$AA$1)</f>
+      <c r="AI7" s="23">
+        <f>+(1+$O$10/100)^-YEARFRAC(AI$2,$AB$1)</f>
         <v>0.91316131924595789</v>
       </c>
-      <c r="AI7" s="23">
-        <f>+(1+$N$11/100)^-YEARFRAC(AI$2,$AA$1)</f>
+      <c r="AJ7" s="23">
+        <f>+(1+$O$11/100)^-YEARFRAC(AJ$2,$AB$1)</f>
         <v>0.89418545573138519</v>
       </c>
-      <c r="AJ7" s="23">
-        <f>+(1+$N$12/100)^-YEARFRAC(AJ$2,$AA$1)</f>
+      <c r="AK7" s="23">
+        <f>+(1+$O$12/100)^-YEARFRAC(AK$2,$AB$1)</f>
         <v>0.87594242787053134</v>
       </c>
-      <c r="AK7" s="23">
-        <f>+(1+$N$13/100)^-YEARFRAC(AK$2,$AA$1)</f>
+      <c r="AL7" s="23">
+        <f>+(1+$O$13/100)^-YEARFRAC(AL$2,$AB$1)</f>
         <v>0.85843829963845064</v>
       </c>
-      <c r="AL7" s="23">
-        <f>+(1+$N$14/100)^-YEARFRAC(AL$2,$AA$1)</f>
+      <c r="AM7" s="23">
+        <f>+(1+$O$14/100)^-YEARFRAC(AM$2,$AB$1)</f>
         <v>0.84149175605565185</v>
       </c>
-      <c r="AM7" s="23">
-        <f>+(1+$N$15/100)^-YEARFRAC(AM$2,$AA$1)</f>
+      <c r="AN7" s="23">
+        <f>+(1+$O$15/100)^-YEARFRAC(AN$2,$AB$1)</f>
         <v>0.82493740269366544</v>
       </c>
-      <c r="AN7" s="23">
-        <f>+(1+$N$16/100)^-YEARFRAC(AN$2,$AA$1)</f>
+      <c r="AO7" s="23">
+        <f>+(1+$O$16/100)^-YEARFRAC(AO$2,$AB$1)</f>
         <v>0.80848278291590814</v>
       </c>
-      <c r="AO7" s="23">
-        <f>+(1+$N$17/100)^-YEARFRAC(AO$2,$AA$1)</f>
+      <c r="AP7" s="23">
+        <f>+(1+$O$17/100)^-YEARFRAC(AP$2,$AB$1)</f>
         <v>0.79196450639116922</v>
       </c>
-      <c r="AP7" s="23">
-        <f>+(1+$N$18/100)^-YEARFRAC(AP$2,$AA$1)</f>
+      <c r="AQ7" s="23">
+        <f>+(1+$O$18/100)^-YEARFRAC(AQ$2,$AB$1)</f>
         <v>0.77533308453965977</v>
       </c>
-      <c r="AQ7" s="23">
-        <f>+(1+$N$19/100)^-YEARFRAC(AQ$2,$AA$1)</f>
+      <c r="AR7" s="23">
+        <f>+(1+$O$19/100)^-YEARFRAC(AR$2,$AB$1)</f>
         <v>0.75876560315341157</v>
       </c>
-      <c r="AR7" s="23">
-        <f>+(1+$N$20/100)^-YEARFRAC(AR$2,$AA$1)</f>
+      <c r="AS7" s="23">
+        <f>+(1+$O$20/100)^-YEARFRAC(AS$2,$AB$1)</f>
         <v>0.7424919104329113</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.75">
       <c r="A8" s="3">
         <v>45482</v>
       </c>
@@ -24067,41 +24079,44 @@
         <v>0.75</v>
       </c>
       <c r="H8" s="15">
-        <f t="shared" ref="H8:H20" si="6">+A8-$AA$1</f>
+        <f t="shared" ref="H8:H20" si="6">+A8-$AB$1</f>
         <v>294</v>
       </c>
       <c r="I8" s="9">
-        <f>+YEARFRAC($AA$1,A8,0)</f>
+        <f>+YEARFRAC($AB$1,A8,0)</f>
         <v>0.80555555555555558</v>
       </c>
       <c r="J8" s="21">
         <f>+$J$7*J7</f>
-        <v>0.7274335634011514</v>
+        <v>0.7274335908652505</v>
       </c>
       <c r="K8" s="21">
         <f>+J7*$K$7</f>
-        <v>0.1254635953472826</v>
+        <v>0.12546358398365853</v>
       </c>
       <c r="L8" s="9">
-        <f t="shared" ref="L8:L20" si="7">+F8/(1+N8/100)^I8</f>
+        <f t="shared" ref="L8:L20" si="7">+F8/(1+O8/100)^I8</f>
         <v>41910.18442163444</v>
       </c>
       <c r="M8" s="9">
-        <f t="shared" ref="M8:M20" si="8">+L8*$AE$1</f>
+        <f t="shared" ref="M8:M20" si="8">+L8*$AF$1</f>
         <v>12573.055326490332</v>
       </c>
       <c r="N8" s="9">
+        <f t="shared" ref="N8:N20" si="9">+(L8*J8+L8*$AF$1*K8)/10000</f>
+        <v>3.2064336530540727</v>
+      </c>
+      <c r="O8" s="9">
         <v>5.4780901999999996</v>
       </c>
-      <c r="O8" s="24">
-        <f t="shared" ref="O8:O20" si="9">+(((1+N8/100)^(H8/365)/(1+$N$7/100)^($H$7/365))^(365/(H8-$H$7))-1)*100</f>
+      <c r="P8" s="24">
+        <f t="shared" ref="P8:P20" si="10">+(((1+O8/100)^(H8/365)/(1+$O$7/100)^($H$7/365))^(365/(H8-$H$7))-1)*100</f>
         <v>5.4429788817679459</v>
       </c>
-      <c r="P8" s="24" t="e">
-        <f>+(((1+N8/100)^(H8/365)/(1+$N$8/100)^($H$8/365))^(365/(H8-$H$8))-1)*100</f>
+      <c r="Q8" s="24" t="e">
+        <f>+(((1+O8/100)^(H8/365)/(1+$O$8/100)^($H$8/365))^(365/(H8-$H$8))-1)*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q8" s="24"/>
       <c r="R8" s="24"/>
       <c r="S8" s="24"/>
       <c r="T8" s="24"/>
@@ -24110,78 +24125,79 @@
       <c r="W8" s="24"/>
       <c r="X8" s="24"/>
       <c r="Y8" s="24"/>
-      <c r="Z8" t="s">
+      <c r="Z8" s="24"/>
+      <c r="AA8" t="s">
         <v>22</v>
       </c>
-      <c r="AA8" s="16">
-        <f>+AA7/AA2</f>
+      <c r="AB8" s="16">
+        <f>+AB7/AB2</f>
         <v>-1.8491317959967348</v>
       </c>
-      <c r="AC8" s="22">
-        <f>+SUM(AE8:AR8)</f>
+      <c r="AD8" s="22">
+        <f>+SUM(AF8:AS8)</f>
         <v>470.19882035455305</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>30</v>
       </c>
-      <c r="AE8" s="22">
-        <f>+AE7*AE6</f>
+      <c r="AF8" s="22">
+        <f>+AF7*AF6</f>
         <v>57.895642066639411</v>
       </c>
-      <c r="AF8" s="22">
-        <f t="shared" ref="AF8:AR8" si="10">+AF7*AF6</f>
+      <c r="AG8" s="22">
+        <f t="shared" ref="AG8:AS8" si="11">+AG7*AG6</f>
         <v>58.292129641485822</v>
       </c>
-      <c r="AG8" s="22">
-        <f t="shared" si="10"/>
+      <c r="AH8" s="22">
+        <f t="shared" si="11"/>
         <v>55.955996977327132</v>
       </c>
-      <c r="AH8" s="22">
-        <f t="shared" si="10"/>
+      <c r="AI8" s="22">
+        <f t="shared" si="11"/>
         <v>50.924903541556695</v>
       </c>
-      <c r="AI8" s="22">
-        <f t="shared" si="10"/>
+      <c r="AJ8" s="22">
+        <f t="shared" si="11"/>
         <v>45.978729920931002</v>
       </c>
-      <c r="AJ8" s="22">
-        <f t="shared" si="10"/>
+      <c r="AK8" s="22">
+        <f t="shared" si="11"/>
         <v>41.085127452632882</v>
       </c>
-      <c r="AK8" s="22">
-        <f t="shared" si="10"/>
+      <c r="AL8" s="22">
+        <f t="shared" si="11"/>
         <v>36.289442216600293</v>
       </c>
-      <c r="AL8" s="22">
-        <f t="shared" si="10"/>
+      <c r="AM8" s="22">
+        <f t="shared" si="11"/>
         <v>31.55219616269083</v>
       </c>
-      <c r="AM8" s="22">
-        <f t="shared" si="10"/>
+      <c r="AN8" s="22">
+        <f t="shared" si="11"/>
         <v>26.908637880475386</v>
       </c>
-      <c r="AN8" s="22">
-        <f t="shared" si="10"/>
+      <c r="AO8" s="22">
+        <f t="shared" si="11"/>
         <v>22.137981720102793</v>
       </c>
-      <c r="AO8" s="22">
-        <f t="shared" si="10"/>
+      <c r="AP8" s="22">
+        <f t="shared" si="11"/>
         <v>17.490599051307221</v>
       </c>
-      <c r="AP8" s="22">
-        <f t="shared" si="10"/>
+      <c r="AQ8" s="22">
+        <f t="shared" si="11"/>
         <v>12.950239099208117</v>
       </c>
-      <c r="AQ8" s="22">
-        <f t="shared" si="10"/>
+      <c r="AR8" s="22">
+        <f t="shared" si="11"/>
         <v>8.527265491440799</v>
       </c>
-      <c r="AR8" s="22">
-        <f t="shared" si="10"/>
+      <c r="AS8" s="22">
+        <f t="shared" si="11"/>
         <v>4.2099291321546071</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.75">
       <c r="A9" s="1">
         <v>45666</v>
       </c>
@@ -24198,7 +24214,7 @@
         <v>80000</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" ref="F9:F20" si="11">+E9+D9*10000</f>
+        <f t="shared" ref="F9:F20" si="12">+E9+D9*10000</f>
         <v>83600</v>
       </c>
       <c r="G9">
@@ -24210,16 +24226,16 @@
         <v>478</v>
       </c>
       <c r="I9" s="9">
-        <f t="shared" ref="I9:I20" si="12">+YEARFRAC($AA$1,A9,0)</f>
+        <f t="shared" ref="I9:I20" si="13">+YEARFRAC($AB$1,A9,0)</f>
         <v>1.3055555555555556</v>
       </c>
       <c r="J9" s="21">
-        <f t="shared" ref="J9:J20" si="13">+$J$7*J8</f>
-        <v>0.62042601940309083</v>
+        <f t="shared" ref="J9:J20" si="14">+$J$7*J8</f>
+        <v>0.62042605453916932</v>
       </c>
       <c r="K9" s="21">
-        <f t="shared" ref="K9:K20" si="14">+J8*$K$7</f>
-        <v>0.10700754399806056</v>
+        <f t="shared" ref="K9:K20" si="15">+J8*$K$7</f>
+        <v>0.10700753632608119</v>
       </c>
       <c r="L9" s="9">
         <f t="shared" si="7"/>
@@ -24230,21 +24246,24 @@
         <v>23426.565334318144</v>
       </c>
       <c r="N9" s="9">
+        <f t="shared" si="9"/>
+        <v>5.0954990713590975</v>
+      </c>
+      <c r="O9" s="9">
         <v>5.3626843400000004</v>
       </c>
-      <c r="O9" s="24">
-        <f t="shared" si="9"/>
+      <c r="P9" s="24">
+        <f t="shared" si="10"/>
         <v>5.3099578826998561</v>
       </c>
-      <c r="P9" s="24">
-        <f t="shared" ref="P9:P20" si="15">+(((1+N9/100)^(H9/365)/(1+$N$8/100)^($H$8/365))^(365/(H9-$H$8))-1)*100</f>
+      <c r="Q9" s="24">
+        <f t="shared" ref="Q9:Q20" si="16">+(((1+O9/100)^(H9/365)/(1+$O$8/100)^($H$8/365))^(365/(H9-$H$8))-1)*100</f>
         <v>5.1785478505568916</v>
       </c>
-      <c r="Q9" s="24" t="e">
-        <f>+(((1+N9/100)^(H9/365)/(1+$N$9/100)^($H$9/365))^(365/(H9-$H$9))-1)*100</f>
+      <c r="R9" s="24" t="e">
+        <f>+(((1+O9/100)^(H9/365)/(1+$O$9/100)^($H$9/365))^(365/(H9-$H$9))-1)*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R9" s="24"/>
       <c r="S9" s="24"/>
       <c r="T9" s="24"/>
       <c r="U9" s="24"/>
@@ -24252,17 +24271,18 @@
       <c r="W9" s="24"/>
       <c r="X9" s="24"/>
       <c r="Y9" s="24"/>
-      <c r="AC9" t="s">
+      <c r="Z9" s="24"/>
+      <c r="AD9" t="s">
         <v>25</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>3</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AF9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:45" x14ac:dyDescent="0.75">
       <c r="A10" s="3">
         <v>45847</v>
       </c>
@@ -24279,7 +24299,7 @@
         <v>80000</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>83300</v>
       </c>
       <c r="G10">
@@ -24291,16 +24311,16 @@
         <v>659</v>
       </c>
       <c r="I10" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1.8055555555555556</v>
       </c>
       <c r="J10" s="21">
-        <f t="shared" si="13"/>
-        <v>0.52915958916249695</v>
+        <f t="shared" si="14"/>
+        <v>0.52915962911911263</v>
       </c>
       <c r="K10" s="21">
-        <f t="shared" si="14"/>
-        <v>9.1266430240593902E-2</v>
+        <f t="shared" si="15"/>
+        <v>9.1266425420056654E-2</v>
       </c>
       <c r="L10" s="9">
         <f t="shared" si="7"/>
@@ -24311,53 +24331,57 @@
         <v>22819.901367956485</v>
       </c>
       <c r="N10" s="9">
+        <f t="shared" si="9"/>
+        <v>4.2333925974300266</v>
+      </c>
+      <c r="O10" s="9">
         <v>5.1600082699999996</v>
       </c>
-      <c r="O10" s="24">
-        <f t="shared" si="9"/>
+      <c r="P10" s="24">
+        <f t="shared" si="10"/>
         <v>5.0833571404693689</v>
       </c>
-      <c r="P10" s="24">
-        <f t="shared" si="15"/>
+      <c r="Q10" s="24">
+        <f t="shared" si="16"/>
         <v>4.9044974294241594</v>
       </c>
-      <c r="Q10" s="24">
-        <f t="shared" ref="Q10:Q20" si="16">+(((1+N10/100)^(H10/365)/(1+$N$9/100)^($H$9/365))^(365/(H10-$H$9))-1)*100</f>
+      <c r="R10" s="24">
+        <f t="shared" ref="R10:R20" si="17">+(((1+O10/100)^(H10/365)/(1+$O$9/100)^($H$9/365))^(365/(H10-$H$9))-1)*100</f>
         <v>4.6266366349654975</v>
       </c>
-      <c r="R10" s="24" t="e">
-        <f>+(((1+N10/100)^(H10/365)/(1+$N$10/100)^($H$10/365))^(365/(H10-$H$10))-1)*100</f>
+      <c r="S10" s="24" t="e">
+        <f>+(((1+O10/100)^(H10/365)/(1+$O$10/100)^($H$10/365))^(365/(H10-$H$10))-1)*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S10" s="24"/>
       <c r="T10" s="24"/>
       <c r="U10" s="24"/>
       <c r="V10" s="24"/>
       <c r="W10" s="24"/>
       <c r="X10" s="24"/>
       <c r="Y10" s="24"/>
-      <c r="Z10" t="s">
+      <c r="Z10" s="24"/>
+      <c r="AA10" t="s">
         <v>24</v>
       </c>
-      <c r="AA10" s="12">
-        <f>+AA6-AA2</f>
+      <c r="AB10" s="12">
+        <f>+AB6-AB2</f>
         <v>56.731363501179821</v>
       </c>
-      <c r="AC10" s="11">
-        <f t="shared" ref="AC10:AC23" si="17">+A7</f>
+      <c r="AD10" s="11">
+        <f t="shared" ref="AD10:AD23" si="18">+A7</f>
         <v>45300</v>
       </c>
-      <c r="AD10" s="15">
-        <f t="shared" ref="AD10:AD23" si="18">+F7</f>
+      <c r="AE10" s="15">
+        <f t="shared" ref="AE10:AE23" si="19">+F7</f>
         <v>3750</v>
       </c>
-      <c r="AE10" s="13">
-        <f>+(1+$AA$3)^-YEARFRAC($AC10,$AC$10)</f>
+      <c r="AF10" s="13">
+        <f>+(1+$AB$3)^-YEARFRAC($AD10,$AD$10)</f>
         <v>1</v>
       </c>
-      <c r="AF10" s="13"/>
-    </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.75">
+      <c r="AG10" s="13"/>
+    </row>
+    <row r="11" spans="1:45" x14ac:dyDescent="0.75">
       <c r="A11" s="1">
         <v>46031</v>
       </c>
@@ -24374,7 +24398,7 @@
         <v>80000</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>83000</v>
       </c>
       <c r="G11">
@@ -24386,16 +24410,16 @@
         <v>843</v>
       </c>
       <c r="I11" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.3055555555555554</v>
       </c>
       <c r="J11" s="21">
-        <f t="shared" si="13"/>
-        <v>0.45131871012118224</v>
+        <f t="shared" si="14"/>
+        <v>0.45131875271978766</v>
       </c>
       <c r="K11" s="21">
-        <f t="shared" si="14"/>
-        <v>7.7840879041314689E-2</v>
+        <f t="shared" si="15"/>
+        <v>7.7840876399324965E-2</v>
       </c>
       <c r="L11" s="9">
         <f t="shared" si="7"/>
@@ -24406,59 +24430,63 @@
         <v>22265.21784771149</v>
       </c>
       <c r="N11" s="9">
+        <f t="shared" si="9"/>
+        <v>3.5228845230699437</v>
+      </c>
+      <c r="O11" s="9">
         <v>4.9705677799999997</v>
       </c>
-      <c r="O11" s="24">
-        <f t="shared" si="9"/>
+      <c r="P11" s="24">
+        <f t="shared" si="10"/>
         <v>4.8843294764046252</v>
-      </c>
-      <c r="P11" s="24">
-        <f t="shared" si="15"/>
-        <v>4.699784600691026</v>
       </c>
       <c r="Q11" s="24">
         <f t="shared" si="16"/>
+        <v>4.699784600691026</v>
+      </c>
+      <c r="R11" s="24">
+        <f t="shared" si="17"/>
         <v>4.4592622852936969</v>
       </c>
-      <c r="R11" s="24">
-        <f t="shared" ref="R11:R20" si="19">+(((1+N11/100)^(H11/365)/(1+$N$10/100)^($H$10/365))^(365/(H11-$H$10))-1)*100</f>
+      <c r="S11" s="24">
+        <f t="shared" ref="S11:S20" si="20">+(((1+O11/100)^(H11/365)/(1+$O$10/100)^($H$10/365))^(365/(H11-$H$10))-1)*100</f>
         <v>4.2948781085087262</v>
       </c>
-      <c r="S11" s="24" t="e">
-        <f>+(((1+N11/100)^(H11/365)/(1+$N$11/100)^($H$11/365))^(365/(H11-$H$11))-1)*100</f>
+      <c r="T11" s="24" t="e">
+        <f>+(((1+O11/100)^(H11/365)/(1+$O$11/100)^($H$11/365))^(365/(H11-$H$11))-1)*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T11" s="24"/>
       <c r="U11" s="24"/>
       <c r="V11" s="24"/>
       <c r="W11" s="24"/>
       <c r="X11" s="24"/>
       <c r="Y11" s="24"/>
-      <c r="Z11" t="s">
+      <c r="Z11" s="24"/>
+      <c r="AA11" t="s">
         <v>31</v>
       </c>
-      <c r="AA11" s="27">
-        <f>+AA10/SUM(AE8:AR8)*2</f>
+      <c r="AB11" s="27">
+        <f>+AB10/SUM(AF8:AS8)*2</f>
         <v>0.24130797886052366</v>
       </c>
-      <c r="AC11" s="11">
-        <f t="shared" si="17"/>
+      <c r="AD11" s="11">
+        <f t="shared" si="18"/>
         <v>45482</v>
       </c>
-      <c r="AD11" s="15">
-        <f t="shared" si="18"/>
+      <c r="AE11" s="15">
+        <f t="shared" si="19"/>
         <v>43750</v>
       </c>
-      <c r="AE11" s="25">
-        <f t="shared" ref="AE11:AE23" si="20">+(1+O8/100)^-((H8-$H$7)/365)</f>
+      <c r="AF11" s="25">
+        <f t="shared" ref="AF11:AF23" si="21">+(1+P8/100)^-((H8-$H$7)/365)</f>
         <v>0.97391868425700878</v>
       </c>
-      <c r="AF11" s="13">
-        <f>+(1+$AA$3)^-YEARFRAC($AC11,$AC$11)</f>
+      <c r="AG11" s="13">
+        <f>+(1+$AB$3)^-YEARFRAC($AD11,$AD$11)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:45" x14ac:dyDescent="0.75">
       <c r="A12" s="3">
         <v>46212</v>
       </c>
@@ -24475,7 +24503,7 @@
         <v>80000</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>82700</v>
       </c>
       <c r="G12">
@@ -24487,16 +24515,16 @@
         <v>1024</v>
       </c>
       <c r="I12" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>2.8055555555555554</v>
       </c>
       <c r="J12" s="21">
-        <f t="shared" si="13"/>
-        <v>0.38492844555236444</v>
+        <f t="shared" si="14"/>
+        <v>0.38492848915104028</v>
       </c>
       <c r="K12" s="21">
-        <f t="shared" si="14"/>
-        <v>6.6390264568817817E-2</v>
+        <f t="shared" si="15"/>
+        <v>6.6390263568747387E-2</v>
       </c>
       <c r="L12" s="9">
         <f t="shared" si="7"/>
@@ -24507,67 +24535,69 @@
         <v>21732.131635467882</v>
       </c>
       <c r="N12" s="9">
+        <f t="shared" si="9"/>
+        <v>2.9327190602096689</v>
+      </c>
+      <c r="O12" s="9">
         <v>4.8343869399999999</v>
       </c>
-      <c r="O12" s="24">
-        <f t="shared" si="9"/>
+      <c r="P12" s="24">
+        <f t="shared" si="10"/>
         <v>4.7486471868301461</v>
-      </c>
-      <c r="P12" s="24">
-        <f t="shared" si="15"/>
-        <v>4.5762530533879575</v>
       </c>
       <c r="Q12" s="24">
         <f t="shared" si="16"/>
+        <v>4.5762530533879575</v>
+      </c>
+      <c r="R12" s="24">
+        <f t="shared" si="17"/>
         <v>4.3740598904487893</v>
       </c>
-      <c r="R12" s="24">
-        <f t="shared" si="19"/>
+      <c r="S12" s="24">
+        <f t="shared" si="20"/>
         <v>4.2490357483834007</v>
       </c>
-      <c r="S12" s="24">
-        <f t="shared" ref="S12:S20" si="21">+(((1+N12/100)^(H12/365)/(1+$N$11/100)^($H$11/365))^(365/(H12-$H$11))-1)*100</f>
+      <c r="T12" s="24">
+        <f t="shared" ref="T12:T20" si="22">+(((1+O12/100)^(H12/365)/(1+$O$11/100)^($H$11/365))^(365/(H12-$H$11))-1)*100</f>
         <v>4.2024542236241746</v>
       </c>
-      <c r="T12" s="24" t="e">
-        <f>+(((1+N12/100)^(H12/365)/(1+$N$12/100)^($H$12/365))^(365/(H12-$H$12))-1)*100</f>
+      <c r="U12" s="24" t="e">
+        <f>+(((1+O12/100)^(H12/365)/(1+$O$12/100)^($H$12/365))^(365/(H12-$H$12))-1)*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U12" s="24"/>
       <c r="V12" s="24"/>
       <c r="W12" s="24"/>
       <c r="X12" s="24"/>
-      <c r="Y12" s="9">
-        <v>0.29420568250313217</v>
-      </c>
-      <c r="Z12" t="s">
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" t="s">
         <v>45</v>
       </c>
-      <c r="AA12" s="13">
-        <v>0.29420568250313217</v>
-      </c>
-      <c r="AC12" s="11">
-        <f t="shared" si="17"/>
+      <c r="AB12" s="13">
+        <v>0.29420565030218193</v>
+      </c>
+      <c r="AD12" s="11">
+        <f t="shared" si="18"/>
         <v>45666</v>
       </c>
-      <c r="AD12" s="15">
-        <f t="shared" si="18"/>
+      <c r="AE12" s="15">
+        <f t="shared" si="19"/>
         <v>83600</v>
       </c>
-      <c r="AE12" s="25">
-        <f t="shared" si="20"/>
+      <c r="AF12" s="25">
+        <f t="shared" si="21"/>
         <v>0.94944322717756691</v>
       </c>
-      <c r="AF12" s="25">
-        <f t="shared" ref="AF12:AF23" si="22">+(1+P9/100)^-((H9-$H$8)/365)</f>
+      <c r="AG12" s="25">
+        <f t="shared" ref="AG12:AG23" si="23">+(1+Q9/100)^-((H9-$H$8)/365)</f>
         <v>0.97486909587517168</v>
       </c>
-      <c r="AG12" s="13">
-        <f>+(1+$AA$3)^-YEARFRAC($AC12,$AC$12)</f>
+      <c r="AH12" s="13">
+        <f>+(1+$AB$3)^-YEARFRAC($AD12,$AD$12)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:45" x14ac:dyDescent="0.75">
       <c r="A13" s="1">
         <v>46396</v>
       </c>
@@ -24584,7 +24614,7 @@
         <v>80000</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>82400</v>
       </c>
       <c r="G13">
@@ -24596,16 +24626,16 @@
         <v>1208</v>
       </c>
       <c r="I13" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.3055555555555554</v>
       </c>
       <c r="J13" s="21">
-        <f t="shared" si="13"/>
-        <v>0.32830437753306291</v>
+        <f t="shared" si="14"/>
+        <v>0.32830442091578116</v>
       </c>
       <c r="K13" s="21">
-        <f t="shared" si="14"/>
-        <v>5.6624068019301546E-2</v>
+        <f t="shared" si="15"/>
+        <v>5.6624068235259097E-2</v>
       </c>
       <c r="L13" s="9">
         <f t="shared" si="7"/>
@@ -24616,72 +24646,76 @@
         <v>21220.594767062496</v>
       </c>
       <c r="N13" s="9">
+        <f t="shared" si="9"/>
+        <v>2.4424313327712626</v>
+      </c>
+      <c r="O13" s="9">
         <v>4.7259706399999999</v>
       </c>
-      <c r="O13" s="24">
-        <f t="shared" si="9"/>
+      <c r="P13" s="24">
+        <f t="shared" si="10"/>
         <v>4.643628854920534</v>
-      </c>
-      <c r="P13" s="24">
-        <f t="shared" si="15"/>
-        <v>4.4851834308631044</v>
       </c>
       <c r="Q13" s="24">
         <f t="shared" si="16"/>
+        <v>4.4851834308631044</v>
+      </c>
+      <c r="R13" s="24">
+        <f t="shared" si="17"/>
         <v>4.3111400407220835</v>
       </c>
-      <c r="R13" s="24">
-        <f t="shared" si="19"/>
+      <c r="S13" s="24">
+        <f t="shared" si="20"/>
         <v>4.207332532597996</v>
       </c>
-      <c r="S13" s="24">
-        <f t="shared" si="21"/>
+      <c r="T13" s="24">
+        <f t="shared" si="22"/>
         <v>4.1632278320903771</v>
       </c>
-      <c r="T13" s="24">
-        <f t="shared" ref="T13:T20" si="23">+(((1+N13/100)^(H13/365)/(1+$N$12/100)^($H$12/365))^(365/(H13-$H$12))-1)*100</f>
+      <c r="U13" s="24">
+        <f t="shared" ref="U13:U20" si="24">+(((1+O13/100)^(H13/365)/(1+$O$12/100)^($H$12/365))^(365/(H13-$H$12))-1)*100</f>
         <v>4.1246554086828757</v>
       </c>
-      <c r="U13" s="24" t="e">
-        <f>+(((1+N13/100)^(H13/365)/(1+$N$13/100)^($H$13/365))^(365/(H13-$H$13))-1)*100</f>
+      <c r="V13" s="24" t="e">
+        <f>+(((1+O13/100)^(H13/365)/(1+$O$13/100)^($H$13/365))^(365/(H13-$H$13))-1)*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V13" s="24"/>
       <c r="W13" s="24"/>
       <c r="X13" s="24"/>
       <c r="Y13" s="24"/>
-      <c r="Z13" t="s">
+      <c r="Z13" s="24"/>
+      <c r="AA13" t="s">
         <v>48</v>
       </c>
-      <c r="AA13" s="20">
+      <c r="AB13" s="20">
         <v>1.7664116049495957</v>
       </c>
-      <c r="AC13" s="11">
-        <f t="shared" si="17"/>
+      <c r="AD13" s="11">
+        <f t="shared" si="18"/>
         <v>45847</v>
       </c>
-      <c r="AD13" s="15">
-        <f t="shared" si="18"/>
+      <c r="AE13" s="15">
+        <f t="shared" si="19"/>
         <v>83300</v>
       </c>
-      <c r="AE13" s="25">
-        <f t="shared" si="20"/>
+      <c r="AF13" s="25">
+        <f t="shared" si="21"/>
         <v>0.92838601596869119</v>
       </c>
-      <c r="AF13" s="25">
-        <f t="shared" si="22"/>
+      <c r="AG13" s="25">
+        <f t="shared" si="23"/>
         <v>0.95324797744993039</v>
       </c>
-      <c r="AG13" s="25">
-        <f>+(1+Q10/100)^-((H10-$H$9)/365)</f>
+      <c r="AH13" s="25">
+        <f>+(1+R10/100)^-((H10-$H$9)/365)</f>
         <v>0.97782151622538471</v>
       </c>
-      <c r="AH13" s="13">
-        <f t="shared" ref="AH13" si="24">+(1+$AA$3)^-YEARFRAC($AC13,$AC$13)</f>
+      <c r="AI13" s="13">
+        <f t="shared" ref="AI13" si="25">+(1+$AB$3)^-YEARFRAC($AD13,$AD$13)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:45" x14ac:dyDescent="0.75">
       <c r="A14" s="3">
         <v>46577</v>
       </c>
@@ -24698,7 +24732,7 @@
         <v>80000</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>82100</v>
       </c>
       <c r="G14">
@@ -24710,16 +24744,16 @@
         <v>1389</v>
       </c>
       <c r="I14" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>3.8055555555555554</v>
       </c>
       <c r="J14" s="21">
-        <f t="shared" si="13"/>
-        <v>0.28000987080262257</v>
+        <f t="shared" si="14"/>
+        <v>0.28000991308947681</v>
       </c>
       <c r="K14" s="21">
-        <f t="shared" si="14"/>
-        <v>4.8294506730440355E-2</v>
+        <f t="shared" si="15"/>
+        <v>4.8294507826304331E-2</v>
       </c>
       <c r="L14" s="9">
         <f t="shared" si="7"/>
@@ -24730,80 +24764,84 @@
         <v>20725.941951650704</v>
       </c>
       <c r="N14" s="9">
+        <f t="shared" si="9"/>
+        <v>2.0345846514389043</v>
+      </c>
+      <c r="O14" s="9">
         <v>4.6393241200000004</v>
       </c>
-      <c r="O14" s="24">
-        <f t="shared" si="9"/>
+      <c r="P14" s="24">
+        <f t="shared" si="10"/>
         <v>4.561117031462425</v>
-      </c>
-      <c r="P14" s="24">
-        <f t="shared" si="15"/>
-        <v>4.4152592058345652</v>
       </c>
       <c r="Q14" s="24">
         <f t="shared" si="16"/>
+        <v>4.4152592058345652</v>
+      </c>
+      <c r="R14" s="24">
+        <f t="shared" si="17"/>
         <v>4.261767016018303</v>
       </c>
-      <c r="R14" s="24">
-        <f t="shared" si="19"/>
+      <c r="S14" s="24">
+        <f t="shared" si="20"/>
         <v>4.1714963743308742</v>
       </c>
-      <c r="S14" s="24">
-        <f t="shared" si="21"/>
+      <c r="T14" s="24">
+        <f t="shared" si="22"/>
         <v>4.1299500729113925</v>
       </c>
-      <c r="T14" s="24">
-        <f t="shared" si="23"/>
+      <c r="U14" s="24">
+        <f t="shared" si="24"/>
         <v>4.094014673277302</v>
       </c>
-      <c r="U14" s="24">
-        <f t="shared" ref="U14:U20" si="25">+(((1+N14/100)^(H14/365)/(1+$N$13/100)^($H$13/365))^(365/(H14-$H$13))-1)*100</f>
+      <c r="V14" s="24">
+        <f t="shared" ref="V14:V20" si="26">+(((1+O14/100)^(H14/365)/(1+$O$13/100)^($H$13/365))^(365/(H14-$H$13))-1)*100</f>
         <v>4.0628753224142278</v>
       </c>
-      <c r="V14" s="24" t="e">
-        <f>+(((1+N14/100)^(H14/365)/(1+$N$14/100)^($H$14/365))^(365/(H14-$H$14))-1)*100</f>
+      <c r="W14" s="24" t="e">
+        <f>+(((1+O14/100)^(H14/365)/(1+$O$14/100)^($H$14/365))^(365/(H14-$H$14))-1)*100</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W14" s="24"/>
       <c r="X14" s="24"/>
       <c r="Y14" s="24"/>
-      <c r="Z14" t="s">
+      <c r="Z14" s="24"/>
+      <c r="AA14" t="s">
         <v>21</v>
       </c>
-      <c r="AA14" s="20">
-        <f>+AA11-AA12</f>
-        <v>-5.2897703642608512E-2</v>
-      </c>
-      <c r="AC14" s="11">
-        <f t="shared" si="17"/>
+      <c r="AB14" s="20">
+        <f>+AB11-AB12</f>
+        <v>-5.2897671441658273E-2</v>
+      </c>
+      <c r="AD14" s="11">
+        <f t="shared" si="18"/>
         <v>46031</v>
       </c>
-      <c r="AD14" s="15">
-        <f t="shared" si="18"/>
+      <c r="AE14" s="15">
+        <f t="shared" si="19"/>
         <v>83000</v>
       </c>
-      <c r="AE14" s="25">
-        <f t="shared" si="20"/>
+      <c r="AF14" s="25">
+        <f t="shared" si="21"/>
         <v>0.90891243763956242</v>
       </c>
-      <c r="AF14" s="25">
-        <f t="shared" si="22"/>
+      <c r="AG14" s="25">
+        <f t="shared" si="23"/>
         <v>0.93325290122446036</v>
       </c>
-      <c r="AG14" s="25">
-        <f>+(1+Q11/100)^-(($H11-$H$9)/365)</f>
+      <c r="AH14" s="25">
+        <f>+(1+R11/100)^-(($H11-$H$9)/365)</f>
         <v>0.95731099198159386</v>
       </c>
-      <c r="AH14" s="25">
-        <f>+(1+R11/100)^-(($H11-$H$10)/365)</f>
+      <c r="AI14" s="25">
+        <f>+(1+S11/100)^-(($H11-$H$10)/365)</f>
         <v>0.97902426577504031</v>
       </c>
-      <c r="AI14" s="13">
-        <f t="shared" ref="AI14" si="26">+(1+$AA$3)^-YEARFRAC($AC14,$AC$14)</f>
+      <c r="AJ14" s="13">
+        <f t="shared" ref="AJ14" si="27">+(1+$AB$3)^-YEARFRAC($AD14,$AD$14)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.75">
       <c r="A15" s="1">
         <v>46761</v>
       </c>
@@ -24820,7 +24858,7 @@
         <v>80000</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>84200</v>
       </c>
       <c r="G15">
@@ -24832,16 +24870,16 @@
         <v>1573</v>
       </c>
       <c r="I15" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.3055555555555554</v>
       </c>
       <c r="J15" s="21">
-        <f t="shared" si="13"/>
-        <v>0.23881962322907288</v>
+        <f t="shared" si="14"/>
+        <v>0.23881966380370334</v>
       </c>
       <c r="K15" s="21">
-        <f t="shared" si="14"/>
-        <v>4.11902475735497E-2</v>
+        <f t="shared" si="15"/>
+        <v>4.1190249285773486E-2</v>
       </c>
       <c r="L15" s="9">
         <f t="shared" si="7"/>
@@ -24852,87 +24890,91 @@
         <v>20837.91879204199</v>
       </c>
       <c r="N15" s="9">
+        <f t="shared" si="9"/>
+        <v>1.7446668270588714</v>
+      </c>
+      <c r="O15" s="9">
         <v>4.5711533299999996</v>
       </c>
-      <c r="O15" s="24">
-        <f t="shared" si="9"/>
+      <c r="P15" s="24">
+        <f t="shared" si="10"/>
         <v>4.4976163343802833</v>
-      </c>
-      <c r="P15" s="24">
-        <f t="shared" si="15"/>
-        <v>4.3637831314438325</v>
       </c>
       <c r="Q15" s="24">
         <f t="shared" si="16"/>
+        <v>4.3637831314438325</v>
+      </c>
+      <c r="R15" s="24">
+        <f t="shared" si="17"/>
         <v>4.2274936254728335</v>
       </c>
-      <c r="R15" s="24">
+      <c r="S15" s="24">
+        <f t="shared" si="20"/>
+        <v>4.148631894552568</v>
+      </c>
+      <c r="T15" s="24">
+        <f t="shared" si="22"/>
+        <v>4.111802205426307</v>
+      </c>
+      <c r="U15" s="24">
+        <f t="shared" si="24"/>
+        <v>4.0819323999029322</v>
+      </c>
+      <c r="V15" s="24">
+        <f t="shared" si="26"/>
+        <v>4.0604019677131342</v>
+      </c>
+      <c r="W15" s="24">
+        <f t="shared" ref="W15:W20" si="28">+(((1+O15/100)^(H15/365)/(1+$O$14/100)^($H$14/365))^(365/(H15-$H$14))-1)*100</f>
+        <v>4.0579689968039068</v>
+      </c>
+      <c r="X15" s="24" t="e">
+        <f>+(((1+O15/100)^(H15/365)/(1+$O$15/100)^($H$15/365))^(365/(H15-$H$15))-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Y15" s="24"/>
+      <c r="Z15" s="24"/>
+      <c r="AA15" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB15" s="9">
+        <f>+SUM(N7:N20)</f>
+        <v>30.680003097614904</v>
+      </c>
+      <c r="AD15" s="11">
+        <f t="shared" si="18"/>
+        <v>46212</v>
+      </c>
+      <c r="AE15" s="15">
         <f t="shared" si="19"/>
-        <v>4.148631894552568</v>
-      </c>
-      <c r="S15" s="24">
+        <v>82700</v>
+      </c>
+      <c r="AF15" s="25">
         <f t="shared" si="21"/>
-        <v>4.111802205426307</v>
-      </c>
-      <c r="T15" s="24">
+        <v>0.89054638184803325</v>
+      </c>
+      <c r="AG15" s="25">
         <f t="shared" si="23"/>
-        <v>4.0819323999029322</v>
-      </c>
-      <c r="U15" s="24">
-        <f t="shared" si="25"/>
-        <v>4.0604019677131342</v>
-      </c>
-      <c r="V15" s="24">
-        <f t="shared" ref="V15:V20" si="27">+(((1+N15/100)^(H15/365)/(1+$N$14/100)^($H$14/365))^(365/(H15-$H$14))-1)*100</f>
-        <v>4.0579689968039068</v>
-      </c>
-      <c r="W15" s="24" t="e">
-        <f>+(((1+N15/100)^(H15/365)/(1+$N$15/100)^($H$15/365))^(365/(H15-$H$15))-1)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="X15" s="24"/>
-      <c r="Y15" s="24"/>
-      <c r="Z15" t="s">
-        <v>7</v>
-      </c>
-      <c r="AA15" s="9">
-        <f>+SUMPRODUCT(J7:J20,L7:L20)/10000+SUMPRODUCT(K7:K20,M7:M20)/10000</f>
-        <v>30.679999837177466</v>
-      </c>
-      <c r="AC15" s="11">
-        <f t="shared" si="17"/>
-        <v>46212</v>
-      </c>
-      <c r="AD15" s="15">
-        <f t="shared" si="18"/>
-        <v>82700</v>
-      </c>
-      <c r="AE15" s="25">
-        <f t="shared" si="20"/>
-        <v>0.89054638184803325</v>
-      </c>
-      <c r="AF15" s="25">
-        <f t="shared" si="22"/>
         <v>0.91439500673243634</v>
       </c>
-      <c r="AG15" s="25">
-        <f t="shared" ref="AG15:AG23" si="28">+(1+Q12/100)^-((H12-$H$9)/365)</f>
+      <c r="AH15" s="25">
+        <f t="shared" ref="AH15:AH23" si="29">+(1+R12/100)^-((H12-$H$9)/365)</f>
         <v>0.93796696459185058</v>
       </c>
-      <c r="AH15" s="25">
-        <f t="shared" ref="AH15:AH23" si="29">+(1+R12/100)^-(($H12-$H$10)/365)</f>
+      <c r="AI15" s="25">
+        <f t="shared" ref="AI15:AI23" si="30">+(1+S12/100)^-(($H12-$H$10)/365)</f>
         <v>0.95924148633241157</v>
       </c>
-      <c r="AI15" s="25">
-        <f>+(1+S12/100)^-(($H12-$H$11)/365)</f>
+      <c r="AJ15" s="25">
+        <f>+(1+T12/100)^-(($H12-$H$11)/365)</f>
         <v>0.97979337169240877</v>
       </c>
-      <c r="AJ15" s="13">
-        <f t="shared" ref="AJ15" si="30">+(1+$AA$3)^-YEARFRAC($AC15,$AC$15)</f>
+      <c r="AK15" s="13">
+        <f t="shared" ref="AK15" si="31">+(1+$AB$3)^-YEARFRAC($AD15,$AD$15)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:45" x14ac:dyDescent="0.75">
       <c r="A16" s="3">
         <v>46943</v>
       </c>
@@ -24949,7 +24991,7 @@
         <v>80000</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>83500</v>
       </c>
       <c r="G16">
@@ -24961,16 +25003,16 @@
         <v>1755</v>
       </c>
       <c r="I16" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>4.8055555555555554</v>
       </c>
       <c r="J16" s="21">
-        <f t="shared" si="13"/>
-        <v>0.20368857810544777</v>
+        <f t="shared" si="14"/>
+        <v>0.20368861655654483</v>
       </c>
       <c r="K16" s="21">
-        <f t="shared" si="14"/>
-        <v>3.5131045123625117E-2</v>
+        <f t="shared" si="15"/>
+        <v>3.5131047247158501E-2</v>
       </c>
       <c r="L16" s="9">
         <f t="shared" si="7"/>
@@ -24981,94 +25023,98 @@
         <v>20252.493712043499</v>
       </c>
       <c r="N16" s="9">
+        <f t="shared" si="9"/>
+        <v>1.446216606689146</v>
+      </c>
+      <c r="O16" s="9">
         <v>4.5232771300000003</v>
       </c>
-      <c r="O16" s="24">
-        <f t="shared" si="9"/>
+      <c r="P16" s="24">
+        <f t="shared" si="10"/>
         <v>4.4546526525185648</v>
-      </c>
-      <c r="P16" s="24">
-        <f t="shared" si="15"/>
-        <v>4.3321853274355338</v>
       </c>
       <c r="Q16" s="24">
         <f t="shared" si="16"/>
+        <v>4.3321853274355338</v>
+      </c>
+      <c r="R16" s="24">
+        <f t="shared" si="17"/>
         <v>4.2107975476220361</v>
       </c>
-      <c r="R16" s="24">
+      <c r="S16" s="24">
+        <f t="shared" si="20"/>
+        <v>4.1422825788048456</v>
+      </c>
+      <c r="T16" s="24">
+        <f t="shared" si="22"/>
+        <v>4.1115228382808899</v>
+      </c>
+      <c r="U16" s="24">
+        <f t="shared" si="24"/>
+        <v>4.0890199388937898</v>
+      </c>
+      <c r="V16" s="24">
+        <f t="shared" si="26"/>
+        <v>4.0770356118608575</v>
+      </c>
+      <c r="W16" s="24">
+        <f t="shared" si="28"/>
+        <v>4.0840390900061418</v>
+      </c>
+      <c r="X16" s="24">
+        <f t="shared" ref="X16:X20" si="32">+(((1+O16/100)^(H16/365)/(1+$O$15/100)^($H$15/365))^(365/(H16-$H$15))-1)*100</f>
+        <v>4.1104023072640494</v>
+      </c>
+      <c r="Y16" s="24" t="e">
+        <f>+(((1+O16/100)^(H16/365)/(1+$O$16/100)^($H$16/365))^(365/(H16-$H$16))-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z16" s="24"/>
+      <c r="AA16" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB16" s="12">
+        <f>+AB15-AB2</f>
+        <v>3.0976149041350709E-6</v>
+      </c>
+      <c r="AD16" s="11">
+        <f t="shared" si="18"/>
+        <v>46396</v>
+      </c>
+      <c r="AE16" s="15">
         <f t="shared" si="19"/>
-        <v>4.1422825788048456</v>
-      </c>
-      <c r="S16" s="24">
+        <v>82400</v>
+      </c>
+      <c r="AF16" s="25">
         <f t="shared" si="21"/>
-        <v>4.1115228382808899</v>
-      </c>
-      <c r="T16" s="24">
+        <v>0.87258474661011476</v>
+      </c>
+      <c r="AG16" s="25">
         <f t="shared" si="23"/>
-        <v>4.0890199388937898</v>
-      </c>
-      <c r="U16" s="24">
-        <f t="shared" si="25"/>
-        <v>4.0770356118608575</v>
-      </c>
-      <c r="V16" s="24">
-        <f t="shared" si="27"/>
-        <v>4.0840390900061418</v>
-      </c>
-      <c r="W16" s="24">
-        <f t="shared" ref="W16:W20" si="31">+(((1+N16/100)^(H16/365)/(1+$N$15/100)^($H$15/365))^(365/(H16-$H$15))-1)*100</f>
-        <v>4.1104023072640494</v>
-      </c>
-      <c r="X16" s="24" t="e">
-        <f>+(((1+N16/100)^(H16/365)/(1+$N$16/100)^($H$16/365))^(365/(H16-$H$16))-1)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Y16" s="24"/>
-      <c r="Z16" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA16" s="12">
-        <f>+AA15-AA2</f>
-        <v>-1.6282253412214232E-7</v>
-      </c>
-      <c r="AC16" s="11">
-        <f t="shared" si="17"/>
-        <v>46396</v>
-      </c>
-      <c r="AD16" s="15">
-        <f t="shared" si="18"/>
-        <v>82400</v>
-      </c>
-      <c r="AE16" s="25">
-        <f t="shared" si="20"/>
-        <v>0.87258474661011476</v>
-      </c>
-      <c r="AF16" s="25">
-        <f t="shared" si="22"/>
         <v>0.89595236308234438</v>
-      </c>
-      <c r="AG16" s="25">
-        <f t="shared" si="28"/>
-        <v>0.9190488926905811</v>
       </c>
       <c r="AH16" s="25">
         <f t="shared" si="29"/>
+        <v>0.9190488926905811</v>
+      </c>
+      <c r="AI16" s="25">
+        <f t="shared" si="30"/>
         <v>0.93989432369858295</v>
       </c>
-      <c r="AI16" s="25">
-        <f t="shared" ref="AI16:AI23" si="32">+(1+S13/100)^-(($H13-$H$11)/365)</f>
+      <c r="AJ16" s="25">
+        <f t="shared" ref="AJ16:AJ23" si="33">+(1+T13/100)^-(($H13-$H$11)/365)</f>
         <v>0.96003169334574157</v>
       </c>
-      <c r="AJ16" s="25">
-        <f>+(1+T13/100)^-(($H13-$H$12)/365)</f>
+      <c r="AK16" s="25">
+        <f>+(1+U13/100)^-(($H13-$H$12)/365)</f>
         <v>0.97983076950956227</v>
       </c>
-      <c r="AK16" s="13">
-        <f t="shared" ref="AK16" si="33">+(1+$AA$3)^-YEARFRAC($AC16,$AC$16)</f>
+      <c r="AL16" s="13">
+        <f t="shared" ref="AL16" si="34">+(1+$AB$3)^-YEARFRAC($AD16,$AD$16)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:44" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:45" x14ac:dyDescent="0.75">
       <c r="A17" s="1">
         <v>47127</v>
       </c>
@@ -25085,7 +25131,7 @@
         <v>80000</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>82800</v>
       </c>
       <c r="G17">
@@ -25097,16 +25143,16 @@
         <v>1939</v>
       </c>
       <c r="I17" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.3055555555555554</v>
       </c>
       <c r="J17" s="21">
-        <f t="shared" si="13"/>
-        <v>0.17372540953564489</v>
+        <f t="shared" si="14"/>
+        <v>0.17372544560995981</v>
       </c>
       <c r="K17" s="21">
-        <f t="shared" si="14"/>
-        <v>2.9963168569802891E-2</v>
+        <f t="shared" si="15"/>
+        <v>2.9963170946585026E-2</v>
       </c>
       <c r="L17" s="9">
         <f t="shared" si="7"/>
@@ -25117,94 +25163,98 @@
         <v>19672.398338756644</v>
       </c>
       <c r="N17" s="9">
+        <f t="shared" si="9"/>
+        <v>1.1981434659743917</v>
+      </c>
+      <c r="O17" s="9">
         <v>4.4941832899999996</v>
       </c>
-      <c r="O17" s="24">
-        <f t="shared" si="9"/>
+      <c r="P17" s="24">
+        <f t="shared" si="10"/>
         <v>4.4307030134264735</v>
-      </c>
-      <c r="P17" s="24">
-        <f t="shared" si="15"/>
-        <v>4.3193053155156313</v>
       </c>
       <c r="Q17" s="24">
         <f t="shared" si="16"/>
+        <v>4.3193053155156313</v>
+      </c>
+      <c r="R17" s="24">
+        <f t="shared" si="17"/>
         <v>4.2115902120785975</v>
       </c>
-      <c r="R17" s="24">
+      <c r="S17" s="24">
+        <f t="shared" si="20"/>
+        <v>4.1530330758927203</v>
+      </c>
+      <c r="T17" s="24">
+        <f t="shared" si="22"/>
+        <v>4.1292385955917554</v>
+      </c>
+      <c r="U17" s="24">
+        <f t="shared" si="24"/>
+        <v>4.1147615999095999</v>
+      </c>
+      <c r="V17" s="24">
+        <f t="shared" si="26"/>
+        <v>4.1122713775396003</v>
+      </c>
+      <c r="W17" s="24">
+        <f t="shared" si="28"/>
+        <v>4.1285322974609517</v>
+      </c>
+      <c r="X17" s="24">
+        <f t="shared" si="32"/>
+        <v>4.1640248163483884</v>
+      </c>
+      <c r="Y17" s="24">
+        <f t="shared" ref="Y17:Y20" si="35">+(((1+O17/100)^(H17/365)/(1+$O$16/100)^($H$16/365))^(365/(H17-$H$16))-1)*100</f>
+        <v>4.2170916418554194</v>
+      </c>
+      <c r="Z17" s="24" t="e">
+        <f>+(((1+O17/100)^(H17/365)/(1+$O$17/100)^($H$17/365))^(365/(H17-$H$17))-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD17" s="11">
+        <f t="shared" si="18"/>
+        <v>46577</v>
+      </c>
+      <c r="AE17" s="15">
         <f t="shared" si="19"/>
-        <v>4.1530330758927203</v>
-      </c>
-      <c r="S17" s="24">
+        <v>82100</v>
+      </c>
+      <c r="AF17" s="25">
         <f t="shared" si="21"/>
-        <v>4.1292385955917554</v>
-      </c>
-      <c r="T17" s="24">
+        <v>0.85552121766387323</v>
+      </c>
+      <c r="AG17" s="25">
         <f t="shared" si="23"/>
-        <v>4.1147615999095999</v>
-      </c>
-      <c r="U17" s="24">
-        <f t="shared" si="25"/>
-        <v>4.1122713775396003</v>
-      </c>
-      <c r="V17" s="24">
-        <f t="shared" si="27"/>
-        <v>4.1285322974609517</v>
-      </c>
-      <c r="W17" s="24">
-        <f t="shared" si="31"/>
-        <v>4.1640248163483884</v>
-      </c>
-      <c r="X17" s="24">
-        <f t="shared" ref="X17:X20" si="34">+(((1+N17/100)^(H17/365)/(1+$N$16/100)^($H$16/365))^(365/(H17-$H$16))-1)*100</f>
-        <v>4.2170916418554194</v>
-      </c>
-      <c r="Y17" s="24" t="e">
-        <f>+(((1+N17/100)^(H17/365)/(1+$N$17/100)^($H$17/365))^(365/(H17-$H$17))-1)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC17" s="11">
-        <f t="shared" si="17"/>
-        <v>46577</v>
-      </c>
-      <c r="AD17" s="15">
-        <f t="shared" si="18"/>
-        <v>82100</v>
-      </c>
-      <c r="AE17" s="25">
-        <f t="shared" si="20"/>
-        <v>0.85552121766387323</v>
-      </c>
-      <c r="AF17" s="25">
-        <f t="shared" si="22"/>
         <v>0.87843187680143997</v>
-      </c>
-      <c r="AG17" s="25">
-        <f t="shared" si="28"/>
-        <v>0.90107675022033928</v>
       </c>
       <c r="AH17" s="25">
         <f t="shared" si="29"/>
+        <v>0.90107675022033928</v>
+      </c>
+      <c r="AI17" s="25">
+        <f t="shared" si="30"/>
         <v>0.92151454561840929</v>
       </c>
-      <c r="AI17" s="25">
-        <f t="shared" si="32"/>
+      <c r="AJ17" s="25">
+        <f t="shared" si="33"/>
         <v>0.941258125904465</v>
       </c>
-      <c r="AJ17" s="25">
-        <f t="shared" ref="AJ17:AJ23" si="35">+(1+T14/100)^-(($H14-$H$12)/365)</f>
+      <c r="AK17" s="25">
+        <f t="shared" ref="AK17:AK23" si="36">+(1+U14/100)^-(($H14-$H$12)/365)</f>
         <v>0.96067002808828827</v>
       </c>
-      <c r="AK17" s="25">
-        <f>+(1+U14/100)^-(($H14-$H$13)/365)</f>
+      <c r="AL17" s="25">
+        <f>+(1+V14/100)^-(($H14-$H$13)/365)</f>
         <v>0.98044484617393202</v>
       </c>
-      <c r="AL17" s="13">
-        <f t="shared" ref="AL17" si="36">+(1+$AA$3)^-YEARFRAC($AC17,$AC$17)</f>
+      <c r="AM17" s="13">
+        <f t="shared" ref="AM17" si="37">+(1+$AB$3)^-YEARFRAC($AD17,$AD$17)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:44" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:45" x14ac:dyDescent="0.75">
       <c r="A18" s="3">
         <v>47308</v>
       </c>
@@ -25221,7 +25271,7 @@
         <v>80000</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>82100</v>
       </c>
       <c r="G18">
@@ -25233,16 +25283,16 @@
         <v>2120</v>
       </c>
       <c r="I18" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>5.8055555555555554</v>
       </c>
       <c r="J18" s="21">
-        <f t="shared" si="13"/>
-        <v>0.14816990819535963</v>
+        <f t="shared" si="14"/>
+        <v>0.14816994176010254</v>
       </c>
       <c r="K18" s="21">
-        <f t="shared" si="14"/>
-        <v>2.5555501340285267E-2</v>
+        <f t="shared" si="15"/>
+        <v>2.5555503849857282E-2</v>
       </c>
       <c r="L18" s="9">
         <f t="shared" si="7"/>
@@ -25253,102 +25303,106 @@
         <v>19096.45387221182</v>
       </c>
       <c r="N18" s="9">
+        <f t="shared" si="9"/>
+        <v>0.99197543606836303</v>
+      </c>
+      <c r="O18" s="9">
         <v>4.4805632800000001</v>
       </c>
-      <c r="O18" s="24">
-        <f t="shared" si="9"/>
+      <c r="P18" s="24">
+        <f t="shared" si="10"/>
         <v>4.4220518172592094</v>
-      </c>
-      <c r="P18" s="24">
-        <f t="shared" si="15"/>
-        <v>4.3208378761914856</v>
       </c>
       <c r="Q18" s="24">
         <f t="shared" si="16"/>
+        <v>4.3208378761914856</v>
+      </c>
+      <c r="R18" s="24">
+        <f t="shared" si="17"/>
         <v>4.2251610776168125</v>
       </c>
-      <c r="R18" s="24">
+      <c r="S18" s="24">
+        <f t="shared" si="20"/>
+        <v>4.1755305452836566</v>
+      </c>
+      <c r="T18" s="24">
+        <f t="shared" si="22"/>
+        <v>4.1583452893522832</v>
+      </c>
+      <c r="U18" s="24">
+        <f t="shared" si="24"/>
+        <v>4.1510626725093092</v>
+      </c>
+      <c r="V18" s="24">
+        <f t="shared" si="26"/>
+        <v>4.1563912656517266</v>
+      </c>
+      <c r="W18" s="24">
+        <f t="shared" si="28"/>
+        <v>4.1795593534426079</v>
+      </c>
+      <c r="X18" s="24">
+        <f t="shared" si="32"/>
+        <v>4.2204918744895847</v>
+      </c>
+      <c r="Y18" s="24">
+        <f t="shared" si="35"/>
+        <v>4.2754293379786867</v>
+      </c>
+      <c r="Z18" s="24">
+        <f t="shared" ref="Z18:Z20" si="38">+(((1+O18/100)^(H18/365)/(1+$O$17/100)^($H$17/365))^(365/(H18-$H$17))-1)*100</f>
+        <v>4.3347674294595295</v>
+      </c>
+      <c r="AA18" s="24" t="e">
+        <f>+(((1+O18/100)^(H18/365)/(1+$O$18/100)^($H$18/365))^(365/(H18-$H$18))-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD18" s="11">
+        <f t="shared" si="18"/>
+        <v>46761</v>
+      </c>
+      <c r="AE18" s="15">
         <f t="shared" si="19"/>
-        <v>4.1755305452836566</v>
-      </c>
-      <c r="S18" s="24">
+        <v>84200</v>
+      </c>
+      <c r="AF18" s="25">
         <f t="shared" si="21"/>
-        <v>4.1583452893522832</v>
-      </c>
-      <c r="T18" s="24">
+        <v>0.83853678258983899</v>
+      </c>
+      <c r="AG18" s="25">
         <f t="shared" si="23"/>
-        <v>4.1510626725093092</v>
-      </c>
-      <c r="U18" s="24">
-        <f t="shared" si="25"/>
-        <v>4.1563912656517266</v>
-      </c>
-      <c r="V18" s="24">
-        <f t="shared" si="27"/>
-        <v>4.1795593534426079</v>
-      </c>
-      <c r="W18" s="24">
-        <f t="shared" si="31"/>
-        <v>4.2204918744895847</v>
-      </c>
-      <c r="X18" s="24">
-        <f t="shared" si="34"/>
-        <v>4.2754293379786867</v>
-      </c>
-      <c r="Y18" s="24">
-        <f t="shared" ref="Y18:Y20" si="37">+(((1+N18/100)^(H18/365)/(1+$N$17/100)^($H$17/365))^(365/(H18-$H$17))-1)*100</f>
-        <v>4.3347674294595295</v>
-      </c>
-      <c r="Z18" s="24" t="e">
-        <f>+(((1+N18/100)^(H18/365)/(1+$N$18/100)^($H$18/365))^(365/(H18-$H$18))-1)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC18" s="11">
-        <f t="shared" si="17"/>
-        <v>46761</v>
-      </c>
-      <c r="AD18" s="15">
-        <f t="shared" si="18"/>
-        <v>84200</v>
-      </c>
-      <c r="AE18" s="25">
-        <f t="shared" si="20"/>
-        <v>0.83853678258983899</v>
-      </c>
-      <c r="AF18" s="25">
-        <f t="shared" si="22"/>
         <v>0.86099260250823562</v>
-      </c>
-      <c r="AG18" s="25">
-        <f t="shared" si="28"/>
-        <v>0.88318791328111057</v>
       </c>
       <c r="AH18" s="25">
         <f t="shared" si="29"/>
+        <v>0.88318791328111057</v>
+      </c>
+      <c r="AI18" s="25">
+        <f t="shared" si="30"/>
         <v>0.90321996256578418</v>
       </c>
-      <c r="AI18" s="25">
-        <f t="shared" si="32"/>
+      <c r="AJ18" s="25">
+        <f t="shared" si="33"/>
         <v>0.92257157880632723</v>
       </c>
-      <c r="AJ18" s="25">
-        <f t="shared" si="35"/>
+      <c r="AK18" s="25">
+        <f t="shared" si="36"/>
         <v>0.94159810166173952</v>
       </c>
-      <c r="AK18" s="25">
-        <f t="shared" ref="AK18:AK23" si="38">+(1+U15/100)^-(($H15-$H$13)/365)</f>
+      <c r="AL18" s="25">
+        <f t="shared" ref="AL18:AL23" si="39">+(1+V15/100)^-(($H15-$H$13)/365)</f>
         <v>0.96098033554614792</v>
       </c>
-      <c r="AL18" s="25">
-        <f>+(1+V15/100)^-(($H15-$H$14)/365)</f>
+      <c r="AM18" s="25">
+        <f>+(1+W15/100)^-(($H15-$H$14)/365)</f>
         <v>0.9801472661070717</v>
       </c>
-      <c r="AM18" s="13">
-        <f t="shared" ref="AM18" si="39">+(1+$AA$3)^-YEARFRAC($AC18,$AC$18)</f>
+      <c r="AN18" s="13">
+        <f t="shared" ref="AN18" si="40">+(1+$AB$3)^-YEARFRAC($AD18,$AD$18)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:44" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:45" x14ac:dyDescent="0.75">
       <c r="A19" s="1">
         <v>47492</v>
       </c>
@@ -25365,7 +25419,7 @@
         <v>80000</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>81400</v>
       </c>
       <c r="G19">
@@ -25377,16 +25431,16 @@
         <v>2304</v>
       </c>
       <c r="I19" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.3055555555555554</v>
       </c>
       <c r="J19" s="21">
-        <f t="shared" si="13"/>
-        <v>0.12637369371183854</v>
+        <f t="shared" si="14"/>
+        <v>0.12637372472471883</v>
       </c>
       <c r="K19" s="21">
-        <f t="shared" si="14"/>
-        <v>2.1796214483521099E-2</v>
+        <f t="shared" si="15"/>
+        <v>2.1796217035383696E-2</v>
       </c>
       <c r="L19" s="9">
         <f t="shared" si="7"/>
@@ -25397,110 +25451,114 @@
         <v>18529.056029006308</v>
       </c>
       <c r="N19" s="9">
+        <f t="shared" si="9"/>
+        <v>0.82091494133974552</v>
+      </c>
+      <c r="O19" s="9">
         <v>4.4753337399999999</v>
       </c>
-      <c r="O19" s="24">
-        <f t="shared" si="9"/>
+      <c r="P19" s="24">
+        <f t="shared" si="10"/>
         <v>4.421468187522426</v>
-      </c>
-      <c r="P19" s="24">
-        <f t="shared" si="15"/>
-        <v>4.3294632360785901</v>
       </c>
       <c r="Q19" s="24">
         <f t="shared" si="16"/>
+        <v>4.3294632360785901</v>
+      </c>
+      <c r="R19" s="24">
+        <f t="shared" si="17"/>
         <v>4.244284854036473</v>
       </c>
-      <c r="R19" s="24">
+      <c r="S19" s="24">
+        <f t="shared" si="20"/>
+        <v>4.2022999591223131</v>
+      </c>
+      <c r="T19" s="24">
+        <f t="shared" si="22"/>
+        <v>4.1906463898020885</v>
+      </c>
+      <c r="U19" s="24">
+        <f t="shared" si="24"/>
+        <v>4.1889767962836943</v>
+      </c>
+      <c r="V19" s="24">
+        <f t="shared" si="26"/>
+        <v>4.1997791719838418</v>
+      </c>
+      <c r="W19" s="24">
+        <f t="shared" si="28"/>
+        <v>4.2268820289466325</v>
+      </c>
+      <c r="X19" s="24">
+        <f t="shared" si="32"/>
+        <v>4.2694423026506056</v>
+      </c>
+      <c r="Y19" s="24">
+        <f t="shared" si="35"/>
+        <v>4.3222195465906443</v>
+      </c>
+      <c r="Z19" s="24">
+        <f t="shared" si="38"/>
+        <v>4.3752557289503002</v>
+      </c>
+      <c r="AA19" s="24">
+        <f t="shared" ref="AA19:AA20" si="41">+(((1+O19/100)^(H19/365)/(1+$O$18/100)^($H$18/365))^(365/(H19-$H$18))-1)*100</f>
+        <v>4.4150992228672914</v>
+      </c>
+      <c r="AB19" s="24" t="e">
+        <f>+(((1+O19/100)^(H19/365)/(1+$O$19/100)^($H$19/365))^(365/(H19-$H$19))-1)*100</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AD19" s="11">
+        <f t="shared" si="18"/>
+        <v>46943</v>
+      </c>
+      <c r="AE19" s="15">
         <f t="shared" si="19"/>
-        <v>4.2022999591223131</v>
-      </c>
-      <c r="S19" s="24">
+        <v>83500</v>
+      </c>
+      <c r="AF19" s="25">
         <f t="shared" si="21"/>
-        <v>4.1906463898020885</v>
-      </c>
-      <c r="T19" s="24">
+        <v>0.82186222579540658</v>
+      </c>
+      <c r="AG19" s="25">
         <f t="shared" si="23"/>
-        <v>4.1889767962836943</v>
-      </c>
-      <c r="U19" s="24">
-        <f t="shared" si="25"/>
-        <v>4.1997791719838418</v>
-      </c>
-      <c r="V19" s="24">
-        <f t="shared" si="27"/>
-        <v>4.2268820289466325</v>
-      </c>
-      <c r="W19" s="24">
-        <f t="shared" si="31"/>
-        <v>4.2694423026506056</v>
-      </c>
-      <c r="X19" s="24">
-        <f t="shared" si="34"/>
-        <v>4.3222195465906443</v>
-      </c>
-      <c r="Y19" s="24">
-        <f t="shared" si="37"/>
-        <v>4.3752557289503002</v>
-      </c>
-      <c r="Z19" s="24">
-        <f t="shared" ref="Z19:Z20" si="40">+(((1+N19/100)^(H19/365)/(1+$N$18/100)^($H$18/365))^(365/(H19-$H$18))-1)*100</f>
-        <v>4.4150992228672914</v>
-      </c>
-      <c r="AA19" s="24" t="e">
-        <f>+(((1+N19/100)^(H19/365)/(1+$N$19/100)^($H$19/365))^(365/(H19-$H$19))-1)*100</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AC19" s="11">
-        <f t="shared" si="17"/>
-        <v>46943</v>
-      </c>
-      <c r="AD19" s="15">
-        <f t="shared" si="18"/>
-        <v>83500</v>
-      </c>
-      <c r="AE19" s="25">
-        <f t="shared" si="20"/>
-        <v>0.82186222579540658</v>
-      </c>
-      <c r="AF19" s="25">
-        <f t="shared" si="22"/>
         <v>0.84387150496285634</v>
-      </c>
-      <c r="AG19" s="25">
-        <f t="shared" si="28"/>
-        <v>0.86562545528770207</v>
       </c>
       <c r="AH19" s="25">
         <f t="shared" si="29"/>
+        <v>0.86562545528770207</v>
+      </c>
+      <c r="AI19" s="25">
+        <f t="shared" si="30"/>
         <v>0.88525916123140225</v>
       </c>
-      <c r="AI19" s="25">
-        <f t="shared" si="32"/>
+      <c r="AJ19" s="25">
+        <f t="shared" si="33"/>
         <v>0.90422596474724837</v>
       </c>
-      <c r="AJ19" s="25">
-        <f t="shared" si="35"/>
+      <c r="AK19" s="25">
+        <f t="shared" si="36"/>
         <v>0.92287413945796359</v>
       </c>
-      <c r="AK19" s="25">
-        <f t="shared" si="38"/>
+      <c r="AL19" s="25">
+        <f t="shared" si="39"/>
         <v>0.94187095177659363</v>
       </c>
-      <c r="AL19" s="25">
-        <f t="shared" ref="AL19:AL23" si="41">+(1+V16/100)^-(($H16-$H$14)/365)</f>
+      <c r="AM19" s="25">
+        <f t="shared" ref="AM19:AM23" si="42">+(1+W16/100)^-(($H16-$H$14)/365)</f>
         <v>0.96065674214325425</v>
       </c>
-      <c r="AM19" s="25">
-        <f>+(1+W16/100)^-(($H16-$H$15)/365)</f>
+      <c r="AN19" s="25">
+        <f>+(1+X16/100)^-(($H16-$H$15)/365)</f>
         <v>0.98011469843584886</v>
       </c>
-      <c r="AN19" s="13">
-        <f>+(1+$AA$3)^-YEARFRAC($AC19,$AC$19)</f>
+      <c r="AO19" s="13">
+        <f>+(1+$AB$3)^-YEARFRAC($AD19,$AD$19)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:44" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:45" x14ac:dyDescent="0.75">
       <c r="A20" s="3">
         <v>47673</v>
       </c>
@@ -25517,7 +25575,7 @@
         <v>80000</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>80700</v>
       </c>
       <c r="G20">
@@ -25529,16 +25587,16 @@
         <v>2485</v>
       </c>
       <c r="I20" s="9">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>6.8055555555555554</v>
       </c>
       <c r="J20" s="21">
-        <f t="shared" si="13"/>
-        <v>0.10778376430737192</v>
+        <f t="shared" si="14"/>
+        <v>0.10778379279284642</v>
       </c>
       <c r="K20" s="21">
-        <f t="shared" si="14"/>
-        <v>1.8589929404466615E-2</v>
+        <f t="shared" si="15"/>
+        <v>1.8589931931872417E-2</v>
       </c>
       <c r="L20" s="9">
         <f t="shared" si="7"/>
@@ -25549,554 +25607,558 @@
         <v>17975.729151580781</v>
       </c>
       <c r="N20" s="9">
+        <f t="shared" si="9"/>
+        <v>0.67924751352680346</v>
+      </c>
+      <c r="O20" s="9">
         <v>4.472118</v>
       </c>
-      <c r="O20" s="24">
-        <f t="shared" si="9"/>
+      <c r="P20" s="24">
+        <f t="shared" si="10"/>
         <v>4.4222098818722744</v>
-      </c>
-      <c r="P20" s="24">
-        <f t="shared" si="15"/>
-        <v>4.3378634105531111</v>
       </c>
       <c r="Q20" s="24">
         <f t="shared" si="16"/>
+        <v>4.3378634105531111</v>
+      </c>
+      <c r="R20" s="24">
+        <f t="shared" si="17"/>
         <v>4.2611272744993434</v>
       </c>
-      <c r="R20" s="24">
+      <c r="S20" s="24">
+        <f t="shared" si="20"/>
+        <v>4.2249662409467037</v>
+      </c>
+      <c r="T20" s="24">
+        <f t="shared" si="22"/>
+        <v>4.2171349449303008</v>
+      </c>
+      <c r="U20" s="24">
+        <f t="shared" si="24"/>
+        <v>4.21895385041966</v>
+      </c>
+      <c r="V20" s="24">
+        <f t="shared" si="26"/>
+        <v>4.2325481337213811</v>
+      </c>
+      <c r="W20" s="24">
+        <f t="shared" si="28"/>
+        <v>4.2605955215344382</v>
+      </c>
+      <c r="X20" s="24">
+        <f t="shared" si="32"/>
+        <v>4.3015241196660892</v>
+      </c>
+      <c r="Y20" s="24">
+        <f t="shared" si="35"/>
+        <v>4.3492282831167461</v>
+      </c>
+      <c r="Z20" s="24">
+        <f t="shared" si="38"/>
+        <v>4.3937955793358796</v>
+      </c>
+      <c r="AA20" s="24">
+        <f t="shared" si="41"/>
+        <v>4.4230794580498722</v>
+      </c>
+      <c r="AB20" s="24">
+        <f>+(((1+O20/100)^(H20/365)/(1+$O$19/100)^($H$19/365))^(365/(H20-$H$19))-1)*100</f>
+        <v>4.4311925874847446</v>
+      </c>
+      <c r="AD20" s="11">
+        <f t="shared" si="18"/>
+        <v>47127</v>
+      </c>
+      <c r="AE20" s="15">
         <f t="shared" si="19"/>
-        <v>4.2249662409467037</v>
-      </c>
-      <c r="S20" s="24">
+        <v>82800</v>
+      </c>
+      <c r="AF20" s="25">
         <f t="shared" si="21"/>
-        <v>4.2171349449303008</v>
-      </c>
-      <c r="T20" s="24">
+        <v>0.80492575504020869</v>
+      </c>
+      <c r="AG20" s="25">
         <f t="shared" si="23"/>
-        <v>4.21895385041966</v>
-      </c>
-      <c r="U20" s="24">
-        <f t="shared" si="25"/>
-        <v>4.2325481337213811</v>
-      </c>
-      <c r="V20" s="24">
-        <f t="shared" si="27"/>
-        <v>4.2605955215344382</v>
-      </c>
-      <c r="W20" s="24">
-        <f t="shared" si="31"/>
-        <v>4.3015241196660892</v>
-      </c>
-      <c r="X20" s="24">
-        <f t="shared" si="34"/>
-        <v>4.3492282831167461</v>
-      </c>
-      <c r="Y20" s="24">
-        <f t="shared" si="37"/>
-        <v>4.3937955793358796</v>
-      </c>
-      <c r="Z20" s="24">
-        <f t="shared" si="40"/>
-        <v>4.4230794580498722</v>
-      </c>
-      <c r="AA20" s="24">
-        <f>+(((1+N20/100)^(H20/365)/(1+$N$19/100)^($H$19/365))^(365/(H20-$H$19))-1)*100</f>
-        <v>4.4311925874847446</v>
-      </c>
-      <c r="AC20" s="11">
-        <f t="shared" si="17"/>
-        <v>47127</v>
-      </c>
-      <c r="AD20" s="15">
-        <f t="shared" si="18"/>
-        <v>82800</v>
-      </c>
-      <c r="AE20" s="25">
-        <f t="shared" si="20"/>
-        <v>0.80492575504020869</v>
-      </c>
-      <c r="AF20" s="25">
-        <f t="shared" si="22"/>
         <v>0.82648147946178596</v>
-      </c>
-      <c r="AG20" s="25">
-        <f t="shared" si="28"/>
-        <v>0.84778713671277706</v>
       </c>
       <c r="AH20" s="25">
         <f t="shared" si="29"/>
+        <v>0.84778713671277706</v>
+      </c>
+      <c r="AI20" s="25">
+        <f t="shared" si="30"/>
         <v>0.86701624237665587</v>
       </c>
-      <c r="AI20" s="25">
-        <f t="shared" si="32"/>
+      <c r="AJ20" s="25">
+        <f t="shared" si="33"/>
         <v>0.88559218875978141</v>
       </c>
-      <c r="AJ20" s="25">
-        <f t="shared" si="35"/>
+      <c r="AK20" s="25">
+        <f t="shared" si="36"/>
         <v>0.90385607245953037</v>
       </c>
-      <c r="AK20" s="25">
-        <f t="shared" si="38"/>
+      <c r="AL20" s="25">
+        <f t="shared" si="39"/>
         <v>0.92246140924104703</v>
       </c>
-      <c r="AL20" s="25">
-        <f t="shared" si="41"/>
+      <c r="AM20" s="25">
+        <f t="shared" si="42"/>
         <v>0.94086007269133154</v>
       </c>
-      <c r="AM20" s="25">
-        <f t="shared" ref="AM20:AM23" si="42">+(1+W17/100)^-(($H17-$H$15)/365)</f>
+      <c r="AN20" s="25">
+        <f t="shared" ref="AN20:AN23" si="43">+(1+X17/100)^-(($H17-$H$15)/365)</f>
         <v>0.95991705045326481</v>
       </c>
-      <c r="AN20" s="25">
-        <f>+(1+X17/100)^-(($H17-$H$16)/365)</f>
+      <c r="AO20" s="25">
+        <f>+(1+Y17/100)^-(($H17-$H$16)/365)</f>
         <v>0.97939256699770227</v>
       </c>
-      <c r="AO20" s="13">
-        <f>+(1+$AA$3)^-YEARFRAC($AC20,$AC$20)</f>
+      <c r="AP20" s="13">
+        <f>+(1+$AB$3)^-YEARFRAC($AD20,$AD$20)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:44" x14ac:dyDescent="0.75">
-      <c r="AC21" s="11">
-        <f t="shared" si="17"/>
+    <row r="21" spans="1:45" x14ac:dyDescent="0.75">
+      <c r="AD21" s="11">
+        <f t="shared" si="18"/>
         <v>47308</v>
       </c>
-      <c r="AD21" s="15">
-        <f t="shared" si="18"/>
+      <c r="AE21" s="15">
+        <f t="shared" si="19"/>
         <v>82100</v>
       </c>
-      <c r="AE21" s="25">
-        <f t="shared" si="20"/>
+      <c r="AF21" s="25">
+        <f t="shared" si="21"/>
         <v>0.78816479683970209</v>
       </c>
-      <c r="AF21" s="25">
-        <f t="shared" si="22"/>
+      <c r="AG21" s="25">
+        <f t="shared" si="23"/>
         <v>0.80927166670078199</v>
-      </c>
-      <c r="AG21" s="25">
-        <f t="shared" si="28"/>
-        <v>0.83013367653661463</v>
       </c>
       <c r="AH21" s="25">
         <f t="shared" si="29"/>
+        <v>0.83013367653661463</v>
+      </c>
+      <c r="AI21" s="25">
+        <f t="shared" si="30"/>
         <v>0.84896237479117997</v>
       </c>
-      <c r="AI21" s="25">
-        <f t="shared" si="32"/>
+      <c r="AJ21" s="25">
+        <f t="shared" si="33"/>
         <v>0.86715151449193395</v>
       </c>
-      <c r="AJ21" s="25">
-        <f t="shared" si="35"/>
+      <c r="AK21" s="25">
+        <f t="shared" si="36"/>
         <v>0.88503508958638166</v>
       </c>
-      <c r="AK21" s="25">
-        <f t="shared" si="38"/>
+      <c r="AL21" s="25">
+        <f t="shared" si="39"/>
         <v>0.90325300768965511</v>
-      </c>
-      <c r="AL21" s="25">
-        <f t="shared" si="41"/>
-        <v>0.92126855601770063</v>
       </c>
       <c r="AM21" s="25">
         <f t="shared" si="42"/>
+        <v>0.92126855601770063</v>
+      </c>
+      <c r="AN21" s="25">
+        <f t="shared" si="43"/>
         <v>0.93992871058731409</v>
       </c>
-      <c r="AN21" s="25">
-        <f t="shared" ref="AN21:AN23" si="43">+(1+X18/100)^-(($H18-$H$16)/365)</f>
+      <c r="AO21" s="25">
+        <f t="shared" ref="AO21:AO23" si="44">+(1+Y18/100)^-(($H18-$H$16)/365)</f>
         <v>0.95899868871197724</v>
       </c>
-      <c r="AO21" s="25">
-        <f>+(1+Y18/100)^-(($H18-$H$17)/365)</f>
+      <c r="AP21" s="25">
+        <f>+(1+Z18/100)^-(($H18-$H$17)/365)</f>
         <v>0.97917701341328134</v>
       </c>
-      <c r="AP21" s="13">
-        <f>+(1+$AA$3)^-YEARFRAC($AC21,$AC$21)</f>
+      <c r="AQ21" s="13">
+        <f>+(1+$AB$3)^-YEARFRAC($AD21,$AD$21)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:44" x14ac:dyDescent="0.75">
-      <c r="AC22" s="11">
-        <f t="shared" si="17"/>
+    <row r="22" spans="1:45" x14ac:dyDescent="0.75">
+      <c r="AD22" s="11">
+        <f t="shared" si="18"/>
         <v>47492</v>
       </c>
-      <c r="AD22" s="15">
-        <f t="shared" si="18"/>
+      <c r="AE22" s="15">
+        <f t="shared" si="19"/>
         <v>81400</v>
       </c>
-      <c r="AE22" s="25">
-        <f t="shared" si="20"/>
+      <c r="AF22" s="25">
+        <f t="shared" si="21"/>
         <v>0.77118446265703189</v>
       </c>
-      <c r="AF22" s="25">
-        <f t="shared" si="22"/>
+      <c r="AG22" s="25">
+        <f t="shared" si="23"/>
         <v>0.79183660311985882</v>
-      </c>
-      <c r="AG22" s="25">
-        <f t="shared" si="28"/>
-        <v>0.81224915885655535</v>
       </c>
       <c r="AH22" s="25">
         <f t="shared" si="29"/>
+        <v>0.81224915885655535</v>
+      </c>
+      <c r="AI22" s="25">
+        <f t="shared" si="30"/>
         <v>0.83067220896511229</v>
       </c>
-      <c r="AI22" s="25">
-        <f t="shared" si="32"/>
+      <c r="AJ22" s="25">
+        <f t="shared" si="33"/>
         <v>0.848469479260061</v>
       </c>
-      <c r="AJ22" s="25">
-        <f t="shared" si="35"/>
+      <c r="AK22" s="25">
+        <f t="shared" si="36"/>
         <v>0.86596776807592579</v>
       </c>
-      <c r="AK22" s="25">
-        <f t="shared" si="38"/>
+      <c r="AL22" s="25">
+        <f t="shared" si="39"/>
         <v>0.8837931967674082</v>
-      </c>
-      <c r="AL22" s="25">
-        <f t="shared" si="41"/>
-        <v>0.90142061556680597</v>
       </c>
       <c r="AM22" s="25">
         <f t="shared" si="42"/>
-        <v>0.91967875311946679</v>
+        <v>0.90142061556680597</v>
       </c>
       <c r="AN22" s="25">
         <f t="shared" si="43"/>
+        <v>0.91967875311946679</v>
+      </c>
+      <c r="AO22" s="25">
+        <f t="shared" si="44"/>
         <v>0.93833788493037518</v>
       </c>
-      <c r="AO22" s="25">
-        <f t="shared" ref="AO22:AO23" si="44">+(1+Y19/100)^-(($H19-$H$17)/365)</f>
+      <c r="AP22" s="25">
+        <f t="shared" ref="AP22:AP23" si="45">+(1+Z19/100)^-(($H19-$H$17)/365)</f>
         <v>0.95808148494206036</v>
       </c>
-      <c r="AP22" s="25">
-        <f>+(1+Z19/100)^-(($H19-$H$18)/365)</f>
+      <c r="AQ22" s="25">
+        <f>+(1+AA19/100)^-(($H19-$H$18)/365)</f>
         <v>0.97845585815205716</v>
       </c>
-      <c r="AQ22" s="13">
-        <f>+(1+$AA$3)^-YEARFRAC($AC22,$AC$22)</f>
+      <c r="AR22" s="13">
+        <f>+(1+$AB$3)^-YEARFRAC($AD22,$AD$22)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:44" x14ac:dyDescent="0.75">
-      <c r="AC23" s="11">
-        <f t="shared" si="17"/>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.75">
+      <c r="AD23" s="11">
+        <f t="shared" si="18"/>
         <v>47673</v>
       </c>
-      <c r="AD23" s="15">
-        <f t="shared" si="18"/>
+      <c r="AE23" s="15">
+        <f t="shared" si="19"/>
         <v>80700</v>
       </c>
-      <c r="AE23" s="25">
-        <f t="shared" si="20"/>
+      <c r="AF23" s="25">
+        <f t="shared" si="21"/>
         <v>0.75478026594334802</v>
       </c>
-      <c r="AF23" s="25">
-        <f t="shared" si="22"/>
+      <c r="AG23" s="25">
+        <f t="shared" si="23"/>
         <v>0.77499310583527892</v>
-      </c>
-      <c r="AG23" s="25">
-        <f t="shared" si="28"/>
-        <v>0.79497145731093499</v>
       </c>
       <c r="AH23" s="25">
         <f t="shared" si="29"/>
+        <v>0.79497145731093499</v>
+      </c>
+      <c r="AI23" s="25">
+        <f t="shared" si="30"/>
         <v>0.81300262278918456</v>
       </c>
-      <c r="AI23" s="25">
-        <f t="shared" si="32"/>
+      <c r="AJ23" s="25">
+        <f t="shared" si="33"/>
         <v>0.83042131968565103</v>
       </c>
-      <c r="AJ23" s="25">
-        <f t="shared" si="35"/>
+      <c r="AK23" s="25">
+        <f t="shared" si="36"/>
         <v>0.84754739486679154</v>
       </c>
-      <c r="AK23" s="25">
-        <f t="shared" si="38"/>
+      <c r="AL23" s="25">
+        <f t="shared" si="39"/>
         <v>0.86499365119041638</v>
-      </c>
-      <c r="AL23" s="25">
-        <f t="shared" si="41"/>
-        <v>0.88224610957561767</v>
       </c>
       <c r="AM23" s="25">
         <f t="shared" si="42"/>
-        <v>0.90011587042394581</v>
+        <v>0.88224610957561767</v>
       </c>
       <c r="AN23" s="25">
         <f t="shared" si="43"/>
-        <v>0.91837809580901908</v>
+        <v>0.90011587042394581</v>
       </c>
       <c r="AO23" s="25">
         <f t="shared" si="44"/>
+        <v>0.91837809580901908</v>
+      </c>
+      <c r="AP23" s="25">
+        <f t="shared" si="45"/>
         <v>0.93770172120488793</v>
       </c>
-      <c r="AP23" s="25">
-        <f>+(1+Z20/100)^-(($H20-$H$18)/365)</f>
+      <c r="AQ23" s="25">
+        <f>+(1+AA20/100)^-(($H20-$H$18)/365)</f>
         <v>0.95764270235080773</v>
       </c>
-      <c r="AQ23" s="25">
-        <f>+(1+AA20/100)^-(($H20-$H$19)/365)</f>
+      <c r="AR23" s="25">
+        <f>+(1+AB20/100)^-(($H20-$H$19)/365)</f>
         <v>0.9787285694823703</v>
       </c>
-      <c r="AR23" s="13">
-        <f>+(1+$AA$3)^-YEARFRAC($AC23,$AC$23)</f>
+      <c r="AS23" s="13">
+        <f>+(1+$AB$3)^-YEARFRAC($AD23,$AD$23)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:44" x14ac:dyDescent="0.75">
-      <c r="AE25">
+    <row r="25" spans="1:45" x14ac:dyDescent="0.75">
+      <c r="AF25">
         <v>1</v>
       </c>
-      <c r="AF25">
-        <f>+AE25+1</f>
+      <c r="AG25">
+        <f>+AF25+1</f>
         <v>2</v>
       </c>
-      <c r="AG25">
-        <f t="shared" ref="AG25:AR25" si="45">+AF25+1</f>
+      <c r="AH25">
+        <f t="shared" ref="AH25:AS25" si="46">+AG25+1</f>
         <v>3</v>
       </c>
-      <c r="AH25">
-        <f t="shared" si="45"/>
+      <c r="AI25">
+        <f t="shared" si="46"/>
         <v>4</v>
       </c>
-      <c r="AI25">
-        <f t="shared" si="45"/>
+      <c r="AJ25">
+        <f t="shared" si="46"/>
         <v>5</v>
       </c>
-      <c r="AJ25">
-        <f t="shared" si="45"/>
+      <c r="AK25">
+        <f t="shared" si="46"/>
         <v>6</v>
       </c>
-      <c r="AK25">
-        <f t="shared" si="45"/>
+      <c r="AL25">
+        <f t="shared" si="46"/>
         <v>7</v>
       </c>
-      <c r="AL25">
-        <f t="shared" si="45"/>
+      <c r="AM25">
+        <f t="shared" si="46"/>
         <v>8</v>
       </c>
-      <c r="AM25">
-        <f t="shared" si="45"/>
+      <c r="AN25">
+        <f t="shared" si="46"/>
         <v>9</v>
       </c>
-      <c r="AN25">
-        <f t="shared" si="45"/>
+      <c r="AO25">
+        <f t="shared" si="46"/>
         <v>10</v>
       </c>
-      <c r="AO25">
-        <f t="shared" si="45"/>
+      <c r="AP25">
+        <f t="shared" si="46"/>
         <v>11</v>
       </c>
-      <c r="AP25">
-        <f t="shared" si="45"/>
+      <c r="AQ25">
+        <f t="shared" si="46"/>
         <v>12</v>
       </c>
-      <c r="AQ25">
-        <f t="shared" si="45"/>
+      <c r="AR25">
+        <f t="shared" si="46"/>
         <v>13</v>
       </c>
-      <c r="AR25">
-        <f t="shared" si="45"/>
+      <c r="AS25">
+        <f t="shared" si="46"/>
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:44" x14ac:dyDescent="0.75">
-      <c r="AC26" t="s">
+    <row r="26" spans="1:45" x14ac:dyDescent="0.75">
+      <c r="AD26" t="s">
         <v>47</v>
       </c>
-      <c r="AE26" s="25">
-        <f>+AA13/2</f>
+      <c r="AF26" s="25">
+        <f>+AB13/2</f>
         <v>0.88320580247479785</v>
       </c>
-      <c r="AF26" s="25">
-        <f>+(1-$AE$26)^(AF$25-$AE$25)*$AE$26</f>
+      <c r="AG26" s="25">
+        <f>+(1-$AF$26)^(AG$25-$AF$25)*$AF$26</f>
         <v>0.10315331294964621</v>
       </c>
-      <c r="AG26" s="25">
-        <f>+(1-$AE$26)^(AG$25-$AE$25)*$AE$26</f>
+      <c r="AH26" s="25">
+        <f>+(1-$AF$26)^(AH$25-$AF$25)*$AF$26</f>
         <v>1.2047708408019973E-2</v>
       </c>
-      <c r="AH26" s="25">
-        <f t="shared" ref="AH26:AR26" si="46">+(1-$AE$26)^(AH$25-$AE$25)*$AE$26</f>
+      <c r="AI26" s="25">
+        <f t="shared" ref="AI26:AS26" si="47">+(1-$AF$26)^(AI$25-$AF$25)*$AF$26</f>
         <v>1.4071024355323232E-3</v>
       </c>
-      <c r="AI26" s="25">
-        <f t="shared" si="46"/>
+      <c r="AJ26" s="25">
+        <f t="shared" si="47"/>
         <v>1.6434139979375521E-4</v>
       </c>
-      <c r="AJ26" s="25">
-        <f t="shared" si="46"/>
+      <c r="AK26" s="25">
+        <f t="shared" si="47"/>
         <v>1.9194121909080059E-5</v>
       </c>
-      <c r="AK26" s="25">
-        <f t="shared" si="46"/>
+      <c r="AL26" s="25">
+        <f t="shared" si="47"/>
         <v>2.2417620655719067E-6</v>
       </c>
-      <c r="AL26" s="25">
-        <f t="shared" si="46"/>
+      <c r="AM26" s="25">
+        <f t="shared" si="47"/>
         <v>2.6182480149091043E-7</v>
       </c>
-      <c r="AM26" s="25">
-        <f t="shared" si="46"/>
+      <c r="AN26" s="25">
+        <f t="shared" si="47"/>
         <v>3.0579617582326238E-8</v>
       </c>
-      <c r="AN26" s="25">
-        <f t="shared" si="46"/>
+      <c r="AO26" s="25">
+        <f t="shared" si="47"/>
         <v>3.571521896155355E-9</v>
       </c>
-      <c r="AO26" s="25">
-        <f t="shared" si="46"/>
+      <c r="AP26" s="25">
+        <f t="shared" si="47"/>
         <v>4.1713303380515302E-10</v>
       </c>
-      <c r="AP26" s="25">
-        <f t="shared" si="46"/>
+      <c r="AQ26" s="25">
+        <f t="shared" si="47"/>
         <v>4.8718717944525873E-11</v>
       </c>
-      <c r="AQ26" s="25">
-        <f t="shared" si="46"/>
+      <c r="AR26" s="25">
+        <f t="shared" si="47"/>
         <v>5.6900635667875648E-12</v>
       </c>
-      <c r="AR26" s="25">
-        <f t="shared" si="46"/>
+      <c r="AS26" s="25">
+        <f t="shared" si="47"/>
         <v>6.6456640815034316E-13</v>
       </c>
     </row>
-    <row r="27" spans="1:44" x14ac:dyDescent="0.75">
-      <c r="AC27" t="s">
+    <row r="27" spans="1:45" x14ac:dyDescent="0.75">
+      <c r="AD27" t="s">
         <v>49</v>
       </c>
-      <c r="AE27" s="28">
-        <f>+AE6*AE7</f>
+      <c r="AF27" s="28">
+        <f>+AF6*AF7</f>
         <v>57.895642066639411</v>
       </c>
-      <c r="AF27" s="28">
-        <f t="shared" ref="AF27:AR27" si="47">+AF6*AF7</f>
+      <c r="AG27" s="28">
+        <f t="shared" ref="AG27:AS27" si="48">+AG6*AG7</f>
         <v>58.292129641485822</v>
       </c>
-      <c r="AG27" s="28">
-        <f t="shared" si="47"/>
+      <c r="AH27" s="28">
+        <f t="shared" si="48"/>
         <v>55.955996977327132</v>
       </c>
-      <c r="AH27" s="28">
-        <f t="shared" si="47"/>
+      <c r="AI27" s="28">
+        <f t="shared" si="48"/>
         <v>50.924903541556695</v>
       </c>
-      <c r="AI27" s="28">
-        <f t="shared" si="47"/>
+      <c r="AJ27" s="28">
+        <f t="shared" si="48"/>
         <v>45.978729920931002</v>
       </c>
-      <c r="AJ27" s="28">
-        <f t="shared" si="47"/>
+      <c r="AK27" s="28">
+        <f t="shared" si="48"/>
         <v>41.085127452632882</v>
       </c>
-      <c r="AK27" s="28">
-        <f t="shared" si="47"/>
+      <c r="AL27" s="28">
+        <f t="shared" si="48"/>
         <v>36.289442216600293</v>
       </c>
-      <c r="AL27" s="28">
-        <f t="shared" si="47"/>
+      <c r="AM27" s="28">
+        <f t="shared" si="48"/>
         <v>31.55219616269083</v>
       </c>
-      <c r="AM27" s="28">
-        <f t="shared" si="47"/>
+      <c r="AN27" s="28">
+        <f t="shared" si="48"/>
         <v>26.908637880475386</v>
       </c>
-      <c r="AN27" s="28">
-        <f t="shared" si="47"/>
+      <c r="AO27" s="28">
+        <f t="shared" si="48"/>
         <v>22.137981720102793</v>
       </c>
-      <c r="AO27" s="28">
-        <f t="shared" si="47"/>
+      <c r="AP27" s="28">
+        <f t="shared" si="48"/>
         <v>17.490599051307221</v>
       </c>
-      <c r="AP27" s="28">
-        <f t="shared" si="47"/>
+      <c r="AQ27" s="28">
+        <f t="shared" si="48"/>
         <v>12.950239099208117</v>
       </c>
-      <c r="AQ27" s="28">
-        <f t="shared" si="47"/>
+      <c r="AR27" s="28">
+        <f t="shared" si="48"/>
         <v>8.527265491440799</v>
       </c>
-      <c r="AR27" s="28">
-        <f t="shared" si="47"/>
+      <c r="AS27" s="28">
+        <f t="shared" si="48"/>
         <v>4.2099291321546071</v>
       </c>
     </row>
-    <row r="28" spans="1:44" x14ac:dyDescent="0.75">
-      <c r="AC28" t="s">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.75">
+      <c r="AD28" t="s">
         <v>50</v>
       </c>
-      <c r="AE28" s="29">
-        <f>+AE27*AE26</f>
+      <c r="AF28" s="29">
+        <f>+AF27*AF26</f>
         <v>51.133767011259927</v>
       </c>
-      <c r="AF28" s="29">
-        <f t="shared" ref="AF28:AR28" si="48">+AF27*AF26</f>
+      <c r="AG28" s="29">
+        <f t="shared" ref="AG28:AS28" si="49">+AG27*AG26</f>
         <v>6.0130262914095347</v>
       </c>
-      <c r="AG28" s="29">
-        <f t="shared" si="48"/>
+      <c r="AH28" s="29">
+        <f t="shared" si="49"/>
         <v>0.67414153526288423</v>
       </c>
-      <c r="AH28" s="29">
-        <f t="shared" si="48"/>
+      <c r="AI28" s="29">
+        <f t="shared" si="49"/>
         <v>7.165655580257306E-2</v>
       </c>
-      <c r="AI28" s="29">
-        <f t="shared" si="48"/>
+      <c r="AJ28" s="29">
+        <f t="shared" si="49"/>
         <v>7.5562088359448169E-3</v>
       </c>
-      <c r="AJ28" s="29">
-        <f t="shared" si="48"/>
+      <c r="AK28" s="29">
+        <f t="shared" si="49"/>
         <v>7.8859294497592744E-4</v>
       </c>
-      <c r="AK28" s="29">
-        <f t="shared" si="48"/>
+      <c r="AL28" s="29">
+        <f t="shared" si="49"/>
         <v>8.1352294941938226E-5</v>
       </c>
-      <c r="AL28" s="29">
-        <f t="shared" si="48"/>
+      <c r="AM28" s="29">
+        <f t="shared" si="49"/>
         <v>8.2611474968987933E-6</v>
       </c>
-      <c r="AM28" s="29">
-        <f t="shared" si="48"/>
+      <c r="AN28" s="29">
+        <f t="shared" si="49"/>
         <v>8.2285585604623492E-7</v>
       </c>
-      <c r="AN28" s="29">
-        <f t="shared" si="48"/>
+      <c r="AO28" s="29">
+        <f t="shared" si="49"/>
         <v>7.9066286450034117E-8</v>
       </c>
-      <c r="AO28" s="29">
-        <f t="shared" si="48"/>
+      <c r="AP28" s="29">
+        <f t="shared" si="49"/>
         <v>7.2959066453413126E-9</v>
       </c>
-      <c r="AP28" s="29">
-        <f t="shared" si="48"/>
+      <c r="AQ28" s="29">
+        <f t="shared" si="49"/>
         <v>6.3091904598849108E-10</v>
       </c>
-      <c r="AQ28" s="29">
-        <f t="shared" si="48"/>
+      <c r="AR28" s="29">
+        <f t="shared" si="49"/>
         <v>4.8520682697172148E-11</v>
       </c>
-      <c r="AR28" s="29">
-        <f t="shared" si="48"/>
+      <c r="AS28" s="29">
+        <f t="shared" si="49"/>
         <v>2.7977774819234787E-12</v>
       </c>
     </row>
-    <row r="29" spans="1:44" x14ac:dyDescent="0.75">
-      <c r="AC29" t="s">
+    <row r="29" spans="1:45" x14ac:dyDescent="0.75">
+      <c r="AD29" t="s">
         <v>24</v>
       </c>
-      <c r="AE29" s="29">
-        <f>+SUM(AE28:AR28)</f>
+      <c r="AF29" s="29">
+        <f>+SUM(AF28:AS28)</f>
         <v>57.901026718858581</v>
       </c>
     </row>
-    <row r="30" spans="1:44" x14ac:dyDescent="0.75">
-      <c r="AC30" t="s">
+    <row r="30" spans="1:45" x14ac:dyDescent="0.75">
+      <c r="AD30" t="s">
         <v>21</v>
       </c>
-      <c r="AE30" s="12">
-        <f>+AE29-AA10</f>
+      <c r="AF30" s="12">
+        <f>+AF29-AB10</f>
         <v>1.1696632176787602</v>
       </c>
     </row>
@@ -26168,7 +26230,7 @@
         <v>37</v>
       </c>
       <c r="B2" s="20">
-        <f>+FFant!AA11</f>
+        <f>+FFant!AB11</f>
         <v>0.24130797886052366</v>
       </c>
       <c r="C2" s="21">

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0118b31cc2e490dc/UCEMA/Quant - Finanzas Cuantitativas/TP Final/GitHub/tp_quant_Git Desktop/tp_quant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1638" documentId="14_{36CB20EE-E6F5-4308-AA86-D680FEB8C88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8BB7432-2019-4AD4-BD1E-5FCD95C7544E}"/>
+  <xr:revisionPtr revIDLastSave="1665" documentId="14_{36CB20EE-E6F5-4308-AA86-D680FEB8C88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88D09521-D023-4B99-A4A2-24522D011844}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="9" activeTab="17" xr2:uid="{9C799078-5C8C-4CA2-A599-9589FA691B16}"/>
   </bookViews>
@@ -336,7 +336,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="10">
+  <numFmts count="11">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -347,6 +347,7 @@
     <numFmt numFmtId="171" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??????_);_(@_)"/>
     <numFmt numFmtId="172" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;????_);_(@_)"/>
     <numFmt numFmtId="173" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;???_);_(@_)"/>
+    <numFmt numFmtId="175" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -421,7 +422,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -478,6 +479,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
@@ -1427,10 +1429,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -23387,8 +23385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B261BC-4B0B-4A6E-B2C8-2F7B9BF72E1C}">
   <dimension ref="A1:AS30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z12" sqref="Z12"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -23675,7 +23673,10 @@
         <v>0.5</v>
       </c>
       <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
+      <c r="J4" s="32">
+        <f>+SUM(J7:J20)</f>
+        <v>5.1735701403866265</v>
+      </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
@@ -23962,11 +23963,11 @@
       </c>
       <c r="J7" s="21">
         <f>+(1-$AB$12/2)</f>
-        <v>0.85289717484890903</v>
+        <v>0.852914315157555</v>
       </c>
       <c r="K7" s="21">
         <f>1-J7</f>
-        <v>0.14710282515109097</v>
+        <v>0.147085684842445</v>
       </c>
       <c r="L7" s="9">
         <f>+F7/(1+O7/100)^I7</f>
@@ -23978,7 +23979,7 @@
       </c>
       <c r="N7" s="9">
         <f>+(L7*J7+L7*$AF$1*K7)/10000</f>
-        <v>0.33089341762460434</v>
+        <v>0.33089784349605511</v>
       </c>
       <c r="O7" s="9">
         <v>5.5351710299999999</v>
@@ -24079,7 +24080,7 @@
         <v>0.75</v>
       </c>
       <c r="H8" s="15">
-        <f t="shared" ref="H8:H20" si="6">+A8-$AB$1</f>
+        <f>+A8-$AB$1</f>
         <v>294</v>
       </c>
       <c r="I8" s="9">
@@ -24088,29 +24089,29 @@
       </c>
       <c r="J8" s="21">
         <f>+$J$7*J7</f>
-        <v>0.7274335908652505</v>
+        <v>0.72746282900068104</v>
       </c>
       <c r="K8" s="21">
         <f>+J7*$K$7</f>
-        <v>0.12546358398365853</v>
+        <v>0.12545148615687393</v>
       </c>
       <c r="L8" s="9">
-        <f t="shared" ref="L8:L20" si="7">+F8/(1+O8/100)^I8</f>
+        <f>+F8/(1+O8/100)^I8</f>
         <v>41910.18442163444</v>
       </c>
       <c r="M8" s="9">
-        <f t="shared" ref="M8:M20" si="8">+L8*$AF$1</f>
+        <f t="shared" ref="M8:M20" si="6">+L8*$AF$1</f>
         <v>12573.055326490332</v>
       </c>
       <c r="N8" s="9">
-        <f t="shared" ref="N8:N20" si="9">+(L8*J8+L8*$AF$1*K8)/10000</f>
-        <v>3.2064336530540727</v>
+        <f>+(L8*J8+L8*$AF$1*K8)/10000</f>
+        <v>3.206540979954327</v>
       </c>
       <c r="O8" s="9">
         <v>5.4780901999999996</v>
       </c>
       <c r="P8" s="24">
-        <f t="shared" ref="P8:P20" si="10">+(((1+O8/100)^(H8/365)/(1+$O$7/100)^($H$7/365))^(365/(H8-$H$7))-1)*100</f>
+        <f>+(((1+O8/100)^(H8/365)/(1+$O$7/100)^($H$7/365))^(365/(H8-$H$7))-1)*100</f>
         <v>5.4429788817679459</v>
       </c>
       <c r="Q8" s="24" t="e">
@@ -24145,55 +24146,55 @@
         <v>57.895642066639411</v>
       </c>
       <c r="AG8" s="22">
-        <f t="shared" ref="AG8:AS8" si="11">+AG7*AG6</f>
+        <f t="shared" ref="AG8:AS8" si="7">+AG7*AG6</f>
         <v>58.292129641485822</v>
       </c>
       <c r="AH8" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>55.955996977327132</v>
       </c>
       <c r="AI8" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>50.924903541556695</v>
       </c>
       <c r="AJ8" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>45.978729920931002</v>
       </c>
       <c r="AK8" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>41.085127452632882</v>
       </c>
       <c r="AL8" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>36.289442216600293</v>
       </c>
       <c r="AM8" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>31.55219616269083</v>
       </c>
       <c r="AN8" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>26.908637880475386</v>
       </c>
       <c r="AO8" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>22.137981720102793</v>
       </c>
       <c r="AP8" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>17.490599051307221</v>
       </c>
       <c r="AQ8" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>12.950239099208117</v>
       </c>
       <c r="AR8" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>8.527265491440799</v>
       </c>
       <c r="AS8" s="22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="7"/>
         <v>4.2099291321546071</v>
       </c>
     </row>
@@ -24214,7 +24215,7 @@
         <v>80000</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" ref="F9:F20" si="12">+E9+D9*10000</f>
+        <f t="shared" ref="F9:F20" si="8">+E9+D9*10000</f>
         <v>83600</v>
       </c>
       <c r="G9">
@@ -24222,42 +24223,42 @@
         <v>0.75</v>
       </c>
       <c r="H9" s="15">
+        <f>+A9-$AB$1</f>
+        <v>478</v>
+      </c>
+      <c r="I9" s="9">
+        <f>+YEARFRAC($AB$1,A9,0)</f>
+        <v>1.3055555555555556</v>
+      </c>
+      <c r="J9" s="21">
+        <f t="shared" ref="J9:J20" si="9">+$J$7*J8</f>
+        <v>0.62046346059969337</v>
+      </c>
+      <c r="K9" s="21">
+        <f t="shared" ref="K9:K20" si="10">+J8*$K$7</f>
+        <v>0.10699936840098763</v>
+      </c>
+      <c r="L9" s="9">
+        <f>+F9/(1+O9/100)^I9</f>
+        <v>78088.55111439382</v>
+      </c>
+      <c r="M9" s="9">
         <f t="shared" si="6"/>
-        <v>478</v>
-      </c>
-      <c r="I9" s="9">
-        <f t="shared" ref="I9:I20" si="13">+YEARFRAC($AB$1,A9,0)</f>
-        <v>1.3055555555555556</v>
-      </c>
-      <c r="J9" s="21">
-        <f t="shared" ref="J9:J20" si="14">+$J$7*J8</f>
-        <v>0.62042605453916932</v>
-      </c>
-      <c r="K9" s="21">
-        <f t="shared" ref="K9:K20" si="15">+J8*$K$7</f>
-        <v>0.10700753632608119</v>
-      </c>
-      <c r="L9" s="9">
-        <f t="shared" si="7"/>
-        <v>78088.55111439382</v>
-      </c>
-      <c r="M9" s="9">
-        <f t="shared" si="8"/>
         <v>23426.565334318144</v>
       </c>
       <c r="N9" s="9">
-        <f t="shared" si="9"/>
-        <v>5.0954990713590975</v>
+        <f>+(L9*J9+L9*$AF$1*K9)/10000</f>
+        <v>5.0957720352229341</v>
       </c>
       <c r="O9" s="9">
         <v>5.3626843400000004</v>
       </c>
       <c r="P9" s="24">
-        <f t="shared" si="10"/>
+        <f>+(((1+O9/100)^(H9/365)/(1+$O$7/100)^($H$7/365))^(365/(H9-$H$7))-1)*100</f>
         <v>5.3099578826998561</v>
       </c>
       <c r="Q9" s="24">
-        <f t="shared" ref="Q9:Q20" si="16">+(((1+O9/100)^(H9/365)/(1+$O$8/100)^($H$8/365))^(365/(H9-$H$8))-1)*100</f>
+        <f>+(((1+O9/100)^(H9/365)/(1+$O$8/100)^($H$8/365))^(365/(H9-$H$8))-1)*100</f>
         <v>5.1785478505568916</v>
       </c>
       <c r="R9" s="24" t="e">
@@ -24299,7 +24300,7 @@
         <v>80000</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>83300</v>
       </c>
       <c r="G10">
@@ -24307,46 +24308,46 @@
         <v>0.75</v>
       </c>
       <c r="H10" s="15">
+        <f>+A10-$AB$1</f>
+        <v>659</v>
+      </c>
+      <c r="I10" s="9">
+        <f>+YEARFRAC($AB$1,A10,0)</f>
+        <v>1.8055555555555556</v>
+      </c>
+      <c r="J10" s="21">
+        <f t="shared" si="9"/>
+        <v>0.52920216757767413</v>
+      </c>
+      <c r="K10" s="21">
+        <f t="shared" si="10"/>
+        <v>9.1261293022019283E-2</v>
+      </c>
+      <c r="L10" s="9">
+        <f>+F10/(1+O10/100)^I10</f>
+        <v>76066.337893188291</v>
+      </c>
+      <c r="M10" s="9">
         <f t="shared" si="6"/>
-        <v>659</v>
-      </c>
-      <c r="I10" s="9">
-        <f t="shared" si="13"/>
-        <v>1.8055555555555556</v>
-      </c>
-      <c r="J10" s="21">
-        <f t="shared" si="14"/>
-        <v>0.52915962911911263</v>
-      </c>
-      <c r="K10" s="21">
-        <f t="shared" si="15"/>
-        <v>9.1266425420056654E-2</v>
-      </c>
-      <c r="L10" s="9">
-        <f t="shared" si="7"/>
-        <v>76066.337893188291</v>
-      </c>
-      <c r="M10" s="9">
-        <f t="shared" si="8"/>
         <v>22819.901367956485</v>
       </c>
       <c r="N10" s="9">
-        <f t="shared" si="9"/>
-        <v>4.2333925974300266</v>
+        <f>+(L10*J10+L10*$AF$1*K10)/10000</f>
+        <v>4.2337044598245672</v>
       </c>
       <c r="O10" s="9">
         <v>5.1600082699999996</v>
       </c>
       <c r="P10" s="24">
-        <f t="shared" si="10"/>
+        <f>+(((1+O10/100)^(H10/365)/(1+$O$7/100)^($H$7/365))^(365/(H10-$H$7))-1)*100</f>
         <v>5.0833571404693689</v>
       </c>
       <c r="Q10" s="24">
-        <f t="shared" si="16"/>
+        <f>+(((1+O10/100)^(H10/365)/(1+$O$8/100)^($H$8/365))^(365/(H10-$H$8))-1)*100</f>
         <v>4.9044974294241594</v>
       </c>
       <c r="R10" s="24">
-        <f t="shared" ref="R10:R20" si="17">+(((1+O10/100)^(H10/365)/(1+$O$9/100)^($H$9/365))^(365/(H10-$H$9))-1)*100</f>
+        <f>+(((1+O10/100)^(H10/365)/(1+$O$9/100)^($H$9/365))^(365/(H10-$H$9))-1)*100</f>
         <v>4.6266366349654975</v>
       </c>
       <c r="S10" s="24" t="e">
@@ -24368,11 +24369,11 @@
         <v>56.731363501179821</v>
       </c>
       <c r="AD10" s="11">
-        <f t="shared" ref="AD10:AD23" si="18">+A7</f>
+        <f>+A7</f>
         <v>45300</v>
       </c>
       <c r="AE10" s="15">
-        <f t="shared" ref="AE10:AE23" si="19">+F7</f>
+        <f>+F7</f>
         <v>3750</v>
       </c>
       <c r="AF10" s="13">
@@ -24398,7 +24399,7 @@
         <v>80000</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>83000</v>
       </c>
       <c r="G11">
@@ -24406,50 +24407,50 @@
         <v>0.74999999999999989</v>
       </c>
       <c r="H11" s="15">
+        <f>+A11-$AB$1</f>
+        <v>843</v>
+      </c>
+      <c r="I11" s="9">
+        <f>+YEARFRAC($AB$1,A11,0)</f>
+        <v>2.3055555555555554</v>
+      </c>
+      <c r="J11" s="21">
+        <f t="shared" si="9"/>
+        <v>0.4513641043394056</v>
+      </c>
+      <c r="K11" s="21">
+        <f t="shared" si="10"/>
+        <v>7.7838063238268543E-2</v>
+      </c>
+      <c r="L11" s="9">
+        <f>+F11/(1+O11/100)^I11</f>
+        <v>74217.39282570497</v>
+      </c>
+      <c r="M11" s="9">
         <f t="shared" si="6"/>
-        <v>843</v>
-      </c>
-      <c r="I11" s="9">
-        <f t="shared" si="13"/>
-        <v>2.3055555555555554</v>
-      </c>
-      <c r="J11" s="21">
-        <f t="shared" si="14"/>
-        <v>0.45131875271978766</v>
-      </c>
-      <c r="K11" s="21">
-        <f t="shared" si="15"/>
-        <v>7.7840876399324965E-2</v>
-      </c>
-      <c r="L11" s="9">
-        <f t="shared" si="7"/>
-        <v>74217.39282570497</v>
-      </c>
-      <c r="M11" s="9">
-        <f t="shared" si="8"/>
         <v>22265.21784771149</v>
       </c>
       <c r="N11" s="9">
-        <f t="shared" si="9"/>
-        <v>3.5228845230699437</v>
+        <f>+(L11*J11+L11*$AF$1*K11)/10000</f>
+        <v>3.5232148474024143</v>
       </c>
       <c r="O11" s="9">
         <v>4.9705677799999997</v>
       </c>
       <c r="P11" s="24">
-        <f t="shared" si="10"/>
+        <f>+(((1+O11/100)^(H11/365)/(1+$O$7/100)^($H$7/365))^(365/(H11-$H$7))-1)*100</f>
         <v>4.8843294764046252</v>
       </c>
       <c r="Q11" s="24">
-        <f t="shared" si="16"/>
+        <f>+(((1+O11/100)^(H11/365)/(1+$O$8/100)^($H$8/365))^(365/(H11-$H$8))-1)*100</f>
         <v>4.699784600691026</v>
       </c>
       <c r="R11" s="24">
-        <f t="shared" si="17"/>
+        <f>+(((1+O11/100)^(H11/365)/(1+$O$9/100)^($H$9/365))^(365/(H11-$H$9))-1)*100</f>
         <v>4.4592622852936969</v>
       </c>
       <c r="S11" s="24">
-        <f t="shared" ref="S11:S20" si="20">+(((1+O11/100)^(H11/365)/(1+$O$10/100)^($H$10/365))^(365/(H11-$H$10))-1)*100</f>
+        <f>+(((1+O11/100)^(H11/365)/(1+$O$10/100)^($H$10/365))^(365/(H11-$H$10))-1)*100</f>
         <v>4.2948781085087262</v>
       </c>
       <c r="T11" s="24" t="e">
@@ -24470,15 +24471,15 @@
         <v>0.24130797886052366</v>
       </c>
       <c r="AD11" s="11">
-        <f t="shared" si="18"/>
+        <f>+A8</f>
         <v>45482</v>
       </c>
       <c r="AE11" s="15">
-        <f t="shared" si="19"/>
+        <f>+F8</f>
         <v>43750</v>
       </c>
       <c r="AF11" s="25">
-        <f t="shared" ref="AF11:AF23" si="21">+(1+P8/100)^-((H8-$H$7)/365)</f>
+        <f>+(1+P8/100)^-((H8-$H$7)/365)</f>
         <v>0.97391868425700878</v>
       </c>
       <c r="AG11" s="13">
@@ -24503,7 +24504,7 @@
         <v>80000</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>82700</v>
       </c>
       <c r="G12">
@@ -24511,54 +24512,54 @@
         <v>0.75000000000000011</v>
       </c>
       <c r="H12" s="15">
+        <f>+A12-$AB$1</f>
+        <v>1024</v>
+      </c>
+      <c r="I12" s="9">
+        <f>+YEARFRAC($AB$1,A12,0)</f>
+        <v>2.8055555555555554</v>
+      </c>
+      <c r="J12" s="21">
+        <f t="shared" si="9"/>
+        <v>0.38497490593934736</v>
+      </c>
+      <c r="K12" s="21">
+        <f t="shared" si="10"/>
+        <v>6.6389198400058275E-2</v>
+      </c>
+      <c r="L12" s="9">
+        <f>+F12/(1+O12/100)^I12</f>
+        <v>72440.438784892947</v>
+      </c>
+      <c r="M12" s="9">
         <f t="shared" si="6"/>
-        <v>1024</v>
-      </c>
-      <c r="I12" s="9">
-        <f t="shared" si="13"/>
-        <v>2.8055555555555554</v>
-      </c>
-      <c r="J12" s="21">
-        <f t="shared" si="14"/>
-        <v>0.38492848915104028</v>
-      </c>
-      <c r="K12" s="21">
-        <f t="shared" si="15"/>
-        <v>6.6390263568747387E-2</v>
-      </c>
-      <c r="L12" s="9">
-        <f t="shared" si="7"/>
-        <v>72440.438784892947</v>
-      </c>
-      <c r="M12" s="9">
-        <f t="shared" si="8"/>
         <v>21732.131635467882</v>
       </c>
       <c r="N12" s="9">
-        <f t="shared" si="9"/>
-        <v>2.9327190602096689</v>
+        <f>+(L12*J12+L12*$AF$1*K12)/10000</f>
+        <v>2.9330529906222473</v>
       </c>
       <c r="O12" s="9">
         <v>4.8343869399999999</v>
       </c>
       <c r="P12" s="24">
-        <f t="shared" si="10"/>
+        <f>+(((1+O12/100)^(H12/365)/(1+$O$7/100)^($H$7/365))^(365/(H12-$H$7))-1)*100</f>
         <v>4.7486471868301461</v>
       </c>
       <c r="Q12" s="24">
-        <f t="shared" si="16"/>
+        <f>+(((1+O12/100)^(H12/365)/(1+$O$8/100)^($H$8/365))^(365/(H12-$H$8))-1)*100</f>
         <v>4.5762530533879575</v>
       </c>
       <c r="R12" s="24">
-        <f t="shared" si="17"/>
+        <f>+(((1+O12/100)^(H12/365)/(1+$O$9/100)^($H$9/365))^(365/(H12-$H$9))-1)*100</f>
         <v>4.3740598904487893</v>
       </c>
       <c r="S12" s="24">
-        <f t="shared" si="20"/>
+        <f>+(((1+O12/100)^(H12/365)/(1+$O$10/100)^($H$10/365))^(365/(H12-$H$10))-1)*100</f>
         <v>4.2490357483834007</v>
       </c>
       <c r="T12" s="24">
-        <f t="shared" ref="T12:T20" si="22">+(((1+O12/100)^(H12/365)/(1+$O$11/100)^($H$11/365))^(365/(H12-$H$11))-1)*100</f>
+        <f>+(((1+O12/100)^(H12/365)/(1+$O$11/100)^($H$11/365))^(365/(H12-$H$11))-1)*100</f>
         <v>4.2024542236241746</v>
       </c>
       <c r="U12" s="24" t="e">
@@ -24574,22 +24575,22 @@
         <v>45</v>
       </c>
       <c r="AB12" s="13">
-        <v>0.29420565030218193</v>
+        <v>0.29417136968488999</v>
       </c>
       <c r="AD12" s="11">
-        <f t="shared" si="18"/>
+        <f>+A9</f>
         <v>45666</v>
       </c>
       <c r="AE12" s="15">
-        <f t="shared" si="19"/>
+        <f>+F9</f>
         <v>83600</v>
       </c>
       <c r="AF12" s="25">
-        <f t="shared" si="21"/>
+        <f>+(1+P9/100)^-((H9-$H$7)/365)</f>
         <v>0.94944322717756691</v>
       </c>
       <c r="AG12" s="25">
-        <f t="shared" ref="AG12:AG23" si="23">+(1+Q9/100)^-((H9-$H$8)/365)</f>
+        <f>+(1+Q9/100)^-((H9-$H$8)/365)</f>
         <v>0.97486909587517168</v>
       </c>
       <c r="AH12" s="13">
@@ -24614,7 +24615,7 @@
         <v>80000</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>82400</v>
       </c>
       <c r="G13">
@@ -24622,58 +24623,58 @@
         <v>0.75</v>
       </c>
       <c r="H13" s="15">
+        <f>+A13-$AB$1</f>
+        <v>1208</v>
+      </c>
+      <c r="I13" s="9">
+        <f>+YEARFRAC($AB$1,A13,0)</f>
+        <v>3.3055555555555554</v>
+      </c>
+      <c r="J13" s="21">
+        <f t="shared" si="9"/>
+        <v>0.3283506082521026</v>
+      </c>
+      <c r="K13" s="21">
+        <f t="shared" si="10"/>
+        <v>5.6624297687244751E-2</v>
+      </c>
+      <c r="L13" s="9">
+        <f>+F13/(1+O13/100)^I13</f>
+        <v>70735.315890208323</v>
+      </c>
+      <c r="M13" s="9">
         <f t="shared" si="6"/>
-        <v>1208</v>
-      </c>
-      <c r="I13" s="9">
-        <f t="shared" si="13"/>
-        <v>3.3055555555555554</v>
-      </c>
-      <c r="J13" s="21">
-        <f t="shared" si="14"/>
-        <v>0.32830442091578116</v>
-      </c>
-      <c r="K13" s="21">
-        <f t="shared" si="15"/>
-        <v>5.6624068235259097E-2</v>
-      </c>
-      <c r="L13" s="9">
-        <f t="shared" si="7"/>
-        <v>70735.315890208323</v>
-      </c>
-      <c r="M13" s="9">
-        <f t="shared" si="8"/>
         <v>21220.594767062496</v>
       </c>
       <c r="N13" s="9">
-        <f t="shared" si="9"/>
-        <v>2.4424313327712626</v>
+        <f>+(L13*J13+L13*$AF$1*K13)/10000</f>
+        <v>2.4427585272645058</v>
       </c>
       <c r="O13" s="9">
         <v>4.7259706399999999</v>
       </c>
       <c r="P13" s="24">
-        <f t="shared" si="10"/>
+        <f>+(((1+O13/100)^(H13/365)/(1+$O$7/100)^($H$7/365))^(365/(H13-$H$7))-1)*100</f>
         <v>4.643628854920534</v>
       </c>
       <c r="Q13" s="24">
-        <f t="shared" si="16"/>
+        <f>+(((1+O13/100)^(H13/365)/(1+$O$8/100)^($H$8/365))^(365/(H13-$H$8))-1)*100</f>
         <v>4.4851834308631044</v>
       </c>
       <c r="R13" s="24">
-        <f t="shared" si="17"/>
+        <f>+(((1+O13/100)^(H13/365)/(1+$O$9/100)^($H$9/365))^(365/(H13-$H$9))-1)*100</f>
         <v>4.3111400407220835</v>
       </c>
       <c r="S13" s="24">
-        <f t="shared" si="20"/>
+        <f>+(((1+O13/100)^(H13/365)/(1+$O$10/100)^($H$10/365))^(365/(H13-$H$10))-1)*100</f>
         <v>4.207332532597996</v>
       </c>
       <c r="T13" s="24">
-        <f t="shared" si="22"/>
+        <f>+(((1+O13/100)^(H13/365)/(1+$O$11/100)^($H$11/365))^(365/(H13-$H$11))-1)*100</f>
         <v>4.1632278320903771</v>
       </c>
       <c r="U13" s="24">
-        <f t="shared" ref="U13:U20" si="24">+(((1+O13/100)^(H13/365)/(1+$O$12/100)^($H$12/365))^(365/(H13-$H$12))-1)*100</f>
+        <f>+(((1+O13/100)^(H13/365)/(1+$O$12/100)^($H$12/365))^(365/(H13-$H$12))-1)*100</f>
         <v>4.1246554086828757</v>
       </c>
       <c r="V13" s="24" t="e">
@@ -24691,19 +24692,19 @@
         <v>1.7664116049495957</v>
       </c>
       <c r="AD13" s="11">
-        <f t="shared" si="18"/>
+        <f>+A10</f>
         <v>45847</v>
       </c>
       <c r="AE13" s="15">
-        <f t="shared" si="19"/>
+        <f>+F10</f>
         <v>83300</v>
       </c>
       <c r="AF13" s="25">
-        <f t="shared" si="21"/>
+        <f>+(1+P10/100)^-((H10-$H$7)/365)</f>
         <v>0.92838601596869119</v>
       </c>
       <c r="AG13" s="25">
-        <f t="shared" si="23"/>
+        <f>+(1+Q10/100)^-((H10-$H$8)/365)</f>
         <v>0.95324797744993039</v>
       </c>
       <c r="AH13" s="25">
@@ -24711,7 +24712,7 @@
         <v>0.97782151622538471</v>
       </c>
       <c r="AI13" s="13">
-        <f t="shared" ref="AI13" si="25">+(1+$AB$3)^-YEARFRAC($AD13,$AD$13)</f>
+        <f t="shared" ref="AI13" si="11">+(1+$AB$3)^-YEARFRAC($AD13,$AD$13)</f>
         <v>1</v>
       </c>
     </row>
@@ -24732,7 +24733,7 @@
         <v>80000</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>82100</v>
       </c>
       <c r="G14">
@@ -24740,62 +24741,62 @@
         <v>0.74999999999999989</v>
       </c>
       <c r="H14" s="15">
+        <f>+A14-$AB$1</f>
+        <v>1389</v>
+      </c>
+      <c r="I14" s="9">
+        <f>+YEARFRAC($AB$1,A14,0)</f>
+        <v>3.8055555555555554</v>
+      </c>
+      <c r="J14" s="21">
+        <f t="shared" si="9"/>
+        <v>0.2800549341689087</v>
+      </c>
+      <c r="K14" s="21">
+        <f t="shared" si="10"/>
+        <v>4.8295674083193886E-2</v>
+      </c>
+      <c r="L14" s="9">
+        <f>+F14/(1+O14/100)^I14</f>
+        <v>69086.473172169019</v>
+      </c>
+      <c r="M14" s="9">
         <f t="shared" si="6"/>
-        <v>1389</v>
-      </c>
-      <c r="I14" s="9">
-        <f t="shared" si="13"/>
-        <v>3.8055555555555554</v>
-      </c>
-      <c r="J14" s="21">
-        <f t="shared" si="14"/>
-        <v>0.28000991308947681</v>
-      </c>
-      <c r="K14" s="21">
-        <f t="shared" si="15"/>
-        <v>4.8294507826304331E-2</v>
-      </c>
-      <c r="L14" s="9">
-        <f t="shared" si="7"/>
-        <v>69086.473172169019</v>
-      </c>
-      <c r="M14" s="9">
-        <f t="shared" si="8"/>
         <v>20725.941951650704</v>
       </c>
       <c r="N14" s="9">
-        <f t="shared" si="9"/>
-        <v>2.0345846514389043</v>
+        <f>+(L14*J14+L14*$AF$1*K14)/10000</f>
+        <v>2.0348981033757991</v>
       </c>
       <c r="O14" s="9">
         <v>4.6393241200000004</v>
       </c>
       <c r="P14" s="24">
-        <f t="shared" si="10"/>
+        <f>+(((1+O14/100)^(H14/365)/(1+$O$7/100)^($H$7/365))^(365/(H14-$H$7))-1)*100</f>
         <v>4.561117031462425</v>
       </c>
       <c r="Q14" s="24">
-        <f t="shared" si="16"/>
+        <f>+(((1+O14/100)^(H14/365)/(1+$O$8/100)^($H$8/365))^(365/(H14-$H$8))-1)*100</f>
         <v>4.4152592058345652</v>
       </c>
       <c r="R14" s="24">
-        <f t="shared" si="17"/>
+        <f>+(((1+O14/100)^(H14/365)/(1+$O$9/100)^($H$9/365))^(365/(H14-$H$9))-1)*100</f>
         <v>4.261767016018303</v>
       </c>
       <c r="S14" s="24">
-        <f t="shared" si="20"/>
+        <f>+(((1+O14/100)^(H14/365)/(1+$O$10/100)^($H$10/365))^(365/(H14-$H$10))-1)*100</f>
         <v>4.1714963743308742</v>
       </c>
       <c r="T14" s="24">
-        <f t="shared" si="22"/>
+        <f>+(((1+O14/100)^(H14/365)/(1+$O$11/100)^($H$11/365))^(365/(H14-$H$11))-1)*100</f>
         <v>4.1299500729113925</v>
       </c>
       <c r="U14" s="24">
-        <f t="shared" si="24"/>
+        <f>+(((1+O14/100)^(H14/365)/(1+$O$12/100)^($H$12/365))^(365/(H14-$H$12))-1)*100</f>
         <v>4.094014673277302</v>
       </c>
       <c r="V14" s="24">
-        <f t="shared" ref="V14:V20" si="26">+(((1+O14/100)^(H14/365)/(1+$O$13/100)^($H$13/365))^(365/(H14-$H$13))-1)*100</f>
+        <f>+(((1+O14/100)^(H14/365)/(1+$O$13/100)^($H$13/365))^(365/(H14-$H$13))-1)*100</f>
         <v>4.0628753224142278</v>
       </c>
       <c r="W14" s="24" t="e">
@@ -24810,22 +24811,22 @@
       </c>
       <c r="AB14" s="20">
         <f>+AB11-AB12</f>
-        <v>-5.2897671441658273E-2</v>
+        <v>-5.2863390824366335E-2</v>
       </c>
       <c r="AD14" s="11">
-        <f t="shared" si="18"/>
+        <f>+A11</f>
         <v>46031</v>
       </c>
       <c r="AE14" s="15">
-        <f t="shared" si="19"/>
+        <f>+F11</f>
         <v>83000</v>
       </c>
       <c r="AF14" s="25">
-        <f t="shared" si="21"/>
+        <f>+(1+P11/100)^-((H11-$H$7)/365)</f>
         <v>0.90891243763956242</v>
       </c>
       <c r="AG14" s="25">
-        <f t="shared" si="23"/>
+        <f>+(1+Q11/100)^-((H11-$H$8)/365)</f>
         <v>0.93325290122446036</v>
       </c>
       <c r="AH14" s="25">
@@ -24837,7 +24838,7 @@
         <v>0.97902426577504031</v>
       </c>
       <c r="AJ14" s="13">
-        <f t="shared" ref="AJ14" si="27">+(1+$AB$3)^-YEARFRAC($AD14,$AD$14)</f>
+        <f t="shared" ref="AJ14" si="12">+(1+$AB$3)^-YEARFRAC($AD14,$AD$14)</f>
         <v>1</v>
       </c>
     </row>
@@ -24858,7 +24859,7 @@
         <v>80000</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>84200</v>
       </c>
       <c r="G15">
@@ -24866,66 +24867,66 @@
         <v>1.75</v>
       </c>
       <c r="H15" s="15">
+        <f>+A15-$AB$1</f>
+        <v>1573</v>
+      </c>
+      <c r="I15" s="9">
+        <f>+YEARFRAC($AB$1,A15,0)</f>
+        <v>4.3055555555555554</v>
+      </c>
+      <c r="J15" s="21">
+        <f t="shared" si="9"/>
+        <v>0.23886286238316892</v>
+      </c>
+      <c r="K15" s="21">
+        <f t="shared" si="10"/>
+        <v>4.1192071785739783E-2</v>
+      </c>
+      <c r="L15" s="9">
+        <f>+F15/(1+O15/100)^I15</f>
+        <v>69459.729306806636</v>
+      </c>
+      <c r="M15" s="9">
         <f t="shared" si="6"/>
-        <v>1573</v>
-      </c>
-      <c r="I15" s="9">
-        <f t="shared" si="13"/>
-        <v>4.3055555555555554</v>
-      </c>
-      <c r="J15" s="21">
-        <f t="shared" si="14"/>
-        <v>0.23881966380370334</v>
-      </c>
-      <c r="K15" s="21">
-        <f t="shared" si="15"/>
-        <v>4.1190249285773486E-2</v>
-      </c>
-      <c r="L15" s="9">
-        <f t="shared" si="7"/>
-        <v>69459.729306806636</v>
-      </c>
-      <c r="M15" s="9">
-        <f t="shared" si="8"/>
         <v>20837.91879204199</v>
       </c>
       <c r="N15" s="9">
-        <f t="shared" si="9"/>
-        <v>1.7446668270588714</v>
+        <f>+(L15*J15+L15*$AF$1*K15)/10000</f>
+        <v>1.7449706809331129</v>
       </c>
       <c r="O15" s="9">
         <v>4.5711533299999996</v>
       </c>
       <c r="P15" s="24">
-        <f t="shared" si="10"/>
+        <f>+(((1+O15/100)^(H15/365)/(1+$O$7/100)^($H$7/365))^(365/(H15-$H$7))-1)*100</f>
         <v>4.4976163343802833</v>
       </c>
       <c r="Q15" s="24">
-        <f t="shared" si="16"/>
+        <f>+(((1+O15/100)^(H15/365)/(1+$O$8/100)^($H$8/365))^(365/(H15-$H$8))-1)*100</f>
         <v>4.3637831314438325</v>
       </c>
       <c r="R15" s="24">
-        <f t="shared" si="17"/>
+        <f>+(((1+O15/100)^(H15/365)/(1+$O$9/100)^($H$9/365))^(365/(H15-$H$9))-1)*100</f>
         <v>4.2274936254728335</v>
       </c>
       <c r="S15" s="24">
-        <f t="shared" si="20"/>
+        <f>+(((1+O15/100)^(H15/365)/(1+$O$10/100)^($H$10/365))^(365/(H15-$H$10))-1)*100</f>
         <v>4.148631894552568</v>
       </c>
       <c r="T15" s="24">
-        <f t="shared" si="22"/>
+        <f>+(((1+O15/100)^(H15/365)/(1+$O$11/100)^($H$11/365))^(365/(H15-$H$11))-1)*100</f>
         <v>4.111802205426307</v>
       </c>
       <c r="U15" s="24">
-        <f t="shared" si="24"/>
+        <f>+(((1+O15/100)^(H15/365)/(1+$O$12/100)^($H$12/365))^(365/(H15-$H$12))-1)*100</f>
         <v>4.0819323999029322</v>
       </c>
       <c r="V15" s="24">
-        <f t="shared" si="26"/>
+        <f>+(((1+O15/100)^(H15/365)/(1+$O$13/100)^($H$13/365))^(365/(H15-$H$13))-1)*100</f>
         <v>4.0604019677131342</v>
       </c>
       <c r="W15" s="24">
-        <f t="shared" ref="W15:W20" si="28">+(((1+O15/100)^(H15/365)/(1+$O$14/100)^($H$14/365))^(365/(H15-$H$14))-1)*100</f>
+        <f>+(((1+O15/100)^(H15/365)/(1+$O$14/100)^($H$14/365))^(365/(H15-$H$14))-1)*100</f>
         <v>4.0579689968039068</v>
       </c>
       <c r="X15" s="24" t="e">
@@ -24939,30 +24940,30 @@
       </c>
       <c r="AB15" s="9">
         <f>+SUM(N7:N20)</f>
-        <v>30.680003097614904</v>
+        <v>30.683474335882977</v>
       </c>
       <c r="AD15" s="11">
-        <f t="shared" si="18"/>
+        <f>+A12</f>
         <v>46212</v>
       </c>
       <c r="AE15" s="15">
-        <f t="shared" si="19"/>
+        <f>+F12</f>
         <v>82700</v>
       </c>
       <c r="AF15" s="25">
-        <f t="shared" si="21"/>
+        <f>+(1+P12/100)^-((H12-$H$7)/365)</f>
         <v>0.89054638184803325</v>
       </c>
       <c r="AG15" s="25">
-        <f t="shared" si="23"/>
+        <f>+(1+Q12/100)^-((H12-$H$8)/365)</f>
         <v>0.91439500673243634</v>
       </c>
       <c r="AH15" s="25">
-        <f t="shared" ref="AH15:AH23" si="29">+(1+R12/100)^-((H12-$H$9)/365)</f>
+        <f>+(1+R12/100)^-((H12-$H$9)/365)</f>
         <v>0.93796696459185058</v>
       </c>
       <c r="AI15" s="25">
-        <f t="shared" ref="AI15:AI23" si="30">+(1+S12/100)^-(($H12-$H$10)/365)</f>
+        <f t="shared" ref="AI15:AI23" si="13">+(1+S12/100)^-(($H12-$H$10)/365)</f>
         <v>0.95924148633241157</v>
       </c>
       <c r="AJ15" s="25">
@@ -24970,7 +24971,7 @@
         <v>0.97979337169240877</v>
       </c>
       <c r="AK15" s="13">
-        <f t="shared" ref="AK15" si="31">+(1+$AB$3)^-YEARFRAC($AD15,$AD$15)</f>
+        <f t="shared" ref="AK15" si="14">+(1+$AB$3)^-YEARFRAC($AD15,$AD$15)</f>
         <v>1</v>
       </c>
     </row>
@@ -24991,7 +24992,7 @@
         <v>80000</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>83500</v>
       </c>
       <c r="G16">
@@ -24999,70 +25000,70 @@
         <v>1.7499999999999998</v>
       </c>
       <c r="H16" s="15">
+        <f>+A16-$AB$1</f>
+        <v>1755</v>
+      </c>
+      <c r="I16" s="9">
+        <f>+YEARFRAC($AB$1,A16,0)</f>
+        <v>4.8055555555555554</v>
+      </c>
+      <c r="J16" s="21">
+        <f t="shared" si="9"/>
+        <v>0.20372955468611384</v>
+      </c>
+      <c r="K16" s="21">
+        <f t="shared" si="10"/>
+        <v>3.5133307697055097E-2</v>
+      </c>
+      <c r="L16" s="9">
+        <f>+F16/(1+O16/100)^I16</f>
+        <v>67508.312373478329</v>
+      </c>
+      <c r="M16" s="9">
         <f t="shared" si="6"/>
-        <v>1755</v>
-      </c>
-      <c r="I16" s="9">
-        <f t="shared" si="13"/>
-        <v>4.8055555555555554</v>
-      </c>
-      <c r="J16" s="21">
-        <f t="shared" si="14"/>
-        <v>0.20368861655654483</v>
-      </c>
-      <c r="K16" s="21">
-        <f t="shared" si="15"/>
-        <v>3.5131047247158501E-2</v>
-      </c>
-      <c r="L16" s="9">
-        <f t="shared" si="7"/>
-        <v>67508.312373478329</v>
-      </c>
-      <c r="M16" s="9">
-        <f t="shared" si="8"/>
         <v>20252.493712043499</v>
       </c>
       <c r="N16" s="9">
-        <f t="shared" si="9"/>
-        <v>1.446216606689146</v>
+        <f>+(L16*J16+L16*$AF$1*K16)/10000</f>
+        <v>1.4464975510677707</v>
       </c>
       <c r="O16" s="9">
         <v>4.5232771300000003</v>
       </c>
       <c r="P16" s="24">
-        <f t="shared" si="10"/>
+        <f>+(((1+O16/100)^(H16/365)/(1+$O$7/100)^($H$7/365))^(365/(H16-$H$7))-1)*100</f>
         <v>4.4546526525185648</v>
       </c>
       <c r="Q16" s="24">
-        <f t="shared" si="16"/>
+        <f>+(((1+O16/100)^(H16/365)/(1+$O$8/100)^($H$8/365))^(365/(H16-$H$8))-1)*100</f>
         <v>4.3321853274355338</v>
       </c>
       <c r="R16" s="24">
-        <f t="shared" si="17"/>
+        <f>+(((1+O16/100)^(H16/365)/(1+$O$9/100)^($H$9/365))^(365/(H16-$H$9))-1)*100</f>
         <v>4.2107975476220361</v>
       </c>
       <c r="S16" s="24">
-        <f t="shared" si="20"/>
+        <f>+(((1+O16/100)^(H16/365)/(1+$O$10/100)^($H$10/365))^(365/(H16-$H$10))-1)*100</f>
         <v>4.1422825788048456</v>
       </c>
       <c r="T16" s="24">
-        <f t="shared" si="22"/>
+        <f>+(((1+O16/100)^(H16/365)/(1+$O$11/100)^($H$11/365))^(365/(H16-$H$11))-1)*100</f>
         <v>4.1115228382808899</v>
       </c>
       <c r="U16" s="24">
-        <f t="shared" si="24"/>
+        <f>+(((1+O16/100)^(H16/365)/(1+$O$12/100)^($H$12/365))^(365/(H16-$H$12))-1)*100</f>
         <v>4.0890199388937898</v>
       </c>
       <c r="V16" s="24">
-        <f t="shared" si="26"/>
+        <f>+(((1+O16/100)^(H16/365)/(1+$O$13/100)^($H$13/365))^(365/(H16-$H$13))-1)*100</f>
         <v>4.0770356118608575</v>
       </c>
       <c r="W16" s="24">
-        <f t="shared" si="28"/>
+        <f>+(((1+O16/100)^(H16/365)/(1+$O$14/100)^($H$14/365))^(365/(H16-$H$14))-1)*100</f>
         <v>4.0840390900061418</v>
       </c>
       <c r="X16" s="24">
-        <f t="shared" ref="X16:X20" si="32">+(((1+O16/100)^(H16/365)/(1+$O$15/100)^($H$15/365))^(365/(H16-$H$15))-1)*100</f>
+        <f>+(((1+O16/100)^(H16/365)/(1+$O$15/100)^($H$15/365))^(365/(H16-$H$15))-1)*100</f>
         <v>4.1104023072640494</v>
       </c>
       <c r="Y16" s="24" t="e">
@@ -25075,34 +25076,34 @@
       </c>
       <c r="AB16" s="12">
         <f>+AB15-AB2</f>
-        <v>3.0976149041350709E-6</v>
+        <v>3.4743358829771864E-3</v>
       </c>
       <c r="AD16" s="11">
-        <f t="shared" si="18"/>
+        <f>+A13</f>
         <v>46396</v>
       </c>
       <c r="AE16" s="15">
-        <f t="shared" si="19"/>
+        <f>+F13</f>
         <v>82400</v>
       </c>
       <c r="AF16" s="25">
-        <f t="shared" si="21"/>
+        <f>+(1+P13/100)^-((H13-$H$7)/365)</f>
         <v>0.87258474661011476</v>
       </c>
       <c r="AG16" s="25">
-        <f t="shared" si="23"/>
+        <f>+(1+Q13/100)^-((H13-$H$8)/365)</f>
         <v>0.89595236308234438</v>
       </c>
       <c r="AH16" s="25">
-        <f t="shared" si="29"/>
+        <f>+(1+R13/100)^-((H13-$H$9)/365)</f>
         <v>0.9190488926905811</v>
       </c>
       <c r="AI16" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="13"/>
         <v>0.93989432369858295</v>
       </c>
       <c r="AJ16" s="25">
-        <f t="shared" ref="AJ16:AJ23" si="33">+(1+T13/100)^-(($H13-$H$11)/365)</f>
+        <f t="shared" ref="AJ16:AJ23" si="15">+(1+T13/100)^-(($H13-$H$11)/365)</f>
         <v>0.96003169334574157</v>
       </c>
       <c r="AK16" s="25">
@@ -25110,7 +25111,7 @@
         <v>0.97983076950956227</v>
       </c>
       <c r="AL16" s="13">
-        <f t="shared" ref="AL16" si="34">+(1+$AB$3)^-YEARFRAC($AD16,$AD$16)</f>
+        <f t="shared" ref="AL16" si="16">+(1+$AB$3)^-YEARFRAC($AD16,$AD$16)</f>
         <v>1</v>
       </c>
     </row>
@@ -25131,7 +25132,7 @@
         <v>80000</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>82800</v>
       </c>
       <c r="G17">
@@ -25139,74 +25140,74 @@
         <v>1.7500000000000002</v>
       </c>
       <c r="H17" s="15">
+        <f>+A17-$AB$1</f>
+        <v>1939</v>
+      </c>
+      <c r="I17" s="9">
+        <f>+YEARFRAC($AB$1,A17,0)</f>
+        <v>5.3055555555555554</v>
+      </c>
+      <c r="J17" s="21">
+        <f t="shared" si="9"/>
+        <v>0.17376385361246044</v>
+      </c>
+      <c r="K17" s="21">
+        <f t="shared" si="10"/>
+        <v>2.9965701073653404E-2</v>
+      </c>
+      <c r="L17" s="9">
+        <f>+F17/(1+O17/100)^I17</f>
+        <v>65574.661129188811</v>
+      </c>
+      <c r="M17" s="9">
         <f t="shared" si="6"/>
-        <v>1939</v>
-      </c>
-      <c r="I17" s="9">
-        <f t="shared" si="13"/>
-        <v>5.3055555555555554</v>
-      </c>
-      <c r="J17" s="21">
-        <f t="shared" si="14"/>
-        <v>0.17372544560995981</v>
-      </c>
-      <c r="K17" s="21">
-        <f t="shared" si="15"/>
-        <v>2.9963170946585026E-2</v>
-      </c>
-      <c r="L17" s="9">
-        <f t="shared" si="7"/>
-        <v>65574.661129188811</v>
-      </c>
-      <c r="M17" s="9">
-        <f t="shared" si="8"/>
         <v>19672.398338756644</v>
       </c>
       <c r="N17" s="9">
-        <f t="shared" si="9"/>
-        <v>1.1981434659743917</v>
+        <f>+(L17*J17+L17*$AF$1*K17)/10000</f>
+        <v>1.1984003025160082</v>
       </c>
       <c r="O17" s="9">
         <v>4.4941832899999996</v>
       </c>
       <c r="P17" s="24">
-        <f t="shared" si="10"/>
+        <f>+(((1+O17/100)^(H17/365)/(1+$O$7/100)^($H$7/365))^(365/(H17-$H$7))-1)*100</f>
         <v>4.4307030134264735</v>
       </c>
       <c r="Q17" s="24">
-        <f t="shared" si="16"/>
+        <f>+(((1+O17/100)^(H17/365)/(1+$O$8/100)^($H$8/365))^(365/(H17-$H$8))-1)*100</f>
         <v>4.3193053155156313</v>
       </c>
       <c r="R17" s="24">
-        <f t="shared" si="17"/>
+        <f>+(((1+O17/100)^(H17/365)/(1+$O$9/100)^($H$9/365))^(365/(H17-$H$9))-1)*100</f>
         <v>4.2115902120785975</v>
       </c>
       <c r="S17" s="24">
-        <f t="shared" si="20"/>
+        <f>+(((1+O17/100)^(H17/365)/(1+$O$10/100)^($H$10/365))^(365/(H17-$H$10))-1)*100</f>
         <v>4.1530330758927203</v>
       </c>
       <c r="T17" s="24">
-        <f t="shared" si="22"/>
+        <f>+(((1+O17/100)^(H17/365)/(1+$O$11/100)^($H$11/365))^(365/(H17-$H$11))-1)*100</f>
         <v>4.1292385955917554</v>
       </c>
       <c r="U17" s="24">
-        <f t="shared" si="24"/>
+        <f>+(((1+O17/100)^(H17/365)/(1+$O$12/100)^($H$12/365))^(365/(H17-$H$12))-1)*100</f>
         <v>4.1147615999095999</v>
       </c>
       <c r="V17" s="24">
-        <f t="shared" si="26"/>
+        <f>+(((1+O17/100)^(H17/365)/(1+$O$13/100)^($H$13/365))^(365/(H17-$H$13))-1)*100</f>
         <v>4.1122713775396003</v>
       </c>
       <c r="W17" s="24">
-        <f t="shared" si="28"/>
+        <f>+(((1+O17/100)^(H17/365)/(1+$O$14/100)^($H$14/365))^(365/(H17-$H$14))-1)*100</f>
         <v>4.1285322974609517</v>
       </c>
       <c r="X17" s="24">
-        <f t="shared" si="32"/>
+        <f>+(((1+O17/100)^(H17/365)/(1+$O$15/100)^($H$15/365))^(365/(H17-$H$15))-1)*100</f>
         <v>4.1640248163483884</v>
       </c>
       <c r="Y17" s="24">
-        <f t="shared" ref="Y17:Y20" si="35">+(((1+O17/100)^(H17/365)/(1+$O$16/100)^($H$16/365))^(365/(H17-$H$16))-1)*100</f>
+        <f>+(((1+O17/100)^(H17/365)/(1+$O$16/100)^($H$16/365))^(365/(H17-$H$16))-1)*100</f>
         <v>4.2170916418554194</v>
       </c>
       <c r="Z17" s="24" t="e">
@@ -25214,35 +25215,35 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AD17" s="11">
-        <f t="shared" si="18"/>
+        <f>+A14</f>
         <v>46577</v>
       </c>
       <c r="AE17" s="15">
-        <f t="shared" si="19"/>
+        <f>+F14</f>
         <v>82100</v>
       </c>
       <c r="AF17" s="25">
-        <f t="shared" si="21"/>
+        <f>+(1+P14/100)^-((H14-$H$7)/365)</f>
         <v>0.85552121766387323</v>
       </c>
       <c r="AG17" s="25">
-        <f t="shared" si="23"/>
+        <f>+(1+Q14/100)^-((H14-$H$8)/365)</f>
         <v>0.87843187680143997</v>
       </c>
       <c r="AH17" s="25">
-        <f t="shared" si="29"/>
+        <f>+(1+R14/100)^-((H14-$H$9)/365)</f>
         <v>0.90107675022033928</v>
       </c>
       <c r="AI17" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="13"/>
         <v>0.92151454561840929</v>
       </c>
       <c r="AJ17" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="15"/>
         <v>0.941258125904465</v>
       </c>
       <c r="AK17" s="25">
-        <f t="shared" ref="AK17:AK23" si="36">+(1+U14/100)^-(($H14-$H$12)/365)</f>
+        <f t="shared" ref="AK17:AK23" si="17">+(1+U14/100)^-(($H14-$H$12)/365)</f>
         <v>0.96067002808828827</v>
       </c>
       <c r="AL17" s="25">
@@ -25250,7 +25251,7 @@
         <v>0.98044484617393202</v>
       </c>
       <c r="AM17" s="13">
-        <f t="shared" ref="AM17" si="37">+(1+$AB$3)^-YEARFRAC($AD17,$AD$17)</f>
+        <f t="shared" ref="AM17" si="18">+(1+$AB$3)^-YEARFRAC($AD17,$AD$17)</f>
         <v>1</v>
       </c>
     </row>
@@ -25271,7 +25272,7 @@
         <v>80000</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>82100</v>
       </c>
       <c r="G18">
@@ -25279,78 +25280,78 @@
         <v>1.75</v>
       </c>
       <c r="H18" s="15">
+        <f>+A18-$AB$1</f>
+        <v>2120</v>
+      </c>
+      <c r="I18" s="9">
+        <f>+YEARFRAC($AB$1,A18,0)</f>
+        <v>5.8055555555555554</v>
+      </c>
+      <c r="J18" s="21">
+        <f t="shared" si="9"/>
+        <v>0.14820567820300934</v>
+      </c>
+      <c r="K18" s="21">
+        <f t="shared" si="10"/>
+        <v>2.5558175409451104E-2</v>
+      </c>
+      <c r="L18" s="9">
+        <f>+F18/(1+O18/100)^I18</f>
+        <v>63654.846240706065</v>
+      </c>
+      <c r="M18" s="9">
         <f t="shared" si="6"/>
-        <v>2120</v>
-      </c>
-      <c r="I18" s="9">
-        <f t="shared" si="13"/>
-        <v>5.8055555555555554</v>
-      </c>
-      <c r="J18" s="21">
-        <f t="shared" si="14"/>
-        <v>0.14816994176010254</v>
-      </c>
-      <c r="K18" s="21">
-        <f t="shared" si="15"/>
-        <v>2.5555503849857282E-2</v>
-      </c>
-      <c r="L18" s="9">
-        <f t="shared" si="7"/>
-        <v>63654.846240706065</v>
-      </c>
-      <c r="M18" s="9">
-        <f t="shared" si="8"/>
         <v>19096.45387221182</v>
       </c>
       <c r="N18" s="9">
-        <f t="shared" si="9"/>
-        <v>0.99197543606836303</v>
+        <f>+(L18*J18+L18*$AF$1*K18)/10000</f>
+        <v>0.99220801757766042</v>
       </c>
       <c r="O18" s="9">
         <v>4.4805632800000001</v>
       </c>
       <c r="P18" s="24">
-        <f t="shared" si="10"/>
+        <f>+(((1+O18/100)^(H18/365)/(1+$O$7/100)^($H$7/365))^(365/(H18-$H$7))-1)*100</f>
         <v>4.4220518172592094</v>
       </c>
       <c r="Q18" s="24">
-        <f t="shared" si="16"/>
+        <f>+(((1+O18/100)^(H18/365)/(1+$O$8/100)^($H$8/365))^(365/(H18-$H$8))-1)*100</f>
         <v>4.3208378761914856</v>
       </c>
       <c r="R18" s="24">
-        <f t="shared" si="17"/>
+        <f>+(((1+O18/100)^(H18/365)/(1+$O$9/100)^($H$9/365))^(365/(H18-$H$9))-1)*100</f>
         <v>4.2251610776168125</v>
       </c>
       <c r="S18" s="24">
-        <f t="shared" si="20"/>
+        <f>+(((1+O18/100)^(H18/365)/(1+$O$10/100)^($H$10/365))^(365/(H18-$H$10))-1)*100</f>
         <v>4.1755305452836566</v>
       </c>
       <c r="T18" s="24">
-        <f t="shared" si="22"/>
+        <f>+(((1+O18/100)^(H18/365)/(1+$O$11/100)^($H$11/365))^(365/(H18-$H$11))-1)*100</f>
         <v>4.1583452893522832</v>
       </c>
       <c r="U18" s="24">
-        <f t="shared" si="24"/>
+        <f>+(((1+O18/100)^(H18/365)/(1+$O$12/100)^($H$12/365))^(365/(H18-$H$12))-1)*100</f>
         <v>4.1510626725093092</v>
       </c>
       <c r="V18" s="24">
-        <f t="shared" si="26"/>
+        <f>+(((1+O18/100)^(H18/365)/(1+$O$13/100)^($H$13/365))^(365/(H18-$H$13))-1)*100</f>
         <v>4.1563912656517266</v>
       </c>
       <c r="W18" s="24">
-        <f t="shared" si="28"/>
+        <f>+(((1+O18/100)^(H18/365)/(1+$O$14/100)^($H$14/365))^(365/(H18-$H$14))-1)*100</f>
         <v>4.1795593534426079</v>
       </c>
       <c r="X18" s="24">
-        <f t="shared" si="32"/>
+        <f>+(((1+O18/100)^(H18/365)/(1+$O$15/100)^($H$15/365))^(365/(H18-$H$15))-1)*100</f>
         <v>4.2204918744895847</v>
       </c>
       <c r="Y18" s="24">
-        <f t="shared" si="35"/>
+        <f>+(((1+O18/100)^(H18/365)/(1+$O$16/100)^($H$16/365))^(365/(H18-$H$16))-1)*100</f>
         <v>4.2754293379786867</v>
       </c>
       <c r="Z18" s="24">
-        <f t="shared" ref="Z18:Z20" si="38">+(((1+O18/100)^(H18/365)/(1+$O$17/100)^($H$17/365))^(365/(H18-$H$17))-1)*100</f>
+        <f>+(((1+O18/100)^(H18/365)/(1+$O$17/100)^($H$17/365))^(365/(H18-$H$17))-1)*100</f>
         <v>4.3347674294595295</v>
       </c>
       <c r="AA18" s="24" t="e">
@@ -25358,39 +25359,39 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AD18" s="11">
-        <f t="shared" si="18"/>
+        <f>+A15</f>
         <v>46761</v>
       </c>
       <c r="AE18" s="15">
-        <f t="shared" si="19"/>
+        <f>+F15</f>
         <v>84200</v>
       </c>
       <c r="AF18" s="25">
-        <f t="shared" si="21"/>
+        <f>+(1+P15/100)^-((H15-$H$7)/365)</f>
         <v>0.83853678258983899</v>
       </c>
       <c r="AG18" s="25">
-        <f t="shared" si="23"/>
+        <f>+(1+Q15/100)^-((H15-$H$8)/365)</f>
         <v>0.86099260250823562</v>
       </c>
       <c r="AH18" s="25">
-        <f t="shared" si="29"/>
+        <f>+(1+R15/100)^-((H15-$H$9)/365)</f>
         <v>0.88318791328111057</v>
       </c>
       <c r="AI18" s="25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="13"/>
         <v>0.90321996256578418</v>
       </c>
       <c r="AJ18" s="25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="15"/>
         <v>0.92257157880632723</v>
       </c>
       <c r="AK18" s="25">
-        <f t="shared" si="36"/>
+        <f t="shared" si="17"/>
         <v>0.94159810166173952</v>
       </c>
       <c r="AL18" s="25">
-        <f t="shared" ref="AL18:AL23" si="39">+(1+V15/100)^-(($H15-$H$13)/365)</f>
+        <f t="shared" ref="AL18:AL23" si="19">+(1+V15/100)^-(($H15-$H$13)/365)</f>
         <v>0.96098033554614792</v>
       </c>
       <c r="AM18" s="25">
@@ -25398,7 +25399,7 @@
         <v>0.9801472661070717</v>
       </c>
       <c r="AN18" s="13">
-        <f t="shared" ref="AN18" si="40">+(1+$AB$3)^-YEARFRAC($AD18,$AD$18)</f>
+        <f t="shared" ref="AN18" si="20">+(1+$AB$3)^-YEARFRAC($AD18,$AD$18)</f>
         <v>1</v>
       </c>
     </row>
@@ -25419,7 +25420,7 @@
         <v>80000</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>81400</v>
       </c>
       <c r="G19">
@@ -25427,82 +25428,82 @@
         <v>1.7500000000000002</v>
       </c>
       <c r="H19" s="15">
+        <f>+A19-$AB$1</f>
+        <v>2304</v>
+      </c>
+      <c r="I19" s="9">
+        <f>+YEARFRAC($AB$1,A19,0)</f>
+        <v>6.3055555555555554</v>
+      </c>
+      <c r="J19" s="21">
+        <f t="shared" si="9"/>
+        <v>0.1264067445269807</v>
+      </c>
+      <c r="K19" s="21">
+        <f t="shared" si="10"/>
+        <v>2.1798933676028653E-2</v>
+      </c>
+      <c r="L19" s="9">
+        <f>+F19/(1+O19/100)^I19</f>
+        <v>61763.520096687695</v>
+      </c>
+      <c r="M19" s="9">
         <f t="shared" si="6"/>
-        <v>2304</v>
-      </c>
-      <c r="I19" s="9">
-        <f t="shared" si="13"/>
-        <v>6.3055555555555554</v>
-      </c>
-      <c r="J19" s="21">
-        <f t="shared" si="14"/>
-        <v>0.12637372472471883</v>
-      </c>
-      <c r="K19" s="21">
-        <f t="shared" si="15"/>
-        <v>2.1796217035383696E-2</v>
-      </c>
-      <c r="L19" s="9">
-        <f t="shared" si="7"/>
-        <v>61763.520096687695</v>
-      </c>
-      <c r="M19" s="9">
-        <f t="shared" si="8"/>
         <v>18529.056029006308</v>
       </c>
       <c r="N19" s="9">
-        <f t="shared" si="9"/>
-        <v>0.82091494133974552</v>
+        <f>+(L19*J19+L19*$AF$1*K19)/10000</f>
+        <v>0.82112391694047671</v>
       </c>
       <c r="O19" s="9">
         <v>4.4753337399999999</v>
       </c>
       <c r="P19" s="24">
-        <f t="shared" si="10"/>
+        <f>+(((1+O19/100)^(H19/365)/(1+$O$7/100)^($H$7/365))^(365/(H19-$H$7))-1)*100</f>
         <v>4.421468187522426</v>
       </c>
       <c r="Q19" s="24">
-        <f t="shared" si="16"/>
+        <f>+(((1+O19/100)^(H19/365)/(1+$O$8/100)^($H$8/365))^(365/(H19-$H$8))-1)*100</f>
         <v>4.3294632360785901</v>
       </c>
       <c r="R19" s="24">
-        <f t="shared" si="17"/>
+        <f>+(((1+O19/100)^(H19/365)/(1+$O$9/100)^($H$9/365))^(365/(H19-$H$9))-1)*100</f>
         <v>4.244284854036473</v>
       </c>
       <c r="S19" s="24">
-        <f t="shared" si="20"/>
+        <f>+(((1+O19/100)^(H19/365)/(1+$O$10/100)^($H$10/365))^(365/(H19-$H$10))-1)*100</f>
         <v>4.2022999591223131</v>
       </c>
       <c r="T19" s="24">
-        <f t="shared" si="22"/>
+        <f>+(((1+O19/100)^(H19/365)/(1+$O$11/100)^($H$11/365))^(365/(H19-$H$11))-1)*100</f>
         <v>4.1906463898020885</v>
       </c>
       <c r="U19" s="24">
-        <f t="shared" si="24"/>
+        <f>+(((1+O19/100)^(H19/365)/(1+$O$12/100)^($H$12/365))^(365/(H19-$H$12))-1)*100</f>
         <v>4.1889767962836943</v>
       </c>
       <c r="V19" s="24">
-        <f t="shared" si="26"/>
+        <f>+(((1+O19/100)^(H19/365)/(1+$O$13/100)^($H$13/365))^(365/(H19-$H$13))-1)*100</f>
         <v>4.1997791719838418</v>
       </c>
       <c r="W19" s="24">
-        <f t="shared" si="28"/>
+        <f>+(((1+O19/100)^(H19/365)/(1+$O$14/100)^($H$14/365))^(365/(H19-$H$14))-1)*100</f>
         <v>4.2268820289466325</v>
       </c>
       <c r="X19" s="24">
-        <f t="shared" si="32"/>
+        <f>+(((1+O19/100)^(H19/365)/(1+$O$15/100)^($H$15/365))^(365/(H19-$H$15))-1)*100</f>
         <v>4.2694423026506056</v>
       </c>
       <c r="Y19" s="24">
-        <f t="shared" si="35"/>
+        <f>+(((1+O19/100)^(H19/365)/(1+$O$16/100)^($H$16/365))^(365/(H19-$H$16))-1)*100</f>
         <v>4.3222195465906443</v>
       </c>
       <c r="Z19" s="24">
-        <f t="shared" si="38"/>
+        <f>+(((1+O19/100)^(H19/365)/(1+$O$17/100)^($H$17/365))^(365/(H19-$H$17))-1)*100</f>
         <v>4.3752557289503002</v>
       </c>
       <c r="AA19" s="24">
-        <f t="shared" ref="AA19:AA20" si="41">+(((1+O19/100)^(H19/365)/(1+$O$18/100)^($H$18/365))^(365/(H19-$H$18))-1)*100</f>
+        <f>+(((1+O19/100)^(H19/365)/(1+$O$18/100)^($H$18/365))^(365/(H19-$H$18))-1)*100</f>
         <v>4.4150992228672914</v>
       </c>
       <c r="AB19" s="24" t="e">
@@ -25510,43 +25511,43 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AD19" s="11">
-        <f t="shared" si="18"/>
+        <f>+A16</f>
         <v>46943</v>
       </c>
       <c r="AE19" s="15">
+        <f>+F16</f>
+        <v>83500</v>
+      </c>
+      <c r="AF19" s="25">
+        <f>+(1+P16/100)^-((H16-$H$7)/365)</f>
+        <v>0.82186222579540658</v>
+      </c>
+      <c r="AG19" s="25">
+        <f>+(1+Q16/100)^-((H16-$H$8)/365)</f>
+        <v>0.84387150496285634</v>
+      </c>
+      <c r="AH19" s="25">
+        <f>+(1+R16/100)^-((H16-$H$9)/365)</f>
+        <v>0.86562545528770207</v>
+      </c>
+      <c r="AI19" s="25">
+        <f t="shared" si="13"/>
+        <v>0.88525916123140225</v>
+      </c>
+      <c r="AJ19" s="25">
+        <f t="shared" si="15"/>
+        <v>0.90422596474724837</v>
+      </c>
+      <c r="AK19" s="25">
+        <f t="shared" si="17"/>
+        <v>0.92287413945796359</v>
+      </c>
+      <c r="AL19" s="25">
         <f t="shared" si="19"/>
-        <v>83500</v>
-      </c>
-      <c r="AF19" s="25">
-        <f t="shared" si="21"/>
-        <v>0.82186222579540658</v>
-      </c>
-      <c r="AG19" s="25">
-        <f t="shared" si="23"/>
-        <v>0.84387150496285634</v>
-      </c>
-      <c r="AH19" s="25">
-        <f t="shared" si="29"/>
-        <v>0.86562545528770207</v>
-      </c>
-      <c r="AI19" s="25">
-        <f t="shared" si="30"/>
-        <v>0.88525916123140225</v>
-      </c>
-      <c r="AJ19" s="25">
-        <f t="shared" si="33"/>
-        <v>0.90422596474724837</v>
-      </c>
-      <c r="AK19" s="25">
-        <f t="shared" si="36"/>
-        <v>0.92287413945796359</v>
-      </c>
-      <c r="AL19" s="25">
-        <f t="shared" si="39"/>
         <v>0.94187095177659363</v>
       </c>
       <c r="AM19" s="25">
-        <f t="shared" ref="AM19:AM23" si="42">+(1+W16/100)^-(($H16-$H$14)/365)</f>
+        <f t="shared" ref="AM19:AM23" si="21">+(1+W16/100)^-(($H16-$H$14)/365)</f>
         <v>0.96065674214325425</v>
       </c>
       <c r="AN19" s="25">
@@ -25575,7 +25576,7 @@
         <v>80000</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="8"/>
         <v>80700</v>
       </c>
       <c r="G20">
@@ -25583,82 +25584,82 @@
         <v>1.7500000000000002</v>
       </c>
       <c r="H20" s="15">
+        <f>+A20-$AB$1</f>
+        <v>2485</v>
+      </c>
+      <c r="I20" s="9">
+        <f>+YEARFRAC($AB$1,A20,0)</f>
+        <v>6.8055555555555554</v>
+      </c>
+      <c r="J20" s="21">
+        <f t="shared" si="9"/>
+        <v>0.10781412193952576</v>
+      </c>
+      <c r="K20" s="21">
+        <f t="shared" si="10"/>
+        <v>1.8592622587454942E-2</v>
+      </c>
+      <c r="L20" s="9">
+        <f>+F20/(1+O20/100)^I20</f>
+        <v>59919.097171935944</v>
+      </c>
+      <c r="M20" s="9">
         <f t="shared" si="6"/>
-        <v>2485</v>
-      </c>
-      <c r="I20" s="9">
-        <f t="shared" si="13"/>
-        <v>6.8055555555555554</v>
-      </c>
-      <c r="J20" s="21">
-        <f t="shared" si="14"/>
-        <v>0.10778379279284642</v>
-      </c>
-      <c r="K20" s="21">
-        <f t="shared" si="15"/>
-        <v>1.8589931931872417E-2</v>
-      </c>
-      <c r="L20" s="9">
-        <f t="shared" si="7"/>
-        <v>59919.097171935944</v>
-      </c>
-      <c r="M20" s="9">
-        <f t="shared" si="8"/>
         <v>17975.729151580781</v>
       </c>
       <c r="N20" s="9">
-        <f t="shared" si="9"/>
-        <v>0.67924751352680346</v>
+        <f>+(L20*J20+L20*$AF$1*K20)/10000</f>
+        <v>0.67943407968510483</v>
       </c>
       <c r="O20" s="9">
         <v>4.472118</v>
       </c>
       <c r="P20" s="24">
-        <f t="shared" si="10"/>
+        <f>+(((1+O20/100)^(H20/365)/(1+$O$7/100)^($H$7/365))^(365/(H20-$H$7))-1)*100</f>
         <v>4.4222098818722744</v>
       </c>
       <c r="Q20" s="24">
-        <f t="shared" si="16"/>
+        <f>+(((1+O20/100)^(H20/365)/(1+$O$8/100)^($H$8/365))^(365/(H20-$H$8))-1)*100</f>
         <v>4.3378634105531111</v>
       </c>
       <c r="R20" s="24">
-        <f t="shared" si="17"/>
+        <f>+(((1+O20/100)^(H20/365)/(1+$O$9/100)^($H$9/365))^(365/(H20-$H$9))-1)*100</f>
         <v>4.2611272744993434</v>
       </c>
       <c r="S20" s="24">
-        <f t="shared" si="20"/>
+        <f>+(((1+O20/100)^(H20/365)/(1+$O$10/100)^($H$10/365))^(365/(H20-$H$10))-1)*100</f>
         <v>4.2249662409467037</v>
       </c>
       <c r="T20" s="24">
-        <f t="shared" si="22"/>
+        <f>+(((1+O20/100)^(H20/365)/(1+$O$11/100)^($H$11/365))^(365/(H20-$H$11))-1)*100</f>
         <v>4.2171349449303008</v>
       </c>
       <c r="U20" s="24">
-        <f t="shared" si="24"/>
+        <f>+(((1+O20/100)^(H20/365)/(1+$O$12/100)^($H$12/365))^(365/(H20-$H$12))-1)*100</f>
         <v>4.21895385041966</v>
       </c>
       <c r="V20" s="24">
-        <f t="shared" si="26"/>
+        <f>+(((1+O20/100)^(H20/365)/(1+$O$13/100)^($H$13/365))^(365/(H20-$H$13))-1)*100</f>
         <v>4.2325481337213811</v>
       </c>
       <c r="W20" s="24">
-        <f t="shared" si="28"/>
+        <f>+(((1+O20/100)^(H20/365)/(1+$O$14/100)^($H$14/365))^(365/(H20-$H$14))-1)*100</f>
         <v>4.2605955215344382</v>
       </c>
       <c r="X20" s="24">
-        <f t="shared" si="32"/>
+        <f>+(((1+O20/100)^(H20/365)/(1+$O$15/100)^($H$15/365))^(365/(H20-$H$15))-1)*100</f>
         <v>4.3015241196660892</v>
       </c>
       <c r="Y20" s="24">
-        <f t="shared" si="35"/>
+        <f>+(((1+O20/100)^(H20/365)/(1+$O$16/100)^($H$16/365))^(365/(H20-$H$16))-1)*100</f>
         <v>4.3492282831167461</v>
       </c>
       <c r="Z20" s="24">
-        <f t="shared" si="38"/>
+        <f>+(((1+O20/100)^(H20/365)/(1+$O$17/100)^($H$17/365))^(365/(H20-$H$17))-1)*100</f>
         <v>4.3937955793358796</v>
       </c>
       <c r="AA20" s="24">
-        <f t="shared" si="41"/>
+        <f>+(((1+O20/100)^(H20/365)/(1+$O$18/100)^($H$18/365))^(365/(H20-$H$18))-1)*100</f>
         <v>4.4230794580498722</v>
       </c>
       <c r="AB20" s="24">
@@ -25666,47 +25667,47 @@
         <v>4.4311925874847446</v>
       </c>
       <c r="AD20" s="11">
-        <f t="shared" si="18"/>
+        <f>+A17</f>
         <v>47127</v>
       </c>
       <c r="AE20" s="15">
+        <f>+F17</f>
+        <v>82800</v>
+      </c>
+      <c r="AF20" s="25">
+        <f>+(1+P17/100)^-((H17-$H$7)/365)</f>
+        <v>0.80492575504020869</v>
+      </c>
+      <c r="AG20" s="25">
+        <f>+(1+Q17/100)^-((H17-$H$8)/365)</f>
+        <v>0.82648147946178596</v>
+      </c>
+      <c r="AH20" s="25">
+        <f>+(1+R17/100)^-((H17-$H$9)/365)</f>
+        <v>0.84778713671277706</v>
+      </c>
+      <c r="AI20" s="25">
+        <f t="shared" si="13"/>
+        <v>0.86701624237665587</v>
+      </c>
+      <c r="AJ20" s="25">
+        <f t="shared" si="15"/>
+        <v>0.88559218875978141</v>
+      </c>
+      <c r="AK20" s="25">
+        <f t="shared" si="17"/>
+        <v>0.90385607245953037</v>
+      </c>
+      <c r="AL20" s="25">
         <f t="shared" si="19"/>
-        <v>82800</v>
-      </c>
-      <c r="AF20" s="25">
+        <v>0.92246140924104703</v>
+      </c>
+      <c r="AM20" s="25">
         <f t="shared" si="21"/>
-        <v>0.80492575504020869</v>
-      </c>
-      <c r="AG20" s="25">
-        <f t="shared" si="23"/>
-        <v>0.82648147946178596</v>
-      </c>
-      <c r="AH20" s="25">
-        <f t="shared" si="29"/>
-        <v>0.84778713671277706</v>
-      </c>
-      <c r="AI20" s="25">
-        <f t="shared" si="30"/>
-        <v>0.86701624237665587</v>
-      </c>
-      <c r="AJ20" s="25">
-        <f t="shared" si="33"/>
-        <v>0.88559218875978141</v>
-      </c>
-      <c r="AK20" s="25">
-        <f t="shared" si="36"/>
-        <v>0.90385607245953037</v>
-      </c>
-      <c r="AL20" s="25">
-        <f t="shared" si="39"/>
-        <v>0.92246140924104703</v>
-      </c>
-      <c r="AM20" s="25">
-        <f t="shared" si="42"/>
         <v>0.94086007269133154</v>
       </c>
       <c r="AN20" s="25">
-        <f t="shared" ref="AN20:AN23" si="43">+(1+X17/100)^-(($H17-$H$15)/365)</f>
+        <f t="shared" ref="AN20:AN23" si="22">+(1+X17/100)^-(($H17-$H$15)/365)</f>
         <v>0.95991705045326481</v>
       </c>
       <c r="AO20" s="25">
@@ -25720,51 +25721,51 @@
     </row>
     <row r="21" spans="1:45" x14ac:dyDescent="0.75">
       <c r="AD21" s="11">
-        <f t="shared" si="18"/>
+        <f>+A18</f>
         <v>47308</v>
       </c>
       <c r="AE21" s="15">
+        <f>+F18</f>
+        <v>82100</v>
+      </c>
+      <c r="AF21" s="25">
+        <f>+(1+P18/100)^-((H18-$H$7)/365)</f>
+        <v>0.78816479683970209</v>
+      </c>
+      <c r="AG21" s="25">
+        <f>+(1+Q18/100)^-((H18-$H$8)/365)</f>
+        <v>0.80927166670078199</v>
+      </c>
+      <c r="AH21" s="25">
+        <f>+(1+R18/100)^-((H18-$H$9)/365)</f>
+        <v>0.83013367653661463</v>
+      </c>
+      <c r="AI21" s="25">
+        <f t="shared" si="13"/>
+        <v>0.84896237479117997</v>
+      </c>
+      <c r="AJ21" s="25">
+        <f t="shared" si="15"/>
+        <v>0.86715151449193395</v>
+      </c>
+      <c r="AK21" s="25">
+        <f t="shared" si="17"/>
+        <v>0.88503508958638166</v>
+      </c>
+      <c r="AL21" s="25">
         <f t="shared" si="19"/>
-        <v>82100</v>
-      </c>
-      <c r="AF21" s="25">
+        <v>0.90325300768965511</v>
+      </c>
+      <c r="AM21" s="25">
         <f t="shared" si="21"/>
-        <v>0.78816479683970209</v>
-      </c>
-      <c r="AG21" s="25">
-        <f t="shared" si="23"/>
-        <v>0.80927166670078199</v>
-      </c>
-      <c r="AH21" s="25">
-        <f t="shared" si="29"/>
-        <v>0.83013367653661463</v>
-      </c>
-      <c r="AI21" s="25">
-        <f t="shared" si="30"/>
-        <v>0.84896237479117997</v>
-      </c>
-      <c r="AJ21" s="25">
-        <f t="shared" si="33"/>
-        <v>0.86715151449193395</v>
-      </c>
-      <c r="AK21" s="25">
-        <f t="shared" si="36"/>
-        <v>0.88503508958638166</v>
-      </c>
-      <c r="AL21" s="25">
-        <f t="shared" si="39"/>
-        <v>0.90325300768965511</v>
-      </c>
-      <c r="AM21" s="25">
-        <f t="shared" si="42"/>
         <v>0.92126855601770063</v>
       </c>
       <c r="AN21" s="25">
-        <f t="shared" si="43"/>
+        <f t="shared" si="22"/>
         <v>0.93992871058731409</v>
       </c>
       <c r="AO21" s="25">
-        <f t="shared" ref="AO21:AO23" si="44">+(1+Y18/100)^-(($H18-$H$16)/365)</f>
+        <f t="shared" ref="AO21:AO23" si="23">+(1+Y18/100)^-(($H18-$H$16)/365)</f>
         <v>0.95899868871197724</v>
       </c>
       <c r="AP21" s="25">
@@ -25778,55 +25779,55 @@
     </row>
     <row r="22" spans="1:45" x14ac:dyDescent="0.75">
       <c r="AD22" s="11">
-        <f t="shared" si="18"/>
+        <f>+A19</f>
         <v>47492</v>
       </c>
       <c r="AE22" s="15">
+        <f>+F19</f>
+        <v>81400</v>
+      </c>
+      <c r="AF22" s="25">
+        <f>+(1+P19/100)^-((H19-$H$7)/365)</f>
+        <v>0.77118446265703189</v>
+      </c>
+      <c r="AG22" s="25">
+        <f>+(1+Q19/100)^-((H19-$H$8)/365)</f>
+        <v>0.79183660311985882</v>
+      </c>
+      <c r="AH22" s="25">
+        <f>+(1+R19/100)^-((H19-$H$9)/365)</f>
+        <v>0.81224915885655535</v>
+      </c>
+      <c r="AI22" s="25">
+        <f t="shared" si="13"/>
+        <v>0.83067220896511229</v>
+      </c>
+      <c r="AJ22" s="25">
+        <f t="shared" si="15"/>
+        <v>0.848469479260061</v>
+      </c>
+      <c r="AK22" s="25">
+        <f t="shared" si="17"/>
+        <v>0.86596776807592579</v>
+      </c>
+      <c r="AL22" s="25">
         <f t="shared" si="19"/>
-        <v>81400</v>
-      </c>
-      <c r="AF22" s="25">
+        <v>0.8837931967674082</v>
+      </c>
+      <c r="AM22" s="25">
         <f t="shared" si="21"/>
-        <v>0.77118446265703189</v>
-      </c>
-      <c r="AG22" s="25">
+        <v>0.90142061556680597</v>
+      </c>
+      <c r="AN22" s="25">
+        <f t="shared" si="22"/>
+        <v>0.91967875311946679</v>
+      </c>
+      <c r="AO22" s="25">
         <f t="shared" si="23"/>
-        <v>0.79183660311985882</v>
-      </c>
-      <c r="AH22" s="25">
-        <f t="shared" si="29"/>
-        <v>0.81224915885655535</v>
-      </c>
-      <c r="AI22" s="25">
-        <f t="shared" si="30"/>
-        <v>0.83067220896511229</v>
-      </c>
-      <c r="AJ22" s="25">
-        <f t="shared" si="33"/>
-        <v>0.848469479260061</v>
-      </c>
-      <c r="AK22" s="25">
-        <f t="shared" si="36"/>
-        <v>0.86596776807592579</v>
-      </c>
-      <c r="AL22" s="25">
-        <f t="shared" si="39"/>
-        <v>0.8837931967674082</v>
-      </c>
-      <c r="AM22" s="25">
-        <f t="shared" si="42"/>
-        <v>0.90142061556680597</v>
-      </c>
-      <c r="AN22" s="25">
-        <f t="shared" si="43"/>
-        <v>0.91967875311946679</v>
-      </c>
-      <c r="AO22" s="25">
-        <f t="shared" si="44"/>
         <v>0.93833788493037518</v>
       </c>
       <c r="AP22" s="25">
-        <f t="shared" ref="AP22:AP23" si="45">+(1+Z19/100)^-(($H19-$H$17)/365)</f>
+        <f t="shared" ref="AP22:AP23" si="24">+(1+Z19/100)^-(($H19-$H$17)/365)</f>
         <v>0.95808148494206036</v>
       </c>
       <c r="AQ22" s="25">
@@ -25840,55 +25841,55 @@
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.75">
       <c r="AD23" s="11">
-        <f t="shared" si="18"/>
+        <f>+A20</f>
         <v>47673</v>
       </c>
       <c r="AE23" s="15">
+        <f>+F20</f>
+        <v>80700</v>
+      </c>
+      <c r="AF23" s="25">
+        <f>+(1+P20/100)^-((H20-$H$7)/365)</f>
+        <v>0.75478026594334802</v>
+      </c>
+      <c r="AG23" s="25">
+        <f>+(1+Q20/100)^-((H20-$H$8)/365)</f>
+        <v>0.77499310583527892</v>
+      </c>
+      <c r="AH23" s="25">
+        <f>+(1+R20/100)^-((H20-$H$9)/365)</f>
+        <v>0.79497145731093499</v>
+      </c>
+      <c r="AI23" s="25">
+        <f t="shared" si="13"/>
+        <v>0.81300262278918456</v>
+      </c>
+      <c r="AJ23" s="25">
+        <f t="shared" si="15"/>
+        <v>0.83042131968565103</v>
+      </c>
+      <c r="AK23" s="25">
+        <f t="shared" si="17"/>
+        <v>0.84754739486679154</v>
+      </c>
+      <c r="AL23" s="25">
         <f t="shared" si="19"/>
-        <v>80700</v>
-      </c>
-      <c r="AF23" s="25">
+        <v>0.86499365119041638</v>
+      </c>
+      <c r="AM23" s="25">
         <f t="shared" si="21"/>
-        <v>0.75478026594334802</v>
-      </c>
-      <c r="AG23" s="25">
+        <v>0.88224610957561767</v>
+      </c>
+      <c r="AN23" s="25">
+        <f t="shared" si="22"/>
+        <v>0.90011587042394581</v>
+      </c>
+      <c r="AO23" s="25">
         <f t="shared" si="23"/>
-        <v>0.77499310583527892</v>
-      </c>
-      <c r="AH23" s="25">
-        <f t="shared" si="29"/>
-        <v>0.79497145731093499</v>
-      </c>
-      <c r="AI23" s="25">
-        <f t="shared" si="30"/>
-        <v>0.81300262278918456</v>
-      </c>
-      <c r="AJ23" s="25">
-        <f t="shared" si="33"/>
-        <v>0.83042131968565103</v>
-      </c>
-      <c r="AK23" s="25">
-        <f t="shared" si="36"/>
-        <v>0.84754739486679154</v>
-      </c>
-      <c r="AL23" s="25">
-        <f t="shared" si="39"/>
-        <v>0.86499365119041638</v>
-      </c>
-      <c r="AM23" s="25">
-        <f t="shared" si="42"/>
-        <v>0.88224610957561767</v>
-      </c>
-      <c r="AN23" s="25">
-        <f t="shared" si="43"/>
-        <v>0.90011587042394581</v>
-      </c>
-      <c r="AO23" s="25">
-        <f t="shared" si="44"/>
         <v>0.91837809580901908</v>
       </c>
       <c r="AP23" s="25">
-        <f t="shared" si="45"/>
+        <f t="shared" si="24"/>
         <v>0.93770172120488793</v>
       </c>
       <c r="AQ23" s="25">
@@ -25913,51 +25914,51 @@
         <v>2</v>
       </c>
       <c r="AH25">
-        <f t="shared" ref="AH25:AS25" si="46">+AG25+1</f>
+        <f t="shared" ref="AH25:AS25" si="25">+AG25+1</f>
         <v>3</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="25"/>
         <v>4</v>
       </c>
       <c r="AJ25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="AK25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="25"/>
         <v>6</v>
       </c>
       <c r="AL25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="AM25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="25"/>
         <v>8</v>
       </c>
       <c r="AN25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="25"/>
         <v>9</v>
       </c>
       <c r="AO25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="25"/>
         <v>10</v>
       </c>
       <c r="AP25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="25"/>
         <v>11</v>
       </c>
       <c r="AQ25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="AR25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="25"/>
         <v>13</v>
       </c>
       <c r="AS25">
-        <f t="shared" si="46"/>
+        <f t="shared" si="25"/>
         <v>14</v>
       </c>
     </row>
@@ -25978,47 +25979,47 @@
         <v>1.2047708408019973E-2</v>
       </c>
       <c r="AI26" s="25">
-        <f t="shared" ref="AI26:AS26" si="47">+(1-$AF$26)^(AI$25-$AF$25)*$AF$26</f>
+        <f t="shared" ref="AI26:AS26" si="26">+(1-$AF$26)^(AI$25-$AF$25)*$AF$26</f>
         <v>1.4071024355323232E-3</v>
       </c>
       <c r="AJ26" s="25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="26"/>
         <v>1.6434139979375521E-4</v>
       </c>
       <c r="AK26" s="25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="26"/>
         <v>1.9194121909080059E-5</v>
       </c>
       <c r="AL26" s="25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="26"/>
         <v>2.2417620655719067E-6</v>
       </c>
       <c r="AM26" s="25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="26"/>
         <v>2.6182480149091043E-7</v>
       </c>
       <c r="AN26" s="25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="26"/>
         <v>3.0579617582326238E-8</v>
       </c>
       <c r="AO26" s="25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="26"/>
         <v>3.571521896155355E-9</v>
       </c>
       <c r="AP26" s="25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="26"/>
         <v>4.1713303380515302E-10</v>
       </c>
       <c r="AQ26" s="25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="26"/>
         <v>4.8718717944525873E-11</v>
       </c>
       <c r="AR26" s="25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="26"/>
         <v>5.6900635667875648E-12</v>
       </c>
       <c r="AS26" s="25">
-        <f t="shared" si="47"/>
+        <f t="shared" si="26"/>
         <v>6.6456640815034316E-13</v>
       </c>
     </row>
@@ -26031,55 +26032,55 @@
         <v>57.895642066639411</v>
       </c>
       <c r="AG27" s="28">
-        <f t="shared" ref="AG27:AS27" si="48">+AG6*AG7</f>
+        <f t="shared" ref="AG27:AS27" si="27">+AG6*AG7</f>
         <v>58.292129641485822</v>
       </c>
       <c r="AH27" s="28">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>55.955996977327132</v>
       </c>
       <c r="AI27" s="28">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>50.924903541556695</v>
       </c>
       <c r="AJ27" s="28">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>45.978729920931002</v>
       </c>
       <c r="AK27" s="28">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>41.085127452632882</v>
       </c>
       <c r="AL27" s="28">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>36.289442216600293</v>
       </c>
       <c r="AM27" s="28">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>31.55219616269083</v>
       </c>
       <c r="AN27" s="28">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>26.908637880475386</v>
       </c>
       <c r="AO27" s="28">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>22.137981720102793</v>
       </c>
       <c r="AP27" s="28">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>17.490599051307221</v>
       </c>
       <c r="AQ27" s="28">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>12.950239099208117</v>
       </c>
       <c r="AR27" s="28">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>8.527265491440799</v>
       </c>
       <c r="AS27" s="28">
-        <f t="shared" si="48"/>
+        <f t="shared" si="27"/>
         <v>4.2099291321546071</v>
       </c>
     </row>
@@ -26092,55 +26093,55 @@
         <v>51.133767011259927</v>
       </c>
       <c r="AG28" s="29">
-        <f t="shared" ref="AG28:AS28" si="49">+AG27*AG26</f>
+        <f t="shared" ref="AG28:AS28" si="28">+AG27*AG26</f>
         <v>6.0130262914095347</v>
       </c>
       <c r="AH28" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="28"/>
         <v>0.67414153526288423</v>
       </c>
       <c r="AI28" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="28"/>
         <v>7.165655580257306E-2</v>
       </c>
       <c r="AJ28" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="28"/>
         <v>7.5562088359448169E-3</v>
       </c>
       <c r="AK28" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="28"/>
         <v>7.8859294497592744E-4</v>
       </c>
       <c r="AL28" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="28"/>
         <v>8.1352294941938226E-5</v>
       </c>
       <c r="AM28" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="28"/>
         <v>8.2611474968987933E-6</v>
       </c>
       <c r="AN28" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="28"/>
         <v>8.2285585604623492E-7</v>
       </c>
       <c r="AO28" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="28"/>
         <v>7.9066286450034117E-8</v>
       </c>
       <c r="AP28" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="28"/>
         <v>7.2959066453413126E-9</v>
       </c>
       <c r="AQ28" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="28"/>
         <v>6.3091904598849108E-10</v>
       </c>
       <c r="AR28" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="28"/>
         <v>4.8520682697172148E-11</v>
       </c>
       <c r="AS28" s="29">
-        <f t="shared" si="49"/>
+        <f t="shared" si="28"/>
         <v>2.7977774819234787E-12</v>
       </c>
     </row>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0118b31cc2e490dc/UCEMA/Quant - Finanzas Cuantitativas/TP Final/GitHub/tp_quant_Git Desktop/tp_quant/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1665" documentId="14_{36CB20EE-E6F5-4308-AA86-D680FEB8C88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{88D09521-D023-4B99-A4A2-24522D011844}"/>
+  <xr:revisionPtr revIDLastSave="1724" documentId="14_{36CB20EE-E6F5-4308-AA86-D680FEB8C88E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24DEEA33-955F-4C06-8452-CEE5541ECF00}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="9" activeTab="17" xr2:uid="{9C799078-5C8C-4CA2-A599-9589FA691B16}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" firstSheet="11" activeTab="17" xr2:uid="{9C799078-5C8C-4CA2-A599-9589FA691B16}"/>
   </bookViews>
   <sheets>
     <sheet name="PRICES Local Law" sheetId="5" r:id="rId1"/>
@@ -126,7 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="75">
   <si>
     <t>Fecha Pago</t>
   </si>
@@ -331,6 +331,27 @@
   <si>
     <t>Metodologia II</t>
   </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>Precio Risk-Free</t>
+  </si>
+  <si>
+    <t>Valor Residual</t>
+  </si>
+  <si>
+    <t>Recovery</t>
+  </si>
+  <si>
+    <t>Pérdida en Default</t>
+  </si>
+  <si>
+    <t>Valor Presente Pérdida en Default</t>
+  </si>
+  <si>
+    <t>Pérdida Esperada</t>
+  </si>
 </sst>
 </file>
 
@@ -347,9 +368,9 @@
     <numFmt numFmtId="171" formatCode="_(* #,##0.000000_);_(* \(#,##0.000000\);_(* &quot;-&quot;??????_);_(@_)"/>
     <numFmt numFmtId="172" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;????_);_(@_)"/>
     <numFmt numFmtId="173" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;???_);_(@_)"/>
-    <numFmt numFmtId="175" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="174" formatCode="_(* #,##0.0000_);_(* \(#,##0.0000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -384,6 +405,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -422,7 +451,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -479,7 +508,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
@@ -1429,6 +1465,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
@@ -1730,7 +1770,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A745" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F762" sqref="F762"/>
+      <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -23383,10 +23423,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B261BC-4B0B-4A6E-B2C8-2F7B9BF72E1C}">
-  <dimension ref="A1:AS30"/>
+  <dimension ref="A1:BC30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="U1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB11" sqref="AB11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -23397,7 +23437,7 @@
     <col min="28" max="28" width="16.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:55" x14ac:dyDescent="0.75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -23459,7 +23499,7 @@
         <v>0.38807522271149991</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:55" x14ac:dyDescent="0.75">
       <c r="A2" s="3">
         <v>44386</v>
       </c>
@@ -23543,7 +23583,7 @@
         <v>47673</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:55" ht="59" x14ac:dyDescent="0.75">
       <c r="A3" s="1">
         <v>44570</v>
       </c>
@@ -23647,8 +23687,32 @@
         <f t="shared" si="2"/>
         <v>8.07</v>
       </c>
-    </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.75">
+      <c r="AV3" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="AW3" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="AX3" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="AY3" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="AZ3" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="BA3" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="BB3" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC3" s="35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.75">
       <c r="A4" s="3">
         <v>44751</v>
       </c>
@@ -23728,8 +23792,39 @@
       <c r="AS4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.75">
+      <c r="AV4" s="11">
+        <f>+A7</f>
+        <v>45300</v>
+      </c>
+      <c r="AW4" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX4" s="9">
+        <f t="array" ref="AX4:AX17">+TRANSPOSE(AF3:AS3)</f>
+        <v>88.856580256003454</v>
+      </c>
+      <c r="AY4">
+        <f t="array" ref="AY4:AY17">+TRANSPOSE(AF4:AS4)</f>
+        <v>100</v>
+      </c>
+      <c r="AZ4">
+        <f>+AY4*$AF$1</f>
+        <v>30</v>
+      </c>
+      <c r="BA4" s="33">
+        <f>+AX4-AZ4</f>
+        <v>58.856580256003454</v>
+      </c>
+      <c r="BB4" s="33">
+        <f t="array" ref="BB4:BB17">+TRANSPOSE(AF8:AS8)</f>
+        <v>57.895642066639411</v>
+      </c>
+      <c r="BC4" s="33" t="str">
+        <f>+ROUND(BB4,2)&amp;"x"&amp;AW4</f>
+        <v>57.9xQ</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.75">
       <c r="A5" s="1">
         <v>44935</v>
       </c>
@@ -23826,8 +23921,36 @@
         <f t="shared" si="3"/>
         <v>2.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.75">
+      <c r="AV5" s="11">
+        <f t="shared" ref="AV5:AV17" si="4">+A8</f>
+        <v>45482</v>
+      </c>
+      <c r="AW5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX5" s="9">
+        <v>90.851096386455538</v>
+      </c>
+      <c r="AY5">
+        <v>100</v>
+      </c>
+      <c r="AZ5">
+        <f t="shared" ref="AZ5:AZ17" si="5">+AY5*$AF$1</f>
+        <v>30</v>
+      </c>
+      <c r="BA5" s="33">
+        <f t="shared" ref="BA5:BA17" si="6">+AX5-AZ5</f>
+        <v>60.851096386455538</v>
+      </c>
+      <c r="BB5" s="33">
+        <v>58.292129641485822</v>
+      </c>
+      <c r="BC5" s="33" t="str">
+        <f t="shared" ref="BC5:BC18" si="7">+ROUND(BB5,2)&amp;"x"&amp;AW5</f>
+        <v>58.29xQ</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.75">
       <c r="A6" s="3">
         <v>45116</v>
       </c>
@@ -23873,63 +23996,91 @@
         <v>28</v>
       </c>
       <c r="AF6" s="19">
-        <f t="shared" ref="AF6:AS6" si="4">+AF3-AF5</f>
+        <f t="shared" ref="AF6:AS6" si="8">+AF3-AF5</f>
         <v>58.856580256003454</v>
       </c>
       <c r="AG6" s="19">
+        <f t="shared" si="8"/>
+        <v>60.851096386455538</v>
+      </c>
+      <c r="AH6" s="19">
+        <f t="shared" si="8"/>
+        <v>59.905341827276928</v>
+      </c>
+      <c r="AI6" s="19">
+        <f t="shared" si="8"/>
+        <v>55.767696756590489</v>
+      </c>
+      <c r="AJ6" s="19">
+        <f t="shared" si="8"/>
+        <v>51.419679917879463</v>
+      </c>
+      <c r="AK6" s="19">
+        <f t="shared" si="8"/>
+        <v>46.903913026011651</v>
+      </c>
+      <c r="AL6" s="19">
+        <f t="shared" si="8"/>
+        <v>42.273792108162411</v>
+      </c>
+      <c r="AM6" s="19">
+        <f t="shared" si="8"/>
+        <v>37.495549939296296</v>
+      </c>
+      <c r="AN6" s="19">
+        <f t="shared" si="8"/>
+        <v>32.619005748327929</v>
+      </c>
+      <c r="AO6" s="19">
+        <f t="shared" si="8"/>
+        <v>27.382131305578348</v>
+      </c>
+      <c r="AP6" s="19">
+        <f t="shared" si="8"/>
+        <v>22.085079457674858</v>
+      </c>
+      <c r="AQ6" s="19">
+        <f t="shared" si="8"/>
+        <v>16.702807293328764</v>
+      </c>
+      <c r="AR6" s="19">
+        <f t="shared" si="8"/>
+        <v>11.238339555722728</v>
+      </c>
+      <c r="AS6" s="19">
+        <f t="shared" si="8"/>
+        <v>5.67</v>
+      </c>
+      <c r="AV6" s="11">
         <f t="shared" si="4"/>
-        <v>60.851096386455538</v>
-      </c>
-      <c r="AH6" s="19">
-        <f t="shared" si="4"/>
+        <v>45666</v>
+      </c>
+      <c r="AW6" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX6" s="9">
+        <v>88.705341827276925</v>
+      </c>
+      <c r="AY6">
+        <v>96</v>
+      </c>
+      <c r="AZ6">
+        <f t="shared" si="5"/>
+        <v>28.799999999999997</v>
+      </c>
+      <c r="BA6" s="33">
+        <f t="shared" si="6"/>
         <v>59.905341827276928</v>
       </c>
-      <c r="AI6" s="19">
-        <f t="shared" si="4"/>
-        <v>55.767696756590489</v>
-      </c>
-      <c r="AJ6" s="19">
-        <f t="shared" si="4"/>
-        <v>51.419679917879463</v>
-      </c>
-      <c r="AK6" s="19">
-        <f t="shared" si="4"/>
-        <v>46.903913026011651</v>
-      </c>
-      <c r="AL6" s="19">
-        <f t="shared" si="4"/>
-        <v>42.273792108162411</v>
-      </c>
-      <c r="AM6" s="19">
-        <f t="shared" si="4"/>
-        <v>37.495549939296296</v>
-      </c>
-      <c r="AN6" s="19">
-        <f t="shared" si="4"/>
-        <v>32.619005748327929</v>
-      </c>
-      <c r="AO6" s="19">
-        <f t="shared" si="4"/>
-        <v>27.382131305578348</v>
-      </c>
-      <c r="AP6" s="19">
-        <f t="shared" si="4"/>
-        <v>22.085079457674858</v>
-      </c>
-      <c r="AQ6" s="19">
-        <f t="shared" si="4"/>
-        <v>16.702807293328764</v>
-      </c>
-      <c r="AR6" s="19">
-        <f t="shared" si="4"/>
-        <v>11.238339555722728</v>
-      </c>
-      <c r="AS6" s="19">
-        <f t="shared" si="4"/>
-        <v>5.67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.75">
+      <c r="BB6" s="33">
+        <v>55.955996977327132</v>
+      </c>
+      <c r="BC6" s="33" t="str">
+        <f t="shared" si="7"/>
+        <v>55.96xQ</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.75">
       <c r="A7" s="1">
         <v>45300</v>
       </c>
@@ -23954,11 +24105,11 @@
         <v>0.75</v>
       </c>
       <c r="H7" s="15">
-        <f>+A7-$AB$1</f>
+        <f t="shared" ref="H7:H20" si="9">+A7-$AB$1</f>
         <v>112</v>
       </c>
       <c r="I7" s="9">
-        <f>+YEARFRAC($AB$1,A7,0)</f>
+        <f t="shared" ref="I7:I20" si="10">+YEARFRAC($AB$1,A7,0)</f>
         <v>0.30555555555555558</v>
       </c>
       <c r="J7" s="21">
@@ -23970,7 +24121,7 @@
         <v>0.147085684842445</v>
       </c>
       <c r="L7" s="9">
-        <f>+F7/(1+O7/100)^I7</f>
+        <f t="shared" ref="L7:L20" si="11">+F7/(1+O7/100)^I7</f>
         <v>3688.7745908029106</v>
       </c>
       <c r="M7" s="9">
@@ -23978,14 +24129,14 @@
         <v>1106.6323772408732</v>
       </c>
       <c r="N7" s="9">
-        <f>+(L7*J7+L7*$AF$1*K7)/10000</f>
+        <f t="shared" ref="N7:N20" si="12">+(L7*J7+L7*$AF$1*K7)/10000</f>
         <v>0.33089784349605511</v>
       </c>
       <c r="O7" s="9">
         <v>5.5351710299999999</v>
       </c>
       <c r="P7" t="e">
-        <f>+(((1+O7/100)^(H7/365)/(1+$O$7/100)^($H$7/365))^(365/(H7-$H$7))-1)*100</f>
+        <f t="shared" ref="P7:P20" si="13">+(((1+O7/100)^(H7/365)/(1+$O$7/100)^($H$7/365))^(365/(H7-$H$7))-1)*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="AA7" t="s">
@@ -24054,8 +24205,36 @@
         <f>+(1+$O$20/100)^-YEARFRAC(AS$2,$AB$1)</f>
         <v>0.7424919104329113</v>
       </c>
-    </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.75">
+      <c r="AV7" s="11">
+        <f t="shared" si="4"/>
+        <v>45847</v>
+      </c>
+      <c r="AW7" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX7" s="9">
+        <v>82.167696756590487</v>
+      </c>
+      <c r="AY7">
+        <v>88</v>
+      </c>
+      <c r="AZ7">
+        <f t="shared" si="5"/>
+        <v>26.4</v>
+      </c>
+      <c r="BA7" s="33">
+        <f t="shared" si="6"/>
+        <v>55.767696756590489</v>
+      </c>
+      <c r="BB7" s="33">
+        <v>50.924903541556695</v>
+      </c>
+      <c r="BC7" s="33" t="str">
+        <f t="shared" si="7"/>
+        <v>50.92xQ</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.75">
       <c r="A8" s="3">
         <v>45482</v>
       </c>
@@ -24076,15 +24255,15 @@
         <v>43750</v>
       </c>
       <c r="G8">
-        <f t="shared" ref="G8:G20" si="5">+D8/C8*2</f>
+        <f t="shared" ref="G8:G20" si="14">+D8/C8*2</f>
         <v>0.75</v>
       </c>
       <c r="H8" s="15">
-        <f>+A8-$AB$1</f>
+        <f t="shared" si="9"/>
         <v>294</v>
       </c>
       <c r="I8" s="9">
-        <f>+YEARFRAC($AB$1,A8,0)</f>
+        <f t="shared" si="10"/>
         <v>0.80555555555555558</v>
       </c>
       <c r="J8" s="21">
@@ -24096,26 +24275,26 @@
         <v>0.12545148615687393</v>
       </c>
       <c r="L8" s="9">
-        <f>+F8/(1+O8/100)^I8</f>
+        <f t="shared" si="11"/>
         <v>41910.18442163444</v>
       </c>
       <c r="M8" s="9">
-        <f t="shared" ref="M8:M20" si="6">+L8*$AF$1</f>
+        <f t="shared" ref="M8:M20" si="15">+L8*$AF$1</f>
         <v>12573.055326490332</v>
       </c>
       <c r="N8" s="9">
-        <f>+(L8*J8+L8*$AF$1*K8)/10000</f>
+        <f t="shared" si="12"/>
         <v>3.206540979954327</v>
       </c>
       <c r="O8" s="9">
         <v>5.4780901999999996</v>
       </c>
       <c r="P8" s="24">
-        <f>+(((1+O8/100)^(H8/365)/(1+$O$7/100)^($H$7/365))^(365/(H8-$H$7))-1)*100</f>
+        <f t="shared" si="13"/>
         <v>5.4429788817679459</v>
       </c>
       <c r="Q8" s="24" t="e">
-        <f>+(((1+O8/100)^(H8/365)/(1+$O$8/100)^($H$8/365))^(365/(H8-$H$8))-1)*100</f>
+        <f t="shared" ref="Q8:Q20" si="16">+(((1+O8/100)^(H8/365)/(1+$O$8/100)^($H$8/365))^(365/(H8-$H$8))-1)*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="R8" s="24"/>
@@ -24146,59 +24325,87 @@
         <v>57.895642066639411</v>
       </c>
       <c r="AG8" s="22">
-        <f t="shared" ref="AG8:AS8" si="7">+AG7*AG6</f>
+        <f t="shared" ref="AG8:AS8" si="17">+AG7*AG6</f>
         <v>58.292129641485822</v>
       </c>
       <c r="AH8" s="22">
+        <f t="shared" si="17"/>
+        <v>55.955996977327132</v>
+      </c>
+      <c r="AI8" s="22">
+        <f t="shared" si="17"/>
+        <v>50.924903541556695</v>
+      </c>
+      <c r="AJ8" s="22">
+        <f t="shared" si="17"/>
+        <v>45.978729920931002</v>
+      </c>
+      <c r="AK8" s="22">
+        <f t="shared" si="17"/>
+        <v>41.085127452632882</v>
+      </c>
+      <c r="AL8" s="22">
+        <f t="shared" si="17"/>
+        <v>36.289442216600293</v>
+      </c>
+      <c r="AM8" s="22">
+        <f t="shared" si="17"/>
+        <v>31.55219616269083</v>
+      </c>
+      <c r="AN8" s="22">
+        <f t="shared" si="17"/>
+        <v>26.908637880475386</v>
+      </c>
+      <c r="AO8" s="22">
+        <f t="shared" si="17"/>
+        <v>22.137981720102793</v>
+      </c>
+      <c r="AP8" s="22">
+        <f t="shared" si="17"/>
+        <v>17.490599051307221</v>
+      </c>
+      <c r="AQ8" s="22">
+        <f t="shared" si="17"/>
+        <v>12.950239099208117</v>
+      </c>
+      <c r="AR8" s="22">
+        <f t="shared" si="17"/>
+        <v>8.527265491440799</v>
+      </c>
+      <c r="AS8" s="22">
+        <f t="shared" si="17"/>
+        <v>4.2099291321546071</v>
+      </c>
+      <c r="AV8" s="11">
+        <f t="shared" si="4"/>
+        <v>46031</v>
+      </c>
+      <c r="AW8" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX8" s="9">
+        <v>75.419679917879463</v>
+      </c>
+      <c r="AY8">
+        <v>80</v>
+      </c>
+      <c r="AZ8">
+        <f t="shared" si="5"/>
+        <v>24</v>
+      </c>
+      <c r="BA8" s="33">
+        <f t="shared" si="6"/>
+        <v>51.419679917879463</v>
+      </c>
+      <c r="BB8" s="33">
+        <v>45.978729920931002</v>
+      </c>
+      <c r="BC8" s="33" t="str">
         <f t="shared" si="7"/>
-        <v>55.955996977327132</v>
-      </c>
-      <c r="AI8" s="22">
-        <f t="shared" si="7"/>
-        <v>50.924903541556695</v>
-      </c>
-      <c r="AJ8" s="22">
-        <f t="shared" si="7"/>
-        <v>45.978729920931002</v>
-      </c>
-      <c r="AK8" s="22">
-        <f t="shared" si="7"/>
-        <v>41.085127452632882</v>
-      </c>
-      <c r="AL8" s="22">
-        <f t="shared" si="7"/>
-        <v>36.289442216600293</v>
-      </c>
-      <c r="AM8" s="22">
-        <f t="shared" si="7"/>
-        <v>31.55219616269083</v>
-      </c>
-      <c r="AN8" s="22">
-        <f t="shared" si="7"/>
-        <v>26.908637880475386</v>
-      </c>
-      <c r="AO8" s="22">
-        <f t="shared" si="7"/>
-        <v>22.137981720102793</v>
-      </c>
-      <c r="AP8" s="22">
-        <f t="shared" si="7"/>
-        <v>17.490599051307221</v>
-      </c>
-      <c r="AQ8" s="22">
-        <f t="shared" si="7"/>
-        <v>12.950239099208117</v>
-      </c>
-      <c r="AR8" s="22">
-        <f t="shared" si="7"/>
-        <v>8.527265491440799</v>
-      </c>
-      <c r="AS8" s="22">
-        <f t="shared" si="7"/>
-        <v>4.2099291321546071</v>
-      </c>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.75">
+        <v>45.98xQ</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.75">
       <c r="A9" s="1">
         <v>45666</v>
       </c>
@@ -24215,54 +24422,54 @@
         <v>80000</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" ref="F9:F20" si="8">+E9+D9*10000</f>
+        <f t="shared" ref="F9:F20" si="18">+E9+D9*10000</f>
         <v>83600</v>
       </c>
       <c r="G9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0.75</v>
       </c>
       <c r="H9" s="15">
-        <f>+A9-$AB$1</f>
+        <f t="shared" si="9"/>
         <v>478</v>
       </c>
       <c r="I9" s="9">
-        <f>+YEARFRAC($AB$1,A9,0)</f>
+        <f t="shared" si="10"/>
         <v>1.3055555555555556</v>
       </c>
       <c r="J9" s="21">
-        <f t="shared" ref="J9:J20" si="9">+$J$7*J8</f>
+        <f t="shared" ref="J9:J20" si="19">+$J$7*J8</f>
         <v>0.62046346059969337</v>
       </c>
       <c r="K9" s="21">
-        <f t="shared" ref="K9:K20" si="10">+J8*$K$7</f>
+        <f t="shared" ref="K9:K20" si="20">+J8*$K$7</f>
         <v>0.10699936840098763</v>
       </c>
       <c r="L9" s="9">
-        <f>+F9/(1+O9/100)^I9</f>
+        <f t="shared" si="11"/>
         <v>78088.55111439382</v>
       </c>
       <c r="M9" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>23426.565334318144</v>
       </c>
       <c r="N9" s="9">
-        <f>+(L9*J9+L9*$AF$1*K9)/10000</f>
+        <f t="shared" si="12"/>
         <v>5.0957720352229341</v>
       </c>
       <c r="O9" s="9">
         <v>5.3626843400000004</v>
       </c>
       <c r="P9" s="24">
-        <f>+(((1+O9/100)^(H9/365)/(1+$O$7/100)^($H$7/365))^(365/(H9-$H$7))-1)*100</f>
+        <f t="shared" si="13"/>
         <v>5.3099578826998561</v>
       </c>
       <c r="Q9" s="24">
-        <f>+(((1+O9/100)^(H9/365)/(1+$O$8/100)^($H$8/365))^(365/(H9-$H$8))-1)*100</f>
+        <f t="shared" si="16"/>
         <v>5.1785478505568916</v>
       </c>
       <c r="R9" s="24" t="e">
-        <f>+(((1+O9/100)^(H9/365)/(1+$O$9/100)^($H$9/365))^(365/(H9-$H$9))-1)*100</f>
+        <f t="shared" ref="R9:R20" si="21">+(((1+O9/100)^(H9/365)/(1+$O$9/100)^($H$9/365))^(365/(H9-$H$9))-1)*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S9" s="24"/>
@@ -24282,8 +24489,36 @@
       <c r="AF9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="10" spans="1:45" x14ac:dyDescent="0.75">
+      <c r="AV9" s="11">
+        <f t="shared" si="4"/>
+        <v>46212</v>
+      </c>
+      <c r="AW9" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX9" s="9">
+        <v>68.503913026011645</v>
+      </c>
+      <c r="AY9">
+        <v>72</v>
+      </c>
+      <c r="AZ9">
+        <f t="shared" si="5"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="BA9" s="33">
+        <f t="shared" si="6"/>
+        <v>46.903913026011651</v>
+      </c>
+      <c r="BB9" s="33">
+        <v>41.085127452632882</v>
+      </c>
+      <c r="BC9" s="33" t="str">
+        <f t="shared" si="7"/>
+        <v>41.09xQ</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.75">
       <c r="A10" s="3">
         <v>45847</v>
       </c>
@@ -24300,58 +24535,58 @@
         <v>80000</v>
       </c>
       <c r="F10" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>83300</v>
       </c>
       <c r="G10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0.75</v>
       </c>
       <c r="H10" s="15">
-        <f>+A10-$AB$1</f>
+        <f t="shared" si="9"/>
         <v>659</v>
       </c>
       <c r="I10" s="9">
-        <f>+YEARFRAC($AB$1,A10,0)</f>
+        <f t="shared" si="10"/>
         <v>1.8055555555555556</v>
       </c>
       <c r="J10" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>0.52920216757767413</v>
       </c>
       <c r="K10" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>9.1261293022019283E-2</v>
       </c>
       <c r="L10" s="9">
-        <f>+F10/(1+O10/100)^I10</f>
+        <f t="shared" si="11"/>
         <v>76066.337893188291</v>
       </c>
       <c r="M10" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>22819.901367956485</v>
       </c>
       <c r="N10" s="9">
-        <f>+(L10*J10+L10*$AF$1*K10)/10000</f>
+        <f t="shared" si="12"/>
         <v>4.2337044598245672</v>
       </c>
       <c r="O10" s="9">
         <v>5.1600082699999996</v>
       </c>
       <c r="P10" s="24">
-        <f>+(((1+O10/100)^(H10/365)/(1+$O$7/100)^($H$7/365))^(365/(H10-$H$7))-1)*100</f>
+        <f t="shared" si="13"/>
         <v>5.0833571404693689</v>
       </c>
       <c r="Q10" s="24">
-        <f>+(((1+O10/100)^(H10/365)/(1+$O$8/100)^($H$8/365))^(365/(H10-$H$8))-1)*100</f>
+        <f t="shared" si="16"/>
         <v>4.9044974294241594</v>
       </c>
       <c r="R10" s="24">
-        <f>+(((1+O10/100)^(H10/365)/(1+$O$9/100)^($H$9/365))^(365/(H10-$H$9))-1)*100</f>
+        <f t="shared" si="21"/>
         <v>4.6266366349654975</v>
       </c>
       <c r="S10" s="24" t="e">
-        <f>+(((1+O10/100)^(H10/365)/(1+$O$10/100)^($H$10/365))^(365/(H10-$H$10))-1)*100</f>
+        <f t="shared" ref="S10:S20" si="22">+(((1+O10/100)^(H10/365)/(1+$O$10/100)^($H$10/365))^(365/(H10-$H$10))-1)*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="T10" s="24"/>
@@ -24369,11 +24604,11 @@
         <v>56.731363501179821</v>
       </c>
       <c r="AD10" s="11">
-        <f>+A7</f>
+        <f t="shared" ref="AD10:AD23" si="23">+A7</f>
         <v>45300</v>
       </c>
       <c r="AE10" s="15">
-        <f>+F7</f>
+        <f t="shared" ref="AE10:AE23" si="24">+F7</f>
         <v>3750</v>
       </c>
       <c r="AF10" s="13">
@@ -24381,8 +24616,36 @@
         <v>1</v>
       </c>
       <c r="AG10" s="13"/>
-    </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.75">
+      <c r="AV10" s="11">
+        <f t="shared" si="4"/>
+        <v>46396</v>
+      </c>
+      <c r="AW10" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX10" s="9">
+        <v>61.473792108162414</v>
+      </c>
+      <c r="AY10">
+        <v>64</v>
+      </c>
+      <c r="AZ10">
+        <f t="shared" si="5"/>
+        <v>19.2</v>
+      </c>
+      <c r="BA10" s="33">
+        <f t="shared" si="6"/>
+        <v>42.273792108162411</v>
+      </c>
+      <c r="BB10" s="33">
+        <v>36.289442216600293</v>
+      </c>
+      <c r="BC10" s="33" t="str">
+        <f t="shared" si="7"/>
+        <v>36.29xQ</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.75">
       <c r="A11" s="1">
         <v>46031</v>
       </c>
@@ -24399,62 +24662,62 @@
         <v>80000</v>
       </c>
       <c r="F11" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>83000</v>
       </c>
       <c r="G11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0.74999999999999989</v>
       </c>
       <c r="H11" s="15">
-        <f>+A11-$AB$1</f>
+        <f t="shared" si="9"/>
         <v>843</v>
       </c>
       <c r="I11" s="9">
-        <f>+YEARFRAC($AB$1,A11,0)</f>
+        <f t="shared" si="10"/>
         <v>2.3055555555555554</v>
       </c>
       <c r="J11" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>0.4513641043394056</v>
       </c>
       <c r="K11" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>7.7838063238268543E-2</v>
       </c>
       <c r="L11" s="9">
-        <f>+F11/(1+O11/100)^I11</f>
+        <f t="shared" si="11"/>
         <v>74217.39282570497</v>
       </c>
       <c r="M11" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>22265.21784771149</v>
       </c>
       <c r="N11" s="9">
-        <f>+(L11*J11+L11*$AF$1*K11)/10000</f>
+        <f t="shared" si="12"/>
         <v>3.5232148474024143</v>
       </c>
       <c r="O11" s="9">
         <v>4.9705677799999997</v>
       </c>
       <c r="P11" s="24">
-        <f>+(((1+O11/100)^(H11/365)/(1+$O$7/100)^($H$7/365))^(365/(H11-$H$7))-1)*100</f>
+        <f t="shared" si="13"/>
         <v>4.8843294764046252</v>
       </c>
       <c r="Q11" s="24">
-        <f>+(((1+O11/100)^(H11/365)/(1+$O$8/100)^($H$8/365))^(365/(H11-$H$8))-1)*100</f>
+        <f t="shared" si="16"/>
         <v>4.699784600691026</v>
       </c>
       <c r="R11" s="24">
-        <f>+(((1+O11/100)^(H11/365)/(1+$O$9/100)^($H$9/365))^(365/(H11-$H$9))-1)*100</f>
+        <f t="shared" si="21"/>
         <v>4.4592622852936969</v>
       </c>
       <c r="S11" s="24">
-        <f>+(((1+O11/100)^(H11/365)/(1+$O$10/100)^($H$10/365))^(365/(H11-$H$10))-1)*100</f>
+        <f t="shared" si="22"/>
         <v>4.2948781085087262</v>
       </c>
       <c r="T11" s="24" t="e">
-        <f>+(((1+O11/100)^(H11/365)/(1+$O$11/100)^($H$11/365))^(365/(H11-$H$11))-1)*100</f>
+        <f t="shared" ref="T11:T20" si="25">+(((1+O11/100)^(H11/365)/(1+$O$11/100)^($H$11/365))^(365/(H11-$H$11))-1)*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="U11" s="24"/>
@@ -24470,24 +24733,56 @@
         <f>+AB10/SUM(AF8:AS8)*2</f>
         <v>0.24130797886052366</v>
       </c>
+      <c r="AC11" s="27">
+        <f>+AB11/2</f>
+        <v>0.12065398943026183</v>
+      </c>
       <c r="AD11" s="11">
-        <f>+A8</f>
+        <f t="shared" si="23"/>
         <v>45482</v>
       </c>
       <c r="AE11" s="15">
-        <f>+F8</f>
+        <f t="shared" si="24"/>
         <v>43750</v>
       </c>
       <c r="AF11" s="25">
-        <f>+(1+P8/100)^-((H8-$H$7)/365)</f>
+        <f t="shared" ref="AF11:AF23" si="26">+(1+P8/100)^-((H8-$H$7)/365)</f>
         <v>0.97391868425700878</v>
       </c>
       <c r="AG11" s="13">
         <f>+(1+$AB$3)^-YEARFRAC($AD11,$AD$11)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:45" x14ac:dyDescent="0.75">
+      <c r="AV11" s="11">
+        <f t="shared" si="4"/>
+        <v>46577</v>
+      </c>
+      <c r="AW11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX11" s="9">
+        <v>54.295549939296301</v>
+      </c>
+      <c r="AY11">
+        <v>56</v>
+      </c>
+      <c r="AZ11">
+        <f t="shared" si="5"/>
+        <v>16.8</v>
+      </c>
+      <c r="BA11" s="33">
+        <f t="shared" si="6"/>
+        <v>37.495549939296296</v>
+      </c>
+      <c r="BB11" s="33">
+        <v>31.55219616269083</v>
+      </c>
+      <c r="BC11" s="33" t="str">
+        <f t="shared" si="7"/>
+        <v>31.55xQ</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.75">
       <c r="A12" s="3">
         <v>46212</v>
       </c>
@@ -24504,66 +24799,66 @@
         <v>80000</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>82700</v>
       </c>
       <c r="G12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0.75000000000000011</v>
       </c>
       <c r="H12" s="15">
-        <f>+A12-$AB$1</f>
+        <f t="shared" si="9"/>
         <v>1024</v>
       </c>
       <c r="I12" s="9">
-        <f>+YEARFRAC($AB$1,A12,0)</f>
+        <f t="shared" si="10"/>
         <v>2.8055555555555554</v>
       </c>
       <c r="J12" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>0.38497490593934736</v>
       </c>
       <c r="K12" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>6.6389198400058275E-2</v>
       </c>
       <c r="L12" s="9">
-        <f>+F12/(1+O12/100)^I12</f>
+        <f t="shared" si="11"/>
         <v>72440.438784892947</v>
       </c>
       <c r="M12" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>21732.131635467882</v>
       </c>
       <c r="N12" s="9">
-        <f>+(L12*J12+L12*$AF$1*K12)/10000</f>
+        <f t="shared" si="12"/>
         <v>2.9330529906222473</v>
       </c>
       <c r="O12" s="9">
         <v>4.8343869399999999</v>
       </c>
       <c r="P12" s="24">
-        <f>+(((1+O12/100)^(H12/365)/(1+$O$7/100)^($H$7/365))^(365/(H12-$H$7))-1)*100</f>
+        <f t="shared" si="13"/>
         <v>4.7486471868301461</v>
       </c>
       <c r="Q12" s="24">
-        <f>+(((1+O12/100)^(H12/365)/(1+$O$8/100)^($H$8/365))^(365/(H12-$H$8))-1)*100</f>
+        <f t="shared" si="16"/>
         <v>4.5762530533879575</v>
       </c>
       <c r="R12" s="24">
-        <f>+(((1+O12/100)^(H12/365)/(1+$O$9/100)^($H$9/365))^(365/(H12-$H$9))-1)*100</f>
+        <f t="shared" si="21"/>
         <v>4.3740598904487893</v>
       </c>
       <c r="S12" s="24">
-        <f>+(((1+O12/100)^(H12/365)/(1+$O$10/100)^($H$10/365))^(365/(H12-$H$10))-1)*100</f>
+        <f t="shared" si="22"/>
         <v>4.2490357483834007</v>
       </c>
       <c r="T12" s="24">
-        <f>+(((1+O12/100)^(H12/365)/(1+$O$11/100)^($H$11/365))^(365/(H12-$H$11))-1)*100</f>
+        <f t="shared" si="25"/>
         <v>4.2024542236241746</v>
       </c>
       <c r="U12" s="24" t="e">
-        <f>+(((1+O12/100)^(H12/365)/(1+$O$12/100)^($H$12/365))^(365/(H12-$H$12))-1)*100</f>
+        <f t="shared" ref="U12:U20" si="27">+(((1+O12/100)^(H12/365)/(1+$O$12/100)^($H$12/365))^(365/(H12-$H$12))-1)*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="V12" s="24"/>
@@ -24578,27 +24873,55 @@
         <v>0.29417136968488999</v>
       </c>
       <c r="AD12" s="11">
-        <f>+A9</f>
+        <f t="shared" si="23"/>
         <v>45666</v>
       </c>
       <c r="AE12" s="15">
-        <f>+F9</f>
+        <f t="shared" si="24"/>
         <v>83600</v>
       </c>
       <c r="AF12" s="25">
-        <f>+(1+P9/100)^-((H9-$H$7)/365)</f>
+        <f t="shared" si="26"/>
         <v>0.94944322717756691</v>
       </c>
       <c r="AG12" s="25">
-        <f>+(1+Q9/100)^-((H9-$H$8)/365)</f>
+        <f t="shared" ref="AG12:AG23" si="28">+(1+Q9/100)^-((H9-$H$8)/365)</f>
         <v>0.97486909587517168</v>
       </c>
       <c r="AH12" s="13">
         <f>+(1+$AB$3)^-YEARFRAC($AD12,$AD$12)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:45" x14ac:dyDescent="0.75">
+      <c r="AV12" s="11">
+        <f t="shared" si="4"/>
+        <v>46761</v>
+      </c>
+      <c r="AW12" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX12" s="9">
+        <v>47.019005748327928</v>
+      </c>
+      <c r="AY12">
+        <v>48</v>
+      </c>
+      <c r="AZ12">
+        <f t="shared" si="5"/>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="BA12" s="33">
+        <f t="shared" si="6"/>
+        <v>32.619005748327929</v>
+      </c>
+      <c r="BB12" s="33">
+        <v>26.908637880475386</v>
+      </c>
+      <c r="BC12" s="33" t="str">
+        <f t="shared" si="7"/>
+        <v>26.91xQ</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.75">
       <c r="A13" s="1">
         <v>46396</v>
       </c>
@@ -24615,70 +24938,70 @@
         <v>80000</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>82400</v>
       </c>
       <c r="G13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0.75</v>
       </c>
       <c r="H13" s="15">
-        <f>+A13-$AB$1</f>
+        <f t="shared" si="9"/>
         <v>1208</v>
       </c>
       <c r="I13" s="9">
-        <f>+YEARFRAC($AB$1,A13,0)</f>
+        <f t="shared" si="10"/>
         <v>3.3055555555555554</v>
       </c>
       <c r="J13" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>0.3283506082521026</v>
       </c>
       <c r="K13" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>5.6624297687244751E-2</v>
       </c>
       <c r="L13" s="9">
-        <f>+F13/(1+O13/100)^I13</f>
+        <f t="shared" si="11"/>
         <v>70735.315890208323</v>
       </c>
       <c r="M13" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>21220.594767062496</v>
       </c>
       <c r="N13" s="9">
-        <f>+(L13*J13+L13*$AF$1*K13)/10000</f>
+        <f t="shared" si="12"/>
         <v>2.4427585272645058</v>
       </c>
       <c r="O13" s="9">
         <v>4.7259706399999999</v>
       </c>
       <c r="P13" s="24">
-        <f>+(((1+O13/100)^(H13/365)/(1+$O$7/100)^($H$7/365))^(365/(H13-$H$7))-1)*100</f>
+        <f t="shared" si="13"/>
         <v>4.643628854920534</v>
       </c>
       <c r="Q13" s="24">
-        <f>+(((1+O13/100)^(H13/365)/(1+$O$8/100)^($H$8/365))^(365/(H13-$H$8))-1)*100</f>
+        <f t="shared" si="16"/>
         <v>4.4851834308631044</v>
       </c>
       <c r="R13" s="24">
-        <f>+(((1+O13/100)^(H13/365)/(1+$O$9/100)^($H$9/365))^(365/(H13-$H$9))-1)*100</f>
+        <f t="shared" si="21"/>
         <v>4.3111400407220835</v>
       </c>
       <c r="S13" s="24">
-        <f>+(((1+O13/100)^(H13/365)/(1+$O$10/100)^($H$10/365))^(365/(H13-$H$10))-1)*100</f>
+        <f t="shared" si="22"/>
         <v>4.207332532597996</v>
       </c>
       <c r="T13" s="24">
-        <f>+(((1+O13/100)^(H13/365)/(1+$O$11/100)^($H$11/365))^(365/(H13-$H$11))-1)*100</f>
+        <f t="shared" si="25"/>
         <v>4.1632278320903771</v>
       </c>
       <c r="U13" s="24">
-        <f>+(((1+O13/100)^(H13/365)/(1+$O$12/100)^($H$12/365))^(365/(H13-$H$12))-1)*100</f>
+        <f t="shared" si="27"/>
         <v>4.1246554086828757</v>
       </c>
       <c r="V13" s="24" t="e">
-        <f>+(((1+O13/100)^(H13/365)/(1+$O$13/100)^($H$13/365))^(365/(H13-$H$13))-1)*100</f>
+        <f t="shared" ref="V13:V20" si="29">+(((1+O13/100)^(H13/365)/(1+$O$13/100)^($H$13/365))^(365/(H13-$H$13))-1)*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="W13" s="24"/>
@@ -24692,19 +25015,19 @@
         <v>1.7664116049495957</v>
       </c>
       <c r="AD13" s="11">
-        <f>+A10</f>
+        <f t="shared" si="23"/>
         <v>45847</v>
       </c>
       <c r="AE13" s="15">
-        <f>+F10</f>
+        <f t="shared" si="24"/>
         <v>83300</v>
       </c>
       <c r="AF13" s="25">
-        <f>+(1+P10/100)^-((H10-$H$7)/365)</f>
+        <f t="shared" si="26"/>
         <v>0.92838601596869119</v>
       </c>
       <c r="AG13" s="25">
-        <f>+(1+Q10/100)^-((H10-$H$8)/365)</f>
+        <f t="shared" si="28"/>
         <v>0.95324797744993039</v>
       </c>
       <c r="AH13" s="25">
@@ -24712,11 +25035,39 @@
         <v>0.97782151622538471</v>
       </c>
       <c r="AI13" s="13">
-        <f t="shared" ref="AI13" si="11">+(1+$AB$3)^-YEARFRAC($AD13,$AD$13)</f>
+        <f t="shared" ref="AI13" si="30">+(1+$AB$3)^-YEARFRAC($AD13,$AD$13)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:45" x14ac:dyDescent="0.75">
+      <c r="AV13" s="11">
+        <f t="shared" si="4"/>
+        <v>46943</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX13" s="9">
+        <v>39.382131305578348</v>
+      </c>
+      <c r="AY13">
+        <v>40</v>
+      </c>
+      <c r="AZ13">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="BA13" s="33">
+        <f t="shared" si="6"/>
+        <v>27.382131305578348</v>
+      </c>
+      <c r="BB13" s="33">
+        <v>22.137981720102793</v>
+      </c>
+      <c r="BC13" s="33" t="str">
+        <f t="shared" si="7"/>
+        <v>22.14xQ</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.75">
       <c r="A14" s="3">
         <v>46577</v>
       </c>
@@ -24733,74 +25084,74 @@
         <v>80000</v>
       </c>
       <c r="F14" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>82100</v>
       </c>
       <c r="G14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>0.74999999999999989</v>
       </c>
       <c r="H14" s="15">
-        <f>+A14-$AB$1</f>
+        <f t="shared" si="9"/>
         <v>1389</v>
       </c>
       <c r="I14" s="9">
-        <f>+YEARFRAC($AB$1,A14,0)</f>
+        <f t="shared" si="10"/>
         <v>3.8055555555555554</v>
       </c>
       <c r="J14" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>0.2800549341689087</v>
       </c>
       <c r="K14" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>4.8295674083193886E-2</v>
       </c>
       <c r="L14" s="9">
-        <f>+F14/(1+O14/100)^I14</f>
+        <f t="shared" si="11"/>
         <v>69086.473172169019</v>
       </c>
       <c r="M14" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>20725.941951650704</v>
       </c>
       <c r="N14" s="9">
-        <f>+(L14*J14+L14*$AF$1*K14)/10000</f>
+        <f t="shared" si="12"/>
         <v>2.0348981033757991</v>
       </c>
       <c r="O14" s="9">
         <v>4.6393241200000004</v>
       </c>
       <c r="P14" s="24">
-        <f>+(((1+O14/100)^(H14/365)/(1+$O$7/100)^($H$7/365))^(365/(H14-$H$7))-1)*100</f>
+        <f t="shared" si="13"/>
         <v>4.561117031462425</v>
       </c>
       <c r="Q14" s="24">
-        <f>+(((1+O14/100)^(H14/365)/(1+$O$8/100)^($H$8/365))^(365/(H14-$H$8))-1)*100</f>
+        <f t="shared" si="16"/>
         <v>4.4152592058345652</v>
       </c>
       <c r="R14" s="24">
-        <f>+(((1+O14/100)^(H14/365)/(1+$O$9/100)^($H$9/365))^(365/(H14-$H$9))-1)*100</f>
+        <f t="shared" si="21"/>
         <v>4.261767016018303</v>
       </c>
       <c r="S14" s="24">
-        <f>+(((1+O14/100)^(H14/365)/(1+$O$10/100)^($H$10/365))^(365/(H14-$H$10))-1)*100</f>
+        <f t="shared" si="22"/>
         <v>4.1714963743308742</v>
       </c>
       <c r="T14" s="24">
-        <f>+(((1+O14/100)^(H14/365)/(1+$O$11/100)^($H$11/365))^(365/(H14-$H$11))-1)*100</f>
+        <f t="shared" si="25"/>
         <v>4.1299500729113925</v>
       </c>
       <c r="U14" s="24">
-        <f>+(((1+O14/100)^(H14/365)/(1+$O$12/100)^($H$12/365))^(365/(H14-$H$12))-1)*100</f>
+        <f t="shared" si="27"/>
         <v>4.094014673277302</v>
       </c>
       <c r="V14" s="24">
-        <f>+(((1+O14/100)^(H14/365)/(1+$O$13/100)^($H$13/365))^(365/(H14-$H$13))-1)*100</f>
+        <f t="shared" si="29"/>
         <v>4.0628753224142278</v>
       </c>
       <c r="W14" s="24" t="e">
-        <f>+(((1+O14/100)^(H14/365)/(1+$O$14/100)^($H$14/365))^(365/(H14-$H$14))-1)*100</f>
+        <f t="shared" ref="W14:W20" si="31">+(((1+O14/100)^(H14/365)/(1+$O$14/100)^($H$14/365))^(365/(H14-$H$14))-1)*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="X14" s="24"/>
@@ -24814,15 +25165,15 @@
         <v>-5.2863390824366335E-2</v>
       </c>
       <c r="AD14" s="11">
-        <f>+A11</f>
+        <f t="shared" si="23"/>
         <v>46031</v>
       </c>
       <c r="AE14" s="15">
-        <f>+F11</f>
+        <f t="shared" si="24"/>
         <v>83000</v>
       </c>
       <c r="AF14" s="25">
-        <f>+(1+P11/100)^-((H11-$H$7)/365)</f>
+        <f t="shared" si="26"/>
         <v>0.90891243763956242</v>
       </c>
       <c r="AG14" s="25">
@@ -24838,11 +25189,39 @@
         <v>0.97902426577504031</v>
       </c>
       <c r="AJ14" s="13">
-        <f t="shared" ref="AJ14" si="12">+(1+$AB$3)^-YEARFRAC($AD14,$AD$14)</f>
+        <f t="shared" ref="AJ14" si="32">+(1+$AB$3)^-YEARFRAC($AD14,$AD$14)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:45" x14ac:dyDescent="0.75">
+      <c r="AV14" s="11">
+        <f t="shared" si="4"/>
+        <v>47127</v>
+      </c>
+      <c r="AW14" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX14" s="9">
+        <v>31.685079457674856</v>
+      </c>
+      <c r="AY14">
+        <v>32</v>
+      </c>
+      <c r="AZ14">
+        <f t="shared" si="5"/>
+        <v>9.6</v>
+      </c>
+      <c r="BA14" s="33">
+        <f t="shared" si="6"/>
+        <v>22.085079457674858</v>
+      </c>
+      <c r="BB14" s="33">
+        <v>17.490599051307221</v>
+      </c>
+      <c r="BC14" s="33" t="str">
+        <f t="shared" si="7"/>
+        <v>17.49xQ</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.75">
       <c r="A15" s="1">
         <v>46761</v>
       </c>
@@ -24859,78 +25238,78 @@
         <v>80000</v>
       </c>
       <c r="F15" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>84200</v>
       </c>
       <c r="G15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>1.75</v>
       </c>
       <c r="H15" s="15">
-        <f>+A15-$AB$1</f>
+        <f t="shared" si="9"/>
         <v>1573</v>
       </c>
       <c r="I15" s="9">
-        <f>+YEARFRAC($AB$1,A15,0)</f>
+        <f t="shared" si="10"/>
         <v>4.3055555555555554</v>
       </c>
       <c r="J15" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>0.23886286238316892</v>
       </c>
       <c r="K15" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>4.1192071785739783E-2</v>
       </c>
       <c r="L15" s="9">
-        <f>+F15/(1+O15/100)^I15</f>
+        <f t="shared" si="11"/>
         <v>69459.729306806636</v>
       </c>
       <c r="M15" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>20837.91879204199</v>
       </c>
       <c r="N15" s="9">
-        <f>+(L15*J15+L15*$AF$1*K15)/10000</f>
+        <f t="shared" si="12"/>
         <v>1.7449706809331129</v>
       </c>
       <c r="O15" s="9">
         <v>4.5711533299999996</v>
       </c>
       <c r="P15" s="24">
-        <f>+(((1+O15/100)^(H15/365)/(1+$O$7/100)^($H$7/365))^(365/(H15-$H$7))-1)*100</f>
+        <f t="shared" si="13"/>
         <v>4.4976163343802833</v>
       </c>
       <c r="Q15" s="24">
-        <f>+(((1+O15/100)^(H15/365)/(1+$O$8/100)^($H$8/365))^(365/(H15-$H$8))-1)*100</f>
+        <f t="shared" si="16"/>
         <v>4.3637831314438325</v>
       </c>
       <c r="R15" s="24">
-        <f>+(((1+O15/100)^(H15/365)/(1+$O$9/100)^($H$9/365))^(365/(H15-$H$9))-1)*100</f>
+        <f t="shared" si="21"/>
         <v>4.2274936254728335</v>
       </c>
       <c r="S15" s="24">
-        <f>+(((1+O15/100)^(H15/365)/(1+$O$10/100)^($H$10/365))^(365/(H15-$H$10))-1)*100</f>
+        <f t="shared" si="22"/>
         <v>4.148631894552568</v>
       </c>
       <c r="T15" s="24">
-        <f>+(((1+O15/100)^(H15/365)/(1+$O$11/100)^($H$11/365))^(365/(H15-$H$11))-1)*100</f>
+        <f t="shared" si="25"/>
         <v>4.111802205426307</v>
       </c>
       <c r="U15" s="24">
-        <f>+(((1+O15/100)^(H15/365)/(1+$O$12/100)^($H$12/365))^(365/(H15-$H$12))-1)*100</f>
+        <f t="shared" si="27"/>
         <v>4.0819323999029322</v>
       </c>
       <c r="V15" s="24">
-        <f>+(((1+O15/100)^(H15/365)/(1+$O$13/100)^($H$13/365))^(365/(H15-$H$13))-1)*100</f>
+        <f t="shared" si="29"/>
         <v>4.0604019677131342</v>
       </c>
       <c r="W15" s="24">
-        <f>+(((1+O15/100)^(H15/365)/(1+$O$14/100)^($H$14/365))^(365/(H15-$H$14))-1)*100</f>
+        <f t="shared" si="31"/>
         <v>4.0579689968039068</v>
       </c>
       <c r="X15" s="24" t="e">
-        <f>+(((1+O15/100)^(H15/365)/(1+$O$15/100)^($H$15/365))^(365/(H15-$H$15))-1)*100</f>
+        <f t="shared" ref="X15:X20" si="33">+(((1+O15/100)^(H15/365)/(1+$O$15/100)^($H$15/365))^(365/(H15-$H$15))-1)*100</f>
         <v>#DIV/0!</v>
       </c>
       <c r="Y15" s="24"/>
@@ -24943,27 +25322,27 @@
         <v>30.683474335882977</v>
       </c>
       <c r="AD15" s="11">
-        <f>+A12</f>
+        <f t="shared" si="23"/>
         <v>46212</v>
       </c>
       <c r="AE15" s="15">
-        <f>+F12</f>
+        <f t="shared" si="24"/>
         <v>82700</v>
       </c>
       <c r="AF15" s="25">
-        <f>+(1+P12/100)^-((H12-$H$7)/365)</f>
+        <f t="shared" si="26"/>
         <v>0.89054638184803325</v>
       </c>
       <c r="AG15" s="25">
-        <f>+(1+Q12/100)^-((H12-$H$8)/365)</f>
+        <f t="shared" si="28"/>
         <v>0.91439500673243634</v>
       </c>
       <c r="AH15" s="25">
-        <f>+(1+R12/100)^-((H12-$H$9)/365)</f>
+        <f t="shared" ref="AH15:AH23" si="34">+(1+R12/100)^-((H12-$H$9)/365)</f>
         <v>0.93796696459185058</v>
       </c>
       <c r="AI15" s="25">
-        <f t="shared" ref="AI15:AI23" si="13">+(1+S12/100)^-(($H12-$H$10)/365)</f>
+        <f t="shared" ref="AI15:AI23" si="35">+(1+S12/100)^-(($H12-$H$10)/365)</f>
         <v>0.95924148633241157</v>
       </c>
       <c r="AJ15" s="25">
@@ -24971,11 +25350,39 @@
         <v>0.97979337169240877</v>
       </c>
       <c r="AK15" s="13">
-        <f t="shared" ref="AK15" si="14">+(1+$AB$3)^-YEARFRAC($AD15,$AD$15)</f>
+        <f t="shared" ref="AK15" si="36">+(1+$AB$3)^-YEARFRAC($AD15,$AD$15)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:45" x14ac:dyDescent="0.75">
+      <c r="AV15" s="11">
+        <f t="shared" si="4"/>
+        <v>47308</v>
+      </c>
+      <c r="AW15" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX15" s="9">
+        <v>23.902807293328763</v>
+      </c>
+      <c r="AY15">
+        <v>24</v>
+      </c>
+      <c r="AZ15">
+        <f t="shared" si="5"/>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="BA15" s="33">
+        <f t="shared" si="6"/>
+        <v>16.702807293328764</v>
+      </c>
+      <c r="BB15" s="33">
+        <v>12.950239099208117</v>
+      </c>
+      <c r="BC15" s="33" t="str">
+        <f t="shared" si="7"/>
+        <v>12.95xQ</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.75">
       <c r="A16" s="3">
         <v>46943</v>
       </c>
@@ -24992,78 +25399,78 @@
         <v>80000</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>83500</v>
       </c>
       <c r="G16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>1.7499999999999998</v>
       </c>
       <c r="H16" s="15">
-        <f>+A16-$AB$1</f>
+        <f t="shared" si="9"/>
         <v>1755</v>
       </c>
       <c r="I16" s="9">
-        <f>+YEARFRAC($AB$1,A16,0)</f>
+        <f t="shared" si="10"/>
         <v>4.8055555555555554</v>
       </c>
       <c r="J16" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>0.20372955468611384</v>
       </c>
       <c r="K16" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>3.5133307697055097E-2</v>
       </c>
       <c r="L16" s="9">
-        <f>+F16/(1+O16/100)^I16</f>
+        <f t="shared" si="11"/>
         <v>67508.312373478329</v>
       </c>
       <c r="M16" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>20252.493712043499</v>
       </c>
       <c r="N16" s="9">
-        <f>+(L16*J16+L16*$AF$1*K16)/10000</f>
+        <f t="shared" si="12"/>
         <v>1.4464975510677707</v>
       </c>
       <c r="O16" s="9">
         <v>4.5232771300000003</v>
       </c>
       <c r="P16" s="24">
-        <f>+(((1+O16/100)^(H16/365)/(1+$O$7/100)^($H$7/365))^(365/(H16-$H$7))-1)*100</f>
+        <f t="shared" si="13"/>
         <v>4.4546526525185648</v>
       </c>
       <c r="Q16" s="24">
-        <f>+(((1+O16/100)^(H16/365)/(1+$O$8/100)^($H$8/365))^(365/(H16-$H$8))-1)*100</f>
+        <f t="shared" si="16"/>
         <v>4.3321853274355338</v>
       </c>
       <c r="R16" s="24">
-        <f>+(((1+O16/100)^(H16/365)/(1+$O$9/100)^($H$9/365))^(365/(H16-$H$9))-1)*100</f>
+        <f t="shared" si="21"/>
         <v>4.2107975476220361</v>
       </c>
       <c r="S16" s="24">
-        <f>+(((1+O16/100)^(H16/365)/(1+$O$10/100)^($H$10/365))^(365/(H16-$H$10))-1)*100</f>
+        <f t="shared" si="22"/>
         <v>4.1422825788048456</v>
       </c>
       <c r="T16" s="24">
-        <f>+(((1+O16/100)^(H16/365)/(1+$O$11/100)^($H$11/365))^(365/(H16-$H$11))-1)*100</f>
+        <f t="shared" si="25"/>
         <v>4.1115228382808899</v>
       </c>
       <c r="U16" s="24">
-        <f>+(((1+O16/100)^(H16/365)/(1+$O$12/100)^($H$12/365))^(365/(H16-$H$12))-1)*100</f>
+        <f t="shared" si="27"/>
         <v>4.0890199388937898</v>
       </c>
       <c r="V16" s="24">
-        <f>+(((1+O16/100)^(H16/365)/(1+$O$13/100)^($H$13/365))^(365/(H16-$H$13))-1)*100</f>
+        <f t="shared" si="29"/>
         <v>4.0770356118608575</v>
       </c>
       <c r="W16" s="24">
-        <f>+(((1+O16/100)^(H16/365)/(1+$O$14/100)^($H$14/365))^(365/(H16-$H$14))-1)*100</f>
+        <f t="shared" si="31"/>
         <v>4.0840390900061418</v>
       </c>
       <c r="X16" s="24">
-        <f>+(((1+O16/100)^(H16/365)/(1+$O$15/100)^($H$15/365))^(365/(H16-$H$15))-1)*100</f>
+        <f t="shared" si="33"/>
         <v>4.1104023072640494</v>
       </c>
       <c r="Y16" s="24" t="e">
@@ -25079,31 +25486,31 @@
         <v>3.4743358829771864E-3</v>
       </c>
       <c r="AD16" s="11">
-        <f>+A13</f>
+        <f t="shared" si="23"/>
         <v>46396</v>
       </c>
       <c r="AE16" s="15">
-        <f>+F13</f>
+        <f t="shared" si="24"/>
         <v>82400</v>
       </c>
       <c r="AF16" s="25">
-        <f>+(1+P13/100)^-((H13-$H$7)/365)</f>
+        <f t="shared" si="26"/>
         <v>0.87258474661011476</v>
       </c>
       <c r="AG16" s="25">
-        <f>+(1+Q13/100)^-((H13-$H$8)/365)</f>
+        <f t="shared" si="28"/>
         <v>0.89595236308234438</v>
       </c>
       <c r="AH16" s="25">
-        <f>+(1+R13/100)^-((H13-$H$9)/365)</f>
+        <f t="shared" si="34"/>
         <v>0.9190488926905811</v>
       </c>
       <c r="AI16" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="35"/>
         <v>0.93989432369858295</v>
       </c>
       <c r="AJ16" s="25">
-        <f t="shared" ref="AJ16:AJ23" si="15">+(1+T13/100)^-(($H13-$H$11)/365)</f>
+        <f t="shared" ref="AJ16:AJ23" si="37">+(1+T13/100)^-(($H13-$H$11)/365)</f>
         <v>0.96003169334574157</v>
       </c>
       <c r="AK16" s="25">
@@ -25111,11 +25518,39 @@
         <v>0.97983076950956227</v>
       </c>
       <c r="AL16" s="13">
-        <f t="shared" ref="AL16" si="16">+(1+$AB$3)^-YEARFRAC($AD16,$AD$16)</f>
+        <f t="shared" ref="AL16" si="38">+(1+$AB$3)^-YEARFRAC($AD16,$AD$16)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:45" x14ac:dyDescent="0.75">
+      <c r="AV16" s="11">
+        <f t="shared" si="4"/>
+        <v>47492</v>
+      </c>
+      <c r="AW16" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX16" s="9">
+        <v>16.038339555722729</v>
+      </c>
+      <c r="AY16">
+        <v>16</v>
+      </c>
+      <c r="AZ16">
+        <f t="shared" si="5"/>
+        <v>4.8</v>
+      </c>
+      <c r="BA16" s="33">
+        <f t="shared" si="6"/>
+        <v>11.238339555722728</v>
+      </c>
+      <c r="BB16" s="33">
+        <v>8.527265491440799</v>
+      </c>
+      <c r="BC16" s="33" t="str">
+        <f t="shared" si="7"/>
+        <v>8.53xQ</v>
+      </c>
+    </row>
+    <row r="17" spans="1:55" x14ac:dyDescent="0.75">
       <c r="A17" s="1">
         <v>47127</v>
       </c>
@@ -25132,78 +25567,78 @@
         <v>80000</v>
       </c>
       <c r="F17" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>82800</v>
       </c>
       <c r="G17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>1.7500000000000002</v>
       </c>
       <c r="H17" s="15">
-        <f>+A17-$AB$1</f>
+        <f t="shared" si="9"/>
         <v>1939</v>
       </c>
       <c r="I17" s="9">
-        <f>+YEARFRAC($AB$1,A17,0)</f>
+        <f t="shared" si="10"/>
         <v>5.3055555555555554</v>
       </c>
       <c r="J17" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>0.17376385361246044</v>
       </c>
       <c r="K17" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>2.9965701073653404E-2</v>
       </c>
       <c r="L17" s="9">
-        <f>+F17/(1+O17/100)^I17</f>
+        <f t="shared" si="11"/>
         <v>65574.661129188811</v>
       </c>
       <c r="M17" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>19672.398338756644</v>
       </c>
       <c r="N17" s="9">
-        <f>+(L17*J17+L17*$AF$1*K17)/10000</f>
+        <f t="shared" si="12"/>
         <v>1.1984003025160082</v>
       </c>
       <c r="O17" s="9">
         <v>4.4941832899999996</v>
       </c>
       <c r="P17" s="24">
-        <f>+(((1+O17/100)^(H17/365)/(1+$O$7/100)^($H$7/365))^(365/(H17-$H$7))-1)*100</f>
+        <f t="shared" si="13"/>
         <v>4.4307030134264735</v>
       </c>
       <c r="Q17" s="24">
-        <f>+(((1+O17/100)^(H17/365)/(1+$O$8/100)^($H$8/365))^(365/(H17-$H$8))-1)*100</f>
+        <f t="shared" si="16"/>
         <v>4.3193053155156313</v>
       </c>
       <c r="R17" s="24">
-        <f>+(((1+O17/100)^(H17/365)/(1+$O$9/100)^($H$9/365))^(365/(H17-$H$9))-1)*100</f>
+        <f t="shared" si="21"/>
         <v>4.2115902120785975</v>
       </c>
       <c r="S17" s="24">
-        <f>+(((1+O17/100)^(H17/365)/(1+$O$10/100)^($H$10/365))^(365/(H17-$H$10))-1)*100</f>
+        <f t="shared" si="22"/>
         <v>4.1530330758927203</v>
       </c>
       <c r="T17" s="24">
-        <f>+(((1+O17/100)^(H17/365)/(1+$O$11/100)^($H$11/365))^(365/(H17-$H$11))-1)*100</f>
+        <f t="shared" si="25"/>
         <v>4.1292385955917554</v>
       </c>
       <c r="U17" s="24">
-        <f>+(((1+O17/100)^(H17/365)/(1+$O$12/100)^($H$12/365))^(365/(H17-$H$12))-1)*100</f>
+        <f t="shared" si="27"/>
         <v>4.1147615999095999</v>
       </c>
       <c r="V17" s="24">
-        <f>+(((1+O17/100)^(H17/365)/(1+$O$13/100)^($H$13/365))^(365/(H17-$H$13))-1)*100</f>
+        <f t="shared" si="29"/>
         <v>4.1122713775396003</v>
       </c>
       <c r="W17" s="24">
-        <f>+(((1+O17/100)^(H17/365)/(1+$O$14/100)^($H$14/365))^(365/(H17-$H$14))-1)*100</f>
+        <f t="shared" si="31"/>
         <v>4.1285322974609517</v>
       </c>
       <c r="X17" s="24">
-        <f>+(((1+O17/100)^(H17/365)/(1+$O$15/100)^($H$15/365))^(365/(H17-$H$15))-1)*100</f>
+        <f t="shared" si="33"/>
         <v>4.1640248163483884</v>
       </c>
       <c r="Y17" s="24">
@@ -25215,35 +25650,35 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AD17" s="11">
-        <f>+A14</f>
+        <f t="shared" si="23"/>
         <v>46577</v>
       </c>
       <c r="AE17" s="15">
-        <f>+F14</f>
+        <f t="shared" si="24"/>
         <v>82100</v>
       </c>
       <c r="AF17" s="25">
-        <f>+(1+P14/100)^-((H14-$H$7)/365)</f>
+        <f t="shared" si="26"/>
         <v>0.85552121766387323</v>
       </c>
       <c r="AG17" s="25">
-        <f>+(1+Q14/100)^-((H14-$H$8)/365)</f>
+        <f t="shared" si="28"/>
         <v>0.87843187680143997</v>
       </c>
       <c r="AH17" s="25">
-        <f>+(1+R14/100)^-((H14-$H$9)/365)</f>
+        <f t="shared" si="34"/>
         <v>0.90107675022033928</v>
       </c>
       <c r="AI17" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="35"/>
         <v>0.92151454561840929</v>
       </c>
       <c r="AJ17" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="37"/>
         <v>0.941258125904465</v>
       </c>
       <c r="AK17" s="25">
-        <f t="shared" ref="AK17:AK23" si="17">+(1+U14/100)^-(($H14-$H$12)/365)</f>
+        <f t="shared" ref="AK17:AK23" si="39">+(1+U14/100)^-(($H14-$H$12)/365)</f>
         <v>0.96067002808828827</v>
       </c>
       <c r="AL17" s="25">
@@ -25251,11 +25686,39 @@
         <v>0.98044484617393202</v>
       </c>
       <c r="AM17" s="13">
-        <f t="shared" ref="AM17" si="18">+(1+$AB$3)^-YEARFRAC($AD17,$AD$17)</f>
+        <f t="shared" ref="AM17" si="40">+(1+$AB$3)^-YEARFRAC($AD17,$AD$17)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:45" x14ac:dyDescent="0.75">
+      <c r="AV17" s="11">
+        <f t="shared" si="4"/>
+        <v>47673</v>
+      </c>
+      <c r="AW17" t="s">
+        <v>68</v>
+      </c>
+      <c r="AX17" s="9">
+        <v>8.07</v>
+      </c>
+      <c r="AY17">
+        <v>8</v>
+      </c>
+      <c r="AZ17">
+        <f t="shared" si="5"/>
+        <v>2.4</v>
+      </c>
+      <c r="BA17" s="33">
+        <f t="shared" si="6"/>
+        <v>5.67</v>
+      </c>
+      <c r="BB17" s="33">
+        <v>4.2099291321546071</v>
+      </c>
+      <c r="BC17" s="33" t="str">
+        <f t="shared" si="7"/>
+        <v>4.21xQ</v>
+      </c>
+    </row>
+    <row r="18" spans="1:55" x14ac:dyDescent="0.75">
       <c r="A18" s="3">
         <v>47308</v>
       </c>
@@ -25272,78 +25735,78 @@
         <v>80000</v>
       </c>
       <c r="F18" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>82100</v>
       </c>
       <c r="G18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>1.75</v>
       </c>
       <c r="H18" s="15">
-        <f>+A18-$AB$1</f>
+        <f t="shared" si="9"/>
         <v>2120</v>
       </c>
       <c r="I18" s="9">
-        <f>+YEARFRAC($AB$1,A18,0)</f>
+        <f t="shared" si="10"/>
         <v>5.8055555555555554</v>
       </c>
       <c r="J18" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>0.14820567820300934</v>
       </c>
       <c r="K18" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>2.5558175409451104E-2</v>
       </c>
       <c r="L18" s="9">
-        <f>+F18/(1+O18/100)^I18</f>
+        <f t="shared" si="11"/>
         <v>63654.846240706065</v>
       </c>
       <c r="M18" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>19096.45387221182</v>
       </c>
       <c r="N18" s="9">
-        <f>+(L18*J18+L18*$AF$1*K18)/10000</f>
+        <f t="shared" si="12"/>
         <v>0.99220801757766042</v>
       </c>
       <c r="O18" s="9">
         <v>4.4805632800000001</v>
       </c>
       <c r="P18" s="24">
-        <f>+(((1+O18/100)^(H18/365)/(1+$O$7/100)^($H$7/365))^(365/(H18-$H$7))-1)*100</f>
+        <f t="shared" si="13"/>
         <v>4.4220518172592094</v>
       </c>
       <c r="Q18" s="24">
-        <f>+(((1+O18/100)^(H18/365)/(1+$O$8/100)^($H$8/365))^(365/(H18-$H$8))-1)*100</f>
+        <f t="shared" si="16"/>
         <v>4.3208378761914856</v>
       </c>
       <c r="R18" s="24">
-        <f>+(((1+O18/100)^(H18/365)/(1+$O$9/100)^($H$9/365))^(365/(H18-$H$9))-1)*100</f>
+        <f t="shared" si="21"/>
         <v>4.2251610776168125</v>
       </c>
       <c r="S18" s="24">
-        <f>+(((1+O18/100)^(H18/365)/(1+$O$10/100)^($H$10/365))^(365/(H18-$H$10))-1)*100</f>
+        <f t="shared" si="22"/>
         <v>4.1755305452836566</v>
       </c>
       <c r="T18" s="24">
-        <f>+(((1+O18/100)^(H18/365)/(1+$O$11/100)^($H$11/365))^(365/(H18-$H$11))-1)*100</f>
+        <f t="shared" si="25"/>
         <v>4.1583452893522832</v>
       </c>
       <c r="U18" s="24">
-        <f>+(((1+O18/100)^(H18/365)/(1+$O$12/100)^($H$12/365))^(365/(H18-$H$12))-1)*100</f>
+        <f t="shared" si="27"/>
         <v>4.1510626725093092</v>
       </c>
       <c r="V18" s="24">
-        <f>+(((1+O18/100)^(H18/365)/(1+$O$13/100)^($H$13/365))^(365/(H18-$H$13))-1)*100</f>
+        <f t="shared" si="29"/>
         <v>4.1563912656517266</v>
       </c>
       <c r="W18" s="24">
-        <f>+(((1+O18/100)^(H18/365)/(1+$O$14/100)^($H$14/365))^(365/(H18-$H$14))-1)*100</f>
+        <f t="shared" si="31"/>
         <v>4.1795593534426079</v>
       </c>
       <c r="X18" s="24">
-        <f>+(((1+O18/100)^(H18/365)/(1+$O$15/100)^($H$15/365))^(365/(H18-$H$15))-1)*100</f>
+        <f t="shared" si="33"/>
         <v>4.2204918744895847</v>
       </c>
       <c r="Y18" s="24">
@@ -25359,39 +25822,39 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AD18" s="11">
-        <f>+A15</f>
+        <f t="shared" si="23"/>
         <v>46761</v>
       </c>
       <c r="AE18" s="15">
-        <f>+F15</f>
+        <f t="shared" si="24"/>
         <v>84200</v>
       </c>
       <c r="AF18" s="25">
-        <f>+(1+P15/100)^-((H15-$H$7)/365)</f>
+        <f t="shared" si="26"/>
         <v>0.83853678258983899</v>
       </c>
       <c r="AG18" s="25">
-        <f>+(1+Q15/100)^-((H15-$H$8)/365)</f>
+        <f t="shared" si="28"/>
         <v>0.86099260250823562</v>
       </c>
       <c r="AH18" s="25">
-        <f>+(1+R15/100)^-((H15-$H$9)/365)</f>
+        <f t="shared" si="34"/>
         <v>0.88318791328111057</v>
       </c>
       <c r="AI18" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="35"/>
         <v>0.90321996256578418</v>
       </c>
       <c r="AJ18" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="37"/>
         <v>0.92257157880632723</v>
       </c>
       <c r="AK18" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="39"/>
         <v>0.94159810166173952</v>
       </c>
       <c r="AL18" s="25">
-        <f t="shared" ref="AL18:AL23" si="19">+(1+V15/100)^-(($H15-$H$13)/365)</f>
+        <f t="shared" ref="AL18:AL23" si="41">+(1+V15/100)^-(($H15-$H$13)/365)</f>
         <v>0.96098033554614792</v>
       </c>
       <c r="AM18" s="25">
@@ -25399,11 +25862,17 @@
         <v>0.9801472661070717</v>
       </c>
       <c r="AN18" s="13">
-        <f t="shared" ref="AN18" si="20">+(1+$AB$3)^-YEARFRAC($AD18,$AD$18)</f>
+        <f t="shared" ref="AN18" si="42">+(1+$AB$3)^-YEARFRAC($AD18,$AD$18)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:45" x14ac:dyDescent="0.75">
+      <c r="AV18" s="11"/>
+      <c r="BB18" s="33"/>
+      <c r="BC18" s="33" t="str">
+        <f>+ROUND(SUM(BB4:BB17),2)&amp;"x"&amp;AW17</f>
+        <v>470.2xQ</v>
+      </c>
+    </row>
+    <row r="19" spans="1:55" x14ac:dyDescent="0.75">
       <c r="A19" s="1">
         <v>47492</v>
       </c>
@@ -25420,78 +25889,78 @@
         <v>80000</v>
       </c>
       <c r="F19" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>81400</v>
       </c>
       <c r="G19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>1.7500000000000002</v>
       </c>
       <c r="H19" s="15">
-        <f>+A19-$AB$1</f>
+        <f t="shared" si="9"/>
         <v>2304</v>
       </c>
       <c r="I19" s="9">
-        <f>+YEARFRAC($AB$1,A19,0)</f>
+        <f t="shared" si="10"/>
         <v>6.3055555555555554</v>
       </c>
       <c r="J19" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>0.1264067445269807</v>
       </c>
       <c r="K19" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>2.1798933676028653E-2</v>
       </c>
       <c r="L19" s="9">
-        <f>+F19/(1+O19/100)^I19</f>
+        <f t="shared" si="11"/>
         <v>61763.520096687695</v>
       </c>
       <c r="M19" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>18529.056029006308</v>
       </c>
       <c r="N19" s="9">
-        <f>+(L19*J19+L19*$AF$1*K19)/10000</f>
+        <f t="shared" si="12"/>
         <v>0.82112391694047671</v>
       </c>
       <c r="O19" s="9">
         <v>4.4753337399999999</v>
       </c>
       <c r="P19" s="24">
-        <f>+(((1+O19/100)^(H19/365)/(1+$O$7/100)^($H$7/365))^(365/(H19-$H$7))-1)*100</f>
+        <f t="shared" si="13"/>
         <v>4.421468187522426</v>
       </c>
       <c r="Q19" s="24">
-        <f>+(((1+O19/100)^(H19/365)/(1+$O$8/100)^($H$8/365))^(365/(H19-$H$8))-1)*100</f>
+        <f t="shared" si="16"/>
         <v>4.3294632360785901</v>
       </c>
       <c r="R19" s="24">
-        <f>+(((1+O19/100)^(H19/365)/(1+$O$9/100)^($H$9/365))^(365/(H19-$H$9))-1)*100</f>
+        <f t="shared" si="21"/>
         <v>4.244284854036473</v>
       </c>
       <c r="S19" s="24">
-        <f>+(((1+O19/100)^(H19/365)/(1+$O$10/100)^($H$10/365))^(365/(H19-$H$10))-1)*100</f>
+        <f t="shared" si="22"/>
         <v>4.2022999591223131</v>
       </c>
       <c r="T19" s="24">
-        <f>+(((1+O19/100)^(H19/365)/(1+$O$11/100)^($H$11/365))^(365/(H19-$H$11))-1)*100</f>
+        <f t="shared" si="25"/>
         <v>4.1906463898020885</v>
       </c>
       <c r="U19" s="24">
-        <f>+(((1+O19/100)^(H19/365)/(1+$O$12/100)^($H$12/365))^(365/(H19-$H$12))-1)*100</f>
+        <f t="shared" si="27"/>
         <v>4.1889767962836943</v>
       </c>
       <c r="V19" s="24">
-        <f>+(((1+O19/100)^(H19/365)/(1+$O$13/100)^($H$13/365))^(365/(H19-$H$13))-1)*100</f>
+        <f t="shared" si="29"/>
         <v>4.1997791719838418</v>
       </c>
       <c r="W19" s="24">
-        <f>+(((1+O19/100)^(H19/365)/(1+$O$14/100)^($H$14/365))^(365/(H19-$H$14))-1)*100</f>
+        <f t="shared" si="31"/>
         <v>4.2268820289466325</v>
       </c>
       <c r="X19" s="24">
-        <f>+(((1+O19/100)^(H19/365)/(1+$O$15/100)^($H$15/365))^(365/(H19-$H$15))-1)*100</f>
+        <f t="shared" si="33"/>
         <v>4.2694423026506056</v>
       </c>
       <c r="Y19" s="24">
@@ -25511,43 +25980,43 @@
         <v>#DIV/0!</v>
       </c>
       <c r="AD19" s="11">
-        <f>+A16</f>
+        <f t="shared" si="23"/>
         <v>46943</v>
       </c>
       <c r="AE19" s="15">
-        <f>+F16</f>
+        <f t="shared" si="24"/>
         <v>83500</v>
       </c>
       <c r="AF19" s="25">
-        <f>+(1+P16/100)^-((H16-$H$7)/365)</f>
+        <f t="shared" si="26"/>
         <v>0.82186222579540658</v>
       </c>
       <c r="AG19" s="25">
-        <f>+(1+Q16/100)^-((H16-$H$8)/365)</f>
+        <f t="shared" si="28"/>
         <v>0.84387150496285634</v>
       </c>
       <c r="AH19" s="25">
-        <f>+(1+R16/100)^-((H16-$H$9)/365)</f>
+        <f t="shared" si="34"/>
         <v>0.86562545528770207</v>
       </c>
       <c r="AI19" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="35"/>
         <v>0.88525916123140225</v>
       </c>
       <c r="AJ19" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="37"/>
         <v>0.90422596474724837</v>
       </c>
       <c r="AK19" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="39"/>
         <v>0.92287413945796359</v>
       </c>
       <c r="AL19" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>0.94187095177659363</v>
       </c>
       <c r="AM19" s="25">
-        <f t="shared" ref="AM19:AM23" si="21">+(1+W16/100)^-(($H16-$H$14)/365)</f>
+        <f t="shared" ref="AM19:AM23" si="43">+(1+W16/100)^-(($H16-$H$14)/365)</f>
         <v>0.96065674214325425</v>
       </c>
       <c r="AN19" s="25">
@@ -25559,7 +26028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:45" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:55" x14ac:dyDescent="0.75">
       <c r="A20" s="3">
         <v>47673</v>
       </c>
@@ -25576,78 +26045,78 @@
         <v>80000</v>
       </c>
       <c r="F20" s="5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="18"/>
         <v>80700</v>
       </c>
       <c r="G20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="14"/>
         <v>1.7500000000000002</v>
       </c>
       <c r="H20" s="15">
-        <f>+A20-$AB$1</f>
+        <f t="shared" si="9"/>
         <v>2485</v>
       </c>
       <c r="I20" s="9">
-        <f>+YEARFRAC($AB$1,A20,0)</f>
+        <f t="shared" si="10"/>
         <v>6.8055555555555554</v>
       </c>
       <c r="J20" s="21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
         <v>0.10781412193952576</v>
       </c>
       <c r="K20" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="20"/>
         <v>1.8592622587454942E-2</v>
       </c>
       <c r="L20" s="9">
-        <f>+F20/(1+O20/100)^I20</f>
+        <f t="shared" si="11"/>
         <v>59919.097171935944</v>
       </c>
       <c r="M20" s="9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
         <v>17975.729151580781</v>
       </c>
       <c r="N20" s="9">
-        <f>+(L20*J20+L20*$AF$1*K20)/10000</f>
+        <f t="shared" si="12"/>
         <v>0.67943407968510483</v>
       </c>
       <c r="O20" s="9">
         <v>4.472118</v>
       </c>
       <c r="P20" s="24">
-        <f>+(((1+O20/100)^(H20/365)/(1+$O$7/100)^($H$7/365))^(365/(H20-$H$7))-1)*100</f>
+        <f t="shared" si="13"/>
         <v>4.4222098818722744</v>
       </c>
       <c r="Q20" s="24">
-        <f>+(((1+O20/100)^(H20/365)/(1+$O$8/100)^($H$8/365))^(365/(H20-$H$8))-1)*100</f>
+        <f t="shared" si="16"/>
         <v>4.3378634105531111</v>
       </c>
       <c r="R20" s="24">
-        <f>+(((1+O20/100)^(H20/365)/(1+$O$9/100)^($H$9/365))^(365/(H20-$H$9))-1)*100</f>
+        <f t="shared" si="21"/>
         <v>4.2611272744993434</v>
       </c>
       <c r="S20" s="24">
-        <f>+(((1+O20/100)^(H20/365)/(1+$O$10/100)^($H$10/365))^(365/(H20-$H$10))-1)*100</f>
+        <f t="shared" si="22"/>
         <v>4.2249662409467037</v>
       </c>
       <c r="T20" s="24">
-        <f>+(((1+O20/100)^(H20/365)/(1+$O$11/100)^($H$11/365))^(365/(H20-$H$11))-1)*100</f>
+        <f t="shared" si="25"/>
         <v>4.2171349449303008</v>
       </c>
       <c r="U20" s="24">
-        <f>+(((1+O20/100)^(H20/365)/(1+$O$12/100)^($H$12/365))^(365/(H20-$H$12))-1)*100</f>
+        <f t="shared" si="27"/>
         <v>4.21895385041966</v>
       </c>
       <c r="V20" s="24">
-        <f>+(((1+O20/100)^(H20/365)/(1+$O$13/100)^($H$13/365))^(365/(H20-$H$13))-1)*100</f>
+        <f t="shared" si="29"/>
         <v>4.2325481337213811</v>
       </c>
       <c r="W20" s="24">
-        <f>+(((1+O20/100)^(H20/365)/(1+$O$14/100)^($H$14/365))^(365/(H20-$H$14))-1)*100</f>
+        <f t="shared" si="31"/>
         <v>4.2605955215344382</v>
       </c>
       <c r="X20" s="24">
-        <f>+(((1+O20/100)^(H20/365)/(1+$O$15/100)^($H$15/365))^(365/(H20-$H$15))-1)*100</f>
+        <f t="shared" si="33"/>
         <v>4.3015241196660892</v>
       </c>
       <c r="Y20" s="24">
@@ -25667,47 +26136,47 @@
         <v>4.4311925874847446</v>
       </c>
       <c r="AD20" s="11">
-        <f>+A17</f>
+        <f t="shared" si="23"/>
         <v>47127</v>
       </c>
       <c r="AE20" s="15">
-        <f>+F17</f>
+        <f t="shared" si="24"/>
         <v>82800</v>
       </c>
       <c r="AF20" s="25">
-        <f>+(1+P17/100)^-((H17-$H$7)/365)</f>
+        <f t="shared" si="26"/>
         <v>0.80492575504020869</v>
       </c>
       <c r="AG20" s="25">
-        <f>+(1+Q17/100)^-((H17-$H$8)/365)</f>
+        <f t="shared" si="28"/>
         <v>0.82648147946178596</v>
       </c>
       <c r="AH20" s="25">
-        <f>+(1+R17/100)^-((H17-$H$9)/365)</f>
+        <f t="shared" si="34"/>
         <v>0.84778713671277706</v>
       </c>
       <c r="AI20" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="35"/>
         <v>0.86701624237665587</v>
       </c>
       <c r="AJ20" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="37"/>
         <v>0.88559218875978141</v>
       </c>
       <c r="AK20" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="39"/>
         <v>0.90385607245953037</v>
       </c>
       <c r="AL20" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>0.92246140924104703</v>
       </c>
       <c r="AM20" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="43"/>
         <v>0.94086007269133154</v>
       </c>
       <c r="AN20" s="25">
-        <f t="shared" ref="AN20:AN23" si="22">+(1+X17/100)^-(($H17-$H$15)/365)</f>
+        <f t="shared" ref="AN20:AN23" si="44">+(1+X17/100)^-(($H17-$H$15)/365)</f>
         <v>0.95991705045326481</v>
       </c>
       <c r="AO20" s="25">
@@ -25719,53 +26188,53 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:45" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:55" x14ac:dyDescent="0.75">
       <c r="AD21" s="11">
-        <f>+A18</f>
+        <f t="shared" si="23"/>
         <v>47308</v>
       </c>
       <c r="AE21" s="15">
-        <f>+F18</f>
+        <f t="shared" si="24"/>
         <v>82100</v>
       </c>
       <c r="AF21" s="25">
-        <f>+(1+P18/100)^-((H18-$H$7)/365)</f>
+        <f t="shared" si="26"/>
         <v>0.78816479683970209</v>
       </c>
       <c r="AG21" s="25">
-        <f>+(1+Q18/100)^-((H18-$H$8)/365)</f>
+        <f t="shared" si="28"/>
         <v>0.80927166670078199</v>
       </c>
       <c r="AH21" s="25">
-        <f>+(1+R18/100)^-((H18-$H$9)/365)</f>
+        <f t="shared" si="34"/>
         <v>0.83013367653661463</v>
       </c>
       <c r="AI21" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="35"/>
         <v>0.84896237479117997</v>
       </c>
       <c r="AJ21" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="37"/>
         <v>0.86715151449193395</v>
       </c>
       <c r="AK21" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="39"/>
         <v>0.88503508958638166</v>
       </c>
       <c r="AL21" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>0.90325300768965511</v>
       </c>
       <c r="AM21" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="43"/>
         <v>0.92126855601770063</v>
       </c>
       <c r="AN21" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="44"/>
         <v>0.93992871058731409</v>
       </c>
       <c r="AO21" s="25">
-        <f t="shared" ref="AO21:AO23" si="23">+(1+Y18/100)^-(($H18-$H$16)/365)</f>
+        <f t="shared" ref="AO21:AO23" si="45">+(1+Y18/100)^-(($H18-$H$16)/365)</f>
         <v>0.95899868871197724</v>
       </c>
       <c r="AP21" s="25">
@@ -25777,57 +26246,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:45" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:55" x14ac:dyDescent="0.75">
       <c r="AD22" s="11">
-        <f>+A19</f>
+        <f t="shared" si="23"/>
         <v>47492</v>
       </c>
       <c r="AE22" s="15">
-        <f>+F19</f>
+        <f t="shared" si="24"/>
         <v>81400</v>
       </c>
       <c r="AF22" s="25">
-        <f>+(1+P19/100)^-((H19-$H$7)/365)</f>
+        <f t="shared" si="26"/>
         <v>0.77118446265703189</v>
       </c>
       <c r="AG22" s="25">
-        <f>+(1+Q19/100)^-((H19-$H$8)/365)</f>
+        <f t="shared" si="28"/>
         <v>0.79183660311985882</v>
       </c>
       <c r="AH22" s="25">
-        <f>+(1+R19/100)^-((H19-$H$9)/365)</f>
+        <f t="shared" si="34"/>
         <v>0.81224915885655535</v>
       </c>
       <c r="AI22" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="35"/>
         <v>0.83067220896511229</v>
       </c>
       <c r="AJ22" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="37"/>
         <v>0.848469479260061</v>
       </c>
       <c r="AK22" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="39"/>
         <v>0.86596776807592579</v>
       </c>
       <c r="AL22" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>0.8837931967674082</v>
       </c>
       <c r="AM22" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="43"/>
         <v>0.90142061556680597</v>
       </c>
       <c r="AN22" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="44"/>
         <v>0.91967875311946679</v>
       </c>
       <c r="AO22" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="45"/>
         <v>0.93833788493037518</v>
       </c>
       <c r="AP22" s="25">
-        <f t="shared" ref="AP22:AP23" si="24">+(1+Z19/100)^-(($H19-$H$17)/365)</f>
+        <f t="shared" ref="AP22:AP23" si="46">+(1+Z19/100)^-(($H19-$H$17)/365)</f>
         <v>0.95808148494206036</v>
       </c>
       <c r="AQ22" s="25">
@@ -25839,57 +26308,57 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:55" x14ac:dyDescent="0.75">
       <c r="AD23" s="11">
-        <f>+A20</f>
+        <f t="shared" si="23"/>
         <v>47673</v>
       </c>
       <c r="AE23" s="15">
-        <f>+F20</f>
+        <f t="shared" si="24"/>
         <v>80700</v>
       </c>
       <c r="AF23" s="25">
-        <f>+(1+P20/100)^-((H20-$H$7)/365)</f>
+        <f t="shared" si="26"/>
         <v>0.75478026594334802</v>
       </c>
       <c r="AG23" s="25">
-        <f>+(1+Q20/100)^-((H20-$H$8)/365)</f>
+        <f t="shared" si="28"/>
         <v>0.77499310583527892</v>
       </c>
       <c r="AH23" s="25">
-        <f>+(1+R20/100)^-((H20-$H$9)/365)</f>
+        <f t="shared" si="34"/>
         <v>0.79497145731093499</v>
       </c>
       <c r="AI23" s="25">
-        <f t="shared" si="13"/>
+        <f t="shared" si="35"/>
         <v>0.81300262278918456</v>
       </c>
       <c r="AJ23" s="25">
-        <f t="shared" si="15"/>
+        <f t="shared" si="37"/>
         <v>0.83042131968565103</v>
       </c>
       <c r="AK23" s="25">
-        <f t="shared" si="17"/>
+        <f t="shared" si="39"/>
         <v>0.84754739486679154</v>
       </c>
       <c r="AL23" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="41"/>
         <v>0.86499365119041638</v>
       </c>
       <c r="AM23" s="25">
-        <f t="shared" si="21"/>
+        <f t="shared" si="43"/>
         <v>0.88224610957561767</v>
       </c>
       <c r="AN23" s="25">
-        <f t="shared" si="22"/>
+        <f t="shared" si="44"/>
         <v>0.90011587042394581</v>
       </c>
       <c r="AO23" s="25">
-        <f t="shared" si="23"/>
+        <f t="shared" si="45"/>
         <v>0.91837809580901908</v>
       </c>
       <c r="AP23" s="25">
-        <f t="shared" si="24"/>
+        <f t="shared" si="46"/>
         <v>0.93770172120488793</v>
       </c>
       <c r="AQ23" s="25">
@@ -25905,7 +26374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:55" x14ac:dyDescent="0.75">
       <c r="AF25">
         <v>1</v>
       </c>
@@ -25914,55 +26383,55 @@
         <v>2</v>
       </c>
       <c r="AH25">
-        <f t="shared" ref="AH25:AS25" si="25">+AG25+1</f>
+        <f t="shared" ref="AH25:AS25" si="47">+AG25+1</f>
         <v>3</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="47"/>
         <v>4</v>
       </c>
       <c r="AJ25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="47"/>
         <v>5</v>
       </c>
       <c r="AK25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="47"/>
         <v>6</v>
       </c>
       <c r="AL25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="47"/>
         <v>7</v>
       </c>
       <c r="AM25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="47"/>
         <v>8</v>
       </c>
       <c r="AN25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="47"/>
         <v>9</v>
       </c>
       <c r="AO25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="47"/>
         <v>10</v>
       </c>
       <c r="AP25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="47"/>
         <v>11</v>
       </c>
       <c r="AQ25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="47"/>
         <v>12</v>
       </c>
       <c r="AR25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="47"/>
         <v>13</v>
       </c>
       <c r="AS25">
-        <f t="shared" si="25"/>
+        <f t="shared" si="47"/>
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:55" x14ac:dyDescent="0.75">
       <c r="AD26" t="s">
         <v>47</v>
       </c>
@@ -25979,51 +26448,51 @@
         <v>1.2047708408019973E-2</v>
       </c>
       <c r="AI26" s="25">
-        <f t="shared" ref="AI26:AS26" si="26">+(1-$AF$26)^(AI$25-$AF$25)*$AF$26</f>
+        <f t="shared" ref="AI26:AS26" si="48">+(1-$AF$26)^(AI$25-$AF$25)*$AF$26</f>
         <v>1.4071024355323232E-3</v>
       </c>
       <c r="AJ26" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="48"/>
         <v>1.6434139979375521E-4</v>
       </c>
       <c r="AK26" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="48"/>
         <v>1.9194121909080059E-5</v>
       </c>
       <c r="AL26" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="48"/>
         <v>2.2417620655719067E-6</v>
       </c>
       <c r="AM26" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="48"/>
         <v>2.6182480149091043E-7</v>
       </c>
       <c r="AN26" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="48"/>
         <v>3.0579617582326238E-8</v>
       </c>
       <c r="AO26" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="48"/>
         <v>3.571521896155355E-9</v>
       </c>
       <c r="AP26" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="48"/>
         <v>4.1713303380515302E-10</v>
       </c>
       <c r="AQ26" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="48"/>
         <v>4.8718717944525873E-11</v>
       </c>
       <c r="AR26" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="48"/>
         <v>5.6900635667875648E-12</v>
       </c>
       <c r="AS26" s="25">
-        <f t="shared" si="26"/>
+        <f t="shared" si="48"/>
         <v>6.6456640815034316E-13</v>
       </c>
     </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:55" x14ac:dyDescent="0.75">
       <c r="AD27" t="s">
         <v>49</v>
       </c>
@@ -26032,59 +26501,59 @@
         <v>57.895642066639411</v>
       </c>
       <c r="AG27" s="28">
-        <f t="shared" ref="AG27:AS27" si="27">+AG6*AG7</f>
+        <f t="shared" ref="AG27:AS27" si="49">+AG6*AG7</f>
         <v>58.292129641485822</v>
       </c>
       <c r="AH27" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="49"/>
         <v>55.955996977327132</v>
       </c>
       <c r="AI27" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="49"/>
         <v>50.924903541556695</v>
       </c>
       <c r="AJ27" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="49"/>
         <v>45.978729920931002</v>
       </c>
       <c r="AK27" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="49"/>
         <v>41.085127452632882</v>
       </c>
       <c r="AL27" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="49"/>
         <v>36.289442216600293</v>
       </c>
       <c r="AM27" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="49"/>
         <v>31.55219616269083</v>
       </c>
       <c r="AN27" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="49"/>
         <v>26.908637880475386</v>
       </c>
       <c r="AO27" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="49"/>
         <v>22.137981720102793</v>
       </c>
       <c r="AP27" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="49"/>
         <v>17.490599051307221</v>
       </c>
       <c r="AQ27" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="49"/>
         <v>12.950239099208117</v>
       </c>
       <c r="AR27" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="49"/>
         <v>8.527265491440799</v>
       </c>
       <c r="AS27" s="28">
-        <f t="shared" si="27"/>
+        <f t="shared" si="49"/>
         <v>4.2099291321546071</v>
       </c>
     </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:55" x14ac:dyDescent="0.75">
       <c r="AD28" t="s">
         <v>50</v>
       </c>
@@ -26093,59 +26562,59 @@
         <v>51.133767011259927</v>
       </c>
       <c r="AG28" s="29">
-        <f t="shared" ref="AG28:AS28" si="28">+AG27*AG26</f>
+        <f t="shared" ref="AG28:AS28" si="50">+AG27*AG26</f>
         <v>6.0130262914095347</v>
       </c>
       <c r="AH28" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="50"/>
         <v>0.67414153526288423</v>
       </c>
       <c r="AI28" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="50"/>
         <v>7.165655580257306E-2</v>
       </c>
       <c r="AJ28" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="50"/>
         <v>7.5562088359448169E-3</v>
       </c>
       <c r="AK28" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="50"/>
         <v>7.8859294497592744E-4</v>
       </c>
       <c r="AL28" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="50"/>
         <v>8.1352294941938226E-5</v>
       </c>
       <c r="AM28" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="50"/>
         <v>8.2611474968987933E-6</v>
       </c>
       <c r="AN28" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="50"/>
         <v>8.2285585604623492E-7</v>
       </c>
       <c r="AO28" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="50"/>
         <v>7.9066286450034117E-8</v>
       </c>
       <c r="AP28" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="50"/>
         <v>7.2959066453413126E-9</v>
       </c>
       <c r="AQ28" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="50"/>
         <v>6.3091904598849108E-10</v>
       </c>
       <c r="AR28" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="50"/>
         <v>4.8520682697172148E-11</v>
       </c>
       <c r="AS28" s="29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="50"/>
         <v>2.7977774819234787E-12</v>
       </c>
     </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:55" x14ac:dyDescent="0.75">
       <c r="AD29" t="s">
         <v>24</v>
       </c>
@@ -26154,7 +26623,7 @@
         <v>57.901026718858581</v>
       </c>
     </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:55" x14ac:dyDescent="0.75">
       <c r="AD30" t="s">
         <v>21</v>
       </c>
@@ -26173,9 +26642,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1964DC9F-440D-4507-9807-7E23CFD75A02}">
   <dimension ref="A1:S48"/>
   <sheetViews>
-    <sheetView topLeftCell="D8" workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
@@ -27768,7 +28235,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -63700,7 +64167,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A745" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A762" sqref="A762"/>
+      <selection pane="bottomLeft" activeCell="H753" sqref="H753"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -90664,7 +91131,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D18"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
